--- a/ACQ.Excel/Demo.xlsx
+++ b/ACQ.Excel/Demo.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="5378" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="5378"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Interpolation" sheetId="2" r:id="rId2"/>
+    <sheet name="Interpolation" sheetId="2" r:id="rId1"/>
+    <sheet name="Utils" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -83,12 +83,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>Interpolator</t>
@@ -104,9 +101,6 @@
   </si>
   <si>
     <t>Quadratic</t>
-  </si>
-  <si>
-    <t>Hermit</t>
   </si>
   <si>
     <t>Nearest</t>
@@ -127,19 +121,38 @@
     <t>CubicPeriodic</t>
   </si>
   <si>
-    <t>CubicRef</t>
+    <t>Hermite</t>
+  </si>
+  <si>
+    <t>Steffen</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Converted</t>
+  </si>
+  <si>
+    <t>Original Data</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>yp</t>
+  </si>
+  <si>
+    <t>Date Conversion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="167" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +203,16 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +227,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -329,13 +355,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -350,10 +377,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,20 +406,67 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.b39183e1a8224ca7a531e4181066ea48">
+    <main first="rtdsrv.fbb512fa90f644bb8efa31757873cf2d">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>512ecef1-6bd0-4de0-a541-5cbd40cbecd6</stp>
+        <stp>6dcd35fd-2855-4207-8e14-b86e50eea85e</stp>
         <tr r="F5" s="2"/>
+        <tr r="P2" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv.025dd428b0104b2885ea8a15795efa1c">
+    <main first="rtdsrv.fbb512fa90f644bb8efa31757873cf2d">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>2ea98bd5-b387-448a-9e1e-014b1e8519a6</stp>
-        <tr r="B1" s="1"/>
+        <stp>2f2c91fd-f456-4203-9dbd-3a88695d7f8d</stp>
+        <tr r="M2" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>29499613-1deb-42c1-bc5e-ebbe03a0c4dd</stp>
+        <tr r="L2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fbb512fa90f644bb8efa31757873cf2d">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>333c0acd-3afc-4c41-9baf-df21113d2cb5</stp>
+        <tr r="N2" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>22b2ccec-7ed7-4aaf-a06e-ec5b54b05df4</stp>
+        <tr r="O2" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>b9de6674-db27-44f1-bbf7-c97203ee53bf</stp>
+        <tr r="R2" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>905849b0-9492-41fb-8bba-25707c626fde</stp>
+        <tr r="S2" s="2"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>f7b76c47-6ae9-474b-8db9-7763597e9b55</stp>
+        <tr r="K2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.fbb512fa90f644bb8efa31757873cf2d">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>ffa1928e-5dd2-439a-a50c-599b3752374a</stp>
+        <tr r="Q2" s="2"/>
       </tp>
     </main>
   </volType>
@@ -881,361 +959,361 @@
                   <c:v>-3.7022941226003868E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.1606475233577039E-4</c:v>
+                  <c:v>-6.9274844080230707E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.8006707742696959E-4</c:v>
+                  <c:v>-8.2382281378444791E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.8040337254909973E-4</c:v>
+                  <c:v>-8.4550024073222875E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.1352406227176303E-3</c:v>
+                  <c:v>-8.3982843117142011E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4627458129480226E-3</c:v>
+                  <c:v>-8.8885509462779044E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.8810859282557453E-3</c:v>
+                  <c:v>-1.0746279406271095E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.4084279536562688E-3</c:v>
+                  <c:v>-1.4791946786951501E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.0629388741650505E-3</c:v>
+                  <c:v>-2.184603018357675E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.8627856747975682E-3</c:v>
+                  <c:v>-3.2729006691404653E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-4.8261353405692729E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.9803371079887625E-3</c:v>
+                  <c:v>-6.4955246308333551E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-7.3894692195371325E-3</c:v>
+                  <c:v>-8.0022140253444736E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-9.1267921691885676E-3</c:v>
+                  <c:v>-9.5331430644621257E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.1265566450917312E-2</c:v>
+                  <c:v>-1.127525128854585E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.3879052558697525E-2</c:v>
+                  <c:v>-1.3415478237955136E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.7040510986504141E-2</c:v>
+                  <c:v>-1.6140763453050135E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.0823202228310099E-2</c:v>
+                  <c:v>-1.9638046474189291E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-2.5300386778090229E-2</c:v>
+                  <c:v>-2.4094266841732659E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.0545325129818661E-2</c:v>
+                  <c:v>-2.9696364096039658E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.6631277777469662E-2</c:v>
+                  <c:v>-3.6631277777469891E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-4.362974015265618E-2</c:v>
+                  <c:v>-4.4749297106866592E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-5.1605147437546198E-2</c:v>
+                  <c:v>-5.3773386202103354E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-6.0620169751946396E-2</c:v>
+                  <c:v>-6.3699496949084805E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-7.0737477215663591E-2</c:v>
+                  <c:v>-7.4523581233715705E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.2019739948504505E-2</c:v>
+                  <c:v>-8.6241590941900675E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9.4529628070275845E-2</c:v>
+                  <c:v>-9.8849477959544407E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.10832981170078437</c:v>
+                  <c:v>-0.11234319417255149</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.12348296095983671</c:v>
+                  <c:v>-0.1267186914668266</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.14005174596723982</c:v>
+                  <c:v>-0.1419719217282745</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.15809883684280024</c:v>
+                  <c:v>-0.15809883684279979</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.17762111915279166</c:v>
+                  <c:v>-0.17634738738534045</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.19835234024935533</c:v>
+                  <c:v>-0.19741507727510799</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.21996046293109928</c:v>
+                  <c:v>-0.22047218841441926</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.24211344999663187</c:v>
+                  <c:v>-0.24468900270559132</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.26447926424456131</c:v>
+                  <c:v>-0.26923580205094105</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.28672586847349563</c:v>
+                  <c:v>-0.29328286835278522</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.30852122548204303</c:v>
+                  <c:v>-0.31600048351344084</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.32953329806881171</c:v>
+                  <c:v>-0.33655892943522453</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.34943004903240993</c:v>
+                  <c:v>-0.35412848802045355</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.36787944117144589</c:v>
+                  <c:v>-0.36787944117144467</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.38453911723315864</c:v>
+                  <c:v>-0.37950519823197815</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.3990254397593116</c:v>
+                  <c:v>-0.39080699056841661</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.41094445124029888</c:v>
+                  <c:v>-0.40111683311695351</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.41990219416651509</c:v>
+                  <c:v>-0.40976674081378189</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.42550471102835441</c:v>
+                  <c:v>-0.41608872859509516</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.42735804431621111</c:v>
+                  <c:v>-0.41941481139708653</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.42506823652047954</c:v>
+                  <c:v>-0.41907700415594934</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.41824133013155401</c:v>
+                  <c:v>-0.41440732180787676</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.40648336763982895</c:v>
+                  <c:v>-0.40473777928906224</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.3894003915356985</c:v>
+                  <c:v>-0.38940039153569878</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.36675942007985823</c:v>
+                  <c:v>-0.36710266672907549</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.33897137461420834</c:v>
+                  <c:v>-0.33781927911015308</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.3066081522509429</c:v>
+                  <c:v>-0.30278299270462394</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.27024165010227608</c:v>
+                  <c:v>-0.26322657153820217</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.23044376528040292</c:v>
+                  <c:v>-0.22038277963658126</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.18778639489752452</c:v>
+                  <c:v>-0.17548438102546096</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.14284143606584207</c:v>
+                  <c:v>-0.12976413973054129</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-9.6180785897556589E-2</c:v>
+                  <c:v>-8.4454819777522103E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-4.8376341504869247E-2</c:v>
+                  <c:v>-4.0789185192103346E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.937316614740927E-14</c:v>
+                  <c:v>1.5563566097314008E-14</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.8376341504907328E-2</c:v>
+                  <c:v>4.0789185192136902E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>9.6180785897594351E-2</c:v>
+                  <c:v>8.4454819777557782E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.14284143606587876</c:v>
+                  <c:v>0.12976413973057782</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.18778639489755966</c:v>
+                  <c:v>0.17548438102549738</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.23044376528043597</c:v>
+                  <c:v>0.22038277963661648</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.27024165010230655</c:v>
+                  <c:v>0.26322657153823531</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.30660815225097043</c:v>
+                  <c:v>0.30278299270465397</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.33897137461422644</c:v>
+                  <c:v>0.33781927911017251</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.36675942007987344</c:v>
+                  <c:v>0.36710266672909109</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.38940039153571043</c:v>
+                  <c:v>0.38940039153570977</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.4064833676398375</c:v>
+                  <c:v>0.40473777928906962</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.41824133013155956</c:v>
+                  <c:v>0.41440732180788104</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.42506823652048226</c:v>
+                  <c:v>0.41907700415595073</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.42735804431621116</c:v>
+                  <c:v>0.41941481139708559</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.42550471102835213</c:v>
+                  <c:v>0.41608872859509216</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.4199021941665107</c:v>
+                  <c:v>0.40976674081377729</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.41094445124029266</c:v>
+                  <c:v>0.40111683311694768</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.39902543975930355</c:v>
+                  <c:v>0.39080699056841012</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.38453911723314921</c:v>
+                  <c:v>0.37950519823197115</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.36787944117143528</c:v>
+                  <c:v>0.36787944117143773</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.34943004903239844</c:v>
+                  <c:v>0.35412848802044411</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.32953329806879944</c:v>
+                  <c:v>0.33655892943521309</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.3085212254820302</c:v>
+                  <c:v>0.31600048351342774</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.28672586847348236</c:v>
+                  <c:v>0.29328286835277112</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.26447926424454787</c:v>
+                  <c:v>0.2692358020509264</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.24211344999661852</c:v>
+                  <c:v>0.24468900270557667</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.21996046293108612</c:v>
+                  <c:v>0.22047218841440502</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.19835234024934259</c:v>
+                  <c:v>0.19741507727509466</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.17762111915277554</c:v>
+                  <c:v>0.1763473873853246</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.15809883684278522</c:v>
+                  <c:v>0.15809883684278656</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.14005174596722941</c:v>
+                  <c:v>0.14197192172826509</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.12348296095982407</c:v>
+                  <c:v>0.12671869146681475</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.10832981170077276</c:v>
+                  <c:v>0.11234319417254027</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9.452962807026534E-2</c:v>
+                  <c:v>9.8849477959533957E-2</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.2019739948495013E-2</c:v>
+                  <c:v>8.6241590941890961E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7.073747721565507E-2</c:v>
+                  <c:v>7.4523581233706684E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.0620169751938763E-2</c:v>
+                  <c:v>6.369949694907652E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.1605147437539384E-2</c:v>
+                  <c:v>5.3773386202095735E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.3629740152650212E-2</c:v>
+                  <c:v>4.474929710685973E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3.6631277777464409E-2</c:v>
+                  <c:v>3.6631277777463729E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3.0545325129814137E-2</c:v>
+                  <c:v>2.9696364096034669E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2.530038677808635E-2</c:v>
+                  <c:v>2.4094266841728659E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.0823202228306806E-2</c:v>
+                  <c:v>1.9638046474186138E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.7040510986501375E-2</c:v>
+                  <c:v>1.6140763453047675E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.3879052558695785E-2</c:v>
+                  <c:v>1.3415478237953679E-2</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.1265566450915879E-2</c:v>
+                  <c:v>1.1275251288544695E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>9.1267921691874226E-3</c:v>
+                  <c:v>9.5331430644611699E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>7.3894692195361888E-3</c:v>
+                  <c:v>8.0022140253435785E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5.9803371079880062E-3</c:v>
+                  <c:v>6.4955246308324296E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>4.826135340568638E-3</c:v>
+                  <c:v>4.8261353405681783E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.8627856747970382E-3</c:v>
+                  <c:v>3.2327975157848471E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.0629388741646203E-3</c:v>
+                  <c:v>2.0420140286511791E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.4084279536559145E-3</c:v>
+                  <c:v>1.1984726052112525E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.8810859282554666E-3</c:v>
+                  <c:v>6.4686097150916996E-4</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.4627458129478001E-3</c:v>
+                  <c:v>3.3186685358900644E-4</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.1352406227174566E-3</c:v>
+                  <c:v>1.9817797749485276E-4</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>8.8040337254896648E-4</c:v>
+                  <c:v>1.9048206927079359E-4</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>6.8006707742686203E-4</c:v>
+                  <c:v>2.5346685496091439E-4</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5.1606475233568019E-4</c:v>
+                  <c:v>3.3182006060930038E-4</c:v>
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>3.7022941226003868E-4</c:v>
@@ -1548,20 +1626,2002 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Interpolation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolation!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quadratic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Interpolation!$H$4:$H$132</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="129"/>
+                <c:pt idx="0">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.1499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.0499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.8999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.8499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.74999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.6499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.5999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.5499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.3999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.24999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.1499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.0499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.99999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.94999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.89999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.84999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.74999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.69999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.64999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.59999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.54999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.49999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.44999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.39999999999998997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.34999999999997999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.24999999999997999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.19999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.14999999999998001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-9.9999999999980105E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.9999999999980303E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9984014443252799E-14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0000000000019799E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.15000000000002001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.25000000000001998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.30000000000001997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.35000000000002002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.40000000000002001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.45000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.50000000000001998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.55000000000002003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.60000000000001996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.65000000000002001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.70000000000002005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.75000000000001998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.80000000000002003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.85000000000001996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.90000000000002001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.95000000000002005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.00000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.05000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.1000000000000201</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.25000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.30000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3500000000000201</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4500000000000299</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.50000000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.55000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.6000000000000301</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.6500000000000301</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7000000000000299</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.75000000000003</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.80000000000003</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.8500000000000301</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.9000000000000301</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.9500000000000299</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.0000000000000302</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.05000000000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.1000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.1500000000000301</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.2000000000000299</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.2500000000000302</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.30000000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.3500000000000298</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.4000000000000301</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.4500000000000299</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.5000000000000302</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.55000000000003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.6000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.6500000000000301</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.7000000000000299</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.7500000000000302</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.80000000000003</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.8500000000000298</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.9000000000000301</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.9500000000000299</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.0000000000000302</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.05000000000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.1000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.1500000000000301</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.2000000000000299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Interpolation!$M$4:$M$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="129"/>
+                <c:pt idx="0">
+                  <c:v>-3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.1582000509096051E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2614105979218862E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.707001190752808E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1525917835837341E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.5981823764146556E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.0437729692455776E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.4893635620765031E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.9349541549074246E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.3805447477383505E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.8261353405692729E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.5452182984860919E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.8112859865747163E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.624338404835126E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.0984375553267351E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.3891397431871353E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.7345404040647907E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.1346395379595606E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.5894371448715141E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.0989332248006429E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.6631277777469544E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.3169847473217074E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-5.0954680771361407E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5.9985777671902475E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.0263138174840367E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.1786762280175049E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.4556649987906513E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.10857280129803476</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.12383521621055973</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.14034389472548156</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.15809883684280018</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.17673690941275183</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.19589497928557303</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.21557304646126374</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.23577111093982409</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.25648917272125404</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.27772723180555353</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.29948528819272258</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.32176334188276112</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.34456139287566928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.36787944117144705</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.38931489292757998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.40646515430155561</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.41933022529337399</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.42791010590303508</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.43220479613053886</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.43221429597588534</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.42793860543907453</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.41937772452010658</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.40653165321898121</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.38940039153569855</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.36815991643341645</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.34298620487529224</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.3138792568613199</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.28083907239151101</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.24386565146586023</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.20295899408436741</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.1581191002470328</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.10934596995385602</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-5.6639603204837533E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.3423751511542659E-14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.6639603204880741E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.10934596995389652</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.1581191002470701</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.20295899408440174</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.24386565146589137</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.28083907239153905</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.31387925686134482</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.34298620487530851</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.36815991643343032</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.38940039153571016</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.40653165321899021</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.4193777245201129</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.42793860543907847</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.43221429597588662</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.43220479613053758</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.42791010590303119</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.41933022529336761</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.40646515430154651</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.38931489292756849</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.3678794411714329</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.34456139287565546</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.32176334188274758</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.29948528819270936</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.2777272318055406</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.25648917272124144</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.23577111093981182</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.2155730464612518</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.1958949792855614</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.1767369094127367</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.1580988368427855</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.14034389472547129</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.12383521621054702</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.10857280129802299</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.4556649987895786E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.1786762280165307E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.0263138174831624E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.9985777671894738E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.0954680771354628E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.3169847473211342E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.6631277777464784E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.0989332248002148E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.5894371448711307E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.1346395379592216E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.7345404040644961E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.3891397431869465E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.0984375553265794E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8.6243384048339117E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.811285986573809E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.5452182984855125E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.826135340569004E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.3805447477380695E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.9349541549071384E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.4893635620762056E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.0437729692452797E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.5981823764143525E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.1525917835834322E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.7070011907525146E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.2614105979215956E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.1582000509068317E-4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.7022941226003868E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-45DF-4231-A698-20E5B6119A0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolation!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original Data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Interpolation!$B$4:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Interpolation!$C$4:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.8261353405692729E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.6631277777468357E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.15809883684279649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.36787944117144233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.38940039153570244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38940039153570244</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36787944117144233</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15809883684279649</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6631277777468357E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8261353405692729E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7022941226003868E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-45DF-4231-A698-20E5B6119A0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolation!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Interpolation!$H$4:$H$132</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="129"/>
+                <c:pt idx="0">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.65</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.1499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.0999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.0499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.8999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.8499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.7999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.74999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.6499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.5999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.5499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.49999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.3999999999999899</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.24999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.1499999999999899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.0999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.0499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.99999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.94999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.89999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.84999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.79999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.74999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.69999999999998996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.64999999999999003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.59999999999998999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.54999999999999005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.49999999999999001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.44999999999999002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.39999999999998997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.34999999999997999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.24999999999997999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.19999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.14999999999998001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-9.9999999999980105E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-4.9999999999980303E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9984014443252799E-14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0000000000019799E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.15000000000002001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.25000000000001998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.30000000000001997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.35000000000002002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.40000000000002001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.45000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.50000000000001998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.55000000000002003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.60000000000001996</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.65000000000002001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.70000000000002005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.75000000000001998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.80000000000002003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.85000000000001996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.90000000000002001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.95000000000002005</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.00000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.05000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.1000000000000201</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1500000000000199</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.2000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.25000000000002</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.30000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3500000000000201</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.4000000000000199</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.4500000000000299</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.50000000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.55000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.6000000000000301</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.6500000000000301</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7000000000000299</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.75000000000003</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.80000000000003</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.8500000000000301</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.9000000000000301</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.9500000000000299</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.0000000000000302</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.05000000000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.1000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.1500000000000301</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.2000000000000299</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.2500000000000302</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.30000000000003</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.3500000000000298</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.4000000000000301</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.4500000000000299</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.5000000000000302</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.55000000000003</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.6000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.6500000000000301</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2.7000000000000299</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.7500000000000302</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.80000000000003</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2.8500000000000298</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.9000000000000301</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.9500000000000299</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.0000000000000302</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.05000000000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.1000000000000298</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.1500000000000301</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.2000000000000299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Interpolation!$L$4:$L$132</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="129"/>
+                <c:pt idx="0">
+                  <c:v>-3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.1582000509096051E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2614105979218864E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7070011907528084E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1525917835837341E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.5981823764146561E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.043772969245578E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.4893635620765039E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.9349541549074255E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.3805447477383514E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.8261353405692729E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.0066495842591699E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.1187163827949095E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.4367678071638992E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.7548192315328916E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.0728706559018813E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.3909220802709359E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.7089735046399256E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.0270249290089181E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.3450763533779078E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.6631277777470786E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.8778033684003609E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.0924789590536432E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-7.3071545497069207E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-8.5218301403602037E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9.7365057310134853E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.10951181321666767</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.1216585691232005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.13380532502973327</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.1459520809362661</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.15809883684280068</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.17907689727566528</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.20005495770852988</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.22103301814139439</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.24201107857425902</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.26298913900712362</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.28396719943998822</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.30494525987285281</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.32592332030571736</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.3469013807385819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.36787944117144278</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.37003153620786877</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.37218363124429477</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.37433572628072082</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.37648782131714681</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.3786399163535728</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.38079201138999885</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.38294410642642485</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.38509620146285084</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.38724829649927683</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.38940039153569467</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.35046035238212442</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.31152031322855411</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.27258027407497609</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.2336402349214059</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.19470019576783565</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.15576015661426537</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.11682011746069521</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-7.7880078307125011E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-3.8940039153554873E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5563566097315545E-14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.8940039153585661E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.788007830715607E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.11682011746072632</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.15576015661429654</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.19470019576786679</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.23364023492143701</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.27258027407500729</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.31152031322857754</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.35046035238214779</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.38940039153570161</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.38724829649927556</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.38509620146284956</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.38294410642642357</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.38079201138999752</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.37863991635357153</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.37648782131714553</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.37433572628071948</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.37218363124429349</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.3700315362078675</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.36787944117143395</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.34690138073856935</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.32592332030570476</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.30494525987284027</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.28396719943997561</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.26298913900711102</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.24201107857424642</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.22103301814138182</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.20005495770851731</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.17907689727564852</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.15809883684278922</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.1459520809362588</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.13380532502972356</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.12165856912319073</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.10951181321665797</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.7365057310125153E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.5218301403592323E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.3071545497059492E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.0924789590526676E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.8778033683993902E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.6631277777466435E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.3450763533776538E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.0270249290086641E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.7089735046396717E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.390922080270682E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.0728706559016895E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.7548192315326998E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.4367678071637101E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.1187163827947176E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8.0066495842572791E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.826135340569004E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.3805447477380816E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.9349541549071601E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.4893635620762342E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.0437729692453126E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.5981823764143863E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2.1525917835834647E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.7070011907525428E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.2614105979216169E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.1582000509069531E-4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.7022941226003868E-4</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.7022941226003868E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-45DF-4231-A698-20E5B6119A0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="760794640"/>
+        <c:axId val="760553984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="760794640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="760553984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="760553984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="760794640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>864391</xdr:colOff>
+      <xdr:colOff>250028</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
+      <xdr:rowOff>61914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>100011</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123827</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1575,6 +3635,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>154784</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1879,51 +3971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B1" t="str">
-        <f>_xll.acq_vector_create(B2:B4)</f>
-        <v>#Vector:1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>_xll.acq_vector_get_element(B1,B2)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M132"/>
+  <dimension ref="B1:S132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1935,32 +3987,125 @@
     <col min="12" max="13" width="11.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="K2" t="str">
+        <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,K$1,$F$4)</f>
+        <v>#Interpolator:12</v>
+      </c>
+      <c r="L2" t="str">
+        <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,L$1,$F$4)</f>
+        <v>#Interpolator:14</v>
+      </c>
+      <c r="M2" t="str">
+        <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,M$1,$F$4)</f>
+        <v>#Interpolator:17</v>
+      </c>
+      <c r="N2" t="str">
+        <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,N$1,$F$4)</f>
+        <v>#Interpolator:11</v>
+      </c>
+      <c r="O2" t="str">
+        <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,O$1,$F$4)</f>
+        <v>#Interpolator:13</v>
+      </c>
+      <c r="P2" t="str">
+        <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,P$1,$F$4)</f>
+        <v>#Interpolator:15</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,Q$1,$F$4)</f>
+        <v>#Interpolator:9</v>
+      </c>
+      <c r="R2" t="str">
+        <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,R$1,$F$4)</f>
+        <v>#Interpolator:16</v>
+      </c>
+      <c r="S2" t="str">
+        <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,S$1,$F$4)</f>
+        <v>#Interpolator:10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>-3</v>
       </c>
@@ -1969,7 +4114,7 @@
         <v>-3.7022941226003868E-4</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="5" t="b">
         <v>1</v>
@@ -1981,9 +4126,44 @@
         <f>_xll.acq_interpolator_eval($F$5,H4)</f>
         <v>-3.7022941226003868E-4</v>
       </c>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K4">
+        <f>_xll.acq_interpolator_eval(K$2,$H4)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="L4">
+        <f>_xll.acq_interpolator_eval(L$2,$H4)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="M4">
+        <f>_xll.acq_interpolator_eval(M$2,$H4)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="N4">
+        <f>_xll.acq_interpolator_eval(N$2,$H4)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="O4">
+        <f>_xll.acq_interpolator_eval(O$2,$H4)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="P4">
+        <f>_xll.acq_interpolator_eval(P$2,$H4)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="Q4">
+        <f>_xll.acq_interpolator_eval(Q$2,$H4)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="R4">
+        <f>_xll.acq_interpolator_eval(R$2,$H4)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="S4">
+        <f>_xll.acq_interpolator_eval(S$2,$H4)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="2">
         <v>-2.5</v>
       </c>
@@ -1992,11 +4172,11 @@
         <v>-4.8261353405692729E-3</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6" t="str">
         <f>_xll.acq_interpolator_create(B4:B16,C4:C16,F3,F4)</f>
-        <v>#Interpolator:11</v>
+        <v>#Interpolator:15</v>
       </c>
       <c r="H5" s="12">
         <v>-3.15</v>
@@ -2005,9 +4185,44 @@
         <f>_xll.acq_interpolator_eval($F$5,H5)</f>
         <v>-3.7022941226003868E-4</v>
       </c>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K5">
+        <f>_xll.acq_interpolator_eval(K$2,$H5)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="L5">
+        <f>_xll.acq_interpolator_eval(L$2,$H5)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="M5">
+        <f>_xll.acq_interpolator_eval(M$2,$H5)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="N5">
+        <f>_xll.acq_interpolator_eval(N$2,$H5)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="O5">
+        <f>_xll.acq_interpolator_eval(O$2,$H5)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="P5">
+        <f>_xll.acq_interpolator_eval(P$2,$H5)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="Q5">
+        <f>_xll.acq_interpolator_eval(Q$2,$H5)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="R5">
+        <f>_xll.acq_interpolator_eval(R$2,$H5)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="S5">
+        <f>_xll.acq_interpolator_eval(S$2,$H5)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B6" s="2">
         <v>-2</v>
       </c>
@@ -2022,9 +4237,44 @@
         <f>_xll.acq_interpolator_eval($F$5,H6)</f>
         <v>-3.7022941226003868E-4</v>
       </c>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K6">
+        <f>_xll.acq_interpolator_eval(K$2,$H6)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="L6">
+        <f>_xll.acq_interpolator_eval(L$2,$H6)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="M6">
+        <f>_xll.acq_interpolator_eval(M$2,$H6)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="N6">
+        <f>_xll.acq_interpolator_eval(N$2,$H6)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="O6">
+        <f>_xll.acq_interpolator_eval(O$2,$H6)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="P6">
+        <f>_xll.acq_interpolator_eval(P$2,$H6)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="Q6">
+        <f>_xll.acq_interpolator_eval(Q$2,$H6)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="R6">
+        <f>_xll.acq_interpolator_eval(R$2,$H6)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="S6">
+        <f>_xll.acq_interpolator_eval(S$2,$H6)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B7" s="2">
         <v>-1.5</v>
       </c>
@@ -2039,9 +4289,44 @@
         <f>_xll.acq_interpolator_eval($F$5,H7)</f>
         <v>-3.7022941226003868E-4</v>
       </c>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K7">
+        <f>_xll.acq_interpolator_eval(K$2,$H7)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="L7">
+        <f>_xll.acq_interpolator_eval(L$2,$H7)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="M7">
+        <f>_xll.acq_interpolator_eval(M$2,$H7)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="N7">
+        <f>_xll.acq_interpolator_eval(N$2,$H7)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="O7">
+        <f>_xll.acq_interpolator_eval(O$2,$H7)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="P7">
+        <f>_xll.acq_interpolator_eval(P$2,$H7)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="Q7">
+        <f>_xll.acq_interpolator_eval(Q$2,$H7)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="R7">
+        <f>_xll.acq_interpolator_eval(R$2,$H7)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="S7">
+        <f>_xll.acq_interpolator_eval(S$2,$H7)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>-1</v>
       </c>
@@ -2056,9 +4341,44 @@
         <f>_xll.acq_interpolator_eval($F$5,H8)</f>
         <v>-3.7022941226003868E-4</v>
       </c>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="K8">
+        <f>_xll.acq_interpolator_eval(K$2,$H8)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="L8">
+        <f>_xll.acq_interpolator_eval(L$2,$H8)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="M8">
+        <f>_xll.acq_interpolator_eval(M$2,$H8)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="N8">
+        <f>_xll.acq_interpolator_eval(N$2,$H8)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="O8">
+        <f>_xll.acq_interpolator_eval(O$2,$H8)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="P8">
+        <f>_xll.acq_interpolator_eval(P$2,$H8)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="Q8">
+        <f>_xll.acq_interpolator_eval(Q$2,$H8)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="R8">
+        <f>_xll.acq_interpolator_eval(R$2,$H8)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="S8">
+        <f>_xll.acq_interpolator_eval(S$2,$H8)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <v>-0.5</v>
       </c>
@@ -2071,11 +4391,46 @@
       </c>
       <c r="I9">
         <f>_xll.acq_interpolator_eval($F$5,H9)</f>
+        <v>-6.9274844080230707E-4</v>
+      </c>
+      <c r="K9">
+        <f>_xll.acq_interpolator_eval(K$2,$H9)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="L9">
+        <f>_xll.acq_interpolator_eval(L$2,$H9)</f>
+        <v>-8.1582000509096051E-4</v>
+      </c>
+      <c r="M9">
+        <f>_xll.acq_interpolator_eval(M$2,$H9)</f>
+        <v>-8.1582000509096051E-4</v>
+      </c>
+      <c r="N9">
+        <f>_xll.acq_interpolator_eval(N$2,$H9)</f>
         <v>-5.1606475233577039E-4</v>
       </c>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="2:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="O9">
+        <f>_xll.acq_interpolator_eval(O$2,$H9)</f>
+        <v>-5.1606475233577039E-4</v>
+      </c>
+      <c r="P9">
+        <f>_xll.acq_interpolator_eval(P$2,$H9)</f>
+        <v>-6.9274844080230707E-4</v>
+      </c>
+      <c r="Q9">
+        <f>_xll.acq_interpolator_eval(Q$2,$H9)</f>
+        <v>3.4935532324101905E-4</v>
+      </c>
+      <c r="R9">
+        <f>_xll.acq_interpolator_eval(R$2,$H9)</f>
+        <v>-8.1582000509096051E-4</v>
+      </c>
+      <c r="S9">
+        <f>_xll.acq_interpolator_eval(S$2,$H9)</f>
+        <v>-7.7571685173617765E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -2084,18 +4439,53 @@
         <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="12">
         <v>-2.9</v>
       </c>
       <c r="I10">
         <f>_xll.acq_interpolator_eval($F$5,H10)</f>
+        <v>-8.2382281378444791E-4</v>
+      </c>
+      <c r="K10">
+        <f>_xll.acq_interpolator_eval(K$2,$H10)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="L10">
+        <f>_xll.acq_interpolator_eval(L$2,$H10)</f>
+        <v>-1.2614105979218864E-3</v>
+      </c>
+      <c r="M10">
+        <f>_xll.acq_interpolator_eval(M$2,$H10)</f>
+        <v>-1.2614105979218862E-3</v>
+      </c>
+      <c r="N10">
+        <f>_xll.acq_interpolator_eval(N$2,$H10)</f>
         <v>-6.8006707742696959E-4</v>
       </c>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="O10">
+        <f>_xll.acq_interpolator_eval(O$2,$H10)</f>
+        <v>-6.8006707742696959E-4</v>
+      </c>
+      <c r="P10">
+        <f>_xll.acq_interpolator_eval(P$2,$H10)</f>
+        <v>-8.2382281378444791E-4</v>
+      </c>
+      <c r="Q10">
+        <f>_xll.acq_interpolator_eval(Q$2,$H10)</f>
+        <v>6.9349609323797793E-4</v>
+      </c>
+      <c r="R10">
+        <f>_xll.acq_interpolator_eval(R$2,$H10)</f>
+        <v>-1.2614105979218864E-3</v>
+      </c>
+      <c r="S10">
+        <f>_xll.acq_interpolator_eval(S$2,$H10)</f>
+        <v>-1.1188216082159903E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
         <v>0.5</v>
       </c>
@@ -2104,18 +4494,53 @@
         <v>0.38940039153570244</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11" s="12">
         <v>-2.85</v>
       </c>
       <c r="I11">
         <f>_xll.acq_interpolator_eval($F$5,H11)</f>
+        <v>-8.4550024073222875E-4</v>
+      </c>
+      <c r="K11">
+        <f>_xll.acq_interpolator_eval(K$2,$H11)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="L11">
+        <f>_xll.acq_interpolator_eval(L$2,$H11)</f>
+        <v>-1.7070011907528084E-3</v>
+      </c>
+      <c r="M11">
+        <f>_xll.acq_interpolator_eval(M$2,$H11)</f>
+        <v>-1.707001190752808E-3</v>
+      </c>
+      <c r="N11">
+        <f>_xll.acq_interpolator_eval(N$2,$H11)</f>
         <v>-8.8040337254909973E-4</v>
       </c>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="O11">
+        <f>_xll.acq_interpolator_eval(O$2,$H11)</f>
+        <v>-8.8040337254909973E-4</v>
+      </c>
+      <c r="P11">
+        <f>_xll.acq_interpolator_eval(P$2,$H11)</f>
+        <v>-8.4550024073222875E-4</v>
+      </c>
+      <c r="Q11">
+        <f>_xll.acq_interpolator_eval(Q$2,$H11)</f>
+        <v>7.0588644076720482E-4</v>
+      </c>
+      <c r="R11">
+        <f>_xll.acq_interpolator_eval(R$2,$H11)</f>
+        <v>-1.7070011907528084E-3</v>
+      </c>
+      <c r="S11">
+        <f>_xll.acq_interpolator_eval(S$2,$H11)</f>
+        <v>-1.4262791172693265E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -2124,18 +4549,53 @@
         <v>0.36787944117144233</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="12">
         <v>-2.8</v>
       </c>
       <c r="I12">
         <f>_xll.acq_interpolator_eval($F$5,H12)</f>
+        <v>-8.3982843117142011E-4</v>
+      </c>
+      <c r="K12">
+        <f>_xll.acq_interpolator_eval(K$2,$H12)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="L12">
+        <f>_xll.acq_interpolator_eval(L$2,$H12)</f>
+        <v>-2.1525917835837341E-3</v>
+      </c>
+      <c r="M12">
+        <f>_xll.acq_interpolator_eval(M$2,$H12)</f>
+        <v>-2.1525917835837341E-3</v>
+      </c>
+      <c r="N12">
+        <f>_xll.acq_interpolator_eval(N$2,$H12)</f>
         <v>-1.1352406227176303E-3</v>
       </c>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="O12">
+        <f>_xll.acq_interpolator_eval(O$2,$H12)</f>
+        <v>-1.1352406227176303E-3</v>
+      </c>
+      <c r="P12">
+        <f>_xll.acq_interpolator_eval(P$2,$H12)</f>
+        <v>-8.3982843117142011E-4</v>
+      </c>
+      <c r="Q12">
+        <f>_xll.acq_interpolator_eval(Q$2,$H12)</f>
+        <v>4.3021990886507421E-4</v>
+      </c>
+      <c r="R12">
+        <f>_xll.acq_interpolator_eval(R$2,$H12)</f>
+        <v>-2.1525917835837341E-3</v>
+      </c>
+      <c r="S12">
+        <f>_xll.acq_interpolator_eval(S$2,$H12)</f>
+        <v>-1.7248248144660471E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
         <v>1.5</v>
       </c>
@@ -2144,18 +4604,53 @@
         <v>0.15809883684279649</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="12">
         <v>-2.75</v>
       </c>
       <c r="I13">
         <f>_xll.acq_interpolator_eval($F$5,H13)</f>
+        <v>-8.8885509462779044E-4</v>
+      </c>
+      <c r="K13">
+        <f>_xll.acq_interpolator_eval(K$2,$H13)</f>
+        <v>-3.7022941226003868E-4</v>
+      </c>
+      <c r="L13">
+        <f>_xll.acq_interpolator_eval(L$2,$H13)</f>
+        <v>-2.5981823764146561E-3</v>
+      </c>
+      <c r="M13">
+        <f>_xll.acq_interpolator_eval(M$2,$H13)</f>
+        <v>-2.5981823764146556E-3</v>
+      </c>
+      <c r="N13">
+        <f>_xll.acq_interpolator_eval(N$2,$H13)</f>
         <v>-1.4627458129480226E-3</v>
       </c>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="O13">
+        <f>_xll.acq_interpolator_eval(O$2,$H13)</f>
+        <v>-1.4627458129480226E-3</v>
+      </c>
+      <c r="P13">
+        <f>_xll.acq_interpolator_eval(P$2,$H13)</f>
+        <v>-8.8885509462779044E-4</v>
+      </c>
+      <c r="Q13">
+        <f>_xll.acq_interpolator_eval(Q$2,$H13)</f>
+        <v>-8.9809959432036524E-5</v>
+      </c>
+      <c r="R13">
+        <f>_xll.acq_interpolator_eval(R$2,$H13)</f>
+        <v>-2.5981823764146561E-3</v>
+      </c>
+      <c r="S13">
+        <f>_xll.acq_interpolator_eval(S$2,$H13)</f>
+        <v>-2.0411941353760013E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
         <v>2</v>
       </c>
@@ -2164,18 +4659,53 @@
         <v>3.6631277777468357E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="12">
         <v>-2.7</v>
       </c>
       <c r="I14">
         <f>_xll.acq_interpolator_eval($F$5,H14)</f>
+        <v>-1.0746279406271095E-3</v>
+      </c>
+      <c r="K14">
+        <f>_xll.acq_interpolator_eval(K$2,$H14)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="L14">
+        <f>_xll.acq_interpolator_eval(L$2,$H14)</f>
+        <v>-3.043772969245578E-3</v>
+      </c>
+      <c r="M14">
+        <f>_xll.acq_interpolator_eval(M$2,$H14)</f>
+        <v>-3.0437729692455776E-3</v>
+      </c>
+      <c r="N14">
+        <f>_xll.acq_interpolator_eval(N$2,$H14)</f>
         <v>-1.8810859282557453E-3</v>
       </c>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="O14">
+        <f>_xll.acq_interpolator_eval(O$2,$H14)</f>
+        <v>-1.8810859282557453E-3</v>
+      </c>
+      <c r="P14">
+        <f>_xll.acq_interpolator_eval(P$2,$H14)</f>
+        <v>-1.0746279406271095E-3</v>
+      </c>
+      <c r="Q14">
+        <f>_xll.acq_interpolator_eval(Q$2,$H14)</f>
+        <v>-8.1050962108775593E-4</v>
+      </c>
+      <c r="R14">
+        <f>_xll.acq_interpolator_eval(R$2,$H14)</f>
+        <v>-3.043772969245578E-3</v>
+      </c>
+      <c r="S14">
+        <f>_xll.acq_interpolator_eval(S$2,$H14)</f>
+        <v>-2.402122515569048E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
         <v>2.5</v>
       </c>
@@ -2184,18 +4714,53 @@
         <v>4.8261353405692729E-3</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H15" s="12">
         <v>-2.65</v>
       </c>
       <c r="I15">
         <f>_xll.acq_interpolator_eval($F$5,H15)</f>
+        <v>-1.4791946786951501E-3</v>
+      </c>
+      <c r="K15">
+        <f>_xll.acq_interpolator_eval(K$2,$H15)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="L15">
+        <f>_xll.acq_interpolator_eval(L$2,$H15)</f>
+        <v>-3.4893635620765039E-3</v>
+      </c>
+      <c r="M15">
+        <f>_xll.acq_interpolator_eval(M$2,$H15)</f>
+        <v>-3.4893635620765031E-3</v>
+      </c>
+      <c r="N15">
+        <f>_xll.acq_interpolator_eval(N$2,$H15)</f>
         <v>-2.4084279536562688E-3</v>
       </c>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="O15">
+        <f>_xll.acq_interpolator_eval(O$2,$H15)</f>
+        <v>-2.4084279536562688E-3</v>
+      </c>
+      <c r="P15">
+        <f>_xll.acq_interpolator_eval(P$2,$H15)</f>
+        <v>-1.4791946786951501E-3</v>
+      </c>
+      <c r="Q15">
+        <f>_xll.acq_interpolator_eval(Q$2,$H15)</f>
+        <v>-1.6881855330657177E-3</v>
+      </c>
+      <c r="R15">
+        <f>_xll.acq_interpolator_eval(R$2,$H15)</f>
+        <v>-3.4893635620765039E-3</v>
+      </c>
+      <c r="S15">
+        <f>_xll.acq_interpolator_eval(S$2,$H15)</f>
+        <v>-2.8343453906150458E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.45">
       <c r="B16" s="2">
         <v>3</v>
       </c>
@@ -2204,33 +4769,103 @@
         <v>3.7022941226003868E-4</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H16" s="12">
         <v>-2.6</v>
       </c>
       <c r="I16">
         <f>_xll.acq_interpolator_eval($F$5,H16)</f>
+        <v>-2.184603018357675E-3</v>
+      </c>
+      <c r="K16">
+        <f>_xll.acq_interpolator_eval(K$2,$H16)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="L16">
+        <f>_xll.acq_interpolator_eval(L$2,$H16)</f>
+        <v>-3.9349541549074255E-3</v>
+      </c>
+      <c r="M16">
+        <f>_xll.acq_interpolator_eval(M$2,$H16)</f>
+        <v>-3.9349541549074246E-3</v>
+      </c>
+      <c r="N16">
+        <f>_xll.acq_interpolator_eval(N$2,$H16)</f>
         <v>-3.0629388741650505E-3</v>
       </c>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O16">
+        <f>_xll.acq_interpolator_eval(O$2,$H16)</f>
+        <v>-3.0629388741650505E-3</v>
+      </c>
+      <c r="P16">
+        <f>_xll.acq_interpolator_eval(P$2,$H16)</f>
+        <v>-2.184603018357675E-3</v>
+      </c>
+      <c r="Q16">
+        <f>_xll.acq_interpolator_eval(Q$2,$H16)</f>
+        <v>-2.6791441523295349E-3</v>
+      </c>
+      <c r="R16">
+        <f>_xll.acq_interpolator_eval(R$2,$H16)</f>
+        <v>-3.9349541549074255E-3</v>
+      </c>
+      <c r="S16">
+        <f>_xll.acq_interpolator_eval(S$2,$H16)</f>
+        <v>-3.3645981960838435E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="5:19" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17" s="12">
         <v>-2.5499999999999998</v>
       </c>
       <c r="I17">
         <f>_xll.acq_interpolator_eval($F$5,H17)</f>
+        <v>-3.2729006691404653E-3</v>
+      </c>
+      <c r="K17">
+        <f>_xll.acq_interpolator_eval(K$2,$H17)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="L17">
+        <f>_xll.acq_interpolator_eval(L$2,$H17)</f>
+        <v>-4.3805447477383514E-3</v>
+      </c>
+      <c r="M17">
+        <f>_xll.acq_interpolator_eval(M$2,$H17)</f>
+        <v>-4.3805447477383505E-3</v>
+      </c>
+      <c r="N17">
+        <f>_xll.acq_interpolator_eval(N$2,$H17)</f>
         <v>-3.8627856747975682E-3</v>
       </c>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O17">
+        <f>_xll.acq_interpolator_eval(O$2,$H17)</f>
+        <v>-3.8627856747975682E-3</v>
+      </c>
+      <c r="P17">
+        <f>_xll.acq_interpolator_eval(P$2,$H17)</f>
+        <v>-3.2729006691404653E-3</v>
+      </c>
+      <c r="Q17">
+        <f>_xll.acq_interpolator_eval(Q$2,$H17)</f>
+        <v>-3.7396919358428501E-3</v>
+      </c>
+      <c r="R17">
+        <f>_xll.acq_interpolator_eval(R$2,$H17)</f>
+        <v>-4.3805447477383514E-3</v>
+      </c>
+      <c r="S17">
+        <f>_xll.acq_interpolator_eval(S$2,$H17)</f>
+        <v>-4.0196163675453042E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="5:19" x14ac:dyDescent="0.45">
       <c r="E18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H18" s="12">
         <v>-2.5</v>
@@ -2239,1102 +4874,4952 @@
         <f>_xll.acq_interpolator_eval($F$5,H18)</f>
         <v>-4.8261353405692729E-3</v>
       </c>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="K18">
+        <f>_xll.acq_interpolator_eval(K$2,$H18)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="L18">
+        <f>_xll.acq_interpolator_eval(L$2,$H18)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="M18">
+        <f>_xll.acq_interpolator_eval(M$2,$H18)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="N18">
+        <f>_xll.acq_interpolator_eval(N$2,$H18)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="O18">
+        <f>_xll.acq_interpolator_eval(O$2,$H18)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="P18">
+        <f>_xll.acq_interpolator_eval(P$2,$H18)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="Q18">
+        <f>_xll.acq_interpolator_eval(Q$2,$H18)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="R18">
+        <f>_xll.acq_interpolator_eval(R$2,$H18)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="S18">
+        <f>_xll.acq_interpolator_eval(S$2,$H18)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:19" x14ac:dyDescent="0.45">
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H19" s="12">
         <v>-2.4500000000000002</v>
       </c>
       <c r="I19">
         <f>_xll.acq_interpolator_eval($F$5,H19)</f>
+        <v>-6.4955246308333551E-3</v>
+      </c>
+      <c r="K19">
+        <f>_xll.acq_interpolator_eval(K$2,$H19)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="L19">
+        <f>_xll.acq_interpolator_eval(L$2,$H19)</f>
+        <v>-8.0066495842591699E-3</v>
+      </c>
+      <c r="M19">
+        <f>_xll.acq_interpolator_eval(M$2,$H19)</f>
+        <v>-5.5452182984860919E-3</v>
+      </c>
+      <c r="N19">
+        <f>_xll.acq_interpolator_eval(N$2,$H19)</f>
         <v>-5.9803371079887625E-3</v>
       </c>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O19">
+        <f>_xll.acq_interpolator_eval(O$2,$H19)</f>
+        <v>-5.9803371079887625E-3</v>
+      </c>
+      <c r="P19">
+        <f>_xll.acq_interpolator_eval(P$2,$H19)</f>
+        <v>-6.4955246308333551E-3</v>
+      </c>
+      <c r="Q19">
+        <f>_xll.acq_interpolator_eval(Q$2,$H19)</f>
+        <v>-6.1183303596560358E-3</v>
+      </c>
+      <c r="R19">
+        <f>_xll.acq_interpolator_eval(R$2,$H19)</f>
+        <v>-5.6005491120491892E-3</v>
+      </c>
+      <c r="S19">
+        <f>_xll.acq_interpolator_eval(S$2,$H19)</f>
+        <v>-5.8660435253243548E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="5:19" x14ac:dyDescent="0.45">
       <c r="H20" s="12">
         <v>-2.4</v>
       </c>
       <c r="I20">
         <f>_xll.acq_interpolator_eval($F$5,H20)</f>
+        <v>-8.0022140253444736E-3</v>
+      </c>
+      <c r="K20">
+        <f>_xll.acq_interpolator_eval(K$2,$H20)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="L20">
+        <f>_xll.acq_interpolator_eval(L$2,$H20)</f>
+        <v>-1.1187163827949095E-2</v>
+      </c>
+      <c r="M20">
+        <f>_xll.acq_interpolator_eval(M$2,$H20)</f>
+        <v>-6.8112859865747163E-3</v>
+      </c>
+      <c r="N20">
+        <f>_xll.acq_interpolator_eval(N$2,$H20)</f>
         <v>-7.3894692195371325E-3</v>
       </c>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O20">
+        <f>_xll.acq_interpolator_eval(O$2,$H20)</f>
+        <v>-7.3894692195371325E-3</v>
+      </c>
+      <c r="P20">
+        <f>_xll.acq_interpolator_eval(P$2,$H20)</f>
+        <v>-8.0022140253444736E-3</v>
+      </c>
+      <c r="Q20">
+        <f>_xll.acq_interpolator_eval(Q$2,$H20)</f>
+        <v>-7.8262399865728517E-3</v>
+      </c>
+      <c r="R20">
+        <f>_xll.acq_interpolator_eval(R$2,$H20)</f>
+        <v>-7.008017768132398E-3</v>
+      </c>
+      <c r="S20">
+        <f>_xll.acq_interpolator_eval(S$2,$H20)</f>
+        <v>-7.2390529556924012E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:19" x14ac:dyDescent="0.45">
       <c r="H21" s="12">
         <v>-2.35</v>
       </c>
       <c r="I21">
         <f>_xll.acq_interpolator_eval($F$5,H21)</f>
+        <v>-9.5331430644621257E-3</v>
+      </c>
+      <c r="K21">
+        <f>_xll.acq_interpolator_eval(K$2,$H21)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="L21">
+        <f>_xll.acq_interpolator_eval(L$2,$H21)</f>
+        <v>-1.4367678071638992E-2</v>
+      </c>
+      <c r="M21">
+        <f>_xll.acq_interpolator_eval(M$2,$H21)</f>
+        <v>-8.624338404835126E-3</v>
+      </c>
+      <c r="N21">
+        <f>_xll.acq_interpolator_eval(N$2,$H21)</f>
         <v>-9.1267921691885676E-3</v>
       </c>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O21">
+        <f>_xll.acq_interpolator_eval(O$2,$H21)</f>
+        <v>-9.1267921691885676E-3</v>
+      </c>
+      <c r="P21">
+        <f>_xll.acq_interpolator_eval(P$2,$H21)</f>
+        <v>-9.5331430644621257E-3</v>
+      </c>
+      <c r="Q21">
+        <f>_xll.acq_interpolator_eval(Q$2,$H21)</f>
+        <v>-9.9513311787670176E-3</v>
+      </c>
+      <c r="R21">
+        <f>_xll.acq_interpolator_eval(R$2,$H21)</f>
+        <v>-9.011654099776811E-3</v>
+      </c>
+      <c r="S21">
+        <f>_xll.acq_interpolator_eval(S$2,$H21)</f>
+        <v>-8.9986345028131021E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="5:19" x14ac:dyDescent="0.45">
       <c r="H22" s="12">
         <v>-2.2999999999999998</v>
       </c>
       <c r="I22">
         <f>_xll.acq_interpolator_eval($F$5,H22)</f>
+        <v>-1.127525128854585E-2</v>
+      </c>
+      <c r="K22">
+        <f>_xll.acq_interpolator_eval(K$2,$H22)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="L22">
+        <f>_xll.acq_interpolator_eval(L$2,$H22)</f>
+        <v>-1.7548192315328916E-2</v>
+      </c>
+      <c r="M22">
+        <f>_xll.acq_interpolator_eval(M$2,$H22)</f>
+        <v>-1.0984375553267351E-2</v>
+      </c>
+      <c r="N22">
+        <f>_xll.acq_interpolator_eval(N$2,$H22)</f>
         <v>-1.1265566450917312E-2</v>
       </c>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O22">
+        <f>_xll.acq_interpolator_eval(O$2,$H22)</f>
+        <v>-1.1265566450917312E-2</v>
+      </c>
+      <c r="P22">
+        <f>_xll.acq_interpolator_eval(P$2,$H22)</f>
+        <v>-1.127525128854585E-2</v>
+      </c>
+      <c r="Q22">
+        <f>_xll.acq_interpolator_eval(Q$2,$H22)</f>
+        <v>-1.2495070893685907E-2</v>
+      </c>
+      <c r="R22">
+        <f>_xll.acq_interpolator_eval(R$2,$H22)</f>
+        <v>-1.1574570897940398E-2</v>
+      </c>
+      <c r="S22">
+        <f>_xll.acq_interpolator_eval(S$2,$H22)</f>
+        <v>-1.1198259037826196E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="5:19" x14ac:dyDescent="0.45">
       <c r="H23" s="12">
         <v>-2.25</v>
       </c>
       <c r="I23">
         <f>_xll.acq_interpolator_eval($F$5,H23)</f>
+        <v>-1.3415478237955136E-2</v>
+      </c>
+      <c r="K23">
+        <f>_xll.acq_interpolator_eval(K$2,$H23)</f>
+        <v>-4.8261353405692729E-3</v>
+      </c>
+      <c r="L23">
+        <f>_xll.acq_interpolator_eval(L$2,$H23)</f>
+        <v>-2.0728706559018813E-2</v>
+      </c>
+      <c r="M23">
+        <f>_xll.acq_interpolator_eval(M$2,$H23)</f>
+        <v>-1.3891397431871353E-2</v>
+      </c>
+      <c r="N23">
+        <f>_xll.acq_interpolator_eval(N$2,$H23)</f>
         <v>-1.3879052558697525E-2</v>
       </c>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O23">
+        <f>_xll.acq_interpolator_eval(O$2,$H23)</f>
+        <v>-1.3879052558697525E-2</v>
+      </c>
+      <c r="P23">
+        <f>_xll.acq_interpolator_eval(P$2,$H23)</f>
+        <v>-1.3415478237955136E-2</v>
+      </c>
+      <c r="Q23">
+        <f>_xll.acq_interpolator_eval(Q$2,$H23)</f>
+        <v>-1.54589260887768E-2</v>
+      </c>
+      <c r="R23">
+        <f>_xll.acq_interpolator_eval(R$2,$H23)</f>
+        <v>-1.4659880953581046E-2</v>
+      </c>
+      <c r="S23">
+        <f>_xll.acq_interpolator_eval(S$2,$H23)</f>
+        <v>-1.3891397431871354E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="5:19" x14ac:dyDescent="0.45">
       <c r="H24" s="12">
         <v>-2.19999999999999</v>
       </c>
       <c r="I24">
         <f>_xll.acq_interpolator_eval($F$5,H24)</f>
+        <v>-1.6140763453050135E-2</v>
+      </c>
+      <c r="K24">
+        <f>_xll.acq_interpolator_eval(K$2,$H24)</f>
+        <v>-3.6631277777468357E-2</v>
+      </c>
+      <c r="L24">
+        <f>_xll.acq_interpolator_eval(L$2,$H24)</f>
+        <v>-2.3909220802709359E-2</v>
+      </c>
+      <c r="M24">
+        <f>_xll.acq_interpolator_eval(M$2,$H24)</f>
+        <v>-1.7345404040647907E-2</v>
+      </c>
+      <c r="N24">
+        <f>_xll.acq_interpolator_eval(N$2,$H24)</f>
         <v>-1.7040510986504141E-2</v>
       </c>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O24">
+        <f>_xll.acq_interpolator_eval(O$2,$H24)</f>
+        <v>-1.7040510986504141E-2</v>
+      </c>
+      <c r="P24">
+        <f>_xll.acq_interpolator_eval(P$2,$H24)</f>
+        <v>-1.6140763453050135E-2</v>
+      </c>
+      <c r="Q24">
+        <f>_xll.acq_interpolator_eval(Q$2,$H24)</f>
+        <v>-1.8844363721487786E-2</v>
+      </c>
+      <c r="R24">
+        <f>_xll.acq_interpolator_eval(R$2,$H24)</f>
+        <v>-1.8230697057657487E-2</v>
+      </c>
+      <c r="S24">
+        <f>_xll.acq_interpolator_eval(S$2,$H24)</f>
+        <v>-1.7131520556089023E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="5:19" x14ac:dyDescent="0.45">
       <c r="H25" s="12">
         <v>-2.1499999999999901</v>
       </c>
       <c r="I25">
         <f>_xll.acq_interpolator_eval($F$5,H25)</f>
+        <v>-1.9638046474189291E-2</v>
+      </c>
+      <c r="K25">
+        <f>_xll.acq_interpolator_eval(K$2,$H25)</f>
+        <v>-3.6631277777468357E-2</v>
+      </c>
+      <c r="L25">
+        <f>_xll.acq_interpolator_eval(L$2,$H25)</f>
+        <v>-2.7089735046399256E-2</v>
+      </c>
+      <c r="M25">
+        <f>_xll.acq_interpolator_eval(M$2,$H25)</f>
+        <v>-2.1346395379595606E-2</v>
+      </c>
+      <c r="N25">
+        <f>_xll.acq_interpolator_eval(N$2,$H25)</f>
         <v>-2.0823202228310099E-2</v>
       </c>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O25">
+        <f>_xll.acq_interpolator_eval(O$2,$H25)</f>
+        <v>-2.0823202228310099E-2</v>
+      </c>
+      <c r="P25">
+        <f>_xll.acq_interpolator_eval(P$2,$H25)</f>
+        <v>-1.9638046474189291E-2</v>
+      </c>
+      <c r="Q25">
+        <f>_xll.acq_interpolator_eval(Q$2,$H25)</f>
+        <v>-2.2652850749264816E-2</v>
+      </c>
+      <c r="R25">
+        <f>_xll.acq_interpolator_eval(R$2,$H25)</f>
+        <v>-2.2250132001126199E-2</v>
+      </c>
+      <c r="S25">
+        <f>_xll.acq_interpolator_eval(S$2,$H25)</f>
+        <v>-2.0972099281617605E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="5:19" x14ac:dyDescent="0.45">
       <c r="H26" s="12">
         <v>-2.0999999999999899</v>
       </c>
       <c r="I26">
         <f>_xll.acq_interpolator_eval($F$5,H26)</f>
+        <v>-2.4094266841732659E-2</v>
+      </c>
+      <c r="K26">
+        <f>_xll.acq_interpolator_eval(K$2,$H26)</f>
+        <v>-3.6631277777468357E-2</v>
+      </c>
+      <c r="L26">
+        <f>_xll.acq_interpolator_eval(L$2,$H26)</f>
+        <v>-3.0270249290089181E-2</v>
+      </c>
+      <c r="M26">
+        <f>_xll.acq_interpolator_eval(M$2,$H26)</f>
+        <v>-2.5894371448715141E-2</v>
+      </c>
+      <c r="N26">
+        <f>_xll.acq_interpolator_eval(N$2,$H26)</f>
         <v>-2.5300386778090229E-2</v>
       </c>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O26">
+        <f>_xll.acq_interpolator_eval(O$2,$H26)</f>
+        <v>-2.5300386778090229E-2</v>
+      </c>
+      <c r="P26">
+        <f>_xll.acq_interpolator_eval(P$2,$H26)</f>
+        <v>-2.4094266841732659E-2</v>
+      </c>
+      <c r="Q26">
+        <f>_xll.acq_interpolator_eval(Q$2,$H26)</f>
+        <v>-2.6885854129555905E-2</v>
+      </c>
+      <c r="R26">
+        <f>_xll.acq_interpolator_eval(R$2,$H26)</f>
+        <v>-2.6681298574945826E-2</v>
+      </c>
+      <c r="S26">
+        <f>_xll.acq_interpolator_eval(S$2,$H26)</f>
+        <v>-2.5466604479597459E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="5:19" x14ac:dyDescent="0.45">
       <c r="H27" s="12">
         <v>-2.0499999999999901</v>
       </c>
       <c r="I27">
         <f>_xll.acq_interpolator_eval($F$5,H27)</f>
+        <v>-2.9696364096039658E-2</v>
+      </c>
+      <c r="K27">
+        <f>_xll.acq_interpolator_eval(K$2,$H27)</f>
+        <v>-3.6631277777468357E-2</v>
+      </c>
+      <c r="L27">
+        <f>_xll.acq_interpolator_eval(L$2,$H27)</f>
+        <v>-3.3450763533779078E-2</v>
+      </c>
+      <c r="M27">
+        <f>_xll.acq_interpolator_eval(M$2,$H27)</f>
+        <v>-3.0989332248006429E-2</v>
+      </c>
+      <c r="N27">
+        <f>_xll.acq_interpolator_eval(N$2,$H27)</f>
         <v>-3.0545325129818661E-2</v>
       </c>
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O27">
+        <f>_xll.acq_interpolator_eval(O$2,$H27)</f>
+        <v>-3.0545325129818661E-2</v>
+      </c>
+      <c r="P27">
+        <f>_xll.acq_interpolator_eval(P$2,$H27)</f>
+        <v>-2.9696364096039658E-2</v>
+      </c>
+      <c r="Q27">
+        <f>_xll.acq_interpolator_eval(Q$2,$H27)</f>
+        <v>-3.1544840819808309E-2</v>
+      </c>
+      <c r="R27">
+        <f>_xll.acq_interpolator_eval(R$2,$H27)</f>
+        <v>-3.1487309570074236E-2</v>
+      </c>
+      <c r="S27">
+        <f>_xll.acq_interpolator_eval(S$2,$H27)</f>
+        <v>-3.0668507021168204E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:19" x14ac:dyDescent="0.45">
       <c r="H28" s="12">
         <v>-1.99999999999999</v>
       </c>
       <c r="I28">
         <f>_xll.acq_interpolator_eval($F$5,H28)</f>
+        <v>-3.6631277777469891E-2</v>
+      </c>
+      <c r="K28">
+        <f>_xll.acq_interpolator_eval(K$2,$H28)</f>
+        <v>-3.6631277777468357E-2</v>
+      </c>
+      <c r="L28">
+        <f>_xll.acq_interpolator_eval(L$2,$H28)</f>
+        <v>-3.6631277777470786E-2</v>
+      </c>
+      <c r="M28">
+        <f>_xll.acq_interpolator_eval(M$2,$H28)</f>
+        <v>-3.6631277777469544E-2</v>
+      </c>
+      <c r="N28">
+        <f>_xll.acq_interpolator_eval(N$2,$H28)</f>
         <v>-3.6631277777469662E-2</v>
       </c>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O28">
+        <f>_xll.acq_interpolator_eval(O$2,$H28)</f>
+        <v>-3.6631277777469662E-2</v>
+      </c>
+      <c r="P28">
+        <f>_xll.acq_interpolator_eval(P$2,$H28)</f>
+        <v>-3.6631277777469891E-2</v>
+      </c>
+      <c r="Q28">
+        <f>_xll.acq_interpolator_eval(Q$2,$H28)</f>
+        <v>-3.6631277777469419E-2</v>
+      </c>
+      <c r="R28">
+        <f>_xll.acq_interpolator_eval(R$2,$H28)</f>
+        <v>-3.6631277777469419E-2</v>
+      </c>
+      <c r="S28">
+        <f>_xll.acq_interpolator_eval(S$2,$H28)</f>
+        <v>-3.6631277777469627E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:19" x14ac:dyDescent="0.45">
       <c r="H29" s="12">
         <v>-1.94999999999999</v>
       </c>
       <c r="I29">
         <f>_xll.acq_interpolator_eval($F$5,H29)</f>
+        <v>-4.4749297106866592E-2</v>
+      </c>
+      <c r="K29">
+        <f>_xll.acq_interpolator_eval(K$2,$H29)</f>
+        <v>-3.6631277777468357E-2</v>
+      </c>
+      <c r="L29">
+        <f>_xll.acq_interpolator_eval(L$2,$H29)</f>
+        <v>-4.8778033684003609E-2</v>
+      </c>
+      <c r="M29">
+        <f>_xll.acq_interpolator_eval(M$2,$H29)</f>
+        <v>-4.3169847473217074E-2</v>
+      </c>
+      <c r="N29">
+        <f>_xll.acq_interpolator_eval(N$2,$H29)</f>
         <v>-4.362974015265618E-2</v>
       </c>
-      <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O29">
+        <f>_xll.acq_interpolator_eval(O$2,$H29)</f>
+        <v>-4.362974015265618E-2</v>
+      </c>
+      <c r="P29">
+        <f>_xll.acq_interpolator_eval(P$2,$H29)</f>
+        <v>-4.4749297106866592E-2</v>
+      </c>
+      <c r="Q29">
+        <f>_xll.acq_interpolator_eval(Q$2,$H29)</f>
+        <v>-4.2976267073256157E-2</v>
+      </c>
+      <c r="R29">
+        <f>_xll.acq_interpolator_eval(R$2,$H29)</f>
+        <v>-4.2976267073256157E-2</v>
+      </c>
+      <c r="S29">
+        <f>_xll.acq_interpolator_eval(S$2,$H29)</f>
+        <v>-4.3694185770803876E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="5:19" x14ac:dyDescent="0.45">
       <c r="H30" s="12">
         <v>-1.8999999999999899</v>
       </c>
       <c r="I30">
         <f>_xll.acq_interpolator_eval($F$5,H30)</f>
+        <v>-5.3773386202103354E-2</v>
+      </c>
+      <c r="K30">
+        <f>_xll.acq_interpolator_eval(K$2,$H30)</f>
+        <v>-3.6631277777468357E-2</v>
+      </c>
+      <c r="L30">
+        <f>_xll.acq_interpolator_eval(L$2,$H30)</f>
+        <v>-6.0924789590536432E-2</v>
+      </c>
+      <c r="M30">
+        <f>_xll.acq_interpolator_eval(M$2,$H30)</f>
+        <v>-5.0954680771361407E-2</v>
+      </c>
+      <c r="N30">
+        <f>_xll.acq_interpolator_eval(N$2,$H30)</f>
         <v>-5.1605147437546198E-2</v>
       </c>
-      <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O30">
+        <f>_xll.acq_interpolator_eval(O$2,$H30)</f>
+        <v>-5.1605147437546198E-2</v>
+      </c>
+      <c r="P30">
+        <f>_xll.acq_interpolator_eval(P$2,$H30)</f>
+        <v>-5.3773386202103354E-2</v>
+      </c>
+      <c r="Q30">
+        <f>_xll.acq_interpolator_eval(Q$2,$H30)</f>
+        <v>-5.1250053812622098E-2</v>
+      </c>
+      <c r="R30">
+        <f>_xll.acq_interpolator_eval(R$2,$H30)</f>
+        <v>-5.1250053812622098E-2</v>
+      </c>
+      <c r="S30">
+        <f>_xll.acq_interpolator_eval(S$2,$H30)</f>
+        <v>-5.2106049769806886E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:19" x14ac:dyDescent="0.45">
       <c r="H31" s="12">
         <v>-1.8499999999999901</v>
       </c>
       <c r="I31">
         <f>_xll.acq_interpolator_eval($F$5,H31)</f>
+        <v>-6.3699496949084805E-2</v>
+      </c>
+      <c r="K31">
+        <f>_xll.acq_interpolator_eval(K$2,$H31)</f>
+        <v>-3.6631277777468357E-2</v>
+      </c>
+      <c r="L31">
+        <f>_xll.acq_interpolator_eval(L$2,$H31)</f>
+        <v>-7.3071545497069207E-2</v>
+      </c>
+      <c r="M31">
+        <f>_xll.acq_interpolator_eval(M$2,$H31)</f>
+        <v>-5.9985777671902475E-2</v>
+      </c>
+      <c r="N31">
+        <f>_xll.acq_interpolator_eval(N$2,$H31)</f>
         <v>-6.0620169751946396E-2</v>
       </c>
-      <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.45">
+      <c r="O31">
+        <f>_xll.acq_interpolator_eval(O$2,$H31)</f>
+        <v>-6.0620169751946396E-2</v>
+      </c>
+      <c r="P31">
+        <f>_xll.acq_interpolator_eval(P$2,$H31)</f>
+        <v>-6.3699496949084805E-2</v>
+      </c>
+      <c r="Q31">
+        <f>_xll.acq_interpolator_eval(Q$2,$H31)</f>
+        <v>-6.1212819505120517E-2</v>
+      </c>
+      <c r="R31">
+        <f>_xll.acq_interpolator_eval(R$2,$H31)</f>
+        <v>-6.1212819505120517E-2</v>
+      </c>
+      <c r="S31">
+        <f>_xll.acq_interpolator_eval(S$2,$H31)</f>
+        <v>-6.1784665265119415E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="5:19" x14ac:dyDescent="0.45">
       <c r="H32" s="12">
         <v>-1.7999999999999901</v>
       </c>
       <c r="I32">
         <f>_xll.acq_interpolator_eval($F$5,H32)</f>
+        <v>-7.4523581233715705E-2</v>
+      </c>
+      <c r="K32">
+        <f>_xll.acq_interpolator_eval(K$2,$H32)</f>
+        <v>-3.6631277777468357E-2</v>
+      </c>
+      <c r="L32">
+        <f>_xll.acq_interpolator_eval(L$2,$H32)</f>
+        <v>-8.5218301403602037E-2</v>
+      </c>
+      <c r="M32">
+        <f>_xll.acq_interpolator_eval(M$2,$H32)</f>
+        <v>-7.0263138174840367E-2</v>
+      </c>
+      <c r="N32">
+        <f>_xll.acq_interpolator_eval(N$2,$H32)</f>
         <v>-7.0737477215663591E-2</v>
       </c>
-      <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O32">
+        <f>_xll.acq_interpolator_eval(O$2,$H32)</f>
+        <v>-7.0737477215663591E-2</v>
+      </c>
+      <c r="P32">
+        <f>_xll.acq_interpolator_eval(P$2,$H32)</f>
+        <v>-7.4523581233715705E-2</v>
+      </c>
+      <c r="Q32">
+        <f>_xll.acq_interpolator_eval(Q$2,$H32)</f>
+        <v>-7.2624745660304829E-2</v>
+      </c>
+      <c r="R32">
+        <f>_xll.acq_interpolator_eval(R$2,$H32)</f>
+        <v>-7.2624745660304829E-2</v>
+      </c>
+      <c r="S32">
+        <f>_xll.acq_interpolator_eval(S$2,$H32)</f>
+        <v>-7.2647827747382307E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H33" s="12">
         <v>-1.74999999999999</v>
       </c>
       <c r="I33">
         <f>_xll.acq_interpolator_eval($F$5,H33)</f>
+        <v>-8.6241590941900675E-2</v>
+      </c>
+      <c r="K33">
+        <f>_xll.acq_interpolator_eval(K$2,$H33)</f>
+        <v>-0.15809883684279649</v>
+      </c>
+      <c r="L33">
+        <f>_xll.acq_interpolator_eval(L$2,$H33)</f>
+        <v>-9.7365057310134853E-2</v>
+      </c>
+      <c r="M33">
+        <f>_xll.acq_interpolator_eval(M$2,$H33)</f>
+        <v>-8.1786762280175049E-2</v>
+      </c>
+      <c r="N33">
+        <f>_xll.acq_interpolator_eval(N$2,$H33)</f>
         <v>-8.2019739948504505E-2</v>
       </c>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O33">
+        <f>_xll.acq_interpolator_eval(O$2,$H33)</f>
+        <v>-8.2019739948504505E-2</v>
+      </c>
+      <c r="P33">
+        <f>_xll.acq_interpolator_eval(P$2,$H33)</f>
+        <v>-8.6241590941900675E-2</v>
+      </c>
+      <c r="Q33">
+        <f>_xll.acq_interpolator_eval(Q$2,$H33)</f>
+        <v>-8.5246013787728309E-2</v>
+      </c>
+      <c r="R33">
+        <f>_xll.acq_interpolator_eval(R$2,$H33)</f>
+        <v>-8.5246013787728309E-2</v>
+      </c>
+      <c r="S33">
+        <f>_xll.acq_interpolator_eval(S$2,$H33)</f>
+        <v>-8.4613332707236311E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H34" s="12">
         <v>-1.69999999999999</v>
       </c>
       <c r="I34">
         <f>_xll.acq_interpolator_eval($F$5,H34)</f>
+        <v>-9.8849477959544407E-2</v>
+      </c>
+      <c r="K34">
+        <f>_xll.acq_interpolator_eval(K$2,$H34)</f>
+        <v>-0.15809883684279649</v>
+      </c>
+      <c r="L34">
+        <f>_xll.acq_interpolator_eval(L$2,$H34)</f>
+        <v>-0.10951181321666767</v>
+      </c>
+      <c r="M34">
+        <f>_xll.acq_interpolator_eval(M$2,$H34)</f>
+        <v>-9.4556649987906513E-2</v>
+      </c>
+      <c r="N34">
+        <f>_xll.acq_interpolator_eval(N$2,$H34)</f>
         <v>-9.4529628070275845E-2</v>
       </c>
-      <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O34">
+        <f>_xll.acq_interpolator_eval(O$2,$H34)</f>
+        <v>-9.4529628070275845E-2</v>
+      </c>
+      <c r="P34">
+        <f>_xll.acq_interpolator_eval(P$2,$H34)</f>
+        <v>-9.8849477959544407E-2</v>
+      </c>
+      <c r="Q34">
+        <f>_xll.acq_interpolator_eval(Q$2,$H34)</f>
+        <v>-9.8836805396944283E-2</v>
+      </c>
+      <c r="R34">
+        <f>_xll.acq_interpolator_eval(R$2,$H34)</f>
+        <v>-9.8836805396944283E-2</v>
+      </c>
+      <c r="S34">
+        <f>_xll.acq_interpolator_eval(S$2,$H34)</f>
+        <v>-9.7598975635322202E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H35" s="12">
         <v>-1.6499999999999899</v>
       </c>
       <c r="I35">
         <f>_xll.acq_interpolator_eval($F$5,H35)</f>
+        <v>-0.11234319417255149</v>
+      </c>
+      <c r="K35">
+        <f>_xll.acq_interpolator_eval(K$2,$H35)</f>
+        <v>-0.15809883684279649</v>
+      </c>
+      <c r="L35">
+        <f>_xll.acq_interpolator_eval(L$2,$H35)</f>
+        <v>-0.1216585691232005</v>
+      </c>
+      <c r="M35">
+        <f>_xll.acq_interpolator_eval(M$2,$H35)</f>
+        <v>-0.10857280129803476</v>
+      </c>
+      <c r="N35">
+        <f>_xll.acq_interpolator_eval(N$2,$H35)</f>
         <v>-0.10832981170078437</v>
       </c>
-      <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O35">
+        <f>_xll.acq_interpolator_eval(O$2,$H35)</f>
+        <v>-0.10832981170078437</v>
+      </c>
+      <c r="P35">
+        <f>_xll.acq_interpolator_eval(P$2,$H35)</f>
+        <v>-0.11234319417255149</v>
+      </c>
+      <c r="Q35">
+        <f>_xll.acq_interpolator_eval(Q$2,$H35)</f>
+        <v>-0.11315730199750607</v>
+      </c>
+      <c r="R35">
+        <f>_xll.acq_interpolator_eval(R$2,$H35)</f>
+        <v>-0.11315730199750607</v>
+      </c>
+      <c r="S35">
+        <f>_xll.acq_interpolator_eval(S$2,$H35)</f>
+        <v>-0.1115225520222807</v>
+      </c>
+    </row>
+    <row r="36" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H36" s="12">
         <v>-1.5999999999999901</v>
       </c>
       <c r="I36">
         <f>_xll.acq_interpolator_eval($F$5,H36)</f>
+        <v>-0.1267186914668266</v>
+      </c>
+      <c r="K36">
+        <f>_xll.acq_interpolator_eval(K$2,$H36)</f>
+        <v>-0.15809883684279649</v>
+      </c>
+      <c r="L36">
+        <f>_xll.acq_interpolator_eval(L$2,$H36)</f>
+        <v>-0.13380532502973327</v>
+      </c>
+      <c r="M36">
+        <f>_xll.acq_interpolator_eval(M$2,$H36)</f>
+        <v>-0.12383521621055973</v>
+      </c>
+      <c r="N36">
+        <f>_xll.acq_interpolator_eval(N$2,$H36)</f>
         <v>-0.12348296095983671</v>
       </c>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O36">
+        <f>_xll.acq_interpolator_eval(O$2,$H36)</f>
+        <v>-0.12348296095983671</v>
+      </c>
+      <c r="P36">
+        <f>_xll.acq_interpolator_eval(P$2,$H36)</f>
+        <v>-0.1267186914668266</v>
+      </c>
+      <c r="Q36">
+        <f>_xll.acq_interpolator_eval(Q$2,$H36)</f>
+        <v>-0.12796768509896694</v>
+      </c>
+      <c r="R36">
+        <f>_xll.acq_interpolator_eval(R$2,$H36)</f>
+        <v>-0.12796768509896694</v>
+      </c>
+      <c r="S36">
+        <f>_xll.acq_interpolator_eval(S$2,$H36)</f>
+        <v>-0.12630185735875257</v>
+      </c>
+    </row>
+    <row r="37" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H37" s="12">
         <v>-1.5499999999999901</v>
       </c>
       <c r="I37">
         <f>_xll.acq_interpolator_eval($F$5,H37)</f>
+        <v>-0.1419719217282745</v>
+      </c>
+      <c r="K37">
+        <f>_xll.acq_interpolator_eval(K$2,$H37)</f>
+        <v>-0.15809883684279649</v>
+      </c>
+      <c r="L37">
+        <f>_xll.acq_interpolator_eval(L$2,$H37)</f>
+        <v>-0.1459520809362661</v>
+      </c>
+      <c r="M37">
+        <f>_xll.acq_interpolator_eval(M$2,$H37)</f>
+        <v>-0.14034389472548156</v>
+      </c>
+      <c r="N37">
+        <f>_xll.acq_interpolator_eval(N$2,$H37)</f>
         <v>-0.14005174596723982</v>
       </c>
-      <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O37">
+        <f>_xll.acq_interpolator_eval(O$2,$H37)</f>
+        <v>-0.14005174596723982</v>
+      </c>
+      <c r="P37">
+        <f>_xll.acq_interpolator_eval(P$2,$H37)</f>
+        <v>-0.1419719217282745</v>
+      </c>
+      <c r="Q37">
+        <f>_xll.acq_interpolator_eval(Q$2,$H37)</f>
+        <v>-0.14302813621088031</v>
+      </c>
+      <c r="R37">
+        <f>_xll.acq_interpolator_eval(R$2,$H37)</f>
+        <v>-0.14302813621088031</v>
+      </c>
+      <c r="S37">
+        <f>_xll.acq_interpolator_eval(S$2,$H37)</f>
+        <v>-0.14185468713537872</v>
+      </c>
+    </row>
+    <row r="38" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H38" s="12">
         <v>-1.49999999999999</v>
       </c>
       <c r="I38">
         <f>_xll.acq_interpolator_eval($F$5,H38)</f>
+        <v>-0.15809883684279979</v>
+      </c>
+      <c r="K38">
+        <f>_xll.acq_interpolator_eval(K$2,$H38)</f>
+        <v>-0.15809883684279649</v>
+      </c>
+      <c r="L38">
+        <f>_xll.acq_interpolator_eval(L$2,$H38)</f>
+        <v>-0.15809883684280068</v>
+      </c>
+      <c r="M38">
+        <f>_xll.acq_interpolator_eval(M$2,$H38)</f>
+        <v>-0.15809883684280018</v>
+      </c>
+      <c r="N38">
+        <f>_xll.acq_interpolator_eval(N$2,$H38)</f>
         <v>-0.15809883684280024</v>
       </c>
-      <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O38">
+        <f>_xll.acq_interpolator_eval(O$2,$H38)</f>
+        <v>-0.15809883684280024</v>
+      </c>
+      <c r="P38">
+        <f>_xll.acq_interpolator_eval(P$2,$H38)</f>
+        <v>-0.15809883684279979</v>
+      </c>
+      <c r="Q38">
+        <f>_xll.acq_interpolator_eval(Q$2,$H38)</f>
+        <v>-0.15809883684279949</v>
+      </c>
+      <c r="R38">
+        <f>_xll.acq_interpolator_eval(R$2,$H38)</f>
+        <v>-0.15809883684279949</v>
+      </c>
+      <c r="S38">
+        <f>_xll.acq_interpolator_eval(S$2,$H38)</f>
+        <v>-0.15809883684279979</v>
+      </c>
+    </row>
+    <row r="39" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H39" s="12">
         <v>-1.44999999999999</v>
       </c>
       <c r="I39">
         <f>_xll.acq_interpolator_eval($F$5,H39)</f>
+        <v>-0.17634738738534045</v>
+      </c>
+      <c r="K39">
+        <f>_xll.acq_interpolator_eval(K$2,$H39)</f>
+        <v>-0.15809883684279649</v>
+      </c>
+      <c r="L39">
+        <f>_xll.acq_interpolator_eval(L$2,$H39)</f>
+        <v>-0.17907689727566528</v>
+      </c>
+      <c r="M39">
+        <f>_xll.acq_interpolator_eval(M$2,$H39)</f>
+        <v>-0.17673690941275183</v>
+      </c>
+      <c r="N39">
+        <f>_xll.acq_interpolator_eval(N$2,$H39)</f>
         <v>-0.17762111915279166</v>
       </c>
-      <c r="L39" s="14"/>
-    </row>
-    <row r="40" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O39">
+        <f>_xll.acq_interpolator_eval(O$2,$H39)</f>
+        <v>-0.17762111915279166</v>
+      </c>
+      <c r="P39">
+        <f>_xll.acq_interpolator_eval(P$2,$H39)</f>
+        <v>-0.17634738738534045</v>
+      </c>
+      <c r="Q39">
+        <f>_xll.acq_interpolator_eval(Q$2,$H39)</f>
+        <v>-0.17453105894385279</v>
+      </c>
+      <c r="R39">
+        <f>_xll.acq_interpolator_eval(R$2,$H39)</f>
+        <v>-0.17453105894385279</v>
+      </c>
+      <c r="S39">
+        <f>_xll.acq_interpolator_eval(S$2,$H39)</f>
+        <v>-0.17700086727490208</v>
+      </c>
+    </row>
+    <row r="40" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H40" s="12">
         <v>-1.3999999999999899</v>
       </c>
       <c r="I40">
         <f>_xll.acq_interpolator_eval($F$5,H40)</f>
+        <v>-0.19741507727510799</v>
+      </c>
+      <c r="K40">
+        <f>_xll.acq_interpolator_eval(K$2,$H40)</f>
+        <v>-0.15809883684279649</v>
+      </c>
+      <c r="L40">
+        <f>_xll.acq_interpolator_eval(L$2,$H40)</f>
+        <v>-0.20005495770852988</v>
+      </c>
+      <c r="M40">
+        <f>_xll.acq_interpolator_eval(M$2,$H40)</f>
+        <v>-0.19589497928557303</v>
+      </c>
+      <c r="N40">
+        <f>_xll.acq_interpolator_eval(N$2,$H40)</f>
         <v>-0.19835234024935533</v>
       </c>
-      <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O40">
+        <f>_xll.acq_interpolator_eval(O$2,$H40)</f>
+        <v>-0.19835234024935533</v>
+      </c>
+      <c r="P40">
+        <f>_xll.acq_interpolator_eval(P$2,$H40)</f>
+        <v>-0.19741507727510799</v>
+      </c>
+      <c r="Q40">
+        <f>_xll.acq_interpolator_eval(Q$2,$H40)</f>
+        <v>-0.19346345623361161</v>
+      </c>
+      <c r="R40">
+        <f>_xll.acq_interpolator_eval(R$2,$H40)</f>
+        <v>-0.19346345623361161</v>
+      </c>
+      <c r="S40">
+        <f>_xll.acq_interpolator_eval(S$2,$H40)</f>
+        <v>-0.19973856132688225</v>
+      </c>
+    </row>
+    <row r="41" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H41" s="12">
         <v>-1.3499999999999901</v>
       </c>
       <c r="I41">
         <f>_xll.acq_interpolator_eval($F$5,H41)</f>
+        <v>-0.22047218841441926</v>
+      </c>
+      <c r="K41">
+        <f>_xll.acq_interpolator_eval(K$2,$H41)</f>
+        <v>-0.15809883684279649</v>
+      </c>
+      <c r="L41">
+        <f>_xll.acq_interpolator_eval(L$2,$H41)</f>
+        <v>-0.22103301814139439</v>
+      </c>
+      <c r="M41">
+        <f>_xll.acq_interpolator_eval(M$2,$H41)</f>
+        <v>-0.21557304646126374</v>
+      </c>
+      <c r="N41">
+        <f>_xll.acq_interpolator_eval(N$2,$H41)</f>
         <v>-0.21996046293109928</v>
       </c>
-      <c r="L41" s="14"/>
-    </row>
-    <row r="42" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O41">
+        <f>_xll.acq_interpolator_eval(O$2,$H41)</f>
+        <v>-0.21996046293109928</v>
+      </c>
+      <c r="P41">
+        <f>_xll.acq_interpolator_eval(P$2,$H41)</f>
+        <v>-0.22047218841441926</v>
+      </c>
+      <c r="Q41">
+        <f>_xll.acq_interpolator_eval(Q$2,$H41)</f>
+        <v>-0.21433728287729548</v>
+      </c>
+      <c r="R41">
+        <f>_xll.acq_interpolator_eval(R$2,$H41)</f>
+        <v>-0.21433728287729548</v>
+      </c>
+      <c r="S41">
+        <f>_xll.acq_interpolator_eval(S$2,$H41)</f>
+        <v>-0.22504654764134951</v>
+      </c>
+    </row>
+    <row r="42" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H42" s="12">
         <v>-1.2999999999999901</v>
       </c>
       <c r="I42">
         <f>_xll.acq_interpolator_eval($F$5,H42)</f>
+        <v>-0.24468900270559132</v>
+      </c>
+      <c r="K42">
+        <f>_xll.acq_interpolator_eval(K$2,$H42)</f>
+        <v>-0.15809883684279649</v>
+      </c>
+      <c r="L42">
+        <f>_xll.acq_interpolator_eval(L$2,$H42)</f>
+        <v>-0.24201107857425902</v>
+      </c>
+      <c r="M42">
+        <f>_xll.acq_interpolator_eval(M$2,$H42)</f>
+        <v>-0.23577111093982409</v>
+      </c>
+      <c r="N42">
+        <f>_xll.acq_interpolator_eval(N$2,$H42)</f>
         <v>-0.24211344999663187</v>
       </c>
-      <c r="L42" s="14"/>
-    </row>
-    <row r="43" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O42">
+        <f>_xll.acq_interpolator_eval(O$2,$H42)</f>
+        <v>-0.24211344999663187</v>
+      </c>
+      <c r="P42">
+        <f>_xll.acq_interpolator_eval(P$2,$H42)</f>
+        <v>-0.24468900270559132</v>
+      </c>
+      <c r="Q42">
+        <f>_xll.acq_interpolator_eval(Q$2,$H42)</f>
+        <v>-0.2365937930401244</v>
+      </c>
+      <c r="R42">
+        <f>_xll.acq_interpolator_eval(R$2,$H42)</f>
+        <v>-0.2365937930401244</v>
+      </c>
+      <c r="S42">
+        <f>_xll.acq_interpolator_eval(S$2,$H42)</f>
+        <v>-0.25165945486091335</v>
+      </c>
+    </row>
+    <row r="43" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H43" s="12">
         <v>-1.24999999999999</v>
       </c>
       <c r="I43">
         <f>_xll.acq_interpolator_eval($F$5,H43)</f>
+        <v>-0.26923580205094105</v>
+      </c>
+      <c r="K43">
+        <f>_xll.acq_interpolator_eval(K$2,$H43)</f>
+        <v>-0.36787944117144233</v>
+      </c>
+      <c r="L43">
+        <f>_xll.acq_interpolator_eval(L$2,$H43)</f>
+        <v>-0.26298913900712362</v>
+      </c>
+      <c r="M43">
+        <f>_xll.acq_interpolator_eval(M$2,$H43)</f>
+        <v>-0.25648917272125404</v>
+      </c>
+      <c r="N43">
+        <f>_xll.acq_interpolator_eval(N$2,$H43)</f>
         <v>-0.26447926424456131</v>
       </c>
-      <c r="L43" s="14"/>
-    </row>
-    <row r="44" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O43">
+        <f>_xll.acq_interpolator_eval(O$2,$H43)</f>
+        <v>-0.26447926424456131</v>
+      </c>
+      <c r="P43">
+        <f>_xll.acq_interpolator_eval(P$2,$H43)</f>
+        <v>-0.26923580205094105</v>
+      </c>
+      <c r="Q43">
+        <f>_xll.acq_interpolator_eval(Q$2,$H43)</f>
+        <v>-0.25967424088731794</v>
+      </c>
+      <c r="R43">
+        <f>_xll.acq_interpolator_eval(R$2,$H43)</f>
+        <v>-0.25967424088731794</v>
+      </c>
+      <c r="S43">
+        <f>_xll.acq_interpolator_eval(S$2,$H43)</f>
+        <v>-0.27831191162818303</v>
+      </c>
+    </row>
+    <row r="44" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H44" s="12">
         <v>-1.19999999999999</v>
       </c>
       <c r="I44">
         <f>_xll.acq_interpolator_eval($F$5,H44)</f>
+        <v>-0.29328286835278522</v>
+      </c>
+      <c r="K44">
+        <f>_xll.acq_interpolator_eval(K$2,$H44)</f>
+        <v>-0.36787944117144233</v>
+      </c>
+      <c r="L44">
+        <f>_xll.acq_interpolator_eval(L$2,$H44)</f>
+        <v>-0.28396719943998822</v>
+      </c>
+      <c r="M44">
+        <f>_xll.acq_interpolator_eval(M$2,$H44)</f>
+        <v>-0.27772723180555353</v>
+      </c>
+      <c r="N44">
+        <f>_xll.acq_interpolator_eval(N$2,$H44)</f>
         <v>-0.28672586847349563</v>
       </c>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O44">
+        <f>_xll.acq_interpolator_eval(O$2,$H44)</f>
+        <v>-0.28672586847349563</v>
+      </c>
+      <c r="P44">
+        <f>_xll.acq_interpolator_eval(P$2,$H44)</f>
+        <v>-0.29328286835278522</v>
+      </c>
+      <c r="Q44">
+        <f>_xll.acq_interpolator_eval(Q$2,$H44)</f>
+        <v>-0.28301988058409588</v>
+      </c>
+      <c r="R44">
+        <f>_xll.acq_interpolator_eval(R$2,$H44)</f>
+        <v>-0.28301988058409588</v>
+      </c>
+      <c r="S44">
+        <f>_xll.acq_interpolator_eval(S$2,$H44)</f>
+        <v>-0.30373854658576771</v>
+      </c>
+    </row>
+    <row r="45" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H45" s="12">
         <v>-1.1499999999999899</v>
       </c>
       <c r="I45">
         <f>_xll.acq_interpolator_eval($F$5,H45)</f>
+        <v>-0.31600048351344084</v>
+      </c>
+      <c r="K45">
+        <f>_xll.acq_interpolator_eval(K$2,$H45)</f>
+        <v>-0.36787944117144233</v>
+      </c>
+      <c r="L45">
+        <f>_xll.acq_interpolator_eval(L$2,$H45)</f>
+        <v>-0.30494525987285281</v>
+      </c>
+      <c r="M45">
+        <f>_xll.acq_interpolator_eval(M$2,$H45)</f>
+        <v>-0.29948528819272258</v>
+      </c>
+      <c r="N45">
+        <f>_xll.acq_interpolator_eval(N$2,$H45)</f>
         <v>-0.30852122548204303</v>
       </c>
-      <c r="L45" s="14"/>
-    </row>
-    <row r="46" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O45">
+        <f>_xll.acq_interpolator_eval(O$2,$H45)</f>
+        <v>-0.30852122548204303</v>
+      </c>
+      <c r="P45">
+        <f>_xll.acq_interpolator_eval(P$2,$H45)</f>
+        <v>-0.31600048351344084</v>
+      </c>
+      <c r="Q45">
+        <f>_xll.acq_interpolator_eval(Q$2,$H45)</f>
+        <v>-0.3060719662956779</v>
+      </c>
+      <c r="R45">
+        <f>_xll.acq_interpolator_eval(R$2,$H45)</f>
+        <v>-0.3060719662956779</v>
+      </c>
+      <c r="S45">
+        <f>_xll.acq_interpolator_eval(S$2,$H45)</f>
+        <v>-0.32667398837627687</v>
+      </c>
+    </row>
+    <row r="46" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H46" s="12">
         <v>-1.0999999999999901</v>
       </c>
       <c r="I46">
         <f>_xll.acq_interpolator_eval($F$5,H46)</f>
+        <v>-0.33655892943522453</v>
+      </c>
+      <c r="K46">
+        <f>_xll.acq_interpolator_eval(K$2,$H46)</f>
+        <v>-0.36787944117144233</v>
+      </c>
+      <c r="L46">
+        <f>_xll.acq_interpolator_eval(L$2,$H46)</f>
+        <v>-0.32592332030571736</v>
+      </c>
+      <c r="M46">
+        <f>_xll.acq_interpolator_eval(M$2,$H46)</f>
+        <v>-0.32176334188276112</v>
+      </c>
+      <c r="N46">
+        <f>_xll.acq_interpolator_eval(N$2,$H46)</f>
         <v>-0.32953329806881171</v>
       </c>
-      <c r="L46" s="14"/>
-    </row>
-    <row r="47" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O46">
+        <f>_xll.acq_interpolator_eval(O$2,$H46)</f>
+        <v>-0.32953329806881171</v>
+      </c>
+      <c r="P46">
+        <f>_xll.acq_interpolator_eval(P$2,$H46)</f>
+        <v>-0.33655892943522453</v>
+      </c>
+      <c r="Q46">
+        <f>_xll.acq_interpolator_eval(Q$2,$H46)</f>
+        <v>-0.32827175218728372</v>
+      </c>
+      <c r="R46">
+        <f>_xll.acq_interpolator_eval(R$2,$H46)</f>
+        <v>-0.32827175218728372</v>
+      </c>
+      <c r="S46">
+        <f>_xll.acq_interpolator_eval(S$2,$H46)</f>
+        <v>-0.34585286564231948</v>
+      </c>
+    </row>
+    <row r="47" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H47" s="12">
         <v>-1.0499999999999901</v>
       </c>
       <c r="I47">
         <f>_xll.acq_interpolator_eval($F$5,H47)</f>
+        <v>-0.35412848802045355</v>
+      </c>
+      <c r="K47">
+        <f>_xll.acq_interpolator_eval(K$2,$H47)</f>
+        <v>-0.36787944117144233</v>
+      </c>
+      <c r="L47">
+        <f>_xll.acq_interpolator_eval(L$2,$H47)</f>
+        <v>-0.3469013807385819</v>
+      </c>
+      <c r="M47">
+        <f>_xll.acq_interpolator_eval(M$2,$H47)</f>
+        <v>-0.34456139287566928</v>
+      </c>
+      <c r="N47">
+        <f>_xll.acq_interpolator_eval(N$2,$H47)</f>
         <v>-0.34943004903240993</v>
       </c>
-      <c r="L47" s="14"/>
-    </row>
-    <row r="48" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O47">
+        <f>_xll.acq_interpolator_eval(O$2,$H47)</f>
+        <v>-0.34943004903240993</v>
+      </c>
+      <c r="P47">
+        <f>_xll.acq_interpolator_eval(P$2,$H47)</f>
+        <v>-0.35412848802045355</v>
+      </c>
+      <c r="Q47">
+        <f>_xll.acq_interpolator_eval(Q$2,$H47)</f>
+        <v>-0.34906049242413317</v>
+      </c>
+      <c r="R47">
+        <f>_xll.acq_interpolator_eval(R$2,$H47)</f>
+        <v>-0.34906049242413317</v>
+      </c>
+      <c r="S47">
+        <f>_xll.acq_interpolator_eval(S$2,$H47)</f>
+        <v>-0.3600098070265052</v>
+      </c>
+    </row>
+    <row r="48" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H48" s="12">
         <v>-0.99999999999999001</v>
       </c>
       <c r="I48">
         <f>_xll.acq_interpolator_eval($F$5,H48)</f>
+        <v>-0.36787944117144467</v>
+      </c>
+      <c r="K48">
+        <f>_xll.acq_interpolator_eval(K$2,$H48)</f>
+        <v>-0.36787944117144233</v>
+      </c>
+      <c r="L48">
+        <f>_xll.acq_interpolator_eval(L$2,$H48)</f>
+        <v>-0.36787944117144278</v>
+      </c>
+      <c r="M48">
+        <f>_xll.acq_interpolator_eval(M$2,$H48)</f>
+        <v>-0.36787944117144705</v>
+      </c>
+      <c r="N48">
+        <f>_xll.acq_interpolator_eval(N$2,$H48)</f>
         <v>-0.36787944117144589</v>
       </c>
-      <c r="L48" s="14"/>
-    </row>
-    <row r="49" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O48">
+        <f>_xll.acq_interpolator_eval(O$2,$H48)</f>
+        <v>-0.36787944117144589</v>
+      </c>
+      <c r="P48">
+        <f>_xll.acq_interpolator_eval(P$2,$H48)</f>
+        <v>-0.36787944117144467</v>
+      </c>
+      <c r="Q48">
+        <f>_xll.acq_interpolator_eval(Q$2,$H48)</f>
+        <v>-0.36787944117144589</v>
+      </c>
+      <c r="R48">
+        <f>_xll.acq_interpolator_eval(R$2,$H48)</f>
+        <v>-0.36787944117144589</v>
+      </c>
+      <c r="S48">
+        <f>_xll.acq_interpolator_eval(S$2,$H48)</f>
+        <v>-0.36787944117144317</v>
+      </c>
+    </row>
+    <row r="49" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H49" s="12">
         <v>-0.94999999999998996</v>
       </c>
       <c r="I49">
         <f>_xll.acq_interpolator_eval($F$5,H49)</f>
+        <v>-0.37950519823197815</v>
+      </c>
+      <c r="K49">
+        <f>_xll.acq_interpolator_eval(K$2,$H49)</f>
+        <v>-0.36787944117144233</v>
+      </c>
+      <c r="L49">
+        <f>_xll.acq_interpolator_eval(L$2,$H49)</f>
+        <v>-0.37003153620786877</v>
+      </c>
+      <c r="M49">
+        <f>_xll.acq_interpolator_eval(M$2,$H49)</f>
+        <v>-0.38931489292757998</v>
+      </c>
+      <c r="N49">
+        <f>_xll.acq_interpolator_eval(N$2,$H49)</f>
         <v>-0.38453911723315864</v>
       </c>
-      <c r="L49" s="14"/>
-    </row>
-    <row r="50" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O49">
+        <f>_xll.acq_interpolator_eval(O$2,$H49)</f>
+        <v>-0.38453911723315864</v>
+      </c>
+      <c r="P49">
+        <f>_xll.acq_interpolator_eval(P$2,$H49)</f>
+        <v>-0.37950519823197815</v>
+      </c>
+      <c r="Q49">
+        <f>_xll.acq_interpolator_eval(Q$2,$H49)</f>
+        <v>-0.38628135286213738</v>
+      </c>
+      <c r="R49">
+        <f>_xll.acq_interpolator_eval(R$2,$H49)</f>
+        <v>-0.38628135286213738</v>
+      </c>
+      <c r="S49">
+        <f>_xll.acq_interpolator_eval(S$2,$H49)</f>
+        <v>-0.37158104463409569</v>
+      </c>
+    </row>
+    <row r="50" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H50" s="12">
         <v>-0.89999999999999003</v>
       </c>
       <c r="I50">
         <f>_xll.acq_interpolator_eval($F$5,H50)</f>
+        <v>-0.39080699056841661</v>
+      </c>
+      <c r="K50">
+        <f>_xll.acq_interpolator_eval(K$2,$H50)</f>
+        <v>-0.36787944117144233</v>
+      </c>
+      <c r="L50">
+        <f>_xll.acq_interpolator_eval(L$2,$H50)</f>
+        <v>-0.37218363124429477</v>
+      </c>
+      <c r="M50">
+        <f>_xll.acq_interpolator_eval(M$2,$H50)</f>
+        <v>-0.40646515430155561</v>
+      </c>
+      <c r="N50">
+        <f>_xll.acq_interpolator_eval(N$2,$H50)</f>
         <v>-0.3990254397593116</v>
       </c>
-      <c r="L50" s="14"/>
-    </row>
-    <row r="51" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O50">
+        <f>_xll.acq_interpolator_eval(O$2,$H50)</f>
+        <v>-0.3990254397593116</v>
+      </c>
+      <c r="P50">
+        <f>_xll.acq_interpolator_eval(P$2,$H50)</f>
+        <v>-0.39080699056841661</v>
+      </c>
+      <c r="Q50">
+        <f>_xll.acq_interpolator_eval(Q$2,$H50)</f>
+        <v>-0.40516762215888941</v>
+      </c>
+      <c r="R50">
+        <f>_xll.acq_interpolator_eval(R$2,$H50)</f>
+        <v>-0.40516762215888941</v>
+      </c>
+      <c r="S50">
+        <f>_xll.acq_interpolator_eval(S$2,$H50)</f>
+        <v>-0.37424964247926379</v>
+      </c>
+    </row>
+    <row r="51" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H51" s="12">
         <v>-0.84999999999998999</v>
       </c>
       <c r="I51">
         <f>_xll.acq_interpolator_eval($F$5,H51)</f>
+        <v>-0.40111683311695351</v>
+      </c>
+      <c r="K51">
+        <f>_xll.acq_interpolator_eval(K$2,$H51)</f>
+        <v>-0.36787944117144233</v>
+      </c>
+      <c r="L51">
+        <f>_xll.acq_interpolator_eval(L$2,$H51)</f>
+        <v>-0.37433572628072082</v>
+      </c>
+      <c r="M51">
+        <f>_xll.acq_interpolator_eval(M$2,$H51)</f>
+        <v>-0.41933022529337399</v>
+      </c>
+      <c r="N51">
+        <f>_xll.acq_interpolator_eval(N$2,$H51)</f>
         <v>-0.41094445124029888</v>
       </c>
-      <c r="L51" s="14"/>
-    </row>
-    <row r="52" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O51">
+        <f>_xll.acq_interpolator_eval(O$2,$H51)</f>
+        <v>-0.41094445124029888</v>
+      </c>
+      <c r="P51">
+        <f>_xll.acq_interpolator_eval(P$2,$H51)</f>
+        <v>-0.40111683311695351</v>
+      </c>
+      <c r="Q51">
+        <f>_xll.acq_interpolator_eval(Q$2,$H51)</f>
+        <v>-0.42300246357157373</v>
+      </c>
+      <c r="R51">
+        <f>_xll.acq_interpolator_eval(R$2,$H51)</f>
+        <v>-0.42300246357157373</v>
+      </c>
+      <c r="S51">
+        <f>_xll.acq_interpolator_eval(S$2,$H51)</f>
+        <v>-0.37614348611131859</v>
+      </c>
+    </row>
+    <row r="52" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H52" s="12">
         <v>-0.79999999999999005</v>
       </c>
       <c r="I52">
         <f>_xll.acq_interpolator_eval($F$5,H52)</f>
+        <v>-0.40976674081378189</v>
+      </c>
+      <c r="K52">
+        <f>_xll.acq_interpolator_eval(K$2,$H52)</f>
+        <v>-0.36787944117144233</v>
+      </c>
+      <c r="L52">
+        <f>_xll.acq_interpolator_eval(L$2,$H52)</f>
+        <v>-0.37648782131714681</v>
+      </c>
+      <c r="M52">
+        <f>_xll.acq_interpolator_eval(M$2,$H52)</f>
+        <v>-0.42791010590303508</v>
+      </c>
+      <c r="N52">
+        <f>_xll.acq_interpolator_eval(N$2,$H52)</f>
         <v>-0.41990219416651509</v>
       </c>
-      <c r="L52" s="14"/>
-    </row>
-    <row r="53" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O52">
+        <f>_xll.acq_interpolator_eval(O$2,$H52)</f>
+        <v>-0.41990219416651509</v>
+      </c>
+      <c r="P52">
+        <f>_xll.acq_interpolator_eval(P$2,$H52)</f>
+        <v>-0.40976674081378189</v>
+      </c>
+      <c r="Q52">
+        <f>_xll.acq_interpolator_eval(Q$2,$H52)</f>
+        <v>-0.43825009161006201</v>
+      </c>
+      <c r="R52">
+        <f>_xll.acq_interpolator_eval(R$2,$H52)</f>
+        <v>-0.43825009161006201</v>
+      </c>
+      <c r="S52">
+        <f>_xll.acq_interpolator_eval(S$2,$H52)</f>
+        <v>-0.37752082693463113</v>
+      </c>
+    </row>
+    <row r="53" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H53" s="12">
         <v>-0.74999999999999001</v>
       </c>
       <c r="I53">
         <f>_xll.acq_interpolator_eval($F$5,H53)</f>
+        <v>-0.41608872859509516</v>
+      </c>
+      <c r="K53">
+        <f>_xll.acq_interpolator_eval(K$2,$H53)</f>
+        <v>-0.38940039153570244</v>
+      </c>
+      <c r="L53">
+        <f>_xll.acq_interpolator_eval(L$2,$H53)</f>
+        <v>-0.3786399163535728</v>
+      </c>
+      <c r="M53">
+        <f>_xll.acq_interpolator_eval(M$2,$H53)</f>
+        <v>-0.43220479613053886</v>
+      </c>
+      <c r="N53">
+        <f>_xll.acq_interpolator_eval(N$2,$H53)</f>
         <v>-0.42550471102835441</v>
       </c>
-      <c r="L53" s="14"/>
-    </row>
-    <row r="54" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O53">
+        <f>_xll.acq_interpolator_eval(O$2,$H53)</f>
+        <v>-0.42550471102835441</v>
+      </c>
+      <c r="P53">
+        <f>_xll.acq_interpolator_eval(P$2,$H53)</f>
+        <v>-0.41608872859509516</v>
+      </c>
+      <c r="Q53">
+        <f>_xll.acq_interpolator_eval(Q$2,$H53)</f>
+        <v>-0.44937472078422619</v>
+      </c>
+      <c r="R53">
+        <f>_xll.acq_interpolator_eval(R$2,$H53)</f>
+        <v>-0.44937472078422619</v>
+      </c>
+      <c r="S53">
+        <f>_xll.acq_interpolator_eval(S$2,$H53)</f>
+        <v>-0.37863991635357264</v>
+      </c>
+    </row>
+    <row r="54" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H54" s="12">
         <v>-0.69999999999998996</v>
       </c>
       <c r="I54">
         <f>_xll.acq_interpolator_eval($F$5,H54)</f>
+        <v>-0.41941481139708653</v>
+      </c>
+      <c r="K54">
+        <f>_xll.acq_interpolator_eval(K$2,$H54)</f>
+        <v>-0.38940039153570244</v>
+      </c>
+      <c r="L54">
+        <f>_xll.acq_interpolator_eval(L$2,$H54)</f>
+        <v>-0.38079201138999885</v>
+      </c>
+      <c r="M54">
+        <f>_xll.acq_interpolator_eval(M$2,$H54)</f>
+        <v>-0.43221429597588534</v>
+      </c>
+      <c r="N54">
+        <f>_xll.acq_interpolator_eval(N$2,$H54)</f>
         <v>-0.42735804431621111</v>
       </c>
-      <c r="L54" s="14"/>
-    </row>
-    <row r="55" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O54">
+        <f>_xll.acq_interpolator_eval(O$2,$H54)</f>
+        <v>-0.42735804431621111</v>
+      </c>
+      <c r="P54">
+        <f>_xll.acq_interpolator_eval(P$2,$H54)</f>
+        <v>-0.41941481139708653</v>
+      </c>
+      <c r="Q54">
+        <f>_xll.acq_interpolator_eval(Q$2,$H54)</f>
+        <v>-0.45484056560393782</v>
+      </c>
+      <c r="R54">
+        <f>_xll.acq_interpolator_eval(R$2,$H54)</f>
+        <v>-0.45484056560393782</v>
+      </c>
+      <c r="S54">
+        <f>_xll.acq_interpolator_eval(S$2,$H54)</f>
+        <v>-0.37975900577251415</v>
+      </c>
+    </row>
+    <row r="55" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H55" s="12">
         <v>-0.64999999999999003</v>
       </c>
       <c r="I55">
         <f>_xll.acq_interpolator_eval($F$5,H55)</f>
+        <v>-0.41907700415594934</v>
+      </c>
+      <c r="K55">
+        <f>_xll.acq_interpolator_eval(K$2,$H55)</f>
+        <v>-0.38940039153570244</v>
+      </c>
+      <c r="L55">
+        <f>_xll.acq_interpolator_eval(L$2,$H55)</f>
+        <v>-0.38294410642642485</v>
+      </c>
+      <c r="M55">
+        <f>_xll.acq_interpolator_eval(M$2,$H55)</f>
+        <v>-0.42793860543907453</v>
+      </c>
+      <c r="N55">
+        <f>_xll.acq_interpolator_eval(N$2,$H55)</f>
         <v>-0.42506823652047954</v>
       </c>
-      <c r="L55" s="14"/>
-    </row>
-    <row r="56" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O55">
+        <f>_xll.acq_interpolator_eval(O$2,$H55)</f>
+        <v>-0.42506823652047954</v>
+      </c>
+      <c r="P55">
+        <f>_xll.acq_interpolator_eval(P$2,$H55)</f>
+        <v>-0.41907700415594934</v>
+      </c>
+      <c r="Q55">
+        <f>_xll.acq_interpolator_eval(Q$2,$H55)</f>
+        <v>-0.45311184057906873</v>
+      </c>
+      <c r="R55">
+        <f>_xll.acq_interpolator_eval(R$2,$H55)</f>
+        <v>-0.45311184057906873</v>
+      </c>
+      <c r="S55">
+        <f>_xll.acq_interpolator_eval(S$2,$H55)</f>
+        <v>-0.38113634659582685</v>
+      </c>
+    </row>
+    <row r="56" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H56" s="12">
         <v>-0.59999999999998999</v>
       </c>
       <c r="I56">
         <f>_xll.acq_interpolator_eval($F$5,H56)</f>
+        <v>-0.41440732180787676</v>
+      </c>
+      <c r="K56">
+        <f>_xll.acq_interpolator_eval(K$2,$H56)</f>
+        <v>-0.38940039153570244</v>
+      </c>
+      <c r="L56">
+        <f>_xll.acq_interpolator_eval(L$2,$H56)</f>
+        <v>-0.38509620146285084</v>
+      </c>
+      <c r="M56">
+        <f>_xll.acq_interpolator_eval(M$2,$H56)</f>
+        <v>-0.41937772452010658</v>
+      </c>
+      <c r="N56">
+        <f>_xll.acq_interpolator_eval(N$2,$H56)</f>
         <v>-0.41824133013155401</v>
       </c>
-      <c r="L56" s="14"/>
-    </row>
-    <row r="57" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O56">
+        <f>_xll.acq_interpolator_eval(O$2,$H56)</f>
+        <v>-0.41824133013155401</v>
+      </c>
+      <c r="P56">
+        <f>_xll.acq_interpolator_eval(P$2,$H56)</f>
+        <v>-0.41440732180787676</v>
+      </c>
+      <c r="Q56">
+        <f>_xll.acq_interpolator_eval(Q$2,$H56)</f>
+        <v>-0.44265276021949063</v>
+      </c>
+      <c r="R56">
+        <f>_xll.acq_interpolator_eval(R$2,$H56)</f>
+        <v>-0.44265276021949063</v>
+      </c>
+      <c r="S56">
+        <f>_xll.acq_interpolator_eval(S$2,$H56)</f>
+        <v>-0.38303019022788193</v>
+      </c>
+    </row>
+    <row r="57" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H57" s="12">
         <v>-0.54999999999999005</v>
       </c>
       <c r="I57">
         <f>_xll.acq_interpolator_eval($F$5,H57)</f>
+        <v>-0.40473777928906224</v>
+      </c>
+      <c r="K57">
+        <f>_xll.acq_interpolator_eval(K$2,$H57)</f>
+        <v>-0.38940039153570244</v>
+      </c>
+      <c r="L57">
+        <f>_xll.acq_interpolator_eval(L$2,$H57)</f>
+        <v>-0.38724829649927683</v>
+      </c>
+      <c r="M57">
+        <f>_xll.acq_interpolator_eval(M$2,$H57)</f>
+        <v>-0.40653165321898121</v>
+      </c>
+      <c r="N57">
+        <f>_xll.acq_interpolator_eval(N$2,$H57)</f>
         <v>-0.40648336763982895</v>
       </c>
-      <c r="L57" s="14"/>
-    </row>
-    <row r="58" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O57">
+        <f>_xll.acq_interpolator_eval(O$2,$H57)</f>
+        <v>-0.40648336763982895</v>
+      </c>
+      <c r="P57">
+        <f>_xll.acq_interpolator_eval(P$2,$H57)</f>
+        <v>-0.40473777928906224</v>
+      </c>
+      <c r="Q57">
+        <f>_xll.acq_interpolator_eval(Q$2,$H57)</f>
+        <v>-0.42192753903507541</v>
+      </c>
+      <c r="R57">
+        <f>_xll.acq_interpolator_eval(R$2,$H57)</f>
+        <v>-0.42192753903507541</v>
+      </c>
+      <c r="S57">
+        <f>_xll.acq_interpolator_eval(S$2,$H57)</f>
+        <v>-0.38569878807305036</v>
+      </c>
+    </row>
+    <row r="58" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H58" s="12">
         <v>-0.49999999999999001</v>
       </c>
       <c r="I58">
         <f>_xll.acq_interpolator_eval($F$5,H58)</f>
+        <v>-0.38940039153569878</v>
+      </c>
+      <c r="K58">
+        <f>_xll.acq_interpolator_eval(K$2,$H58)</f>
+        <v>-0.38940039153570244</v>
+      </c>
+      <c r="L58">
+        <f>_xll.acq_interpolator_eval(L$2,$H58)</f>
+        <v>-0.38940039153569467</v>
+      </c>
+      <c r="M58">
+        <f>_xll.acq_interpolator_eval(M$2,$H58)</f>
+        <v>-0.38940039153569855</v>
+      </c>
+      <c r="N58">
+        <f>_xll.acq_interpolator_eval(N$2,$H58)</f>
         <v>-0.3894003915356985</v>
       </c>
-      <c r="L58" s="14"/>
-    </row>
-    <row r="59" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O58">
+        <f>_xll.acq_interpolator_eval(O$2,$H58)</f>
+        <v>-0.3894003915356985</v>
+      </c>
+      <c r="P58">
+        <f>_xll.acq_interpolator_eval(P$2,$H58)</f>
+        <v>-0.38940039153569878</v>
+      </c>
+      <c r="Q58">
+        <f>_xll.acq_interpolator_eval(Q$2,$H58)</f>
+        <v>-0.38940039153569467</v>
+      </c>
+      <c r="R58">
+        <f>_xll.acq_interpolator_eval(R$2,$H58)</f>
+        <v>-0.38940039153569467</v>
+      </c>
+      <c r="S58">
+        <f>_xll.acq_interpolator_eval(S$2,$H58)</f>
+        <v>-0.38940039153570327</v>
+      </c>
+    </row>
+    <row r="59" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H59" s="12">
         <v>-0.44999999999999002</v>
       </c>
       <c r="I59">
         <f>_xll.acq_interpolator_eval($F$5,H59)</f>
+        <v>-0.36710266672907549</v>
+      </c>
+      <c r="K59">
+        <f>_xll.acq_interpolator_eval(K$2,$H59)</f>
+        <v>-0.38940039153570244</v>
+      </c>
+      <c r="L59">
+        <f>_xll.acq_interpolator_eval(L$2,$H59)</f>
+        <v>-0.35046035238212442</v>
+      </c>
+      <c r="M59">
+        <f>_xll.acq_interpolator_eval(M$2,$H59)</f>
+        <v>-0.36815991643341645</v>
+      </c>
+      <c r="N59">
+        <f>_xll.acq_interpolator_eval(N$2,$H59)</f>
         <v>-0.36675942007985823</v>
       </c>
-      <c r="L59" s="14"/>
-    </row>
-    <row r="60" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O59">
+        <f>_xll.acq_interpolator_eval(O$2,$H59)</f>
+        <v>-0.36675942007985823</v>
+      </c>
+      <c r="P59">
+        <f>_xll.acq_interpolator_eval(P$2,$H59)</f>
+        <v>-0.36710266672907549</v>
+      </c>
+      <c r="Q59">
+        <f>_xll.acq_interpolator_eval(Q$2,$H59)</f>
+        <v>-0.35046035238212442</v>
+      </c>
+      <c r="R59">
+        <f>_xll.acq_interpolator_eval(R$2,$H59)</f>
+        <v>-0.35046035238212442</v>
+      </c>
+      <c r="S59">
+        <f>_xll.acq_interpolator_eval(S$2,$H59)</f>
+        <v>-0.38548817805553193</v>
+      </c>
+    </row>
+    <row r="60" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H60" s="12">
         <v>-0.39999999999998997</v>
       </c>
       <c r="I60">
         <f>_xll.acq_interpolator_eval($F$5,H60)</f>
+        <v>-0.33781927911015308</v>
+      </c>
+      <c r="K60">
+        <f>_xll.acq_interpolator_eval(K$2,$H60)</f>
+        <v>-0.38940039153570244</v>
+      </c>
+      <c r="L60">
+        <f>_xll.acq_interpolator_eval(L$2,$H60)</f>
+        <v>-0.31152031322855411</v>
+      </c>
+      <c r="M60">
+        <f>_xll.acq_interpolator_eval(M$2,$H60)</f>
+        <v>-0.34298620487529224</v>
+      </c>
+      <c r="N60">
+        <f>_xll.acq_interpolator_eval(N$2,$H60)</f>
         <v>-0.33897137461420834</v>
       </c>
-      <c r="L60" s="14"/>
-    </row>
-    <row r="61" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O60">
+        <f>_xll.acq_interpolator_eval(O$2,$H60)</f>
+        <v>-0.33897137461420834</v>
+      </c>
+      <c r="P60">
+        <f>_xll.acq_interpolator_eval(P$2,$H60)</f>
+        <v>-0.33781927911015308</v>
+      </c>
+      <c r="Q60">
+        <f>_xll.acq_interpolator_eval(Q$2,$H60)</f>
+        <v>-0.31152031322855411</v>
+      </c>
+      <c r="R60">
+        <f>_xll.acq_interpolator_eval(R$2,$H60)</f>
+        <v>-0.31152031322855411</v>
+      </c>
+      <c r="S60">
+        <f>_xll.acq_interpolator_eval(S$2,$H60)</f>
+        <v>-0.36687292663837745</v>
+      </c>
+    </row>
+    <row r="61" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H61" s="12">
         <v>-0.34999999999997999</v>
       </c>
       <c r="I61">
         <f>_xll.acq_interpolator_eval($F$5,H61)</f>
+        <v>-0.30278299270462394</v>
+      </c>
+      <c r="K61">
+        <f>_xll.acq_interpolator_eval(K$2,$H61)</f>
+        <v>-0.38940039153570244</v>
+      </c>
+      <c r="L61">
+        <f>_xll.acq_interpolator_eval(L$2,$H61)</f>
+        <v>-0.27258027407497609</v>
+      </c>
+      <c r="M61">
+        <f>_xll.acq_interpolator_eval(M$2,$H61)</f>
+        <v>-0.3138792568613199</v>
+      </c>
+      <c r="N61">
+        <f>_xll.acq_interpolator_eval(N$2,$H61)</f>
         <v>-0.3066081522509429</v>
       </c>
-      <c r="L61" s="14"/>
-    </row>
-    <row r="62" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O61">
+        <f>_xll.acq_interpolator_eval(O$2,$H61)</f>
+        <v>-0.3066081522509429</v>
+      </c>
+      <c r="P61">
+        <f>_xll.acq_interpolator_eval(P$2,$H61)</f>
+        <v>-0.30278299270462394</v>
+      </c>
+      <c r="Q61">
+        <f>_xll.acq_interpolator_eval(Q$2,$H61)</f>
+        <v>-0.27258027407497609</v>
+      </c>
+      <c r="R61">
+        <f>_xll.acq_interpolator_eval(R$2,$H61)</f>
+        <v>-0.27258027407497609</v>
+      </c>
+      <c r="S61">
+        <f>_xll.acq_interpolator_eval(S$2,$H61)</f>
+        <v>-0.33614929103781804</v>
+      </c>
+    </row>
+    <row r="62" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H62" s="12">
         <v>-0.29999999999998</v>
       </c>
       <c r="I62">
         <f>_xll.acq_interpolator_eval($F$5,H62)</f>
+        <v>-0.26322657153820217</v>
+      </c>
+      <c r="K62">
+        <f>_xll.acq_interpolator_eval(K$2,$H62)</f>
+        <v>-0.38940039153570244</v>
+      </c>
+      <c r="L62">
+        <f>_xll.acq_interpolator_eval(L$2,$H62)</f>
+        <v>-0.2336402349214059</v>
+      </c>
+      <c r="M62">
+        <f>_xll.acq_interpolator_eval(M$2,$H62)</f>
+        <v>-0.28083907239151101</v>
+      </c>
+      <c r="N62">
+        <f>_xll.acq_interpolator_eval(N$2,$H62)</f>
         <v>-0.27024165010227608</v>
       </c>
-      <c r="L62" s="14"/>
-    </row>
-    <row r="63" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O62">
+        <f>_xll.acq_interpolator_eval(O$2,$H62)</f>
+        <v>-0.27024165010227608</v>
+      </c>
+      <c r="P62">
+        <f>_xll.acq_interpolator_eval(P$2,$H62)</f>
+        <v>-0.26322657153820217</v>
+      </c>
+      <c r="Q62">
+        <f>_xll.acq_interpolator_eval(Q$2,$H62)</f>
+        <v>-0.2336402349214059</v>
+      </c>
+      <c r="R62">
+        <f>_xll.acq_interpolator_eval(R$2,$H62)</f>
+        <v>-0.2336402349214059</v>
+      </c>
+      <c r="S62">
+        <f>_xll.acq_interpolator_eval(S$2,$H62)</f>
+        <v>-0.29591192500745184</v>
+      </c>
+    </row>
+    <row r="63" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H63" s="12">
         <v>-0.24999999999997999</v>
       </c>
       <c r="I63">
         <f>_xll.acq_interpolator_eval($F$5,H63)</f>
+        <v>-0.22038277963658126</v>
+      </c>
+      <c r="K63">
+        <f>_xll.acq_interpolator_eval(K$2,$H63)</f>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f>_xll.acq_interpolator_eval(L$2,$H63)</f>
+        <v>-0.19470019576783565</v>
+      </c>
+      <c r="M63">
+        <f>_xll.acq_interpolator_eval(M$2,$H63)</f>
+        <v>-0.24386565146586023</v>
+      </c>
+      <c r="N63">
+        <f>_xll.acq_interpolator_eval(N$2,$H63)</f>
         <v>-0.23044376528040292</v>
       </c>
-      <c r="L63" s="14"/>
-    </row>
-    <row r="64" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O63">
+        <f>_xll.acq_interpolator_eval(O$2,$H63)</f>
+        <v>-0.23044376528040292</v>
+      </c>
+      <c r="P63">
+        <f>_xll.acq_interpolator_eval(P$2,$H63)</f>
+        <v>-0.22038277963658126</v>
+      </c>
+      <c r="Q63">
+        <f>_xll.acq_interpolator_eval(Q$2,$H63)</f>
+        <v>-0.19470019576783568</v>
+      </c>
+      <c r="R63">
+        <f>_xll.acq_interpolator_eval(R$2,$H63)</f>
+        <v>-0.19470019576783568</v>
+      </c>
+      <c r="S63">
+        <f>_xll.acq_interpolator_eval(S$2,$H63)</f>
+        <v>-0.24875548230085917</v>
+      </c>
+    </row>
+    <row r="64" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H64" s="12">
         <v>-0.19999999999998</v>
       </c>
       <c r="I64">
         <f>_xll.acq_interpolator_eval($F$5,H64)</f>
+        <v>-0.17548438102546096</v>
+      </c>
+      <c r="K64">
+        <f>_xll.acq_interpolator_eval(K$2,$H64)</f>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f>_xll.acq_interpolator_eval(L$2,$H64)</f>
+        <v>-0.15576015661426537</v>
+      </c>
+      <c r="M64">
+        <f>_xll.acq_interpolator_eval(M$2,$H64)</f>
+        <v>-0.20295899408436741</v>
+      </c>
+      <c r="N64">
+        <f>_xll.acq_interpolator_eval(N$2,$H64)</f>
         <v>-0.18778639489752452</v>
       </c>
-      <c r="L64" s="14"/>
-    </row>
-    <row r="65" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O64">
+        <f>_xll.acq_interpolator_eval(O$2,$H64)</f>
+        <v>-0.18778639489752452</v>
+      </c>
+      <c r="P64">
+        <f>_xll.acq_interpolator_eval(P$2,$H64)</f>
+        <v>-0.17548438102546096</v>
+      </c>
+      <c r="Q64">
+        <f>_xll.acq_interpolator_eval(Q$2,$H64)</f>
+        <v>-0.1557601566142654</v>
+      </c>
+      <c r="R64">
+        <f>_xll.acq_interpolator_eval(R$2,$H64)</f>
+        <v>-0.1557601566142654</v>
+      </c>
+      <c r="S64">
+        <f>_xll.acq_interpolator_eval(S$2,$H64)</f>
+        <v>-0.19727461667162521</v>
+      </c>
+    </row>
+    <row r="65" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H65" s="12">
         <v>-0.14999999999998001</v>
       </c>
       <c r="I65">
         <f>_xll.acq_interpolator_eval($F$5,H65)</f>
+        <v>-0.12976413973054129</v>
+      </c>
+      <c r="K65">
+        <f>_xll.acq_interpolator_eval(K$2,$H65)</f>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f>_xll.acq_interpolator_eval(L$2,$H65)</f>
+        <v>-0.11682011746069521</v>
+      </c>
+      <c r="M65">
+        <f>_xll.acq_interpolator_eval(M$2,$H65)</f>
+        <v>-0.1581191002470328</v>
+      </c>
+      <c r="N65">
+        <f>_xll.acq_interpolator_eval(N$2,$H65)</f>
         <v>-0.14284143606584207</v>
       </c>
-      <c r="L65" s="14"/>
-    </row>
-    <row r="66" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O65">
+        <f>_xll.acq_interpolator_eval(O$2,$H65)</f>
+        <v>-0.14284143606584207</v>
+      </c>
+      <c r="P65">
+        <f>_xll.acq_interpolator_eval(P$2,$H65)</f>
+        <v>-0.12976413973054129</v>
+      </c>
+      <c r="Q65">
+        <f>_xll.acq_interpolator_eval(Q$2,$H65)</f>
+        <v>-0.11682011746069521</v>
+      </c>
+      <c r="R65">
+        <f>_xll.acq_interpolator_eval(R$2,$H65)</f>
+        <v>-0.11682011746069521</v>
+      </c>
+      <c r="S65">
+        <f>_xll.acq_interpolator_eval(S$2,$H65)</f>
+        <v>-0.14406398187333552</v>
+      </c>
+    </row>
+    <row r="66" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H66" s="12">
         <v>-9.9999999999980105E-2</v>
       </c>
       <c r="I66">
         <f>_xll.acq_interpolator_eval($F$5,H66)</f>
+        <v>-8.4454819777522103E-2</v>
+      </c>
+      <c r="K66">
+        <f>_xll.acq_interpolator_eval(K$2,$H66)</f>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f>_xll.acq_interpolator_eval(L$2,$H66)</f>
+        <v>-7.7880078307125011E-2</v>
+      </c>
+      <c r="M66">
+        <f>_xll.acq_interpolator_eval(M$2,$H66)</f>
+        <v>-0.10934596995385602</v>
+      </c>
+      <c r="N66">
+        <f>_xll.acq_interpolator_eval(N$2,$H66)</f>
         <v>-9.6180785897556589E-2</v>
       </c>
-      <c r="L66" s="14"/>
-    </row>
-    <row r="67" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O66">
+        <f>_xll.acq_interpolator_eval(O$2,$H66)</f>
+        <v>-9.6180785897556589E-2</v>
+      </c>
+      <c r="P66">
+        <f>_xll.acq_interpolator_eval(P$2,$H66)</f>
+        <v>-8.4454819777522103E-2</v>
+      </c>
+      <c r="Q66">
+        <f>_xll.acq_interpolator_eval(Q$2,$H66)</f>
+        <v>-7.7880078307125011E-2</v>
+      </c>
+      <c r="R66">
+        <f>_xll.acq_interpolator_eval(R$2,$H66)</f>
+        <v>-7.7880078307125011E-2</v>
+      </c>
+      <c r="S66">
+        <f>_xll.acq_interpolator_eval(S$2,$H66)</f>
+        <v>-9.1718231659575294E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H67" s="12">
         <v>-4.9999999999980303E-2</v>
       </c>
       <c r="I67">
         <f>_xll.acq_interpolator_eval($F$5,H67)</f>
+        <v>-4.0789185192103346E-2</v>
+      </c>
+      <c r="K67">
+        <f>_xll.acq_interpolator_eval(K$2,$H67)</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f>_xll.acq_interpolator_eval(L$2,$H67)</f>
+        <v>-3.8940039153554873E-2</v>
+      </c>
+      <c r="M67">
+        <f>_xll.acq_interpolator_eval(M$2,$H67)</f>
+        <v>-5.6639603204837533E-2</v>
+      </c>
+      <c r="N67">
+        <f>_xll.acq_interpolator_eval(N$2,$H67)</f>
         <v>-4.8376341504869247E-2</v>
       </c>
-      <c r="L67" s="14"/>
-    </row>
-    <row r="68" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O67">
+        <f>_xll.acq_interpolator_eval(O$2,$H67)</f>
+        <v>-4.8376341504869247E-2</v>
+      </c>
+      <c r="P67">
+        <f>_xll.acq_interpolator_eval(P$2,$H67)</f>
+        <v>-4.0789185192103346E-2</v>
+      </c>
+      <c r="Q67">
+        <f>_xll.acq_interpolator_eval(Q$2,$H67)</f>
+        <v>-3.8940039153554928E-2</v>
+      </c>
+      <c r="R67">
+        <f>_xll.acq_interpolator_eval(R$2,$H67)</f>
+        <v>-3.8940039153554928E-2</v>
+      </c>
+      <c r="S67">
+        <f>_xll.acq_interpolator_eval(S$2,$H67)</f>
+        <v>-4.2832019783929989E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H68" s="12">
         <v>1.9984014443252799E-14</v>
       </c>
       <c r="I68">
         <f>_xll.acq_interpolator_eval($F$5,H68)</f>
+        <v>1.5563566097314008E-14</v>
+      </c>
+      <c r="K68">
+        <f>_xll.acq_interpolator_eval(K$2,$H68)</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f>_xll.acq_interpolator_eval(L$2,$H68)</f>
+        <v>1.5563566097315545E-14</v>
+      </c>
+      <c r="M68">
+        <f>_xll.acq_interpolator_eval(M$2,$H68)</f>
+        <v>2.3423751511542659E-14</v>
+      </c>
+      <c r="N68">
+        <f>_xll.acq_interpolator_eval(N$2,$H68)</f>
         <v>1.937316614740927E-14</v>
       </c>
-      <c r="L68" s="14"/>
-    </row>
-    <row r="69" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O68">
+        <f>_xll.acq_interpolator_eval(O$2,$H68)</f>
+        <v>1.937316614740927E-14</v>
+      </c>
+      <c r="P68">
+        <f>_xll.acq_interpolator_eval(P$2,$H68)</f>
+        <v>1.5563566097314008E-14</v>
+      </c>
+      <c r="Q68">
+        <f>_xll.acq_interpolator_eval(Q$2,$H68)</f>
+        <v>1.5563566097315545E-14</v>
+      </c>
+      <c r="R68">
+        <f>_xll.acq_interpolator_eval(R$2,$H68)</f>
+        <v>1.5563566097315545E-14</v>
+      </c>
+      <c r="S68">
+        <f>_xll.acq_interpolator_eval(S$2,$H68)</f>
+        <v>1.5563566097314232E-14</v>
+      </c>
+    </row>
+    <row r="69" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H69" s="12">
         <v>5.0000000000019799E-2</v>
       </c>
       <c r="I69">
         <f>_xll.acq_interpolator_eval($F$5,H69)</f>
+        <v>4.0789185192136902E-2</v>
+      </c>
+      <c r="K69">
+        <f>_xll.acq_interpolator_eval(K$2,$H69)</f>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f>_xll.acq_interpolator_eval(L$2,$H69)</f>
+        <v>3.8940039153585661E-2</v>
+      </c>
+      <c r="M69">
+        <f>_xll.acq_interpolator_eval(M$2,$H69)</f>
+        <v>5.6639603204880741E-2</v>
+      </c>
+      <c r="N69">
+        <f>_xll.acq_interpolator_eval(N$2,$H69)</f>
         <v>4.8376341504907328E-2</v>
       </c>
-      <c r="L69" s="14"/>
-    </row>
-    <row r="70" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O69">
+        <f>_xll.acq_interpolator_eval(O$2,$H69)</f>
+        <v>4.8376341504907328E-2</v>
+      </c>
+      <c r="P69">
+        <f>_xll.acq_interpolator_eval(P$2,$H69)</f>
+        <v>4.0789185192136902E-2</v>
+      </c>
+      <c r="Q69">
+        <f>_xll.acq_interpolator_eval(Q$2,$H69)</f>
+        <v>3.8940039153585661E-2</v>
+      </c>
+      <c r="R69">
+        <f>_xll.acq_interpolator_eval(R$2,$H69)</f>
+        <v>3.8940039153585661E-2</v>
+      </c>
+      <c r="S69">
+        <f>_xll.acq_interpolator_eval(S$2,$H69)</f>
+        <v>4.205726557085266E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H70" s="12">
         <v>0.10000000000002</v>
       </c>
       <c r="I70">
         <f>_xll.acq_interpolator_eval($F$5,H70)</f>
+        <v>8.4454819777557782E-2</v>
+      </c>
+      <c r="K70">
+        <f>_xll.acq_interpolator_eval(K$2,$H70)</f>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f>_xll.acq_interpolator_eval(L$2,$H70)</f>
+        <v>7.788007830715607E-2</v>
+      </c>
+      <c r="M70">
+        <f>_xll.acq_interpolator_eval(M$2,$H70)</f>
+        <v>0.10934596995389652</v>
+      </c>
+      <c r="N70">
+        <f>_xll.acq_interpolator_eval(N$2,$H70)</f>
         <v>9.6180785897594351E-2</v>
       </c>
-      <c r="L70" s="14"/>
-    </row>
-    <row r="71" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O70">
+        <f>_xll.acq_interpolator_eval(O$2,$H70)</f>
+        <v>9.6180785897594351E-2</v>
+      </c>
+      <c r="P70">
+        <f>_xll.acq_interpolator_eval(P$2,$H70)</f>
+        <v>8.4454819777557782E-2</v>
+      </c>
+      <c r="Q70">
+        <f>_xll.acq_interpolator_eval(Q$2,$H70)</f>
+        <v>7.788007830715607E-2</v>
+      </c>
+      <c r="R70">
+        <f>_xll.acq_interpolator_eval(R$2,$H70)</f>
+        <v>7.788007830715607E-2</v>
+      </c>
+      <c r="S70">
+        <f>_xll.acq_interpolator_eval(S$2,$H70)</f>
+        <v>8.8963550012989778E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H71" s="12">
         <v>0.15000000000002001</v>
       </c>
       <c r="I71">
         <f>_xll.acq_interpolator_eval($F$5,H71)</f>
+        <v>0.12976413973057782</v>
+      </c>
+      <c r="K71">
+        <f>_xll.acq_interpolator_eval(K$2,$H71)</f>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f>_xll.acq_interpolator_eval(L$2,$H71)</f>
+        <v>0.11682011746072632</v>
+      </c>
+      <c r="M71">
+        <f>_xll.acq_interpolator_eval(M$2,$H71)</f>
+        <v>0.1581191002470701</v>
+      </c>
+      <c r="N71">
+        <f>_xll.acq_interpolator_eval(N$2,$H71)</f>
         <v>0.14284143606587876</v>
       </c>
-      <c r="L71" s="14"/>
-    </row>
-    <row r="72" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O71">
+        <f>_xll.acq_interpolator_eval(O$2,$H71)</f>
+        <v>0.14284143606587876</v>
+      </c>
+      <c r="P71">
+        <f>_xll.acq_interpolator_eval(P$2,$H71)</f>
+        <v>0.12976413973057782</v>
+      </c>
+      <c r="Q71">
+        <f>_xll.acq_interpolator_eval(Q$2,$H71)</f>
+        <v>0.11682011746072632</v>
+      </c>
+      <c r="R71">
+        <f>_xll.acq_interpolator_eval(R$2,$H71)</f>
+        <v>0.11682011746072632</v>
+      </c>
+      <c r="S71">
+        <f>_xll.acq_interpolator_eval(S$2,$H71)</f>
+        <v>0.13864070238158335</v>
+      </c>
+    </row>
+    <row r="72" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H72" s="12">
         <v>0.20000000000002</v>
       </c>
       <c r="I72">
         <f>_xll.acq_interpolator_eval($F$5,H72)</f>
+        <v>0.17548438102549738</v>
+      </c>
+      <c r="K72">
+        <f>_xll.acq_interpolator_eval(K$2,$H72)</f>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f>_xll.acq_interpolator_eval(L$2,$H72)</f>
+        <v>0.15576015661429654</v>
+      </c>
+      <c r="M72">
+        <f>_xll.acq_interpolator_eval(M$2,$H72)</f>
+        <v>0.20295899408440174</v>
+      </c>
+      <c r="N72">
+        <f>_xll.acq_interpolator_eval(N$2,$H72)</f>
         <v>0.18778639489755966</v>
       </c>
-      <c r="L72" s="14"/>
-    </row>
-    <row r="73" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O72">
+        <f>_xll.acq_interpolator_eval(O$2,$H72)</f>
+        <v>0.18778639489755966</v>
+      </c>
+      <c r="P72">
+        <f>_xll.acq_interpolator_eval(P$2,$H72)</f>
+        <v>0.17548438102549738</v>
+      </c>
+      <c r="Q72">
+        <f>_xll.acq_interpolator_eval(Q$2,$H72)</f>
+        <v>0.15576015661429654</v>
+      </c>
+      <c r="R72">
+        <f>_xll.acq_interpolator_eval(R$2,$H72)</f>
+        <v>0.15576015661429654</v>
+      </c>
+      <c r="S72">
+        <f>_xll.acq_interpolator_eval(S$2,$H72)</f>
+        <v>0.18901057173179048</v>
+      </c>
+    </row>
+    <row r="73" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H73" s="12">
         <v>0.25000000000001998</v>
       </c>
       <c r="I73">
         <f>_xll.acq_interpolator_eval($F$5,H73)</f>
+        <v>0.22038277963661648</v>
+      </c>
+      <c r="K73">
+        <f>_xll.acq_interpolator_eval(K$2,$H73)</f>
+        <v>0.38940039153570244</v>
+      </c>
+      <c r="L73">
+        <f>_xll.acq_interpolator_eval(L$2,$H73)</f>
+        <v>0.19470019576786679</v>
+      </c>
+      <c r="M73">
+        <f>_xll.acq_interpolator_eval(M$2,$H73)</f>
+        <v>0.24386565146589137</v>
+      </c>
+      <c r="N73">
+        <f>_xll.acq_interpolator_eval(N$2,$H73)</f>
         <v>0.23044376528043597</v>
       </c>
-      <c r="L73" s="14"/>
-    </row>
-    <row r="74" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O73">
+        <f>_xll.acq_interpolator_eval(O$2,$H73)</f>
+        <v>0.23044376528043597</v>
+      </c>
+      <c r="P73">
+        <f>_xll.acq_interpolator_eval(P$2,$H73)</f>
+        <v>0.22038277963661648</v>
+      </c>
+      <c r="Q73">
+        <f>_xll.acq_interpolator_eval(Q$2,$H73)</f>
+        <v>0.19470019576786676</v>
+      </c>
+      <c r="R73">
+        <f>_xll.acq_interpolator_eval(R$2,$H73)</f>
+        <v>0.19470019576786676</v>
+      </c>
+      <c r="S73">
+        <f>_xll.acq_interpolator_eval(S$2,$H73)</f>
+        <v>0.23799500711876803</v>
+      </c>
+    </row>
+    <row r="74" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H74" s="12">
         <v>0.30000000000001997</v>
       </c>
       <c r="I74">
         <f>_xll.acq_interpolator_eval($F$5,H74)</f>
+        <v>0.26322657153823531</v>
+      </c>
+      <c r="K74">
+        <f>_xll.acq_interpolator_eval(K$2,$H74)</f>
+        <v>0.38940039153570244</v>
+      </c>
+      <c r="L74">
+        <f>_xll.acq_interpolator_eval(L$2,$H74)</f>
+        <v>0.23364023492143701</v>
+      </c>
+      <c r="M74">
+        <f>_xll.acq_interpolator_eval(M$2,$H74)</f>
+        <v>0.28083907239153905</v>
+      </c>
+      <c r="N74">
+        <f>_xll.acq_interpolator_eval(N$2,$H74)</f>
         <v>0.27024165010230655</v>
       </c>
-      <c r="L74" s="14"/>
-    </row>
-    <row r="75" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O74">
+        <f>_xll.acq_interpolator_eval(O$2,$H74)</f>
+        <v>0.27024165010230655</v>
+      </c>
+      <c r="P74">
+        <f>_xll.acq_interpolator_eval(P$2,$H74)</f>
+        <v>0.26322657153823531</v>
+      </c>
+      <c r="Q74">
+        <f>_xll.acq_interpolator_eval(Q$2,$H74)</f>
+        <v>0.23364023492143698</v>
+      </c>
+      <c r="R74">
+        <f>_xll.acq_interpolator_eval(R$2,$H74)</f>
+        <v>0.23364023492143698</v>
+      </c>
+      <c r="S74">
+        <f>_xll.acq_interpolator_eval(S$2,$H74)</f>
+        <v>0.28351585759767295</v>
+      </c>
+    </row>
+    <row r="75" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H75" s="12">
         <v>0.35000000000002002</v>
       </c>
       <c r="I75">
         <f>_xll.acq_interpolator_eval($F$5,H75)</f>
+        <v>0.30278299270465397</v>
+      </c>
+      <c r="K75">
+        <f>_xll.acq_interpolator_eval(K$2,$H75)</f>
+        <v>0.38940039153570244</v>
+      </c>
+      <c r="L75">
+        <f>_xll.acq_interpolator_eval(L$2,$H75)</f>
+        <v>0.27258027407500729</v>
+      </c>
+      <c r="M75">
+        <f>_xll.acq_interpolator_eval(M$2,$H75)</f>
+        <v>0.31387925686134482</v>
+      </c>
+      <c r="N75">
+        <f>_xll.acq_interpolator_eval(N$2,$H75)</f>
         <v>0.30660815225097043</v>
       </c>
-      <c r="L75" s="14"/>
-    </row>
-    <row r="76" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O75">
+        <f>_xll.acq_interpolator_eval(O$2,$H75)</f>
+        <v>0.30660815225097043</v>
+      </c>
+      <c r="P75">
+        <f>_xll.acq_interpolator_eval(P$2,$H75)</f>
+        <v>0.30278299270465397</v>
+      </c>
+      <c r="Q75">
+        <f>_xll.acq_interpolator_eval(Q$2,$H75)</f>
+        <v>0.27258027407500723</v>
+      </c>
+      <c r="R75">
+        <f>_xll.acq_interpolator_eval(R$2,$H75)</f>
+        <v>0.27258027407500723</v>
+      </c>
+      <c r="S75">
+        <f>_xll.acq_interpolator_eval(S$2,$H75)</f>
+        <v>0.32349497222366214</v>
+      </c>
+    </row>
+    <row r="76" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H76" s="12">
         <v>0.40000000000002001</v>
       </c>
       <c r="I76">
         <f>_xll.acq_interpolator_eval($F$5,H76)</f>
+        <v>0.33781927911017251</v>
+      </c>
+      <c r="K76">
+        <f>_xll.acq_interpolator_eval(K$2,$H76)</f>
+        <v>0.38940039153570244</v>
+      </c>
+      <c r="L76">
+        <f>_xll.acq_interpolator_eval(L$2,$H76)</f>
+        <v>0.31152031322857754</v>
+      </c>
+      <c r="M76">
+        <f>_xll.acq_interpolator_eval(M$2,$H76)</f>
+        <v>0.34298620487530851</v>
+      </c>
+      <c r="N76">
+        <f>_xll.acq_interpolator_eval(N$2,$H76)</f>
         <v>0.33897137461422644</v>
       </c>
-      <c r="L76" s="14"/>
-    </row>
-    <row r="77" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O76">
+        <f>_xll.acq_interpolator_eval(O$2,$H76)</f>
+        <v>0.33897137461422644</v>
+      </c>
+      <c r="P76">
+        <f>_xll.acq_interpolator_eval(P$2,$H76)</f>
+        <v>0.33781927911017251</v>
+      </c>
+      <c r="Q76">
+        <f>_xll.acq_interpolator_eval(Q$2,$H76)</f>
+        <v>0.31152031322857748</v>
+      </c>
+      <c r="R76">
+        <f>_xll.acq_interpolator_eval(R$2,$H76)</f>
+        <v>0.31152031322857748</v>
+      </c>
+      <c r="S76">
+        <f>_xll.acq_interpolator_eval(S$2,$H76)</f>
+        <v>0.35585420005189244</v>
+      </c>
+    </row>
+    <row r="77" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H77" s="12">
         <v>0.45000000000002</v>
       </c>
       <c r="I77">
         <f>_xll.acq_interpolator_eval($F$5,H77)</f>
+        <v>0.36710266672909109</v>
+      </c>
+      <c r="K77">
+        <f>_xll.acq_interpolator_eval(K$2,$H77)</f>
+        <v>0.38940039153570244</v>
+      </c>
+      <c r="L77">
+        <f>_xll.acq_interpolator_eval(L$2,$H77)</f>
+        <v>0.35046035238214779</v>
+      </c>
+      <c r="M77">
+        <f>_xll.acq_interpolator_eval(M$2,$H77)</f>
+        <v>0.36815991643343032</v>
+      </c>
+      <c r="N77">
+        <f>_xll.acq_interpolator_eval(N$2,$H77)</f>
         <v>0.36675942007987344</v>
       </c>
-      <c r="L77" s="14"/>
-    </row>
-    <row r="78" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O77">
+        <f>_xll.acq_interpolator_eval(O$2,$H77)</f>
+        <v>0.36675942007987344</v>
+      </c>
+      <c r="P77">
+        <f>_xll.acq_interpolator_eval(P$2,$H77)</f>
+        <v>0.36710266672909109</v>
+      </c>
+      <c r="Q77">
+        <f>_xll.acq_interpolator_eval(Q$2,$H77)</f>
+        <v>0.35046035238214773</v>
+      </c>
+      <c r="R77">
+        <f>_xll.acq_interpolator_eval(R$2,$H77)</f>
+        <v>0.35046035238214773</v>
+      </c>
+      <c r="S77">
+        <f>_xll.acq_interpolator_eval(S$2,$H77)</f>
+        <v>0.37851539013752084</v>
+      </c>
+    </row>
+    <row r="78" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H78" s="12">
         <v>0.50000000000001998</v>
       </c>
       <c r="I78">
         <f>_xll.acq_interpolator_eval($F$5,H78)</f>
+        <v>0.38940039153570977</v>
+      </c>
+      <c r="K78">
+        <f>_xll.acq_interpolator_eval(K$2,$H78)</f>
+        <v>0.38940039153570244</v>
+      </c>
+      <c r="L78">
+        <f>_xll.acq_interpolator_eval(L$2,$H78)</f>
+        <v>0.38940039153570161</v>
+      </c>
+      <c r="M78">
+        <f>_xll.acq_interpolator_eval(M$2,$H78)</f>
+        <v>0.38940039153571016</v>
+      </c>
+      <c r="N78">
+        <f>_xll.acq_interpolator_eval(N$2,$H78)</f>
         <v>0.38940039153571043</v>
       </c>
-      <c r="L78" s="14"/>
-    </row>
-    <row r="79" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O78">
+        <f>_xll.acq_interpolator_eval(O$2,$H78)</f>
+        <v>0.38940039153571043</v>
+      </c>
+      <c r="P78">
+        <f>_xll.acq_interpolator_eval(P$2,$H78)</f>
+        <v>0.38940039153570977</v>
+      </c>
+      <c r="Q78">
+        <f>_xll.acq_interpolator_eval(Q$2,$H78)</f>
+        <v>0.38940039153571798</v>
+      </c>
+      <c r="R78">
+        <f>_xll.acq_interpolator_eval(R$2,$H78)</f>
+        <v>0.38940039153571798</v>
+      </c>
+      <c r="S78">
+        <f>_xll.acq_interpolator_eval(S$2,$H78)</f>
+        <v>0.38940039153570416</v>
+      </c>
+    </row>
+    <row r="79" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H79" s="12">
         <v>0.55000000000002003</v>
       </c>
       <c r="I79">
         <f>_xll.acq_interpolator_eval($F$5,H79)</f>
+        <v>0.40473777928906962</v>
+      </c>
+      <c r="K79">
+        <f>_xll.acq_interpolator_eval(K$2,$H79)</f>
+        <v>0.38940039153570244</v>
+      </c>
+      <c r="L79">
+        <f>_xll.acq_interpolator_eval(L$2,$H79)</f>
+        <v>0.38724829649927556</v>
+      </c>
+      <c r="M79">
+        <f>_xll.acq_interpolator_eval(M$2,$H79)</f>
+        <v>0.40653165321899021</v>
+      </c>
+      <c r="N79">
+        <f>_xll.acq_interpolator_eval(N$2,$H79)</f>
         <v>0.4064833676398375</v>
       </c>
-      <c r="L79" s="14"/>
-    </row>
-    <row r="80" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O79">
+        <f>_xll.acq_interpolator_eval(O$2,$H79)</f>
+        <v>0.4064833676398375</v>
+      </c>
+      <c r="P79">
+        <f>_xll.acq_interpolator_eval(P$2,$H79)</f>
+        <v>0.40473777928906962</v>
+      </c>
+      <c r="Q79">
+        <f>_xll.acq_interpolator_eval(Q$2,$H79)</f>
+        <v>0.42192753903509123</v>
+      </c>
+      <c r="R79">
+        <f>_xll.acq_interpolator_eval(R$2,$H79)</f>
+        <v>0.42192753903509123</v>
+      </c>
+      <c r="S79">
+        <f>_xll.acq_interpolator_eval(S$2,$H79)</f>
+        <v>0.39267157599107089</v>
+      </c>
+    </row>
+    <row r="80" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H80" s="12">
         <v>0.60000000000001996</v>
       </c>
       <c r="I80">
         <f>_xll.acq_interpolator_eval($F$5,H80)</f>
+        <v>0.41440732180788104</v>
+      </c>
+      <c r="K80">
+        <f>_xll.acq_interpolator_eval(K$2,$H80)</f>
+        <v>0.38940039153570244</v>
+      </c>
+      <c r="L80">
+        <f>_xll.acq_interpolator_eval(L$2,$H80)</f>
+        <v>0.38509620146284956</v>
+      </c>
+      <c r="M80">
+        <f>_xll.acq_interpolator_eval(M$2,$H80)</f>
+        <v>0.4193777245201129</v>
+      </c>
+      <c r="N80">
+        <f>_xll.acq_interpolator_eval(N$2,$H80)</f>
         <v>0.41824133013155956</v>
       </c>
-      <c r="L80" s="14"/>
-    </row>
-    <row r="81" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O80">
+        <f>_xll.acq_interpolator_eval(O$2,$H80)</f>
+        <v>0.41824133013155956</v>
+      </c>
+      <c r="P80">
+        <f>_xll.acq_interpolator_eval(P$2,$H80)</f>
+        <v>0.41440732180788104</v>
+      </c>
+      <c r="Q80">
+        <f>_xll.acq_interpolator_eval(Q$2,$H80)</f>
+        <v>0.44265276021949984</v>
+      </c>
+      <c r="R80">
+        <f>_xll.acq_interpolator_eval(R$2,$H80)</f>
+        <v>0.44265276021949984</v>
+      </c>
+      <c r="S80">
+        <f>_xll.acq_interpolator_eval(S$2,$H80)</f>
+        <v>0.39404891681438287</v>
+      </c>
+    </row>
+    <row r="81" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H81" s="12">
         <v>0.65000000000002001</v>
       </c>
       <c r="I81">
         <f>_xll.acq_interpolator_eval($F$5,H81)</f>
+        <v>0.41907700415595073</v>
+      </c>
+      <c r="K81">
+        <f>_xll.acq_interpolator_eval(K$2,$H81)</f>
+        <v>0.38940039153570244</v>
+      </c>
+      <c r="L81">
+        <f>_xll.acq_interpolator_eval(L$2,$H81)</f>
+        <v>0.38294410642642357</v>
+      </c>
+      <c r="M81">
+        <f>_xll.acq_interpolator_eval(M$2,$H81)</f>
+        <v>0.42793860543907847</v>
+      </c>
+      <c r="N81">
+        <f>_xll.acq_interpolator_eval(N$2,$H81)</f>
         <v>0.42506823652048226</v>
       </c>
-      <c r="L81" s="14"/>
-    </row>
-    <row r="82" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O81">
+        <f>_xll.acq_interpolator_eval(O$2,$H81)</f>
+        <v>0.42506823652048226</v>
+      </c>
+      <c r="P81">
+        <f>_xll.acq_interpolator_eval(P$2,$H81)</f>
+        <v>0.41907700415595073</v>
+      </c>
+      <c r="Q81">
+        <f>_xll.acq_interpolator_eval(Q$2,$H81)</f>
+        <v>0.45311184057907222</v>
+      </c>
+      <c r="R81">
+        <f>_xll.acq_interpolator_eval(R$2,$H81)</f>
+        <v>0.45311184057907222</v>
+      </c>
+      <c r="S81">
+        <f>_xll.acq_interpolator_eval(S$2,$H81)</f>
+        <v>0.39379066541001106</v>
+      </c>
+    </row>
+    <row r="82" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H82" s="12">
         <v>0.70000000000002005</v>
       </c>
       <c r="I82">
         <f>_xll.acq_interpolator_eval($F$5,H82)</f>
+        <v>0.41941481139708559</v>
+      </c>
+      <c r="K82">
+        <f>_xll.acq_interpolator_eval(K$2,$H82)</f>
+        <v>0.38940039153570244</v>
+      </c>
+      <c r="L82">
+        <f>_xll.acq_interpolator_eval(L$2,$H82)</f>
+        <v>0.38079201138999752</v>
+      </c>
+      <c r="M82">
+        <f>_xll.acq_interpolator_eval(M$2,$H82)</f>
+        <v>0.43221429597588662</v>
+      </c>
+      <c r="N82">
+        <f>_xll.acq_interpolator_eval(N$2,$H82)</f>
         <v>0.42735804431621116</v>
       </c>
-      <c r="L82" s="14"/>
-    </row>
-    <row r="83" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O82">
+        <f>_xll.acq_interpolator_eval(O$2,$H82)</f>
+        <v>0.42735804431621116</v>
+      </c>
+      <c r="P82">
+        <f>_xll.acq_interpolator_eval(P$2,$H82)</f>
+        <v>0.41941481139708559</v>
+      </c>
+      <c r="Q82">
+        <f>_xll.acq_interpolator_eval(Q$2,$H82)</f>
+        <v>0.45484056560393654</v>
+      </c>
+      <c r="R82">
+        <f>_xll.acq_interpolator_eval(R$2,$H82)</f>
+        <v>0.45484056560393654</v>
+      </c>
+      <c r="S82">
+        <f>_xll.acq_interpolator_eval(S$2,$H82)</f>
+        <v>0.39215507318232684</v>
+      </c>
+    </row>
+    <row r="83" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H83" s="12">
         <v>0.75000000000001998</v>
       </c>
       <c r="I83">
         <f>_xll.acq_interpolator_eval($F$5,H83)</f>
+        <v>0.41608872859509216</v>
+      </c>
+      <c r="K83">
+        <f>_xll.acq_interpolator_eval(K$2,$H83)</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L83">
+        <f>_xll.acq_interpolator_eval(L$2,$H83)</f>
+        <v>0.37863991635357153</v>
+      </c>
+      <c r="M83">
+        <f>_xll.acq_interpolator_eval(M$2,$H83)</f>
+        <v>0.43220479613053758</v>
+      </c>
+      <c r="N83">
+        <f>_xll.acq_interpolator_eval(N$2,$H83)</f>
         <v>0.42550471102835213</v>
       </c>
-      <c r="L83" s="14"/>
-    </row>
-    <row r="84" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O83">
+        <f>_xll.acq_interpolator_eval(O$2,$H83)</f>
+        <v>0.42550471102835213</v>
+      </c>
+      <c r="P83">
+        <f>_xll.acq_interpolator_eval(P$2,$H83)</f>
+        <v>0.41608872859509216</v>
+      </c>
+      <c r="Q83">
+        <f>_xll.acq_interpolator_eval(Q$2,$H83)</f>
+        <v>0.44937472078422103</v>
+      </c>
+      <c r="R83">
+        <f>_xll.acq_interpolator_eval(R$2,$H83)</f>
+        <v>0.44937472078422103</v>
+      </c>
+      <c r="S83">
+        <f>_xll.acq_interpolator_eval(S$2,$H83)</f>
+        <v>0.38940039153570116</v>
+      </c>
+    </row>
+    <row r="84" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H84" s="12">
         <v>0.80000000000002003</v>
       </c>
       <c r="I84">
         <f>_xll.acq_interpolator_eval($F$5,H84)</f>
+        <v>0.40976674081377729</v>
+      </c>
+      <c r="K84">
+        <f>_xll.acq_interpolator_eval(K$2,$H84)</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L84">
+        <f>_xll.acq_interpolator_eval(L$2,$H84)</f>
+        <v>0.37648782131714553</v>
+      </c>
+      <c r="M84">
+        <f>_xll.acq_interpolator_eval(M$2,$H84)</f>
+        <v>0.42791010590303119</v>
+      </c>
+      <c r="N84">
+        <f>_xll.acq_interpolator_eval(N$2,$H84)</f>
         <v>0.4199021941665107</v>
       </c>
-      <c r="L84" s="14"/>
-    </row>
-    <row r="85" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O84">
+        <f>_xll.acq_interpolator_eval(O$2,$H84)</f>
+        <v>0.4199021941665107</v>
+      </c>
+      <c r="P84">
+        <f>_xll.acq_interpolator_eval(P$2,$H84)</f>
+        <v>0.40976674081377729</v>
+      </c>
+      <c r="Q84">
+        <f>_xll.acq_interpolator_eval(Q$2,$H84)</f>
+        <v>0.43825009161005396</v>
+      </c>
+      <c r="R84">
+        <f>_xll.acq_interpolator_eval(R$2,$H84)</f>
+        <v>0.43825009161005396</v>
+      </c>
+      <c r="S84">
+        <f>_xll.acq_interpolator_eval(S$2,$H84)</f>
+        <v>0.38578487187450516</v>
+      </c>
+    </row>
+    <row r="85" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H85" s="12">
         <v>0.85000000000001996</v>
       </c>
       <c r="I85">
         <f>_xll.acq_interpolator_eval($F$5,H85)</f>
+        <v>0.40111683311694768</v>
+      </c>
+      <c r="K85">
+        <f>_xll.acq_interpolator_eval(K$2,$H85)</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L85">
+        <f>_xll.acq_interpolator_eval(L$2,$H85)</f>
+        <v>0.37433572628071948</v>
+      </c>
+      <c r="M85">
+        <f>_xll.acq_interpolator_eval(M$2,$H85)</f>
+        <v>0.41933022529336761</v>
+      </c>
+      <c r="N85">
+        <f>_xll.acq_interpolator_eval(N$2,$H85)</f>
         <v>0.41094445124029266</v>
       </c>
-      <c r="L85" s="14"/>
-    </row>
-    <row r="86" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O85">
+        <f>_xll.acq_interpolator_eval(O$2,$H85)</f>
+        <v>0.41094445124029266</v>
+      </c>
+      <c r="P85">
+        <f>_xll.acq_interpolator_eval(P$2,$H85)</f>
+        <v>0.40111683311694768</v>
+      </c>
+      <c r="Q85">
+        <f>_xll.acq_interpolator_eval(Q$2,$H85)</f>
+        <v>0.42300246357156362</v>
+      </c>
+      <c r="R85">
+        <f>_xll.acq_interpolator_eval(R$2,$H85)</f>
+        <v>0.42300246357156362</v>
+      </c>
+      <c r="S85">
+        <f>_xll.acq_interpolator_eval(S$2,$H85)</f>
+        <v>0.38156676560310998</v>
+      </c>
+    </row>
+    <row r="86" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H86" s="12">
         <v>0.90000000000002001</v>
       </c>
       <c r="I86">
         <f>_xll.acq_interpolator_eval($F$5,H86)</f>
+        <v>0.39080699056841012</v>
+      </c>
+      <c r="K86">
+        <f>_xll.acq_interpolator_eval(K$2,$H86)</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L86">
+        <f>_xll.acq_interpolator_eval(L$2,$H86)</f>
+        <v>0.37218363124429349</v>
+      </c>
+      <c r="M86">
+        <f>_xll.acq_interpolator_eval(M$2,$H86)</f>
+        <v>0.40646515430154651</v>
+      </c>
+      <c r="N86">
+        <f>_xll.acq_interpolator_eval(N$2,$H86)</f>
         <v>0.39902543975930355</v>
       </c>
-      <c r="L86" s="14"/>
-    </row>
-    <row r="87" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O86">
+        <f>_xll.acq_interpolator_eval(O$2,$H86)</f>
+        <v>0.39902543975930355</v>
+      </c>
+      <c r="P86">
+        <f>_xll.acq_interpolator_eval(P$2,$H86)</f>
+        <v>0.39080699056841012</v>
+      </c>
+      <c r="Q86">
+        <f>_xll.acq_interpolator_eval(Q$2,$H86)</f>
+        <v>0.40516762215887825</v>
+      </c>
+      <c r="R86">
+        <f>_xll.acq_interpolator_eval(R$2,$H86)</f>
+        <v>0.40516762215887825</v>
+      </c>
+      <c r="S86">
+        <f>_xll.acq_interpolator_eval(S$2,$H86)</f>
+        <v>0.3770043241258868</v>
+      </c>
+    </row>
+    <row r="87" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H87" s="12">
         <v>0.95000000000002005</v>
       </c>
       <c r="I87">
         <f>_xll.acq_interpolator_eval($F$5,H87)</f>
+        <v>0.37950519823197115</v>
+      </c>
+      <c r="K87">
+        <f>_xll.acq_interpolator_eval(K$2,$H87)</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L87">
+        <f>_xll.acq_interpolator_eval(L$2,$H87)</f>
+        <v>0.3700315362078675</v>
+      </c>
+      <c r="M87">
+        <f>_xll.acq_interpolator_eval(M$2,$H87)</f>
+        <v>0.38931489292756849</v>
+      </c>
+      <c r="N87">
+        <f>_xll.acq_interpolator_eval(N$2,$H87)</f>
         <v>0.38453911723314921</v>
       </c>
-      <c r="L87" s="14"/>
-    </row>
-    <row r="88" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O87">
+        <f>_xll.acq_interpolator_eval(O$2,$H87)</f>
+        <v>0.38453911723314921</v>
+      </c>
+      <c r="P87">
+        <f>_xll.acq_interpolator_eval(P$2,$H87)</f>
+        <v>0.37950519823197115</v>
+      </c>
+      <c r="Q87">
+        <f>_xll.acq_interpolator_eval(Q$2,$H87)</f>
+        <v>0.386281352862126</v>
+      </c>
+      <c r="R87">
+        <f>_xll.acq_interpolator_eval(R$2,$H87)</f>
+        <v>0.386281352862126</v>
+      </c>
+      <c r="S87">
+        <f>_xll.acq_interpolator_eval(S$2,$H87)</f>
+        <v>0.37235579884720654</v>
+      </c>
+    </row>
+    <row r="88" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H88" s="12">
         <v>1.00000000000002</v>
       </c>
       <c r="I88">
         <f>_xll.acq_interpolator_eval($F$5,H88)</f>
+        <v>0.36787944117143773</v>
+      </c>
+      <c r="K88">
+        <f>_xll.acq_interpolator_eval(K$2,$H88)</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L88">
+        <f>_xll.acq_interpolator_eval(L$2,$H88)</f>
+        <v>0.36787944117143395</v>
+      </c>
+      <c r="M88">
+        <f>_xll.acq_interpolator_eval(M$2,$H88)</f>
+        <v>0.3678794411714329</v>
+      </c>
+      <c r="N88">
+        <f>_xll.acq_interpolator_eval(N$2,$H88)</f>
         <v>0.36787944117143528</v>
       </c>
-      <c r="L88" s="14"/>
-    </row>
-    <row r="89" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O88">
+        <f>_xll.acq_interpolator_eval(O$2,$H88)</f>
+        <v>0.36787944117143528</v>
+      </c>
+      <c r="P88">
+        <f>_xll.acq_interpolator_eval(P$2,$H88)</f>
+        <v>0.36787944117143773</v>
+      </c>
+      <c r="Q88">
+        <f>_xll.acq_interpolator_eval(Q$2,$H88)</f>
+        <v>0.36787944117143528</v>
+      </c>
+      <c r="R88">
+        <f>_xll.acq_interpolator_eval(R$2,$H88)</f>
+        <v>0.36787944117143528</v>
+      </c>
+      <c r="S88">
+        <f>_xll.acq_interpolator_eval(S$2,$H88)</f>
+        <v>0.36787944117144061</v>
+      </c>
+    </row>
+    <row r="89" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H89" s="12">
         <v>1.05000000000002</v>
       </c>
       <c r="I89">
         <f>_xll.acq_interpolator_eval($F$5,H89)</f>
+        <v>0.35412848802044411</v>
+      </c>
+      <c r="K89">
+        <f>_xll.acq_interpolator_eval(K$2,$H89)</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L89">
+        <f>_xll.acq_interpolator_eval(L$2,$H89)</f>
+        <v>0.34690138073856935</v>
+      </c>
+      <c r="M89">
+        <f>_xll.acq_interpolator_eval(M$2,$H89)</f>
+        <v>0.34456139287565546</v>
+      </c>
+      <c r="N89">
+        <f>_xll.acq_interpolator_eval(N$2,$H89)</f>
         <v>0.34943004903239844</v>
       </c>
-      <c r="L89" s="14"/>
-    </row>
-    <row r="90" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O89">
+        <f>_xll.acq_interpolator_eval(O$2,$H89)</f>
+        <v>0.34943004903239844</v>
+      </c>
+      <c r="P89">
+        <f>_xll.acq_interpolator_eval(P$2,$H89)</f>
+        <v>0.35412848802044411</v>
+      </c>
+      <c r="Q89">
+        <f>_xll.acq_interpolator_eval(Q$2,$H89)</f>
+        <v>0.34906049242412124</v>
+      </c>
+      <c r="R89">
+        <f>_xll.acq_interpolator_eval(R$2,$H89)</f>
+        <v>0.34906049242412124</v>
+      </c>
+      <c r="S89">
+        <f>_xll.acq_interpolator_eval(S$2,$H89)</f>
+        <v>0.36000980702649849</v>
+      </c>
+    </row>
+    <row r="90" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H90" s="12">
         <v>1.1000000000000201</v>
       </c>
       <c r="I90">
         <f>_xll.acq_interpolator_eval($F$5,H90)</f>
+        <v>0.33655892943521309</v>
+      </c>
+      <c r="K90">
+        <f>_xll.acq_interpolator_eval(K$2,$H90)</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L90">
+        <f>_xll.acq_interpolator_eval(L$2,$H90)</f>
+        <v>0.32592332030570476</v>
+      </c>
+      <c r="M90">
+        <f>_xll.acq_interpolator_eval(M$2,$H90)</f>
+        <v>0.32176334188274758</v>
+      </c>
+      <c r="N90">
+        <f>_xll.acq_interpolator_eval(N$2,$H90)</f>
         <v>0.32953329806879944</v>
       </c>
-      <c r="L90" s="14"/>
-    </row>
-    <row r="91" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O90">
+        <f>_xll.acq_interpolator_eval(O$2,$H90)</f>
+        <v>0.32953329806879944</v>
+      </c>
+      <c r="P90">
+        <f>_xll.acq_interpolator_eval(P$2,$H90)</f>
+        <v>0.33655892943521309</v>
+      </c>
+      <c r="Q90">
+        <f>_xll.acq_interpolator_eval(Q$2,$H90)</f>
+        <v>0.32827175218727078</v>
+      </c>
+      <c r="R90">
+        <f>_xll.acq_interpolator_eval(R$2,$H90)</f>
+        <v>0.32827175218727078</v>
+      </c>
+      <c r="S90">
+        <f>_xll.acq_interpolator_eval(S$2,$H90)</f>
+        <v>0.34585286564230938</v>
+      </c>
+    </row>
+    <row r="91" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H91" s="12">
         <v>1.1500000000000199</v>
       </c>
       <c r="I91">
         <f>_xll.acq_interpolator_eval($F$5,H91)</f>
+        <v>0.31600048351342774</v>
+      </c>
+      <c r="K91">
+        <f>_xll.acq_interpolator_eval(K$2,$H91)</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L91">
+        <f>_xll.acq_interpolator_eval(L$2,$H91)</f>
+        <v>0.30494525987284027</v>
+      </c>
+      <c r="M91">
+        <f>_xll.acq_interpolator_eval(M$2,$H91)</f>
+        <v>0.29948528819270936</v>
+      </c>
+      <c r="N91">
+        <f>_xll.acq_interpolator_eval(N$2,$H91)</f>
         <v>0.3085212254820302</v>
       </c>
-      <c r="L91" s="14"/>
-    </row>
-    <row r="92" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O91">
+        <f>_xll.acq_interpolator_eval(O$2,$H91)</f>
+        <v>0.3085212254820302</v>
+      </c>
+      <c r="P91">
+        <f>_xll.acq_interpolator_eval(P$2,$H91)</f>
+        <v>0.31600048351342774</v>
+      </c>
+      <c r="Q91">
+        <f>_xll.acq_interpolator_eval(Q$2,$H91)</f>
+        <v>0.30607196629566435</v>
+      </c>
+      <c r="R91">
+        <f>_xll.acq_interpolator_eval(R$2,$H91)</f>
+        <v>0.30607196629566435</v>
+      </c>
+      <c r="S91">
+        <f>_xll.acq_interpolator_eval(S$2,$H91)</f>
+        <v>0.3266739883762641</v>
+      </c>
+    </row>
+    <row r="92" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H92" s="12">
         <v>1.2000000000000199</v>
       </c>
       <c r="I92">
         <f>_xll.acq_interpolator_eval($F$5,H92)</f>
+        <v>0.29328286835277112</v>
+      </c>
+      <c r="K92">
+        <f>_xll.acq_interpolator_eval(K$2,$H92)</f>
+        <v>0.36787944117144233</v>
+      </c>
+      <c r="L92">
+        <f>_xll.acq_interpolator_eval(L$2,$H92)</f>
+        <v>0.28396719943997561</v>
+      </c>
+      <c r="M92">
+        <f>_xll.acq_interpolator_eval(M$2,$H92)</f>
+        <v>0.2777272318055406</v>
+      </c>
+      <c r="N92">
+        <f>_xll.acq_interpolator_eval(N$2,$H92)</f>
         <v>0.28672586847348236</v>
       </c>
-      <c r="L92" s="14"/>
-    </row>
-    <row r="93" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O92">
+        <f>_xll.acq_interpolator_eval(O$2,$H92)</f>
+        <v>0.28672586847348236</v>
+      </c>
+      <c r="P92">
+        <f>_xll.acq_interpolator_eval(P$2,$H92)</f>
+        <v>0.29328286835277112</v>
+      </c>
+      <c r="Q92">
+        <f>_xll.acq_interpolator_eval(Q$2,$H92)</f>
+        <v>0.28301988058408195</v>
+      </c>
+      <c r="R92">
+        <f>_xll.acq_interpolator_eval(R$2,$H92)</f>
+        <v>0.28301988058408195</v>
+      </c>
+      <c r="S92">
+        <f>_xll.acq_interpolator_eval(S$2,$H92)</f>
+        <v>0.30373854658575311</v>
+      </c>
+    </row>
+    <row r="93" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H93" s="12">
         <v>1.25000000000002</v>
       </c>
       <c r="I93">
         <f>_xll.acq_interpolator_eval($F$5,H93)</f>
+        <v>0.2692358020509264</v>
+      </c>
+      <c r="K93">
+        <f>_xll.acq_interpolator_eval(K$2,$H93)</f>
+        <v>0.15809883684279649</v>
+      </c>
+      <c r="L93">
+        <f>_xll.acq_interpolator_eval(L$2,$H93)</f>
+        <v>0.26298913900711102</v>
+      </c>
+      <c r="M93">
+        <f>_xll.acq_interpolator_eval(M$2,$H93)</f>
+        <v>0.25648917272124144</v>
+      </c>
+      <c r="N93">
+        <f>_xll.acq_interpolator_eval(N$2,$H93)</f>
         <v>0.26447926424454787</v>
       </c>
-      <c r="L93" s="14"/>
-    </row>
-    <row r="94" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O93">
+        <f>_xll.acq_interpolator_eval(O$2,$H93)</f>
+        <v>0.26447926424454787</v>
+      </c>
+      <c r="P93">
+        <f>_xll.acq_interpolator_eval(P$2,$H93)</f>
+        <v>0.2692358020509264</v>
+      </c>
+      <c r="Q93">
+        <f>_xll.acq_interpolator_eval(Q$2,$H93)</f>
+        <v>0.25967424088730401</v>
+      </c>
+      <c r="R93">
+        <f>_xll.acq_interpolator_eval(R$2,$H93)</f>
+        <v>0.25967424088730401</v>
+      </c>
+      <c r="S93">
+        <f>_xll.acq_interpolator_eval(S$2,$H93)</f>
+        <v>0.27831191162816726</v>
+      </c>
+    </row>
+    <row r="94" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H94" s="12">
         <v>1.30000000000002</v>
       </c>
       <c r="I94">
         <f>_xll.acq_interpolator_eval($F$5,H94)</f>
+        <v>0.24468900270557667</v>
+      </c>
+      <c r="K94">
+        <f>_xll.acq_interpolator_eval(K$2,$H94)</f>
+        <v>0.15809883684279649</v>
+      </c>
+      <c r="L94">
+        <f>_xll.acq_interpolator_eval(L$2,$H94)</f>
+        <v>0.24201107857424642</v>
+      </c>
+      <c r="M94">
+        <f>_xll.acq_interpolator_eval(M$2,$H94)</f>
+        <v>0.23577111093981182</v>
+      </c>
+      <c r="N94">
+        <f>_xll.acq_interpolator_eval(N$2,$H94)</f>
         <v>0.24211344999661852</v>
       </c>
-      <c r="L94" s="14"/>
-    </row>
-    <row r="95" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O94">
+        <f>_xll.acq_interpolator_eval(O$2,$H94)</f>
+        <v>0.24211344999661852</v>
+      </c>
+      <c r="P94">
+        <f>_xll.acq_interpolator_eval(P$2,$H94)</f>
+        <v>0.24468900270557667</v>
+      </c>
+      <c r="Q94">
+        <f>_xll.acq_interpolator_eval(Q$2,$H94)</f>
+        <v>0.23659379304011077</v>
+      </c>
+      <c r="R94">
+        <f>_xll.acq_interpolator_eval(R$2,$H94)</f>
+        <v>0.23659379304011077</v>
+      </c>
+      <c r="S94">
+        <f>_xll.acq_interpolator_eval(S$2,$H94)</f>
+        <v>0.2516594548608973</v>
+      </c>
+    </row>
+    <row r="95" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H95" s="12">
         <v>1.3500000000000201</v>
       </c>
       <c r="I95">
         <f>_xll.acq_interpolator_eval($F$5,H95)</f>
+        <v>0.22047218841440502</v>
+      </c>
+      <c r="K95">
+        <f>_xll.acq_interpolator_eval(K$2,$H95)</f>
+        <v>0.15809883684279649</v>
+      </c>
+      <c r="L95">
+        <f>_xll.acq_interpolator_eval(L$2,$H95)</f>
+        <v>0.22103301814138182</v>
+      </c>
+      <c r="M95">
+        <f>_xll.acq_interpolator_eval(M$2,$H95)</f>
+        <v>0.2155730464612518</v>
+      </c>
+      <c r="N95">
+        <f>_xll.acq_interpolator_eval(N$2,$H95)</f>
         <v>0.21996046293108612</v>
       </c>
-      <c r="L95" s="14"/>
-    </row>
-    <row r="96" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O95">
+        <f>_xll.acq_interpolator_eval(O$2,$H95)</f>
+        <v>0.21996046293108612</v>
+      </c>
+      <c r="P95">
+        <f>_xll.acq_interpolator_eval(P$2,$H95)</f>
+        <v>0.22047218841440502</v>
+      </c>
+      <c r="Q95">
+        <f>_xll.acq_interpolator_eval(Q$2,$H95)</f>
+        <v>0.21433728287728251</v>
+      </c>
+      <c r="R95">
+        <f>_xll.acq_interpolator_eval(R$2,$H95)</f>
+        <v>0.21433728287728251</v>
+      </c>
+      <c r="S95">
+        <f>_xll.acq_interpolator_eval(S$2,$H95)</f>
+        <v>0.22504654764133381</v>
+      </c>
+    </row>
+    <row r="96" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H96" s="12">
         <v>1.4000000000000199</v>
       </c>
       <c r="I96">
         <f>_xll.acq_interpolator_eval($F$5,H96)</f>
+        <v>0.19741507727509466</v>
+      </c>
+      <c r="K96">
+        <f>_xll.acq_interpolator_eval(K$2,$H96)</f>
+        <v>0.15809883684279649</v>
+      </c>
+      <c r="L96">
+        <f>_xll.acq_interpolator_eval(L$2,$H96)</f>
+        <v>0.20005495770851731</v>
+      </c>
+      <c r="M96">
+        <f>_xll.acq_interpolator_eval(M$2,$H96)</f>
+        <v>0.1958949792855614</v>
+      </c>
+      <c r="N96">
+        <f>_xll.acq_interpolator_eval(N$2,$H96)</f>
         <v>0.19835234024934259</v>
       </c>
-      <c r="L96" s="14"/>
-    </row>
-    <row r="97" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O96">
+        <f>_xll.acq_interpolator_eval(O$2,$H96)</f>
+        <v>0.19835234024934259</v>
+      </c>
+      <c r="P96">
+        <f>_xll.acq_interpolator_eval(P$2,$H96)</f>
+        <v>0.19741507727509466</v>
+      </c>
+      <c r="Q96">
+        <f>_xll.acq_interpolator_eval(Q$2,$H96)</f>
+        <v>0.19346345623359959</v>
+      </c>
+      <c r="R96">
+        <f>_xll.acq_interpolator_eval(R$2,$H96)</f>
+        <v>0.19346345623359959</v>
+      </c>
+      <c r="S96">
+        <f>_xll.acq_interpolator_eval(S$2,$H96)</f>
+        <v>0.19973856132686771</v>
+      </c>
+    </row>
+    <row r="97" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H97" s="12">
         <v>1.4500000000000299</v>
       </c>
       <c r="I97">
         <f>_xll.acq_interpolator_eval($F$5,H97)</f>
+        <v>0.1763473873853246</v>
+      </c>
+      <c r="K97">
+        <f>_xll.acq_interpolator_eval(K$2,$H97)</f>
+        <v>0.15809883684279649</v>
+      </c>
+      <c r="L97">
+        <f>_xll.acq_interpolator_eval(L$2,$H97)</f>
+        <v>0.17907689727564852</v>
+      </c>
+      <c r="M97">
+        <f>_xll.acq_interpolator_eval(M$2,$H97)</f>
+        <v>0.1767369094127367</v>
+      </c>
+      <c r="N97">
+        <f>_xll.acq_interpolator_eval(N$2,$H97)</f>
         <v>0.17762111915277554</v>
       </c>
-      <c r="L97" s="14"/>
-    </row>
-    <row r="98" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O97">
+        <f>_xll.acq_interpolator_eval(O$2,$H97)</f>
+        <v>0.17762111915277554</v>
+      </c>
+      <c r="P97">
+        <f>_xll.acq_interpolator_eval(P$2,$H97)</f>
+        <v>0.1763473873853246</v>
+      </c>
+      <c r="Q97">
+        <f>_xll.acq_interpolator_eval(Q$2,$H97)</f>
+        <v>0.17453105894383861</v>
+      </c>
+      <c r="R97">
+        <f>_xll.acq_interpolator_eval(R$2,$H97)</f>
+        <v>0.17453105894383861</v>
+      </c>
+      <c r="S97">
+        <f>_xll.acq_interpolator_eval(S$2,$H97)</f>
+        <v>0.17700086727488523</v>
+      </c>
+    </row>
+    <row r="98" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H98" s="12">
         <v>1.50000000000003</v>
       </c>
       <c r="I98">
         <f>_xll.acq_interpolator_eval($F$5,H98)</f>
+        <v>0.15809883684278656</v>
+      </c>
+      <c r="K98">
+        <f>_xll.acq_interpolator_eval(K$2,$H98)</f>
+        <v>0.15809883684279649</v>
+      </c>
+      <c r="L98">
+        <f>_xll.acq_interpolator_eval(L$2,$H98)</f>
+        <v>0.15809883684278922</v>
+      </c>
+      <c r="M98">
+        <f>_xll.acq_interpolator_eval(M$2,$H98)</f>
+        <v>0.1580988368427855</v>
+      </c>
+      <c r="N98">
+        <f>_xll.acq_interpolator_eval(N$2,$H98)</f>
         <v>0.15809883684278522</v>
       </c>
-      <c r="L98" s="14"/>
-    </row>
-    <row r="99" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O98">
+        <f>_xll.acq_interpolator_eval(O$2,$H98)</f>
+        <v>0.15809883684278522</v>
+      </c>
+      <c r="P98">
+        <f>_xll.acq_interpolator_eval(P$2,$H98)</f>
+        <v>0.15809883684278656</v>
+      </c>
+      <c r="Q98">
+        <f>_xll.acq_interpolator_eval(Q$2,$H98)</f>
+        <v>0.1580988368427875</v>
+      </c>
+      <c r="R98">
+        <f>_xll.acq_interpolator_eval(R$2,$H98)</f>
+        <v>0.1580988368427875</v>
+      </c>
+      <c r="S98">
+        <f>_xll.acq_interpolator_eval(S$2,$H98)</f>
+        <v>0.15809883684278656</v>
+      </c>
+    </row>
+    <row r="99" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H99" s="12">
         <v>1.55000000000002</v>
       </c>
       <c r="I99">
         <f>_xll.acq_interpolator_eval($F$5,H99)</f>
+        <v>0.14197192172826509</v>
+      </c>
+      <c r="K99">
+        <f>_xll.acq_interpolator_eval(K$2,$H99)</f>
+        <v>0.15809883684279649</v>
+      </c>
+      <c r="L99">
+        <f>_xll.acq_interpolator_eval(L$2,$H99)</f>
+        <v>0.1459520809362588</v>
+      </c>
+      <c r="M99">
+        <f>_xll.acq_interpolator_eval(M$2,$H99)</f>
+        <v>0.14034389472547129</v>
+      </c>
+      <c r="N99">
+        <f>_xll.acq_interpolator_eval(N$2,$H99)</f>
         <v>0.14005174596722941</v>
       </c>
-      <c r="L99" s="14"/>
-    </row>
-    <row r="100" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O99">
+        <f>_xll.acq_interpolator_eval(O$2,$H99)</f>
+        <v>0.14005174596722941</v>
+      </c>
+      <c r="P99">
+        <f>_xll.acq_interpolator_eval(P$2,$H99)</f>
+        <v>0.14197192172826509</v>
+      </c>
+      <c r="Q99">
+        <f>_xll.acq_interpolator_eval(Q$2,$H99)</f>
+        <v>0.14302813621087127</v>
+      </c>
+      <c r="R99">
+        <f>_xll.acq_interpolator_eval(R$2,$H99)</f>
+        <v>0.14302813621087127</v>
+      </c>
+      <c r="S99">
+        <f>_xll.acq_interpolator_eval(S$2,$H99)</f>
+        <v>0.14185468713536917</v>
+      </c>
+    </row>
+    <row r="100" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H100" s="12">
         <v>1.6000000000000301</v>
       </c>
       <c r="I100">
         <f>_xll.acq_interpolator_eval($F$5,H100)</f>
+        <v>0.12671869146681475</v>
+      </c>
+      <c r="K100">
+        <f>_xll.acq_interpolator_eval(K$2,$H100)</f>
+        <v>0.15809883684279649</v>
+      </c>
+      <c r="L100">
+        <f>_xll.acq_interpolator_eval(L$2,$H100)</f>
+        <v>0.13380532502972356</v>
+      </c>
+      <c r="M100">
+        <f>_xll.acq_interpolator_eval(M$2,$H100)</f>
+        <v>0.12383521621054702</v>
+      </c>
+      <c r="N100">
+        <f>_xll.acq_interpolator_eval(N$2,$H100)</f>
         <v>0.12348296095982407</v>
       </c>
-      <c r="L100" s="14"/>
-    </row>
-    <row r="101" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O100">
+        <f>_xll.acq_interpolator_eval(O$2,$H100)</f>
+        <v>0.12348296095982407</v>
+      </c>
+      <c r="P100">
+        <f>_xll.acq_interpolator_eval(P$2,$H100)</f>
+        <v>0.12671869146681475</v>
+      </c>
+      <c r="Q100">
+        <f>_xll.acq_interpolator_eval(Q$2,$H100)</f>
+        <v>0.12796768509895495</v>
+      </c>
+      <c r="R100">
+        <f>_xll.acq_interpolator_eval(R$2,$H100)</f>
+        <v>0.12796768509895495</v>
+      </c>
+      <c r="S100">
+        <f>_xll.acq_interpolator_eval(S$2,$H100)</f>
+        <v>0.12630185735874044</v>
+      </c>
+    </row>
+    <row r="101" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H101" s="12">
         <v>1.6500000000000301</v>
       </c>
       <c r="I101">
         <f>_xll.acq_interpolator_eval($F$5,H101)</f>
+        <v>0.11234319417254027</v>
+      </c>
+      <c r="K101">
+        <f>_xll.acq_interpolator_eval(K$2,$H101)</f>
+        <v>0.15809883684279649</v>
+      </c>
+      <c r="L101">
+        <f>_xll.acq_interpolator_eval(L$2,$H101)</f>
+        <v>0.12165856912319073</v>
+      </c>
+      <c r="M101">
+        <f>_xll.acq_interpolator_eval(M$2,$H101)</f>
+        <v>0.10857280129802299</v>
+      </c>
+      <c r="N101">
+        <f>_xll.acq_interpolator_eval(N$2,$H101)</f>
         <v>0.10832981170077276</v>
       </c>
-      <c r="L101" s="14"/>
-    </row>
-    <row r="102" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O101">
+        <f>_xll.acq_interpolator_eval(O$2,$H101)</f>
+        <v>0.10832981170077276</v>
+      </c>
+      <c r="P101">
+        <f>_xll.acq_interpolator_eval(P$2,$H101)</f>
+        <v>0.11234319417254027</v>
+      </c>
+      <c r="Q101">
+        <f>_xll.acq_interpolator_eval(Q$2,$H101)</f>
+        <v>0.11315730199749434</v>
+      </c>
+      <c r="R101">
+        <f>_xll.acq_interpolator_eval(R$2,$H101)</f>
+        <v>0.11315730199749434</v>
+      </c>
+      <c r="S101">
+        <f>_xll.acq_interpolator_eval(S$2,$H101)</f>
+        <v>0.11152255202226914</v>
+      </c>
+    </row>
+    <row r="102" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H102" s="12">
         <v>1.7000000000000299</v>
       </c>
       <c r="I102">
         <f>_xll.acq_interpolator_eval($F$5,H102)</f>
+        <v>9.8849477959533957E-2</v>
+      </c>
+      <c r="K102">
+        <f>_xll.acq_interpolator_eval(K$2,$H102)</f>
+        <v>0.15809883684279649</v>
+      </c>
+      <c r="L102">
+        <f>_xll.acq_interpolator_eval(L$2,$H102)</f>
+        <v>0.10951181321665797</v>
+      </c>
+      <c r="M102">
+        <f>_xll.acq_interpolator_eval(M$2,$H102)</f>
+        <v>9.4556649987895786E-2</v>
+      </c>
+      <c r="N102">
+        <f>_xll.acq_interpolator_eval(N$2,$H102)</f>
         <v>9.452962807026534E-2</v>
       </c>
-      <c r="L102" s="14"/>
-    </row>
-    <row r="103" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O102">
+        <f>_xll.acq_interpolator_eval(O$2,$H102)</f>
+        <v>9.452962807026534E-2</v>
+      </c>
+      <c r="P102">
+        <f>_xll.acq_interpolator_eval(P$2,$H102)</f>
+        <v>9.8849477959533957E-2</v>
+      </c>
+      <c r="Q102">
+        <f>_xll.acq_interpolator_eval(Q$2,$H102)</f>
+        <v>9.8836805396933097E-2</v>
+      </c>
+      <c r="R102">
+        <f>_xll.acq_interpolator_eval(R$2,$H102)</f>
+        <v>9.8836805396933097E-2</v>
+      </c>
+      <c r="S102">
+        <f>_xll.acq_interpolator_eval(S$2,$H102)</f>
+        <v>9.7598975635311419E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H103" s="12">
         <v>1.75000000000003</v>
       </c>
       <c r="I103">
         <f>_xll.acq_interpolator_eval($F$5,H103)</f>
+        <v>8.6241590941890961E-2</v>
+      </c>
+      <c r="K103">
+        <f>_xll.acq_interpolator_eval(K$2,$H103)</f>
+        <v>3.6631277777468357E-2</v>
+      </c>
+      <c r="L103">
+        <f>_xll.acq_interpolator_eval(L$2,$H103)</f>
+        <v>9.7365057310125153E-2</v>
+      </c>
+      <c r="M103">
+        <f>_xll.acq_interpolator_eval(M$2,$H103)</f>
+        <v>8.1786762280165307E-2</v>
+      </c>
+      <c r="N103">
+        <f>_xll.acq_interpolator_eval(N$2,$H103)</f>
         <v>8.2019739948495013E-2</v>
       </c>
-      <c r="L103" s="14"/>
-    </row>
-    <row r="104" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O103">
+        <f>_xll.acq_interpolator_eval(O$2,$H103)</f>
+        <v>8.2019739948495013E-2</v>
+      </c>
+      <c r="P103">
+        <f>_xll.acq_interpolator_eval(P$2,$H103)</f>
+        <v>8.6241590941890961E-2</v>
+      </c>
+      <c r="Q103">
+        <f>_xll.acq_interpolator_eval(Q$2,$H103)</f>
+        <v>8.5246013787717803E-2</v>
+      </c>
+      <c r="R103">
+        <f>_xll.acq_interpolator_eval(R$2,$H103)</f>
+        <v>8.5246013787717803E-2</v>
+      </c>
+      <c r="S103">
+        <f>_xll.acq_interpolator_eval(S$2,$H103)</f>
+        <v>8.4613332707226332E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H104" s="12">
         <v>1.80000000000003</v>
       </c>
       <c r="I104">
         <f>_xll.acq_interpolator_eval($F$5,H104)</f>
+        <v>7.4523581233706684E-2</v>
+      </c>
+      <c r="K104">
+        <f>_xll.acq_interpolator_eval(K$2,$H104)</f>
+        <v>3.6631277777468357E-2</v>
+      </c>
+      <c r="L104">
+        <f>_xll.acq_interpolator_eval(L$2,$H104)</f>
+        <v>8.5218301403592323E-2</v>
+      </c>
+      <c r="M104">
+        <f>_xll.acq_interpolator_eval(M$2,$H104)</f>
+        <v>7.0263138174831624E-2</v>
+      </c>
+      <c r="N104">
+        <f>_xll.acq_interpolator_eval(N$2,$H104)</f>
         <v>7.073747721565507E-2</v>
       </c>
-      <c r="L104" s="14"/>
-    </row>
-    <row r="105" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O104">
+        <f>_xll.acq_interpolator_eval(O$2,$H104)</f>
+        <v>7.073747721565507E-2</v>
+      </c>
+      <c r="P104">
+        <f>_xll.acq_interpolator_eval(P$2,$H104)</f>
+        <v>7.4523581233706684E-2</v>
+      </c>
+      <c r="Q104">
+        <f>_xll.acq_interpolator_eval(Q$2,$H104)</f>
+        <v>7.2624745660295198E-2</v>
+      </c>
+      <c r="R104">
+        <f>_xll.acq_interpolator_eval(R$2,$H104)</f>
+        <v>7.2624745660295198E-2</v>
+      </c>
+      <c r="S104">
+        <f>_xll.acq_interpolator_eval(S$2,$H104)</f>
+        <v>7.2647827747373162E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H105" s="12">
         <v>1.8500000000000301</v>
       </c>
       <c r="I105">
         <f>_xll.acq_interpolator_eval($F$5,H105)</f>
+        <v>6.369949694907652E-2</v>
+      </c>
+      <c r="K105">
+        <f>_xll.acq_interpolator_eval(K$2,$H105)</f>
+        <v>3.6631277777468357E-2</v>
+      </c>
+      <c r="L105">
+        <f>_xll.acq_interpolator_eval(L$2,$H105)</f>
+        <v>7.3071545497059492E-2</v>
+      </c>
+      <c r="M105">
+        <f>_xll.acq_interpolator_eval(M$2,$H105)</f>
+        <v>5.9985777671894738E-2</v>
+      </c>
+      <c r="N105">
+        <f>_xll.acq_interpolator_eval(N$2,$H105)</f>
         <v>6.0620169751938763E-2</v>
       </c>
-      <c r="L105" s="14"/>
-    </row>
-    <row r="106" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O105">
+        <f>_xll.acq_interpolator_eval(O$2,$H105)</f>
+        <v>6.0620169751938763E-2</v>
+      </c>
+      <c r="P105">
+        <f>_xll.acq_interpolator_eval(P$2,$H105)</f>
+        <v>6.369949694907652E-2</v>
+      </c>
+      <c r="Q105">
+        <f>_xll.acq_interpolator_eval(Q$2,$H105)</f>
+        <v>6.121281950511194E-2</v>
+      </c>
+      <c r="R105">
+        <f>_xll.acq_interpolator_eval(R$2,$H105)</f>
+        <v>6.121281950511194E-2</v>
+      </c>
+      <c r="S105">
+        <f>_xll.acq_interpolator_eval(S$2,$H105)</f>
+        <v>6.1784665265111206E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H106" s="12">
         <v>1.9000000000000301</v>
       </c>
       <c r="I106">
         <f>_xll.acq_interpolator_eval($F$5,H106)</f>
+        <v>5.3773386202095735E-2</v>
+      </c>
+      <c r="K106">
+        <f>_xll.acq_interpolator_eval(K$2,$H106)</f>
+        <v>3.6631277777468357E-2</v>
+      </c>
+      <c r="L106">
+        <f>_xll.acq_interpolator_eval(L$2,$H106)</f>
+        <v>6.0924789590526676E-2</v>
+      </c>
+      <c r="M106">
+        <f>_xll.acq_interpolator_eval(M$2,$H106)</f>
+        <v>5.0954680771354628E-2</v>
+      </c>
+      <c r="N106">
+        <f>_xll.acq_interpolator_eval(N$2,$H106)</f>
         <v>5.1605147437539384E-2</v>
       </c>
-      <c r="L106" s="14"/>
-    </row>
-    <row r="107" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O106">
+        <f>_xll.acq_interpolator_eval(O$2,$H106)</f>
+        <v>5.1605147437539384E-2</v>
+      </c>
+      <c r="P106">
+        <f>_xll.acq_interpolator_eval(P$2,$H106)</f>
+        <v>5.3773386202095735E-2</v>
+      </c>
+      <c r="Q106">
+        <f>_xll.acq_interpolator_eval(Q$2,$H106)</f>
+        <v>5.1250053812614715E-2</v>
+      </c>
+      <c r="R106">
+        <f>_xll.acq_interpolator_eval(R$2,$H106)</f>
+        <v>5.1250053812614715E-2</v>
+      </c>
+      <c r="S106">
+        <f>_xll.acq_interpolator_eval(S$2,$H106)</f>
+        <v>5.2106049769799608E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H107" s="12">
         <v>1.9500000000000299</v>
       </c>
       <c r="I107">
         <f>_xll.acq_interpolator_eval($F$5,H107)</f>
+        <v>4.474929710685973E-2</v>
+      </c>
+      <c r="K107">
+        <f>_xll.acq_interpolator_eval(K$2,$H107)</f>
+        <v>3.6631277777468357E-2</v>
+      </c>
+      <c r="L107">
+        <f>_xll.acq_interpolator_eval(L$2,$H107)</f>
+        <v>4.8778033683993902E-2</v>
+      </c>
+      <c r="M107">
+        <f>_xll.acq_interpolator_eval(M$2,$H107)</f>
+        <v>4.3169847473211342E-2</v>
+      </c>
+      <c r="N107">
+        <f>_xll.acq_interpolator_eval(N$2,$H107)</f>
         <v>4.3629740152650212E-2</v>
       </c>
-      <c r="L107" s="14"/>
-    </row>
-    <row r="108" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O107">
+        <f>_xll.acq_interpolator_eval(O$2,$H107)</f>
+        <v>4.3629740152650212E-2</v>
+      </c>
+      <c r="P107">
+        <f>_xll.acq_interpolator_eval(P$2,$H107)</f>
+        <v>4.474929710685973E-2</v>
+      </c>
+      <c r="Q107">
+        <f>_xll.acq_interpolator_eval(Q$2,$H107)</f>
+        <v>4.2976267073250266E-2</v>
+      </c>
+      <c r="R107">
+        <f>_xll.acq_interpolator_eval(R$2,$H107)</f>
+        <v>4.2976267073250266E-2</v>
+      </c>
+      <c r="S107">
+        <f>_xll.acq_interpolator_eval(S$2,$H107)</f>
+        <v>4.3694185770797672E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H108" s="12">
         <v>2.0000000000000302</v>
       </c>
       <c r="I108">
         <f>_xll.acq_interpolator_eval($F$5,H108)</f>
+        <v>3.6631277777463729E-2</v>
+      </c>
+      <c r="K108">
+        <f>_xll.acq_interpolator_eval(K$2,$H108)</f>
+        <v>3.6631277777468357E-2</v>
+      </c>
+      <c r="L108">
+        <f>_xll.acq_interpolator_eval(L$2,$H108)</f>
+        <v>3.6631277777466435E-2</v>
+      </c>
+      <c r="M108">
+        <f>_xll.acq_interpolator_eval(M$2,$H108)</f>
+        <v>3.6631277777464784E-2</v>
+      </c>
+      <c r="N108">
+        <f>_xll.acq_interpolator_eval(N$2,$H108)</f>
         <v>3.6631277777464409E-2</v>
       </c>
-      <c r="L108" s="14"/>
-    </row>
-    <row r="109" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O108">
+        <f>_xll.acq_interpolator_eval(O$2,$H108)</f>
+        <v>3.6631277777464409E-2</v>
+      </c>
+      <c r="P108">
+        <f>_xll.acq_interpolator_eval(P$2,$H108)</f>
+        <v>3.6631277777463729E-2</v>
+      </c>
+      <c r="Q108">
+        <f>_xll.acq_interpolator_eval(Q$2,$H108)</f>
+        <v>3.6631277777465159E-2</v>
+      </c>
+      <c r="R108">
+        <f>_xll.acq_interpolator_eval(R$2,$H108)</f>
+        <v>3.6631277777465159E-2</v>
+      </c>
+      <c r="S108">
+        <f>_xll.acq_interpolator_eval(S$2,$H108)</f>
+        <v>3.6631277777464513E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H109" s="12">
         <v>2.05000000000003</v>
       </c>
       <c r="I109">
         <f>_xll.acq_interpolator_eval($F$5,H109)</f>
+        <v>2.9696364096034669E-2</v>
+      </c>
+      <c r="K109">
+        <f>_xll.acq_interpolator_eval(K$2,$H109)</f>
+        <v>3.6631277777468357E-2</v>
+      </c>
+      <c r="L109">
+        <f>_xll.acq_interpolator_eval(L$2,$H109)</f>
+        <v>3.3450763533776538E-2</v>
+      </c>
+      <c r="M109">
+        <f>_xll.acq_interpolator_eval(M$2,$H109)</f>
+        <v>3.0989332248002148E-2</v>
+      </c>
+      <c r="N109">
+        <f>_xll.acq_interpolator_eval(N$2,$H109)</f>
         <v>3.0545325129814137E-2</v>
       </c>
-      <c r="L109" s="14"/>
-    </row>
-    <row r="110" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O109">
+        <f>_xll.acq_interpolator_eval(O$2,$H109)</f>
+        <v>3.0545325129814137E-2</v>
+      </c>
+      <c r="P109">
+        <f>_xll.acq_interpolator_eval(P$2,$H109)</f>
+        <v>2.9696364096034669E-2</v>
+      </c>
+      <c r="Q109">
+        <f>_xll.acq_interpolator_eval(Q$2,$H109)</f>
+        <v>3.1544840819804409E-2</v>
+      </c>
+      <c r="R109">
+        <f>_xll.acq_interpolator_eval(R$2,$H109)</f>
+        <v>3.1487309570070253E-2</v>
+      </c>
+      <c r="S109">
+        <f>_xll.acq_interpolator_eval(S$2,$H109)</f>
+        <v>3.0668507021163749E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H110" s="12">
         <v>2.1000000000000298</v>
       </c>
       <c r="I110">
         <f>_xll.acq_interpolator_eval($F$5,H110)</f>
+        <v>2.4094266841728659E-2</v>
+      </c>
+      <c r="K110">
+        <f>_xll.acq_interpolator_eval(K$2,$H110)</f>
+        <v>3.6631277777468357E-2</v>
+      </c>
+      <c r="L110">
+        <f>_xll.acq_interpolator_eval(L$2,$H110)</f>
+        <v>3.0270249290086641E-2</v>
+      </c>
+      <c r="M110">
+        <f>_xll.acq_interpolator_eval(M$2,$H110)</f>
+        <v>2.5894371448711307E-2</v>
+      </c>
+      <c r="N110">
+        <f>_xll.acq_interpolator_eval(N$2,$H110)</f>
         <v>2.530038677808635E-2</v>
       </c>
-      <c r="L110" s="14"/>
-    </row>
-    <row r="111" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O110">
+        <f>_xll.acq_interpolator_eval(O$2,$H110)</f>
+        <v>2.530038677808635E-2</v>
+      </c>
+      <c r="P110">
+        <f>_xll.acq_interpolator_eval(P$2,$H110)</f>
+        <v>2.4094266841728659E-2</v>
+      </c>
+      <c r="Q110">
+        <f>_xll.acq_interpolator_eval(Q$2,$H110)</f>
+        <v>2.6885854129552349E-2</v>
+      </c>
+      <c r="R110">
+        <f>_xll.acq_interpolator_eval(R$2,$H110)</f>
+        <v>2.6681298574942131E-2</v>
+      </c>
+      <c r="S110">
+        <f>_xll.acq_interpolator_eval(S$2,$H110)</f>
+        <v>2.5466604479593587E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H111" s="12">
         <v>2.1500000000000301</v>
       </c>
       <c r="I111">
         <f>_xll.acq_interpolator_eval($F$5,H111)</f>
+        <v>1.9638046474186138E-2</v>
+      </c>
+      <c r="K111">
+        <f>_xll.acq_interpolator_eval(K$2,$H111)</f>
+        <v>3.6631277777468357E-2</v>
+      </c>
+      <c r="L111">
+        <f>_xll.acq_interpolator_eval(L$2,$H111)</f>
+        <v>2.7089735046396717E-2</v>
+      </c>
+      <c r="M111">
+        <f>_xll.acq_interpolator_eval(M$2,$H111)</f>
+        <v>2.1346395379592216E-2</v>
+      </c>
+      <c r="N111">
+        <f>_xll.acq_interpolator_eval(N$2,$H111)</f>
         <v>2.0823202228306806E-2</v>
       </c>
-      <c r="L111" s="14"/>
-    </row>
-    <row r="112" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O111">
+        <f>_xll.acq_interpolator_eval(O$2,$H111)</f>
+        <v>2.0823202228306806E-2</v>
+      </c>
+      <c r="P111">
+        <f>_xll.acq_interpolator_eval(P$2,$H111)</f>
+        <v>1.9638046474186138E-2</v>
+      </c>
+      <c r="Q111">
+        <f>_xll.acq_interpolator_eval(Q$2,$H111)</f>
+        <v>2.2652850749261606E-2</v>
+      </c>
+      <c r="R111">
+        <f>_xll.acq_interpolator_eval(R$2,$H111)</f>
+        <v>2.2250132001122816E-2</v>
+      </c>
+      <c r="S111">
+        <f>_xll.acq_interpolator_eval(S$2,$H111)</f>
+        <v>2.0972099281614281E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H112" s="12">
         <v>2.2000000000000299</v>
       </c>
       <c r="I112">
         <f>_xll.acq_interpolator_eval($F$5,H112)</f>
+        <v>1.6140763453047675E-2</v>
+      </c>
+      <c r="K112">
+        <f>_xll.acq_interpolator_eval(K$2,$H112)</f>
+        <v>3.6631277777468357E-2</v>
+      </c>
+      <c r="L112">
+        <f>_xll.acq_interpolator_eval(L$2,$H112)</f>
+        <v>2.390922080270682E-2</v>
+      </c>
+      <c r="M112">
+        <f>_xll.acq_interpolator_eval(M$2,$H112)</f>
+        <v>1.7345404040644961E-2</v>
+      </c>
+      <c r="N112">
+        <f>_xll.acq_interpolator_eval(N$2,$H112)</f>
         <v>1.7040510986501375E-2</v>
       </c>
-      <c r="L112" s="14"/>
-    </row>
-    <row r="113" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O112">
+        <f>_xll.acq_interpolator_eval(O$2,$H112)</f>
+        <v>1.7040510986501375E-2</v>
+      </c>
+      <c r="P112">
+        <f>_xll.acq_interpolator_eval(P$2,$H112)</f>
+        <v>1.6140763453047675E-2</v>
+      </c>
+      <c r="Q112">
+        <f>_xll.acq_interpolator_eval(Q$2,$H112)</f>
+        <v>1.8844363721484913E-2</v>
+      </c>
+      <c r="R112">
+        <f>_xll.acq_interpolator_eval(R$2,$H112)</f>
+        <v>1.8230697057654455E-2</v>
+      </c>
+      <c r="S112">
+        <f>_xll.acq_interpolator_eval(S$2,$H112)</f>
+        <v>1.7131520556086202E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H113" s="12">
         <v>2.2500000000000302</v>
       </c>
       <c r="I113">
         <f>_xll.acq_interpolator_eval($F$5,H113)</f>
+        <v>1.3415478237953679E-2</v>
+      </c>
+      <c r="K113">
+        <f>_xll.acq_interpolator_eval(K$2,$H113)</f>
+        <v>4.8261353405692729E-3</v>
+      </c>
+      <c r="L113">
+        <f>_xll.acq_interpolator_eval(L$2,$H113)</f>
+        <v>2.0728706559016895E-2</v>
+      </c>
+      <c r="M113">
+        <f>_xll.acq_interpolator_eval(M$2,$H113)</f>
+        <v>1.3891397431869465E-2</v>
+      </c>
+      <c r="N113">
+        <f>_xll.acq_interpolator_eval(N$2,$H113)</f>
         <v>1.3879052558695785E-2</v>
       </c>
-      <c r="L113" s="14"/>
-    </row>
-    <row r="114" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O113">
+        <f>_xll.acq_interpolator_eval(O$2,$H113)</f>
+        <v>1.3879052558695785E-2</v>
+      </c>
+      <c r="P113">
+        <f>_xll.acq_interpolator_eval(P$2,$H113)</f>
+        <v>1.3415478237953679E-2</v>
+      </c>
+      <c r="Q113">
+        <f>_xll.acq_interpolator_eval(Q$2,$H113)</f>
+        <v>1.5458926088774885E-2</v>
+      </c>
+      <c r="R113">
+        <f>_xll.acq_interpolator_eval(R$2,$H113)</f>
+        <v>1.4659880953579035E-2</v>
+      </c>
+      <c r="S113">
+        <f>_xll.acq_interpolator_eval(S$2,$H113)</f>
+        <v>1.3891397431869564E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H114" s="12">
         <v>2.30000000000003</v>
       </c>
       <c r="I114">
         <f>_xll.acq_interpolator_eval($F$5,H114)</f>
+        <v>1.1275251288544695E-2</v>
+      </c>
+      <c r="K114">
+        <f>_xll.acq_interpolator_eval(K$2,$H114)</f>
+        <v>4.8261353405692729E-3</v>
+      </c>
+      <c r="L114">
+        <f>_xll.acq_interpolator_eval(L$2,$H114)</f>
+        <v>1.7548192315326998E-2</v>
+      </c>
+      <c r="M114">
+        <f>_xll.acq_interpolator_eval(M$2,$H114)</f>
+        <v>1.0984375553265794E-2</v>
+      </c>
+      <c r="N114">
+        <f>_xll.acq_interpolator_eval(N$2,$H114)</f>
         <v>1.1265566450915879E-2</v>
       </c>
-      <c r="L114" s="14"/>
-    </row>
-    <row r="115" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O114">
+        <f>_xll.acq_interpolator_eval(O$2,$H114)</f>
+        <v>1.1265566450915879E-2</v>
+      </c>
+      <c r="P114">
+        <f>_xll.acq_interpolator_eval(P$2,$H114)</f>
+        <v>1.1275251288544695E-2</v>
+      </c>
+      <c r="Q114">
+        <f>_xll.acq_interpolator_eval(Q$2,$H114)</f>
+        <v>1.2495070893684245E-2</v>
+      </c>
+      <c r="R114">
+        <f>_xll.acq_interpolator_eval(R$2,$H114)</f>
+        <v>1.1574570897938691E-2</v>
+      </c>
+      <c r="S114">
+        <f>_xll.acq_interpolator_eval(S$2,$H114)</f>
+        <v>1.1198259037824721E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H115" s="12">
         <v>2.3500000000000298</v>
       </c>
       <c r="I115">
         <f>_xll.acq_interpolator_eval($F$5,H115)</f>
+        <v>9.5331430644611699E-3</v>
+      </c>
+      <c r="K115">
+        <f>_xll.acq_interpolator_eval(K$2,$H115)</f>
+        <v>4.8261353405692729E-3</v>
+      </c>
+      <c r="L115">
+        <f>_xll.acq_interpolator_eval(L$2,$H115)</f>
+        <v>1.4367678071637101E-2</v>
+      </c>
+      <c r="M115">
+        <f>_xll.acq_interpolator_eval(M$2,$H115)</f>
+        <v>8.6243384048339117E-3</v>
+      </c>
+      <c r="N115">
+        <f>_xll.acq_interpolator_eval(N$2,$H115)</f>
         <v>9.1267921691874226E-3</v>
       </c>
-      <c r="L115" s="14"/>
-    </row>
-    <row r="116" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O115">
+        <f>_xll.acq_interpolator_eval(O$2,$H115)</f>
+        <v>9.1267921691874226E-3</v>
+      </c>
+      <c r="P115">
+        <f>_xll.acq_interpolator_eval(P$2,$H115)</f>
+        <v>9.5331430644611699E-3</v>
+      </c>
+      <c r="Q115">
+        <f>_xll.acq_interpolator_eval(Q$2,$H115)</f>
+        <v>9.9513311787656281E-3</v>
+      </c>
+      <c r="R115">
+        <f>_xll.acq_interpolator_eval(R$2,$H115)</f>
+        <v>9.0116540997754492E-3</v>
+      </c>
+      <c r="S115">
+        <f>_xll.acq_interpolator_eval(S$2,$H115)</f>
+        <v>8.9986345028119294E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H116" s="12">
         <v>2.4000000000000301</v>
       </c>
       <c r="I116">
         <f>_xll.acq_interpolator_eval($F$5,H116)</f>
+        <v>8.0022140253435785E-3</v>
+      </c>
+      <c r="K116">
+        <f>_xll.acq_interpolator_eval(K$2,$H116)</f>
+        <v>4.8261353405692729E-3</v>
+      </c>
+      <c r="L116">
+        <f>_xll.acq_interpolator_eval(L$2,$H116)</f>
+        <v>1.1187163827947176E-2</v>
+      </c>
+      <c r="M116">
+        <f>_xll.acq_interpolator_eval(M$2,$H116)</f>
+        <v>6.811285986573809E-3</v>
+      </c>
+      <c r="N116">
+        <f>_xll.acq_interpolator_eval(N$2,$H116)</f>
         <v>7.3894692195361888E-3</v>
       </c>
-      <c r="L116" s="14"/>
-    </row>
-    <row r="117" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O116">
+        <f>_xll.acq_interpolator_eval(O$2,$H116)</f>
+        <v>7.3894692195361888E-3</v>
+      </c>
+      <c r="P116">
+        <f>_xll.acq_interpolator_eval(P$2,$H116)</f>
+        <v>8.0022140253435785E-3</v>
+      </c>
+      <c r="Q116">
+        <f>_xll.acq_interpolator_eval(Q$2,$H116)</f>
+        <v>7.8262399865716946E-3</v>
+      </c>
+      <c r="R116">
+        <f>_xll.acq_interpolator_eval(R$2,$H116)</f>
+        <v>7.0080177681313659E-3</v>
+      </c>
+      <c r="S116">
+        <f>_xll.acq_interpolator_eval(S$2,$H116)</f>
+        <v>7.2390529556914636E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H117" s="12">
         <v>2.4500000000000299</v>
       </c>
       <c r="I117">
         <f>_xll.acq_interpolator_eval($F$5,H117)</f>
+        <v>6.4955246308324296E-3</v>
+      </c>
+      <c r="K117">
+        <f>_xll.acq_interpolator_eval(K$2,$H117)</f>
+        <v>4.8261353405692729E-3</v>
+      </c>
+      <c r="L117">
+        <f>_xll.acq_interpolator_eval(L$2,$H117)</f>
+        <v>8.0066495842572791E-3</v>
+      </c>
+      <c r="M117">
+        <f>_xll.acq_interpolator_eval(M$2,$H117)</f>
+        <v>5.5452182984855125E-3</v>
+      </c>
+      <c r="N117">
+        <f>_xll.acq_interpolator_eval(N$2,$H117)</f>
         <v>5.9803371079880062E-3</v>
       </c>
-      <c r="L117" s="14"/>
-    </row>
-    <row r="118" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O117">
+        <f>_xll.acq_interpolator_eval(O$2,$H117)</f>
+        <v>5.9803371079880062E-3</v>
+      </c>
+      <c r="P117">
+        <f>_xll.acq_interpolator_eval(P$2,$H117)</f>
+        <v>6.4955246308324296E-3</v>
+      </c>
+      <c r="Q117">
+        <f>_xll.acq_interpolator_eval(Q$2,$H117)</f>
+        <v>6.1183303596551442E-3</v>
+      </c>
+      <c r="R117">
+        <f>_xll.acq_interpolator_eval(R$2,$H117)</f>
+        <v>5.6005491120485439E-3</v>
+      </c>
+      <c r="S117">
+        <f>_xll.acq_interpolator_eval(S$2,$H117)</f>
+        <v>5.8660435253236427E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H118" s="12">
         <v>2.5000000000000302</v>
       </c>
       <c r="I118">
         <f>_xll.acq_interpolator_eval($F$5,H118)</f>
+        <v>4.8261353405681783E-3</v>
+      </c>
+      <c r="K118">
+        <f>_xll.acq_interpolator_eval(K$2,$H118)</f>
+        <v>4.8261353405692729E-3</v>
+      </c>
+      <c r="L118">
+        <f>_xll.acq_interpolator_eval(L$2,$H118)</f>
+        <v>4.826135340569004E-3</v>
+      </c>
+      <c r="M118">
+        <f>_xll.acq_interpolator_eval(M$2,$H118)</f>
+        <v>4.826135340569004E-3</v>
+      </c>
+      <c r="N118">
+        <f>_xll.acq_interpolator_eval(N$2,$H118)</f>
         <v>4.826135340568638E-3</v>
       </c>
-      <c r="L118" s="14"/>
-    </row>
-    <row r="119" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O118">
+        <f>_xll.acq_interpolator_eval(O$2,$H118)</f>
+        <v>4.826135340568638E-3</v>
+      </c>
+      <c r="P118">
+        <f>_xll.acq_interpolator_eval(P$2,$H118)</f>
+        <v>4.8261353405681783E-3</v>
+      </c>
+      <c r="Q118">
+        <f>_xll.acq_interpolator_eval(Q$2,$H118)</f>
+        <v>4.8261353405686181E-3</v>
+      </c>
+      <c r="R118">
+        <f>_xll.acq_interpolator_eval(R$2,$H118)</f>
+        <v>4.826135340569004E-3</v>
+      </c>
+      <c r="S118">
+        <f>_xll.acq_interpolator_eval(S$2,$H118)</f>
+        <v>4.8261353405687343E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H119" s="12">
         <v>2.55000000000003</v>
       </c>
       <c r="I119">
         <f>_xll.acq_interpolator_eval($F$5,H119)</f>
+        <v>3.2327975157848471E-3</v>
+      </c>
+      <c r="K119">
+        <f>_xll.acq_interpolator_eval(K$2,$H119)</f>
+        <v>4.8261353405692729E-3</v>
+      </c>
+      <c r="L119">
+        <f>_xll.acq_interpolator_eval(L$2,$H119)</f>
+        <v>4.3805447477380816E-3</v>
+      </c>
+      <c r="M119">
+        <f>_xll.acq_interpolator_eval(M$2,$H119)</f>
+        <v>4.3805447477380695E-3</v>
+      </c>
+      <c r="N119">
+        <f>_xll.acq_interpolator_eval(N$2,$H119)</f>
         <v>3.8627856747970382E-3</v>
       </c>
-      <c r="L119" s="14"/>
-    </row>
-    <row r="120" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O119">
+        <f>_xll.acq_interpolator_eval(O$2,$H119)</f>
+        <v>3.8627856747970382E-3</v>
+      </c>
+      <c r="P119">
+        <f>_xll.acq_interpolator_eval(P$2,$H119)</f>
+        <v>3.2327975157848471E-3</v>
+      </c>
+      <c r="Q119">
+        <f>_xll.acq_interpolator_eval(Q$2,$H119)</f>
+        <v>3.739691935842197E-3</v>
+      </c>
+      <c r="R119">
+        <f>_xll.acq_interpolator_eval(R$2,$H119)</f>
+        <v>4.3805447477380816E-3</v>
+      </c>
+      <c r="S119">
+        <f>_xll.acq_interpolator_eval(S$2,$H119)</f>
+        <v>3.979513214190036E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H120" s="12">
         <v>2.6000000000000298</v>
       </c>
       <c r="I120">
         <f>_xll.acq_interpolator_eval($F$5,H120)</f>
+        <v>2.0420140286511791E-3</v>
+      </c>
+      <c r="K120">
+        <f>_xll.acq_interpolator_eval(K$2,$H120)</f>
+        <v>4.8261353405692729E-3</v>
+      </c>
+      <c r="L120">
+        <f>_xll.acq_interpolator_eval(L$2,$H120)</f>
+        <v>3.9349541549071601E-3</v>
+      </c>
+      <c r="M120">
+        <f>_xll.acq_interpolator_eval(M$2,$H120)</f>
+        <v>3.9349541549071384E-3</v>
+      </c>
+      <c r="N120">
+        <f>_xll.acq_interpolator_eval(N$2,$H120)</f>
         <v>3.0629388741646203E-3</v>
       </c>
-      <c r="L120" s="14"/>
-    </row>
-    <row r="121" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O120">
+        <f>_xll.acq_interpolator_eval(O$2,$H120)</f>
+        <v>3.0629388741646203E-3</v>
+      </c>
+      <c r="P120">
+        <f>_xll.acq_interpolator_eval(P$2,$H120)</f>
+        <v>2.0420140286511791E-3</v>
+      </c>
+      <c r="Q120">
+        <f>_xll.acq_interpolator_eval(Q$2,$H120)</f>
+        <v>2.6791441523289195E-3</v>
+      </c>
+      <c r="R120">
+        <f>_xll.acq_interpolator_eval(R$2,$H120)</f>
+        <v>3.9349541549071601E-3</v>
+      </c>
+      <c r="S120">
+        <f>_xll.acq_interpolator_eval(S$2,$H120)</f>
+        <v>3.2220092063775232E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H121" s="12">
         <v>2.6500000000000301</v>
       </c>
       <c r="I121">
         <f>_xll.acq_interpolator_eval($F$5,H121)</f>
+        <v>1.1984726052112525E-3</v>
+      </c>
+      <c r="K121">
+        <f>_xll.acq_interpolator_eval(K$2,$H121)</f>
+        <v>4.8261353405692729E-3</v>
+      </c>
+      <c r="L121">
+        <f>_xll.acq_interpolator_eval(L$2,$H121)</f>
+        <v>3.4893635620762342E-3</v>
+      </c>
+      <c r="M121">
+        <f>_xll.acq_interpolator_eval(M$2,$H121)</f>
+        <v>3.4893635620762056E-3</v>
+      </c>
+      <c r="N121">
+        <f>_xll.acq_interpolator_eval(N$2,$H121)</f>
         <v>2.4084279536559145E-3</v>
       </c>
-      <c r="L121" s="14"/>
-    </row>
-    <row r="122" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O121">
+        <f>_xll.acq_interpolator_eval(O$2,$H121)</f>
+        <v>2.4084279536559145E-3</v>
+      </c>
+      <c r="P121">
+        <f>_xll.acq_interpolator_eval(P$2,$H121)</f>
+        <v>1.1984726052112525E-3</v>
+      </c>
+      <c r="Q121">
+        <f>_xll.acq_interpolator_eval(Q$2,$H121)</f>
+        <v>1.6881855330651476E-3</v>
+      </c>
+      <c r="R121">
+        <f>_xll.acq_interpolator_eval(R$2,$H121)</f>
+        <v>3.4893635620762342E-3</v>
+      </c>
+      <c r="S121">
+        <f>_xll.acq_interpolator_eval(S$2,$H121)</f>
+        <v>2.5536233171311873E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H122" s="12">
         <v>2.7000000000000299</v>
       </c>
       <c r="I122">
         <f>_xll.acq_interpolator_eval($F$5,H122)</f>
+        <v>6.4686097150916996E-4</v>
+      </c>
+      <c r="K122">
+        <f>_xll.acq_interpolator_eval(K$2,$H122)</f>
+        <v>4.8261353405692729E-3</v>
+      </c>
+      <c r="L122">
+        <f>_xll.acq_interpolator_eval(L$2,$H122)</f>
+        <v>3.0437729692453126E-3</v>
+      </c>
+      <c r="M122">
+        <f>_xll.acq_interpolator_eval(M$2,$H122)</f>
+        <v>3.0437729692452797E-3</v>
+      </c>
+      <c r="N122">
+        <f>_xll.acq_interpolator_eval(N$2,$H122)</f>
         <v>1.8810859282554666E-3</v>
       </c>
-      <c r="L122" s="14"/>
-    </row>
-    <row r="123" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O122">
+        <f>_xll.acq_interpolator_eval(O$2,$H122)</f>
+        <v>1.8810859282554666E-3</v>
+      </c>
+      <c r="P122">
+        <f>_xll.acq_interpolator_eval(P$2,$H122)</f>
+        <v>6.4686097150916996E-4</v>
+      </c>
+      <c r="Q122">
+        <f>_xll.acq_interpolator_eval(Q$2,$H122)</f>
+        <v>8.1050962108727455E-4</v>
+      </c>
+      <c r="R122">
+        <f>_xll.acq_interpolator_eval(R$2,$H122)</f>
+        <v>3.0437729692453126E-3</v>
+      </c>
+      <c r="S122">
+        <f>_xll.acq_interpolator_eval(S$2,$H122)</f>
+        <v>1.974355546451043E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H123" s="12">
         <v>2.7500000000000302</v>
       </c>
       <c r="I123">
         <f>_xll.acq_interpolator_eval($F$5,H123)</f>
+        <v>3.3186685358900644E-4</v>
+      </c>
+      <c r="K123">
+        <f>_xll.acq_interpolator_eval(K$2,$H123)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="L123">
+        <f>_xll.acq_interpolator_eval(L$2,$H123)</f>
+        <v>2.5981823764143863E-3</v>
+      </c>
+      <c r="M123">
+        <f>_xll.acq_interpolator_eval(M$2,$H123)</f>
+        <v>2.5981823764143525E-3</v>
+      </c>
+      <c r="N123">
+        <f>_xll.acq_interpolator_eval(N$2,$H123)</f>
         <v>1.4627458129478001E-3</v>
       </c>
-      <c r="L123" s="14"/>
-    </row>
-    <row r="124" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O123">
+        <f>_xll.acq_interpolator_eval(O$2,$H123)</f>
+        <v>1.4627458129478001E-3</v>
+      </c>
+      <c r="P123">
+        <f>_xll.acq_interpolator_eval(P$2,$H123)</f>
+        <v>3.3186685358900644E-4</v>
+      </c>
+      <c r="Q123">
+        <f>_xll.acq_interpolator_eval(Q$2,$H123)</f>
+        <v>8.980995943165624E-5</v>
+      </c>
+      <c r="R123">
+        <f>_xll.acq_interpolator_eval(R$2,$H123)</f>
+        <v>2.5981823764143863E-3</v>
+      </c>
+      <c r="S123">
+        <f>_xll.acq_interpolator_eval(S$2,$H123)</f>
+        <v>1.4842058943370783E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H124" s="12">
         <v>2.80000000000003</v>
       </c>
       <c r="I124">
         <f>_xll.acq_interpolator_eval($F$5,H124)</f>
+        <v>1.9817797749485276E-4</v>
+      </c>
+      <c r="K124">
+        <f>_xll.acq_interpolator_eval(K$2,$H124)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="L124">
+        <f>_xll.acq_interpolator_eval(L$2,$H124)</f>
+        <v>2.1525917835834647E-3</v>
+      </c>
+      <c r="M124">
+        <f>_xll.acq_interpolator_eval(M$2,$H124)</f>
+        <v>2.1525917835834322E-3</v>
+      </c>
+      <c r="N124">
+        <f>_xll.acq_interpolator_eval(N$2,$H124)</f>
         <v>1.1352406227174566E-3</v>
       </c>
-      <c r="L124" s="14"/>
-    </row>
-    <row r="125" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O124">
+        <f>_xll.acq_interpolator_eval(O$2,$H124)</f>
+        <v>1.1352406227174566E-3</v>
+      </c>
+      <c r="P124">
+        <f>_xll.acq_interpolator_eval(P$2,$H124)</f>
+        <v>1.9817797749485276E-4</v>
+      </c>
+      <c r="Q124">
+        <f>_xll.acq_interpolator_eval(Q$2,$H124)</f>
+        <v>-4.3021990886531972E-4</v>
+      </c>
+      <c r="R124">
+        <f>_xll.acq_interpolator_eval(R$2,$H124)</f>
+        <v>2.1525917835834647E-3</v>
+      </c>
+      <c r="S124">
+        <f>_xll.acq_interpolator_eval(S$2,$H124)</f>
+        <v>1.0831743607893018E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H125" s="12">
         <v>2.8500000000000298</v>
       </c>
       <c r="I125">
         <f>_xll.acq_interpolator_eval($F$5,H125)</f>
+        <v>1.9048206927079359E-4</v>
+      </c>
+      <c r="K125">
+        <f>_xll.acq_interpolator_eval(K$2,$H125)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="L125">
+        <f>_xll.acq_interpolator_eval(L$2,$H125)</f>
+        <v>1.7070011907525428E-3</v>
+      </c>
+      <c r="M125">
+        <f>_xll.acq_interpolator_eval(M$2,$H125)</f>
+        <v>1.7070011907525146E-3</v>
+      </c>
+      <c r="N125">
+        <f>_xll.acq_interpolator_eval(N$2,$H125)</f>
         <v>8.8040337254896648E-4</v>
       </c>
-      <c r="L125" s="14"/>
-    </row>
-    <row r="126" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O125">
+        <f>_xll.acq_interpolator_eval(O$2,$H125)</f>
+        <v>8.8040337254896648E-4</v>
+      </c>
+      <c r="P125">
+        <f>_xll.acq_interpolator_eval(P$2,$H125)</f>
+        <v>1.9048206927079359E-4</v>
+      </c>
+      <c r="Q125">
+        <f>_xll.acq_interpolator_eval(Q$2,$H125)</f>
+        <v>-7.0588644076728831E-4</v>
+      </c>
+      <c r="R125">
+        <f>_xll.acq_interpolator_eval(R$2,$H125)</f>
+        <v>1.7070011907525428E-3</v>
+      </c>
+      <c r="S125">
+        <f>_xll.acq_interpolator_eval(S$2,$H125)</f>
+        <v>7.7126094580771021E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H126" s="12">
         <v>2.9000000000000301</v>
       </c>
       <c r="I126">
         <f>_xll.acq_interpolator_eval($F$5,H126)</f>
+        <v>2.5346685496091439E-4</v>
+      </c>
+      <c r="K126">
+        <f>_xll.acq_interpolator_eval(K$2,$H126)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="L126">
+        <f>_xll.acq_interpolator_eval(L$2,$H126)</f>
+        <v>1.2614105979216169E-3</v>
+      </c>
+      <c r="M126">
+        <f>_xll.acq_interpolator_eval(M$2,$H126)</f>
+        <v>1.2614105979215956E-3</v>
+      </c>
+      <c r="N126">
+        <f>_xll.acq_interpolator_eval(N$2,$H126)</f>
         <v>6.8006707742686203E-4</v>
       </c>
-      <c r="L126" s="14"/>
-    </row>
-    <row r="127" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O126">
+        <f>_xll.acq_interpolator_eval(O$2,$H126)</f>
+        <v>6.8006707742686203E-4</v>
+      </c>
+      <c r="P126">
+        <f>_xll.acq_interpolator_eval(P$2,$H126)</f>
+        <v>2.5346685496091439E-4</v>
+      </c>
+      <c r="Q126">
+        <f>_xll.acq_interpolator_eval(Q$2,$H126)</f>
+        <v>-6.9349609323787493E-4</v>
+      </c>
+      <c r="R126">
+        <f>_xll.acq_interpolator_eval(R$2,$H126)</f>
+        <v>1.2614105979216169E-3</v>
+      </c>
+      <c r="S126">
+        <f>_xll.acq_interpolator_eval(S$2,$H126)</f>
+        <v>5.4846564939230083E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H127" s="12">
         <v>2.9500000000000299</v>
       </c>
       <c r="I127">
         <f>_xll.acq_interpolator_eval($F$5,H127)</f>
+        <v>3.3182006060930038E-4</v>
+      </c>
+      <c r="K127">
+        <f>_xll.acq_interpolator_eval(K$2,$H127)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="L127">
+        <f>_xll.acq_interpolator_eval(L$2,$H127)</f>
+        <v>8.1582000509069531E-4</v>
+      </c>
+      <c r="M127">
+        <f>_xll.acq_interpolator_eval(M$2,$H127)</f>
+        <v>8.1582000509068317E-4</v>
+      </c>
+      <c r="N127">
+        <f>_xll.acq_interpolator_eval(N$2,$H127)</f>
         <v>5.1606475233568019E-4</v>
       </c>
-      <c r="L127" s="14"/>
-    </row>
-    <row r="128" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="O127">
+        <f>_xll.acq_interpolator_eval(O$2,$H127)</f>
+        <v>5.1606475233568019E-4</v>
+      </c>
+      <c r="P127">
+        <f>_xll.acq_interpolator_eval(P$2,$H127)</f>
+        <v>3.3182006060930038E-4</v>
+      </c>
+      <c r="Q127">
+        <f>_xll.acq_interpolator_eval(Q$2,$H127)</f>
+        <v>-3.4935532324070762E-4</v>
+      </c>
+      <c r="R127">
+        <f>_xll.acq_interpolator_eval(R$2,$H127)</f>
+        <v>8.1582000509069531E-4</v>
+      </c>
+      <c r="S127">
+        <f>_xll.acq_interpolator_eval(S$2,$H127)</f>
+        <v>4.1478847154307772E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H128" s="12">
         <v>3.0000000000000302</v>
       </c>
@@ -3342,9 +9827,44 @@
         <f>_xll.acq_interpolator_eval($F$5,H128)</f>
         <v>3.7022941226003868E-4</v>
       </c>
-      <c r="L128" s="14"/>
-    </row>
-    <row r="129" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K128">
+        <f>_xll.acq_interpolator_eval(K$2,$H128)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="L128">
+        <f>_xll.acq_interpolator_eval(L$2,$H128)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="M128">
+        <f>_xll.acq_interpolator_eval(M$2,$H128)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="N128">
+        <f>_xll.acq_interpolator_eval(N$2,$H128)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="O128">
+        <f>_xll.acq_interpolator_eval(O$2,$H128)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="P128">
+        <f>_xll.acq_interpolator_eval(P$2,$H128)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="Q128">
+        <f>_xll.acq_interpolator_eval(Q$2,$H128)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="R128">
+        <f>_xll.acq_interpolator_eval(R$2,$H128)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="S128">
+        <f>_xll.acq_interpolator_eval(S$2,$H128)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H129" s="12">
         <v>3.05000000000003</v>
       </c>
@@ -3352,9 +9872,44 @@
         <f>_xll.acq_interpolator_eval($F$5,H129)</f>
         <v>3.7022941226003868E-4</v>
       </c>
-      <c r="L129" s="14"/>
-    </row>
-    <row r="130" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K129">
+        <f>_xll.acq_interpolator_eval(K$2,$H129)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="L129">
+        <f>_xll.acq_interpolator_eval(L$2,$H129)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="M129">
+        <f>_xll.acq_interpolator_eval(M$2,$H129)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="N129">
+        <f>_xll.acq_interpolator_eval(N$2,$H129)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="O129">
+        <f>_xll.acq_interpolator_eval(O$2,$H129)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="P129">
+        <f>_xll.acq_interpolator_eval(P$2,$H129)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="Q129">
+        <f>_xll.acq_interpolator_eval(Q$2,$H129)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="R129">
+        <f>_xll.acq_interpolator_eval(R$2,$H129)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="S129">
+        <f>_xll.acq_interpolator_eval(S$2,$H129)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H130" s="12">
         <v>3.1000000000000298</v>
       </c>
@@ -3362,9 +9917,44 @@
         <f>_xll.acq_interpolator_eval($F$5,H130)</f>
         <v>3.7022941226003868E-4</v>
       </c>
-      <c r="L130" s="14"/>
-    </row>
-    <row r="131" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K130">
+        <f>_xll.acq_interpolator_eval(K$2,$H130)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="L130">
+        <f>_xll.acq_interpolator_eval(L$2,$H130)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="M130">
+        <f>_xll.acq_interpolator_eval(M$2,$H130)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="N130">
+        <f>_xll.acq_interpolator_eval(N$2,$H130)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="O130">
+        <f>_xll.acq_interpolator_eval(O$2,$H130)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="P130">
+        <f>_xll.acq_interpolator_eval(P$2,$H130)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="Q130">
+        <f>_xll.acq_interpolator_eval(Q$2,$H130)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="R130">
+        <f>_xll.acq_interpolator_eval(R$2,$H130)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="S130">
+        <f>_xll.acq_interpolator_eval(S$2,$H130)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H131" s="12">
         <v>3.1500000000000301</v>
       </c>
@@ -3372,9 +9962,44 @@
         <f>_xll.acq_interpolator_eval($F$5,H131)</f>
         <v>3.7022941226003868E-4</v>
       </c>
-      <c r="L131" s="14"/>
-    </row>
-    <row r="132" spans="8:12" x14ac:dyDescent="0.45">
+      <c r="K131">
+        <f>_xll.acq_interpolator_eval(K$2,$H131)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="L131">
+        <f>_xll.acq_interpolator_eval(L$2,$H131)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="M131">
+        <f>_xll.acq_interpolator_eval(M$2,$H131)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="N131">
+        <f>_xll.acq_interpolator_eval(N$2,$H131)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="O131">
+        <f>_xll.acq_interpolator_eval(O$2,$H131)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="P131">
+        <f>_xll.acq_interpolator_eval(P$2,$H131)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="Q131">
+        <f>_xll.acq_interpolator_eval(Q$2,$H131)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="R131">
+        <f>_xll.acq_interpolator_eval(R$2,$H131)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="S131">
+        <f>_xll.acq_interpolator_eval(S$2,$H131)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+    </row>
+    <row r="132" spans="8:19" x14ac:dyDescent="0.45">
       <c r="H132" s="12">
         <v>3.2000000000000299</v>
       </c>
@@ -3382,9 +10007,47 @@
         <f>_xll.acq_interpolator_eval($F$5,H132)</f>
         <v>3.7022941226003868E-4</v>
       </c>
-      <c r="L132" s="14"/>
+      <c r="K132">
+        <f>_xll.acq_interpolator_eval(K$2,$H132)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="L132">
+        <f>_xll.acq_interpolator_eval(L$2,$H132)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="M132">
+        <f>_xll.acq_interpolator_eval(M$2,$H132)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="N132">
+        <f>_xll.acq_interpolator_eval(N$2,$H132)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="O132">
+        <f>_xll.acq_interpolator_eval(O$2,$H132)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="P132">
+        <f>_xll.acq_interpolator_eval(P$2,$H132)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="Q132">
+        <f>_xll.acq_interpolator_eval(Q$2,$H132)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="R132">
+        <f>_xll.acq_interpolator_eval(R$2,$H132)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
+      <c r="S132">
+        <f>_xll.acq_interpolator_eval(S$2,$H132)</f>
+        <v>3.7022941226003868E-4</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4">
       <formula1>"FALSE,TRUE"</formula1>
@@ -3398,4 +10061,47 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="12.06640625" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="15">
+        <v>20150630</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14">
+        <f>_xll.acq_convert_todate(C4)</f>
+        <v>42185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ACQ.Excel/Demo.xlsx
+++ b/ACQ.Excel/Demo.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Interpolation" sheetId="2" r:id="rId1"/>
-    <sheet name="Utils" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Utils" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>x</t>
   </si>
@@ -143,6 +144,21 @@
   </si>
   <si>
     <t>Date Conversion</t>
+  </si>
+  <si>
+    <t>Add-in Info</t>
+  </si>
+  <si>
+    <t>Add-in path</t>
+  </si>
+  <si>
+    <t>Excel version</t>
+  </si>
+  <si>
+    <t>Add-In version</t>
+  </si>
+  <si>
+    <t>Excel-DNA version</t>
   </si>
 </sst>
 </file>
@@ -411,11 +427,9 @@
         <v>#N/A</v>
         <stp/>
         <stp>6dcd35fd-2855-4207-8e14-b86e50eea85e</stp>
+        <tr r="P2" s="2"/>
         <tr r="F5" s="2"/>
-        <tr r="P2" s="2"/>
       </tp>
-    </main>
-    <main first="rtdsrv.fbb512fa90f644bb8efa31757873cf2d">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -428,8 +442,6 @@
         <stp>29499613-1deb-42c1-bc5e-ebbe03a0c4dd</stp>
         <tr r="L2" s="2"/>
       </tp>
-    </main>
-    <main first="rtdsrv.fbb512fa90f644bb8efa31757873cf2d">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -460,8 +472,6 @@
         <stp>f7b76c47-6ae9-474b-8db9-7763597e9b55</stp>
         <tr r="K2" s="2"/>
       </tp>
-    </main>
-    <main first="rtdsrv.fbb512fa90f644bb8efa31757873cf2d">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -3975,7 +3985,7 @@
   <dimension ref="B1:S132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10065,38 +10075,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="12.06640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
     <col min="4" max="4" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="11" t="s">
+    <row r="2" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <f>_xll.acq_exceldna_version()</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="str">
+        <f>_xll.acq_version()</f>
+        <v>1.0.5931.39778</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="str">
+        <f>_xll.acq_xllpath()</f>
+        <v>C:\Dev\ACQ\Distribution\ACQ64.xll</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C10" s="15">
         <v>20150630</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14">
-        <f>_xll.acq_convert_todate(C4)</f>
+      <c r="C11" s="14">
+        <f>_xll.acq_convert_todate(C10)</f>
         <v>42185</v>
       </c>
     </row>

--- a/ACQ.Excel/Demo.xlsx
+++ b/ACQ.Excel/Demo.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="5378"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="5378" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Interpolation" sheetId="2" r:id="rId1"/>
-    <sheet name="Utils" sheetId="3" r:id="rId2"/>
+    <sheet name="Interpolaton2D" sheetId="4" r:id="rId2"/>
+    <sheet name="Utils" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>x</t>
   </si>
@@ -165,13 +166,29 @@
   <si>
     <t>dy2</t>
   </si>
+  <si>
+    <t>bilinear</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>2D interpolation using handle</t>
+  </si>
+  <si>
+    <t>2D interpolation in place</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -233,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,8 +272,20 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -375,6 +404,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -383,7 +591,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -401,9 +609,34 @@
     <xf numFmtId="14" fontId="7" fillId="4" borderId="2" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -435,6 +668,8 @@
         <stp>2e0596c6-8c62-47b9-b1cb-c5c4ba2e0617</stp>
         <tr r="P2" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv.3324811a8f2a4b9eb5455293e7fec096">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -447,8 +682,6 @@
         <stp>63237a9d-3571-49a2-849e-3a24d01c6aaf</stp>
         <tr r="N2" s="2"/>
       </tp>
-    </main>
-    <main first="rtdsrv.3324811a8f2a4b9eb5455293e7fec096">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -461,6 +694,16 @@
         <stp>4e059e69-e1b4-4dea-bf1d-8ebc28e7a0d0</stp>
         <tr r="R2" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv.63e2e7cd33ba4108924fb25473fe19ee">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>564fcce3-2469-4c16-8bc9-f3726d31fdc7</stp>
+        <tr r="I4" s="4"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.3324811a8f2a4b9eb5455293e7fec096">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -5852,6 +6095,2885 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="90"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9820190386649428E-2"/>
+          <c:y val="7.3369593310501233E-2"/>
+          <c:w val="0.87638114228891029"/>
+          <c:h val="0.80521581535951947"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:surfaceChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FB9-4FFA-84EC-D8CDFEEE96ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7FB9-4FFA-84EC-D8CDFEEE96ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78799999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7FB9-4FFA-84EC-D8CDFEEE96ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$8:$V$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70800000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7FB9-4FFA-84EC-D8CDFEEE96ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$9:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61599999999999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63200000000000012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64799999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68399999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68800000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.69600000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7FB9-4FFA-84EC-D8CDFEEE96ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$10:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7FB9-4FFA-84EC-D8CDFEEE96ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$11:$V$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7FB9-4FFA-84EC-D8CDFEEE96ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$12:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7FB9-4FFA-84EC-D8CDFEEE96ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$13:$V$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27199999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83200000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7FB9-4FFA-84EC-D8CDFEEE96ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$14:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35799999999999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7FB9-4FFA-84EC-D8CDFEEE96ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$15:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7FB9-4FFA-84EC-D8CDFEEE96ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="261643903"/>
+        <c:axId val="261634751"/>
+        <c:axId val="248543359"/>
+      </c:surfaceChart>
+      <c:catAx>
+        <c:axId val="261643903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261634751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="261634751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261643903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="248543359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261634751"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5664260717410323E-2"/>
+          <c:y val="6.9444444444444448E-2"/>
+          <c:w val="0.88073862642169731"/>
+          <c:h val="0.73577136191309422"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$5:$V$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C80-49C7-A016-0FA5FECC4CC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$6:$V$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59400000000000008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-10AC-4D3B-B303-9F8B93C070FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Interpolaton2D!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$4:$V$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Interpolaton2D!$L$7:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78799999999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-10AC-4D3B-B303-9F8B93C070FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="94794271"/>
+        <c:axId val="94807583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="94794271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94807583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94807583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="94794271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5975,6 +9097,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54768</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635793</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6282,8 +9469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6325,10 +9512,10 @@
       </c>
     </row>
     <row r="2" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="19"/>
       <c r="M2" t="str">
         <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,M$1,$F$4)</f>
         <v>#Interpolator:137</v>
@@ -13406,6 +16593,1184 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.9296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="H4" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f>_xll.acq_interpolator2d_create(D5:F5,C6:C7,D6:F7,I3)</f>
+        <v>#Interpolator2D:2</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="O4" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="P4" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="S4" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="T4" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="V4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="30">
+        <v>1</v>
+      </c>
+      <c r="K5" s="34">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,L$4,$K5)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,M$4,$K5)</f>
+        <v>0.96</v>
+      </c>
+      <c r="N5" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,N$4,$K5)</f>
+        <v>0.92</v>
+      </c>
+      <c r="O5" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,O$4,$K5)</f>
+        <v>0.88</v>
+      </c>
+      <c r="P5" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,P$4,$K5)</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="Q5" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,Q$4,$K5)</f>
+        <v>0.8</v>
+      </c>
+      <c r="R5" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,R$4,$K5)</f>
+        <v>0.74</v>
+      </c>
+      <c r="S5" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,S$4,$K5)</f>
+        <v>0.68</v>
+      </c>
+      <c r="T5" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,T$4,$K5)</f>
+        <v>0.62</v>
+      </c>
+      <c r="U5" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,U$4,$K5)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V5" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,V$4,$K5)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="31">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="34">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,L$4,$K6)</f>
+        <v>0.9</v>
+      </c>
+      <c r="M6" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,M$4,$K6)</f>
+        <v>0.874</v>
+      </c>
+      <c r="N6" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,N$4,$K6)</f>
+        <v>0.84800000000000009</v>
+      </c>
+      <c r="O6" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,O$4,$K6)</f>
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="P6" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,P$4,$K6)</f>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="Q6" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,Q$4,$K6)</f>
+        <v>0.77</v>
+      </c>
+      <c r="R6" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,R$4,$K6)</f>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="S6" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,S$4,$K6)</f>
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="T6" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,T$4,$K6)</f>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="U6" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,U$4,$K6)</f>
+        <v>0.59400000000000008</v>
+      </c>
+      <c r="V6" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,V$4,$K6)</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="20"/>
+      <c r="C7" s="32">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="23">
+        <v>1</v>
+      </c>
+      <c r="K7" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,L$4,$K7)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M7" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,M$4,$K7)</f>
+        <v>0.78799999999999992</v>
+      </c>
+      <c r="N7" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,N$4,$K7)</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="O7" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,O$4,$K7)</f>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="P7" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,P$4,$K7)</f>
+        <v>0.752</v>
+      </c>
+      <c r="Q7" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,Q$4,$K7)</f>
+        <v>0.74</v>
+      </c>
+      <c r="R7" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,R$4,$K7)</f>
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="S7" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,S$4,$K7)</f>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="T7" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,T$4,$K7)</f>
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="U7" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,U$4,$K7)</f>
+        <v>0.628</v>
+      </c>
+      <c r="V7" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,V$4,$K7)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="B8" s="18"/>
+      <c r="K8" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,L$4,$K8)</f>
+        <v>0.7</v>
+      </c>
+      <c r="M8" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,M$4,$K8)</f>
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="N8" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,N$4,$K8)</f>
+        <v>0.70400000000000007</v>
+      </c>
+      <c r="O8" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,O$4,$K8)</f>
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="P8" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,P$4,$K8)</f>
+        <v>0.70800000000000007</v>
+      </c>
+      <c r="Q8" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,Q$4,$K8)</f>
+        <v>0.71000000000000008</v>
+      </c>
+      <c r="R8" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,R$4,$K8)</f>
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="S8" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,S$4,$K8)</f>
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="T8" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,T$4,$K8)</f>
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="U8" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,U$4,$K8)</f>
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="V8" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,V$4,$K8)</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="K9" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="L9" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,L$4,$K9)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M9" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,M$4,$K9)</f>
+        <v>0.61599999999999988</v>
+      </c>
+      <c r="N9" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,N$4,$K9)</f>
+        <v>0.63200000000000012</v>
+      </c>
+      <c r="O9" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,O$4,$K9)</f>
+        <v>0.64799999999999991</v>
+      </c>
+      <c r="P9" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,P$4,$K9)</f>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="Q9" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,Q$4,$K9)</f>
+        <v>0.68</v>
+      </c>
+      <c r="R9" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,R$4,$K9)</f>
+        <v>0.68399999999999994</v>
+      </c>
+      <c r="S9" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,S$4,$K9)</f>
+        <v>0.68800000000000006</v>
+      </c>
+      <c r="T9" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,T$4,$K9)</f>
+        <v>0.69200000000000006</v>
+      </c>
+      <c r="U9" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,U$4,$K9)</f>
+        <v>0.69600000000000006</v>
+      </c>
+      <c r="V9" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,V$4,$K9)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="K10" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,L$4,$K10)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,M$4,$K10)</f>
+        <v>0.53</v>
+      </c>
+      <c r="N10" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,N$4,$K10)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O10" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,O$4,$K10)</f>
+        <v>0.59</v>
+      </c>
+      <c r="P10" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,P$4,$K10)</f>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="Q10" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,Q$4,$K10)</f>
+        <v>0.65</v>
+      </c>
+      <c r="R10" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,R$4,$K10)</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="S10" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,S$4,$K10)</f>
+        <v>0.69</v>
+      </c>
+      <c r="T10" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,T$4,$K10)</f>
+        <v>0.71</v>
+      </c>
+      <c r="U10" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,U$4,$K10)</f>
+        <v>0.73</v>
+      </c>
+      <c r="V10" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,V$4,$K10)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="K11" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="L11" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,L$4,$K11)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M11" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,M$4,$K11)</f>
+        <v>0.44399999999999995</v>
+      </c>
+      <c r="N11" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,N$4,$K11)</f>
+        <v>0.48800000000000004</v>
+      </c>
+      <c r="O11" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,O$4,$K11)</f>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="P11" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,P$4,$K11)</f>
+        <v>0.57600000000000007</v>
+      </c>
+      <c r="Q11" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,Q$4,$K11)</f>
+        <v>0.62</v>
+      </c>
+      <c r="R11" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,R$4,$K11)</f>
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="S11" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,S$4,$K11)</f>
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="T11" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,T$4,$K11)</f>
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="U11" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,U$4,$K11)</f>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="V11" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,V$4,$K11)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="K12" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="L12" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,L$4,$K12)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M12" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,M$4,$K12)</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="N12" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,N$4,$K12)</f>
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="O12" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,O$4,$K12)</f>
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="P12" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,P$4,$K12)</f>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="Q12" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,Q$4,$K12)</f>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="R12" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,R$4,$K12)</f>
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="S12" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,S$4,$K12)</f>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="T12" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,T$4,$K12)</f>
+        <v>0.746</v>
+      </c>
+      <c r="U12" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,U$4,$K12)</f>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="V12" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,V$4,$K12)</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="K13" s="34">
+        <v>0.8</v>
+      </c>
+      <c r="L13" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,L$4,$K13)</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M13" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,M$4,$K13)</f>
+        <v>0.27199999999999991</v>
+      </c>
+      <c r="N13" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,N$4,$K13)</f>
+        <v>0.34400000000000008</v>
+      </c>
+      <c r="O13" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,O$4,$K13)</f>
+        <v>0.41599999999999993</v>
+      </c>
+      <c r="P13" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,P$4,$K13)</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="Q13" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,Q$4,$K13)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R13" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,R$4,$K13)</f>
+        <v>0.628</v>
+      </c>
+      <c r="S13" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,S$4,$K13)</f>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="T13" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,T$4,$K13)</f>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="U13" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,U$4,$K13)</f>
+        <v>0.83200000000000007</v>
+      </c>
+      <c r="V13" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,V$4,$K13)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="K14" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="L14" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,L$4,$K14)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="M14" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,M$4,$K14)</f>
+        <v>0.18599999999999994</v>
+      </c>
+      <c r="N14" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,N$4,$K14)</f>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="O14" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,O$4,$K14)</f>
+        <v>0.35799999999999987</v>
+      </c>
+      <c r="P14" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,P$4,$K14)</f>
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="Q14" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,Q$4,$K14)</f>
+        <v>0.53</v>
+      </c>
+      <c r="R14" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,R$4,$K14)</f>
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="S14" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,S$4,$K14)</f>
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="T14" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,T$4,$K14)</f>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="U14" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,U$4,$K14)</f>
+        <v>0.8660000000000001</v>
+      </c>
+      <c r="V14" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,V$4,$K14)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.45">
+      <c r="K15" s="34">
+        <v>1</v>
+      </c>
+      <c r="L15" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,L$4,$K15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,M$4,$K15)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="N15" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,N$4,$K15)</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="O15" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,O$4,$K15)</f>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="P15" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,P$4,$K15)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q15" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,Q$4,$K15)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R15" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,R$4,$K15)</f>
+        <v>0.6</v>
+      </c>
+      <c r="S15" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,S$4,$K15)</f>
+        <v>0.7</v>
+      </c>
+      <c r="T15" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,T$4,$K15)</f>
+        <v>0.8</v>
+      </c>
+      <c r="U15" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,U$4,$K15)</f>
+        <v>0.9</v>
+      </c>
+      <c r="V15" s="16">
+        <f>_xll.acq_interpolator2d_eval($I$4,V$4,$K15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="11:22" x14ac:dyDescent="0.45">
+      <c r="K17" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="11:22" x14ac:dyDescent="0.45">
+      <c r="L18" s="16">
+        <f>_xll.acq_interpolation2d(L$4,$K5,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="16">
+        <f>_xll.acq_interpolation2d(M$4,$K5,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.96</v>
+      </c>
+      <c r="N18" s="16">
+        <f>_xll.acq_interpolation2d(N$4,$K5,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.92</v>
+      </c>
+      <c r="O18" s="16">
+        <f>_xll.acq_interpolation2d(O$4,$K5,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.88</v>
+      </c>
+      <c r="P18" s="16">
+        <f>_xll.acq_interpolation2d(P$4,$K5,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="Q18" s="16">
+        <f>_xll.acq_interpolation2d(Q$4,$K5,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.8</v>
+      </c>
+      <c r="R18" s="16">
+        <f>_xll.acq_interpolation2d(R$4,$K5,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.74</v>
+      </c>
+      <c r="S18" s="16">
+        <f>_xll.acq_interpolation2d(S$4,$K5,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.68</v>
+      </c>
+      <c r="T18" s="16">
+        <f>_xll.acq_interpolation2d(T$4,$K5,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.62</v>
+      </c>
+      <c r="U18" s="16">
+        <f>_xll.acq_interpolation2d(U$4,$K5,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="V18" s="16">
+        <f>_xll.acq_interpolation2d(V$4,$K5,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="11:22" x14ac:dyDescent="0.45">
+      <c r="L19" s="16">
+        <f>_xll.acq_interpolation2d(L$4,$K6,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.9</v>
+      </c>
+      <c r="M19" s="16">
+        <f>_xll.acq_interpolation2d(M$4,$K6,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.874</v>
+      </c>
+      <c r="N19" s="16">
+        <f>_xll.acq_interpolation2d(N$4,$K6,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.84800000000000009</v>
+      </c>
+      <c r="O19" s="16">
+        <f>_xll.acq_interpolation2d(O$4,$K6,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="P19" s="16">
+        <f>_xll.acq_interpolation2d(P$4,$K6,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="Q19" s="16">
+        <f>_xll.acq_interpolation2d(Q$4,$K6,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.77</v>
+      </c>
+      <c r="R19" s="16">
+        <f>_xll.acq_interpolation2d(R$4,$K6,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="S19" s="16">
+        <f>_xll.acq_interpolation2d(S$4,$K6,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="T19" s="16">
+        <f>_xll.acq_interpolation2d(T$4,$K6,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="U19" s="16">
+        <f>_xll.acq_interpolation2d(U$4,$K6,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.59400000000000008</v>
+      </c>
+      <c r="V19" s="16">
+        <f>_xll.acq_interpolation2d(V$4,$K6,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="11:22" x14ac:dyDescent="0.45">
+      <c r="L20" s="16">
+        <f>_xll.acq_interpolation2d(L$4,$K7,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M20" s="16">
+        <f>_xll.acq_interpolation2d(M$4,$K7,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.78799999999999992</v>
+      </c>
+      <c r="N20" s="16">
+        <f>_xll.acq_interpolation2d(N$4,$K7,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="O20" s="16">
+        <f>_xll.acq_interpolation2d(O$4,$K7,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="P20" s="16">
+        <f>_xll.acq_interpolation2d(P$4,$K7,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.752</v>
+      </c>
+      <c r="Q20" s="16">
+        <f>_xll.acq_interpolation2d(Q$4,$K7,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.74</v>
+      </c>
+      <c r="R20" s="16">
+        <f>_xll.acq_interpolation2d(R$4,$K7,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="S20" s="16">
+        <f>_xll.acq_interpolation2d(S$4,$K7,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="T20" s="16">
+        <f>_xll.acq_interpolation2d(T$4,$K7,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="U20" s="16">
+        <f>_xll.acq_interpolation2d(U$4,$K7,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.628</v>
+      </c>
+      <c r="V20" s="16">
+        <f>_xll.acq_interpolation2d(V$4,$K7,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="11:22" x14ac:dyDescent="0.45">
+      <c r="L21" s="16">
+        <f>_xll.acq_interpolation2d(L$4,$K8,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.7</v>
+      </c>
+      <c r="M21" s="16">
+        <f>_xll.acq_interpolation2d(M$4,$K8,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="N21" s="16">
+        <f>_xll.acq_interpolation2d(N$4,$K8,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.70400000000000007</v>
+      </c>
+      <c r="O21" s="16">
+        <f>_xll.acq_interpolation2d(O$4,$K8,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="P21" s="16">
+        <f>_xll.acq_interpolation2d(P$4,$K8,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.70800000000000007</v>
+      </c>
+      <c r="Q21" s="16">
+        <f>_xll.acq_interpolation2d(Q$4,$K8,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.71000000000000008</v>
+      </c>
+      <c r="R21" s="16">
+        <f>_xll.acq_interpolation2d(R$4,$K8,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="S21" s="16">
+        <f>_xll.acq_interpolation2d(S$4,$K8,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="T21" s="16">
+        <f>_xll.acq_interpolation2d(T$4,$K8,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="U21" s="16">
+        <f>_xll.acq_interpolation2d(U$4,$K8,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="V21" s="16">
+        <f>_xll.acq_interpolation2d(V$4,$K8,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="22" spans="11:22" x14ac:dyDescent="0.45">
+      <c r="L22" s="16">
+        <f>_xll.acq_interpolation2d(L$4,$K9,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M22" s="16">
+        <f>_xll.acq_interpolation2d(M$4,$K9,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.61599999999999988</v>
+      </c>
+      <c r="N22" s="16">
+        <f>_xll.acq_interpolation2d(N$4,$K9,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.63200000000000012</v>
+      </c>
+      <c r="O22" s="16">
+        <f>_xll.acq_interpolation2d(O$4,$K9,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.64799999999999991</v>
+      </c>
+      <c r="P22" s="16">
+        <f>_xll.acq_interpolation2d(P$4,$K9,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="Q22" s="16">
+        <f>_xll.acq_interpolation2d(Q$4,$K9,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.68</v>
+      </c>
+      <c r="R22" s="16">
+        <f>_xll.acq_interpolation2d(R$4,$K9,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.68399999999999994</v>
+      </c>
+      <c r="S22" s="16">
+        <f>_xll.acq_interpolation2d(S$4,$K9,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.68800000000000006</v>
+      </c>
+      <c r="T22" s="16">
+        <f>_xll.acq_interpolation2d(T$4,$K9,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.69200000000000006</v>
+      </c>
+      <c r="U22" s="16">
+        <f>_xll.acq_interpolation2d(U$4,$K9,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.69600000000000006</v>
+      </c>
+      <c r="V22" s="16">
+        <f>_xll.acq_interpolation2d(V$4,$K9,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="11:22" x14ac:dyDescent="0.45">
+      <c r="L23" s="16">
+        <f>_xll.acq_interpolation2d(L$4,$K10,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="16">
+        <f>_xll.acq_interpolation2d(M$4,$K10,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.53</v>
+      </c>
+      <c r="N23" s="16">
+        <f>_xll.acq_interpolation2d(N$4,$K10,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O23" s="16">
+        <f>_xll.acq_interpolation2d(O$4,$K10,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.59</v>
+      </c>
+      <c r="P23" s="16">
+        <f>_xll.acq_interpolation2d(P$4,$K10,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="Q23" s="16">
+        <f>_xll.acq_interpolation2d(Q$4,$K10,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.65</v>
+      </c>
+      <c r="R23" s="16">
+        <f>_xll.acq_interpolation2d(R$4,$K10,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="S23" s="16">
+        <f>_xll.acq_interpolation2d(S$4,$K10,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.69</v>
+      </c>
+      <c r="T23" s="16">
+        <f>_xll.acq_interpolation2d(T$4,$K10,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.71</v>
+      </c>
+      <c r="U23" s="16">
+        <f>_xll.acq_interpolation2d(U$4,$K10,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.73</v>
+      </c>
+      <c r="V23" s="16">
+        <f>_xll.acq_interpolation2d(V$4,$K10,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="11:22" x14ac:dyDescent="0.45">
+      <c r="L24" s="16">
+        <f>_xll.acq_interpolation2d(L$4,$K11,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.4</v>
+      </c>
+      <c r="M24" s="16">
+        <f>_xll.acq_interpolation2d(M$4,$K11,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.44399999999999995</v>
+      </c>
+      <c r="N24" s="16">
+        <f>_xll.acq_interpolation2d(N$4,$K11,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.48800000000000004</v>
+      </c>
+      <c r="O24" s="16">
+        <f>_xll.acq_interpolation2d(O$4,$K11,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="P24" s="16">
+        <f>_xll.acq_interpolation2d(P$4,$K11,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.57600000000000007</v>
+      </c>
+      <c r="Q24" s="16">
+        <f>_xll.acq_interpolation2d(Q$4,$K11,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.62</v>
+      </c>
+      <c r="R24" s="16">
+        <f>_xll.acq_interpolation2d(R$4,$K11,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="S24" s="16">
+        <f>_xll.acq_interpolation2d(S$4,$K11,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="T24" s="16">
+        <f>_xll.acq_interpolation2d(T$4,$K11,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="U24" s="16">
+        <f>_xll.acq_interpolation2d(U$4,$K11,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="V24" s="16">
+        <f>_xll.acq_interpolation2d(V$4,$K11,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="25" spans="11:22" x14ac:dyDescent="0.45">
+      <c r="L25" s="16">
+        <f>_xll.acq_interpolation2d(L$4,$K12,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M25" s="16">
+        <f>_xll.acq_interpolation2d(M$4,$K12,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="N25" s="16">
+        <f>_xll.acq_interpolation2d(N$4,$K12,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="O25" s="16">
+        <f>_xll.acq_interpolation2d(O$4,$K12,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="P25" s="16">
+        <f>_xll.acq_interpolation2d(P$4,$K12,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="Q25" s="16">
+        <f>_xll.acq_interpolation2d(Q$4,$K12,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="R25" s="16">
+        <f>_xll.acq_interpolation2d(R$4,$K12,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="S25" s="16">
+        <f>_xll.acq_interpolation2d(S$4,$K12,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="T25" s="16">
+        <f>_xll.acq_interpolation2d(T$4,$K12,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.746</v>
+      </c>
+      <c r="U25" s="16">
+        <f>_xll.acq_interpolation2d(U$4,$K12,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="V25" s="16">
+        <f>_xll.acq_interpolation2d(V$4,$K12,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="26" spans="11:22" x14ac:dyDescent="0.45">
+      <c r="L26" s="16">
+        <f>_xll.acq_interpolation2d(L$4,$K13,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="M26" s="16">
+        <f>_xll.acq_interpolation2d(M$4,$K13,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.27199999999999991</v>
+      </c>
+      <c r="N26" s="16">
+        <f>_xll.acq_interpolation2d(N$4,$K13,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.34400000000000008</v>
+      </c>
+      <c r="O26" s="16">
+        <f>_xll.acq_interpolation2d(O$4,$K13,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.41599999999999993</v>
+      </c>
+      <c r="P26" s="16">
+        <f>_xll.acq_interpolation2d(P$4,$K13,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="Q26" s="16">
+        <f>_xll.acq_interpolation2d(Q$4,$K13,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R26" s="16">
+        <f>_xll.acq_interpolation2d(R$4,$K13,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.628</v>
+      </c>
+      <c r="S26" s="16">
+        <f>_xll.acq_interpolation2d(S$4,$K13,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="T26" s="16">
+        <f>_xll.acq_interpolation2d(T$4,$K13,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="U26" s="16">
+        <f>_xll.acq_interpolation2d(U$4,$K13,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.83200000000000007</v>
+      </c>
+      <c r="V26" s="16">
+        <f>_xll.acq_interpolation2d(V$4,$K13,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="11:22" x14ac:dyDescent="0.45">
+      <c r="L27" s="16">
+        <f>_xll.acq_interpolation2d(L$4,$K14,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="M27" s="16">
+        <f>_xll.acq_interpolation2d(M$4,$K14,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.18599999999999994</v>
+      </c>
+      <c r="N27" s="16">
+        <f>_xll.acq_interpolation2d(N$4,$K14,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="O27" s="16">
+        <f>_xll.acq_interpolation2d(O$4,$K14,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.35799999999999987</v>
+      </c>
+      <c r="P27" s="16">
+        <f>_xll.acq_interpolation2d(P$4,$K14,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="Q27" s="16">
+        <f>_xll.acq_interpolation2d(Q$4,$K14,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.53</v>
+      </c>
+      <c r="R27" s="16">
+        <f>_xll.acq_interpolation2d(R$4,$K14,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="S27" s="16">
+        <f>_xll.acq_interpolation2d(S$4,$K14,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="T27" s="16">
+        <f>_xll.acq_interpolation2d(T$4,$K14,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="U27" s="16">
+        <f>_xll.acq_interpolation2d(U$4,$K14,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.8660000000000001</v>
+      </c>
+      <c r="V27" s="16">
+        <f>_xll.acq_interpolation2d(V$4,$K14,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="11:22" x14ac:dyDescent="0.45">
+      <c r="L28" s="16">
+        <f>_xll.acq_interpolation2d(L$4,$K15,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="16">
+        <f>_xll.acq_interpolation2d(M$4,$K15,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="N28" s="16">
+        <f>_xll.acq_interpolation2d(N$4,$K15,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="O28" s="16">
+        <f>_xll.acq_interpolation2d(O$4,$K15,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="P28" s="16">
+        <f>_xll.acq_interpolation2d(P$4,$K15,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q28" s="16">
+        <f>_xll.acq_interpolation2d(Q$4,$K15,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R28" s="16">
+        <f>_xll.acq_interpolation2d(R$4,$K15,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="S28" s="16">
+        <f>_xll.acq_interpolation2d(S$4,$K15,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.7</v>
+      </c>
+      <c r="T28" s="16">
+        <f>_xll.acq_interpolation2d(T$4,$K15,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.8</v>
+      </c>
+      <c r="U28" s="16">
+        <f>_xll.acq_interpolation2d(U$4,$K15,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>0.9</v>
+      </c>
+      <c r="V28" s="16">
+        <f>_xll.acq_interpolation2d(V$4,$K15,$D$5:$F$5,$C$6:$C$7,$D$6:$F$7)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ACQ.Excel/Demo.xlsx
+++ b/ACQ.Excel/Demo.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="5374" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17760" windowHeight="5374"/>
   </bookViews>
   <sheets>
     <sheet name="Interpolation" sheetId="2" r:id="rId1"/>
     <sheet name="Interpolaton2D" sheetId="4" r:id="rId2"/>
-    <sheet name="Utils" sheetId="3" r:id="rId3"/>
+    <sheet name="Random" sheetId="5" r:id="rId3"/>
+    <sheet name="Utils" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>x</t>
   </si>
@@ -165,6 +166,21 @@
   <si>
     <t>Forward</t>
   </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>int32 scale (2^32)</t>
+  </si>
+  <si>
+    <t>Random Numbers</t>
+  </si>
 </sst>
 </file>
 
@@ -262,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -560,6 +576,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -568,7 +593,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -605,6 +630,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,20 +667,28 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.7c15d49e3c8d4376b9a6f6f31646f83d">
+    <main first="rtdsrv.a091244c2ef943c18d89169adb01fb57">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>26e344df-cf5d-4bf8-bb67-f144fce6e92d</stp>
-        <tr r="F5" s="2"/>
-        <tr r="P2" s="2"/>
+        <stp>eebcaf1c-2a72-49aa-a10b-0f41f01ccd13</stp>
+        <tr r="U2" s="2"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>71cf1530-b4a6-4f8c-995b-f4a5f82f19b6</stp>
-        <tr r="M2" s="2"/>
+        <stp>32a87733-23a1-42ff-a2a2-90132d0aa2c8</stp>
+        <tr r="F5" s="2"/>
+        <tr r="R2" s="2"/>
       </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>9b146784-b675-427f-b1c1-1b91c165b7f7</stp>
+        <tr r="S2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.7c15d49e3c8d4376b9a6f6f31646f83d">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
@@ -659,52 +696,54 @@
         <tr r="I4" s="4"/>
       </tp>
     </main>
-    <main first="rtdsrv.7c15d49e3c8d4376b9a6f6f31646f83d">
+    <main first="rtdsrv.a091244c2ef943c18d89169adb01fb57">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>392ad41b-9345-4cd4-b8ab-8d6b1aa1f674</stp>
-        <tr r="N2" s="2"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.7c15d49e3c8d4376b9a6f6f31646f83d">
-      <tp t="e">
-        <v>#N/A</v>
-        <stp/>
-        <stp>2338d11c-7a77-44cb-bf70-83d6876b03ca</stp>
-        <tr r="S2" s="2"/>
+        <stp>0129b23c-eddf-42ae-8714-3659c8facc28</stp>
+        <tr r="C5" s="5"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>ce75c297-79db-49bb-aa29-ce37ab445c93</stp>
-        <tr r="R2" s="2"/>
+        <stp>4626612a-dc45-4609-8f11-dd657fe63547</stp>
+        <tr r="N2" s="2"/>
       </tp>
+    </main>
+    <main first="rtdsrv.a091244c2ef943c18d89169adb01fb57">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>6e7ff6aa-cfff-46f6-8b25-a7bf9f76d089</stp>
+        <stp>b1dd1848-3a5d-4948-9a04-71923b336a7d</stp>
         <tr r="O2" s="2"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>471461d7-500e-4f30-8399-c2ce50edcbca</stp>
-        <tr r="U2" s="2"/>
+        <stp>c55a5b2c-2a2f-4d5e-9416-2bb2ccb3a6f0</stp>
+        <tr r="Q2" s="2"/>
       </tp>
     </main>
-    <main first="rtdsrv.7c15d49e3c8d4376b9a6f6f31646f83d">
+    <main first="rtdsrv.a091244c2ef943c18d89169adb01fb57">
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>3ed2e3cb-1eba-4796-be97-79c779ab601e</stp>
+        <stp>c0fb9ca8-70f4-4846-9809-0d719b3e7bb9</stp>
         <tr r="T2" s="2"/>
       </tp>
       <tp t="e">
         <v>#N/A</v>
         <stp/>
-        <stp>ad38400c-1ec1-4688-9028-24c064686739</stp>
-        <tr r="Q2" s="2"/>
+        <stp>54ab3cda-5b0c-47ab-936b-b6cab5d3c01e</stp>
+        <tr r="P2" s="2"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.a091244c2ef943c18d89169adb01fb57">
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>6b3349bb-66eb-43f8-a0b3-e15b03202114</stp>
+        <tr r="M2" s="2"/>
       </tp>
     </main>
   </volType>
@@ -1162,361 +1201,361 @@
                   <c:v>-1.6589373353986166E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.3753852320356503E-4</c:v>
+                  <c:v>-3.2920220436272066E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.1884159513852179E-4</c:v>
+                  <c:v>-3.8720271202655584E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.194612316159836E-4</c:v>
+                  <c:v>-3.8502724074237674E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5.4905571490720484E-4</c:v>
+                  <c:v>-3.6780777472119426E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.1728332728343623E-4</c:v>
+                  <c:v>-3.806762981740185E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.3380235101593145E-4</c:v>
+                  <c:v>-4.6876479531185998E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.2082710683759454E-3</c:v>
+                  <c:v>-6.7720525034573086E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.550347761634727E-3</c:v>
+                  <c:v>-1.0511296474866379E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.9696907130635345E-3</c:v>
+                  <c:v>-1.6356699709455986E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-2.4759582049336134E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.0841942319819707E-3</c:v>
+                  <c:v>-3.4122349185343316E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.8309856388086187E-3</c:v>
+                  <c:v>-4.3089413331679986E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.7583049824793024E-3</c:v>
+                  <c:v>-5.247510411550498E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.9081248200597934E-3</c:v>
+                  <c:v>-6.3093751163977412E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-7.3224177086158304E-3</c:v>
+                  <c:v>-7.5759684104256073E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-9.0431562052135633E-3</c:v>
+                  <c:v>-9.1287232563503559E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-1.1112312866918054E-2</c:v>
+                  <c:v>-1.104907261688726E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.3571860250795402E-2</c:v>
+                  <c:v>-1.3418449454752526E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.6463770913911317E-2</c:v>
+                  <c:v>-1.6318286732662005E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-1.9830017413330868E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-2.3703129782427262E-2</c:v>
+                  <c:v>-2.4091735792340072E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.8077867959790538E-2</c:v>
+                  <c:v>-2.9095711924414441E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.2939549360318919E-2</c:v>
+                  <c:v>-3.4704642410993469E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.827349139890996E-2</c:v>
+                  <c:v>-4.078122385351593E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.4065011490461152E-2</c:v>
+                  <c:v>-4.7188152853420567E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-5.0299427049870012E-2</c:v>
+                  <c:v>-5.3788126012146088E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-5.696205549203405E-2</c:v>
+                  <c:v>-6.0443839931131255E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-6.4038214231850743E-2</c:v>
+                  <c:v>-6.7017991211814759E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7.1513220684217685E-2</c:v>
+                  <c:v>-7.3373276455635406E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-7.9372392264032351E-2</c:v>
+                  <c:v>-7.9372392264031894E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-8.756051864807958E-2</c:v>
+                  <c:v>-8.5708786056378647E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-9.5860278560693665E-2</c:v>
+                  <c:v>-9.2910095108613283E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.10401382298809624</c:v>
+                  <c:v>-0.10059030080702042</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.111763302916509</c:v>
+                  <c:v>-0.1083633845378848</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.11885086933215361</c:v>
+                  <c:v>-0.11584332768749102</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.12501867322125174</c:v>
+                  <c:v>-0.12264411164212374</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.13000886557002503</c:v>
+                  <c:v>-0.12837971778806759</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.13356359736469511</c:v>
+                  <c:v>-0.13266412751160719</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.13542501959148373</c:v>
+                  <c:v>-0.13511132219902733</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-0.13533528323661251</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.13312518769073034</c:v>
+                  <c:v>-0.13298496080170324</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.1289801259621953</c:v>
+                  <c:v>-0.12826564281445299</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-0.12317413946379241</c:v>
+                  <c:v>-0.12162581727536537</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.11598126960830686</c:v>
+                  <c:v>-0.11351397218494427</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.10767555780852378</c:v>
+                  <c:v>-0.10437859554369343</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-9.8531045477228268E-2</c:v>
+                  <c:v>-9.4668175352116607E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-8.8821774027205522E-2</c:v>
+                  <c:v>-8.4831199610717653E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-7.8821784871240613E-2</c:v>
+                  <c:v>-7.5316156320000271E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-6.8805119422118713E-2</c:v>
+                  <c:v>-6.6571533480468306E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-5.9045819092624928E-2</c:v>
+                  <c:v>-5.9045819092625483E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4.9782028287354431E-2</c:v>
+                  <c:v>-5.2899427669753044E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-4.1108303378142516E-2</c:v>
+                  <c:v>-4.7756379718706991E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3.3083303728633009E-2</c:v>
+                  <c:v>-4.3260572230352422E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-2.5765688702474504E-2</c:v>
+                  <c:v>-3.9055902195556942E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-1.921411766331068E-2</c:v>
+                  <c:v>-3.4786266605185516E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.3487249974786892E-2</c:v>
+                  <c:v>-3.0095562450104033E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-8.6437450005485226E-3</c:v>
+                  <c:v>-2.4627686721178411E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-4.7422621042409263E-3</c:v>
+                  <c:v>-1.8026536409274537E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.8414606495094667E-3</c:v>
+                  <c:v>-9.9360085052583418E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.1648170767566054E-16</c:v>
+                  <c:v>4.3874703106335376E-15</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>9.3671785552390183E-4</c:v>
+                  <c:v>8.8858233036429868E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.9763204278157344E-3</c:v>
+                  <c:v>1.474346617237266E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.3396926025107835E-3</c:v>
+                  <c:v>1.9305537469697511E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.2477192652438353E-3</c:v>
+                  <c:v>2.4304646059121741E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.7921285301649659E-2</c:v>
+                  <c:v>3.1473400804149523E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.1581275597363082E-2</c:v>
+                  <c:v>4.2544410568285021E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.1448575038018862E-2</c:v>
+                  <c:v>5.925028421503245E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.874406850925178E-2</c:v>
+                  <c:v>8.3323630607895882E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.11468864089669659</c:v>
+                  <c:v>0.11649705861037959</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.16050317708598813</c:v>
+                  <c:v>0.16050317708598766</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.21697847073984067</c:v>
+                  <c:v>0.21805728540471911</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.28318495062928811</c:v>
+                  <c:v>0.28887110365441826</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.35776295430244526</c:v>
+                  <c:v>0.3701718717753617</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.43935281930742665</c:v>
+                  <c:v>0.45918682970782598</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.52659488319234649</c:v>
+                  <c:v>0.55314321739208716</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.61812948350531993</c:v>
+                  <c:v>0.6492682747684223</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.71259695779446097</c:v>
+                  <c:v>0.74478924177710737</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.8086376436078847</c:v>
+                  <c:v>0.83693335835841931</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.90489187849370545</c:v>
+                  <c:v>0.92292786445263419</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.0000000000000375</c:v>
+                  <c:v>1.0000000000000286</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.0926076635507203</c:v>
+                  <c:v>1.0743327935433442</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.1813817960724891</c:v>
+                  <c:v>1.1522367158163986</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.2649946423678036</c:v>
+                  <c:v>1.2311301700461039</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.3421184472391243</c:v>
+                  <c:v>1.3084315594593732</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.4114254554889105</c:v>
+                  <c:v>1.3815592872831188</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.4715879119196225</c:v>
+                  <c:v>1.4479317567442529</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.5212780613337205</c:v>
+                  <c:v>1.5049673710696883</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.5591681485336633</c:v>
+                  <c:v>1.5500845334863373</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.5839304183219154</c:v>
+                  <c:v>1.5807016472211168</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.5942371155009261</c:v>
+                  <c:v>1.5942371155009269</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.5892330256887337</c:v>
+                  <c:v>1.5887826869948101</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.5699530977656333</c:v>
+                  <c:v>1.5659554335428301</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.5379048214275037</c:v>
+                  <c:v>1.5284617431284682</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.4945956863702137</c:v>
+                  <c:v>1.4790080037351943</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.4415331822896329</c:v>
+                  <c:v>1.4203006033464809</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.3802247988816327</c:v>
+                  <c:v>1.3550459299458006</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.3121780258420839</c:v>
+                  <c:v>1.2859503715166263</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.2389003528668574</c:v>
+                  <c:v>1.2157203160424304</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.1618992696518238</c:v>
+                  <c:v>1.1470621515066859</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.0826822658928534</c:v>
+                  <c:v>1.0826822658928645</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.0026240117333398</c:v>
+                  <c:v>1.0175427984386345</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.92256789910676251</c:v>
+                  <c:v>0.94603831303392694</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.843224500394123</c:v>
+                  <c:v>0.87002383464058308</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.76530438797642464</c:v>
+                  <c:v>0.79135438822044613</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.68951813423466879</c:v>
+                  <c:v>0.71188499873535704</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.61657631154985848</c:v>
+                  <c:v>0.63347069114715915</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.54718949230299541</c:v>
+                  <c:v>0.55796649041769375</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.48206824887508143</c:v>
+                  <c:v>0.48722742150880222</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.42192315364711958</c:v>
+                  <c:v>0.42310850938232786</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.36746477900011126</c:v>
+                  <c:v>0.3674647790001116</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.31917864703552618</c:v>
+                  <c:v>0.31791158557019128</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.27665007873670089</c:v>
+                  <c:v>0.2712003968403135</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.23923934480743933</c:v>
+                  <c:v>0.22789040658187093</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.20630671595154684</c:v>
+                  <c:v>0.18854080856625749</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.1772124628728271</c:v>
+                  <c:v>0.15371079656486558</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.15131685627508512</c:v>
+                  <c:v>0.12395956434908877</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.12798016686212499</c:v>
+                  <c:v>9.9846305690319964E-2</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.10656266533775099</c:v>
+                  <c:v>8.1930214359951986E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>8.6424622405767995E-2</c:v>
+                  <c:v>7.0770484129378267E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
                   <c:v>6.6926308769991685E-2</c:v>
@@ -4267,367 +4306,367 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7.1644789663703626E-4</c:v>
+                  <c:v>-1.6330847082285959E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.5294786159865991E-3</c:v>
+                  <c:v>-2.2130897848669489E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.8192270841241858E-3</c:v>
+                  <c:v>-5.5825036379655488E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.3021411976868258E-3</c:v>
+                  <c:v>1.9394937305361427E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.9782209566745271E-3</c:v>
+                  <c:v>4.3509425683579701E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.8474663610872798E-3</c:v>
+                  <c:v>-1.0095702059066609E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.9098774109250821E-3</c:v>
+                  <c:v>-2.9652895217171103E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6.165454106187955E-3</c:v>
+                  <c:v>-5.8236485217477889E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-7.6141964468758776E-3</c:v>
+                  <c:v>-9.5846472059986504E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-9.2561044329888646E-3</c:v>
+                  <c:v>-1.4248285574469765E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.1145035189184402E-2</c:v>
+                  <c:v>-1.7765649475887393E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.3550274338750029E-2</c:v>
+                  <c:v>-1.8329831282343841E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.6741107504973318E-2</c:v>
+                  <c:v>-1.8352754930161651E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.0771391812511711E-2</c:v>
+                  <c:v>-2.0004337832297395E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.5641127261365283E-2</c:v>
+                  <c:v>-2.3284579988751088E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.135031385153398E-2</c:v>
+                  <c:v>-2.8193481399522782E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.7898951583019203E-2</c:v>
+                  <c:v>-3.4731042064613853E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-4.5287040455818307E-2</c:v>
+                  <c:v>-4.2897261984021634E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-5.3514580469932627E-2</c:v>
+                  <c:v>-5.2692141157747452E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-6.2581571625361931E-2</c:v>
+                  <c:v>-6.4115679585791105E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-7.2393588685157356E-2</c:v>
+                  <c:v>-7.7734490596777589E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8.2478505464589388E-2</c:v>
+                  <c:v>-9.2656945110827865E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-9.2364195778916719E-2</c:v>
+                  <c:v>-0.10612906618653414</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.10195623439119433</c:v>
+                  <c:v>-0.11685511929101502</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.11125462130142223</c:v>
+                  <c:v>-0.12483510442427087</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.1202593565096004</c:v>
+                  <c:v>-0.13006902158630146</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.12897044001572888</c:v>
+                  <c:v>-0.13255687077710676</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.13738787181980749</c:v>
+                  <c:v>-0.13229865199668689</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.14551165192183652</c:v>
+                  <c:v>-0.1292943652450417</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.15334178032181595</c:v>
+                  <c:v>-0.12354401052217123</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.16047297963861881</c:v>
+                  <c:v>-0.1233550960074323</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.164878862966613</c:v>
+                  <c:v>-0.13537702844581379</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.16453304340016678</c:v>
+                  <c:v>-0.14881514750641789</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.15903024355815359</c:v>
+                  <c:v>-0.15453289429271538</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.14837046344057359</c:v>
+                  <c:v>-0.15253026880470588</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.1325537030474272</c:v>
+                  <c:v>-0.14280727104238933</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.11157996237871411</c:v>
+                  <c:v>-0.12536390100576558</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-8.5449241434433831E-2</c:v>
+                  <c:v>-0.10020015869483459</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-5.4161540214587162E-2</c:v>
+                  <c:v>-6.7316044109597573E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-1.7716858719173927E-2</c:v>
+                  <c:v>-2.6711557250053117E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.2998319007533886E-2</c:v>
+                  <c:v>2.1263613973240818E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.3551572744172169E-2</c:v>
+                  <c:v>7.0696404221595247E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>9.9510482269379308E-2</c:v>
+                  <c:v>0.11359143526337878</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.12998856353888444</c:v>
+                  <c:v>0.14751670629508723</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.15498581655268628</c:v>
+                  <c:v>0.17247221731671941</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.17450224131078579</c:v>
+                  <c:v>0.18845796832827649</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.18853783781318265</c:v>
+                  <c:v>0.19547395932975781</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.19709260605987661</c:v>
+                  <c:v>0.19352019032116341</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.20016654605086814</c:v>
+                  <c:v>0.18259666130249347</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.19775965778615689</c:v>
+                  <c:v>0.16270337227374793</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.19023091134764275</c:v>
+                  <c:v>0.13672105810715257</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.17937515714482405</c:v>
+                  <c:v>0.11289439373918489</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.16698724558719877</c:v>
+                  <c:v>9.638855439399785E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.15342614675666341</c:v>
+                  <c:v>8.7004775231491235E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.13869186065322328</c:v>
+                  <c:v>8.4743056251669058E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1227843872768761</c:v>
+                  <c:v>8.9603397454529096E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.10570372662762159</c:v>
+                  <c:v>0.10158579884007107</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.7449878705459727E-2</c:v>
+                  <c:v>0.1206902604082951</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.8022843510390743E-2</c:v>
+                  <c:v>0.14691678215920115</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.7422621042414487E-2</c:v>
+                  <c:v>0.1802653640927889</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.7781785050333567E-2</c:v>
+                  <c:v>0.18821831808901301</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.9763204278152167E-2</c:v>
+                  <c:v>0.14743466172368294</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.4029747469868803E-2</c:v>
+                  <c:v>0.10419714166054497</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.271398837428103E-2</c:v>
+                  <c:v>9.5611798867490827E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.13581592699138878</c:v>
+                  <c:v>0.12167863334452014</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.2233355633211925</c:v>
+                  <c:v>0.18239764509163284</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.33527289736369181</c:v>
+                  <c:v>0.27776883410882913</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.4716279291188869</c:v>
+                  <c:v>0.40779220039610853</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.63240065858677741</c:v>
+                  <c:v>0.57246774395347155</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.81759108576736361</c:v>
+                  <c:v>0.77179546478091798</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.0228982984314403</c:v>
+                  <c:v>1.0156022679433947</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.2268177354330003</c:v>
+                  <c:v>1.2836792656843066</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.407844835626046</c:v>
+                  <c:v>1.5211458637064261</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.5616786867813839</c:v>
+                  <c:v>1.7031572605340757</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.6883192888990126</c:v>
+                  <c:v>1.829713456167255</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.7877666419789331</c:v>
+                  <c:v>1.9008144506059634</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8600207460211453</c:v>
+                  <c:v>1.9164602438502025</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.9050816010256479</c:v>
+                  <c:v>1.8766508358999707</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.922949206992443</c:v>
+                  <c:v>1.7813862267552667</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.9136235639215284</c:v>
+                  <c:v>1.6306664164160933</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8771578505701485</c:v>
+                  <c:v>1.5140492909071006</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.8138179607245137</c:v>
+                  <c:v>1.5223671581636986</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.7238697881708354</c:v>
+                  <c:v>1.5679737650275993</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.6073665116663554</c:v>
+                  <c:v>1.5619484364297476</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.4643081312110682</c:v>
+                  <c:v>1.5042911723701478</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.29469464680498</c:v>
+                  <c:v>1.3950019728487959</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.0985260584480985</c:v>
+                  <c:v>1.2340808378656931</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.87580236614040863</c:v>
+                  <c:v>1.0215277674208454</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.62652356988191438</c:v>
+                  <c:v>0.75734276151424074</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.35068966967256382</c:v>
+                  <c:v>0.44152582014581743</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.3026073668157772E-2</c:v>
+                  <c:v>8.0810397736902406E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-0.24284017735287036</c:v>
+                  <c:v>-0.2828168195808991</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.5132820426122735</c:v>
+                  <c:v>-0.6032094386633875</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.75357411395419782</c:v>
+                  <c:v>-0.8694742980763599</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.96371639137870924</c:v>
+                  <c:v>-1.0816113978198736</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1.1437088748858084</c:v>
+                  <c:v>-1.239620737893935</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-1.2935515644754891</c:v>
+                  <c:v>-1.3435023182985448</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-1.4132444601477521</c:v>
+                  <c:v>-1.3932561390337015</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-1.5027875619026032</c:v>
+                  <c:v>-1.3888822000994057</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-1.5621808697400381</c:v>
+                  <c:v>-1.3303805014956573</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-1.5927525791848383</c:v>
+                  <c:v>-1.2951935306805129</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>-1.601143667860915</c:v>
+                  <c:v>-1.3664395285893809</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-1.5939951133921668</c:v>
+                  <c:v>-1.4751896379805125</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-1.5726351113033772</c:v>
+                  <c:v>-1.546839248134807</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-1.537063661594541</c:v>
+                  <c:v>-1.5813883590522588</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-1.48728076426566</c:v>
+                  <c:v>-1.5788369707328682</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-1.4232864193167387</c:v>
+                  <c:v>-1.5391850831766383</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-1.3450806267477697</c:v>
+                  <c:v>-1.4624326963835683</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-1.2526633865587566</c:v>
+                  <c:v>-1.3485798103536573</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-1.146034698749701</c:v>
+                  <c:v>-1.197626425086906</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-1.0274450661159324</c:v>
+                  <c:v>-1.0519692381213643</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-0.90814700263410697</c:v>
+                  <c:v>-0.96264382159798445</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.79939302228086817</c:v>
+                  <c:v>-0.90021178988320294</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.7034336278515394</c:v>
+                  <c:v>-0.82659588274055884</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-0.6202688193461221</c:v>
+                  <c:v>-0.74179610017005326</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-0.5498985967646165</c:v>
+                  <c:v>-0.64581244217168621</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.49232296010702292</c:v>
+                  <c:v>-0.53864490874545812</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.44754190937334104</c:v>
+                  <c:v>-0.42029349989136799</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.41555544456356946</c:v>
+                  <c:v>-0.29075821560941612</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.39636356567759279</c:v>
+                  <c:v>-0.15003905589960354</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.19498313635776121</c:v>
+                  <c:v>-3.8441753593865431E-2</c:v>
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>0</c:v>
@@ -5393,367 +5432,367 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.4328957932740777E-2</c:v>
+                  <c:v>-3.2661694164572035E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.9316564542505386E-3</c:v>
+                  <c:v>2.1061592631804928E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.8633129085011617E-3</c:v>
+                  <c:v>1.2035195789602783E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.7949693627516764E-3</c:v>
+                  <c:v>3.0087989474006558E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7.7266258170022801E-3</c:v>
+                  <c:v>-6.0175978948013315E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.6582822712528351E-3</c:v>
+                  <c:v>-1.5043994737003553E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.1589938725503292E-2</c:v>
+                  <c:v>-2.4070391579205569E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.352159517975403E-2</c:v>
+                  <c:v>-3.3096788421407702E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.5453251634004508E-2</c:v>
+                  <c:v>-4.2123185263609801E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.7384908088255057E-2</c:v>
+                  <c:v>-5.1149582105811962E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-2.0393707035655833E-2</c:v>
+                  <c:v>-1.9197695922540843E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.7711075955656882E-2</c:v>
+                  <c:v>7.9140597934118581E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.6105587368808548E-2</c:v>
+                  <c:v>-8.3725327497681107E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-4.4500098781959541E-2</c:v>
+                  <c:v>-2.46591252929469E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-5.2894610195111401E-2</c:v>
+                  <c:v>-4.0945717836126626E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-6.1289121608262997E-2</c:v>
+                  <c:v>-5.7232310379307594E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-6.9683633021415253E-2</c:v>
+                  <c:v>-7.3518902922487597E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-7.8078144434567259E-2</c:v>
+                  <c:v>-8.9805495465668433E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-8.6472655847718211E-2</c:v>
+                  <c:v>-0.10609208800884705</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-9.4867167260868454E-2</c:v>
+                  <c:v>-0.12237868055202679</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.10137317393507919</c:v>
+                  <c:v>-0.1499975396677572</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.100325161653521</c:v>
+                  <c:v>-0.1484515506131884</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-9.7388644633025337E-2</c:v>
+                  <c:v>-0.12099087090093694</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-9.4452127612527761E-2</c:v>
+                  <c:v>-9.3530191188681402E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-9.1515610592029978E-2</c:v>
+                  <c:v>-6.6069511476435305E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-8.8579093571533374E-2</c:v>
+                  <c:v>-3.8608831764176642E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-8.5642576551035673E-2</c:v>
+                  <c:v>-1.1148152051929084E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-8.2706059530537168E-2</c:v>
+                  <c:v>1.6312527660326558E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-7.9769542510043479E-2</c:v>
+                  <c:v>4.3773207372577505E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-7.683302548954489E-2</c:v>
+                  <c:v>7.1233887084831624E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-6.5790960846512314E-2</c:v>
+                  <c:v>-6.745559679005303E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.2326705713371343E-2</c:v>
+                  <c:v>-0.17298305197757613</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.9243097042295812E-2</c:v>
+                  <c:v>-9.5779329234506452E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.0812899797968019E-2</c:v>
+                  <c:v>-1.8575606491443044E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.13238270255363216</c:v>
+                  <c:v>5.8628116251632723E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.18395250530929508</c:v>
+                  <c:v>0.13583183899469847</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.2355223080649666</c:v>
+                  <c:v>0.21303556173777571</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.28709211082063851</c:v>
+                  <c:v>0.29023928448084402</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.33866191357629688</c:v>
+                  <c:v>0.36744300722389828</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.39023171633196729</c:v>
+                  <c:v>0.44464672996699023</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.4240718382021883</c:v>
+                  <c:v>0.51485669449888771</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.38699323653057666</c:v>
+                  <c:v>0.4737991104682</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.33218495397356684</c:v>
+                  <c:v>0.38410151036747159</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2773766714165351</c:v>
+                  <c:v>0.29440391026669738</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.2225683888595032</c:v>
+                  <c:v>0.20470631016594637</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.16776010630248597</c:v>
+                  <c:v>0.11500871006519521</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.11295182374545107</c:v>
+                  <c:v>2.5311109964430707E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.8143541188428197E-2</c:v>
+                  <c:v>-6.4386490136318655E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.3352586314028274E-3</c:v>
+                  <c:v>-0.15408409023707939</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-5.147302392562754E-2</c:v>
+                  <c:v>-0.24378169033783209</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-9.9101904844655614E-2</c:v>
+                  <c:v>-0.27586459299407495</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.11801317921171835</c:v>
+                  <c:v>-0.20066869436527865</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.12974505194078725</c:v>
+                  <c:v>-0.12944809253846201</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.14147692466986556</c:v>
+                  <c:v>-5.82274907116326E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.15320879739893711</c:v>
+                  <c:v>1.2993111115188888E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.16494067012800637</c:v>
+                  <c:v>8.4213712942011881E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.17667254285708384</c:v>
+                  <c:v>0.15543431476882782</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.18840441558615353</c:v>
+                  <c:v>0.22665491659565284</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.20013628831522709</c:v>
+                  <c:v>0.29787551842246912</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.21186816104429956</c:v>
+                  <c:v>0.36909612024928867</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.18094855879731658</c:v>
+                  <c:v>-0.21003704032480786</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.0576943353687937E-2</c:v>
+                  <c:v>-0.6056360869817965</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.26475392048064361</c:v>
+                  <c:v>-0.2591143142809591</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.50893089760760091</c:v>
+                  <c:v>8.7407458419876141E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.75310787473455454</c:v>
+                  <c:v>0.43392923112071041</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.99728485186152038</c:v>
+                  <c:v>0.78045100382154364</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.2414618289884674</c:v>
+                  <c:v>1.1269727765223827</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.4856388061154313</c:v>
+                  <c:v>1.4734945492232039</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.7298157832423782</c:v>
+                  <c:v>1.8200163219240566</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.973992760369349</c:v>
+                  <c:v>2.166538094624872</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.1321514929121856</c:v>
+                  <c:v>2.7095979686246641</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.9462372471190097</c:v>
+                  <c:v>2.6519419861935694</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.6743047567419094</c:v>
+                  <c:v>2.0973899742488249</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.402372266364845</c:v>
+                  <c:v>1.5428379623041653</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.1304397759877285</c:v>
+                  <c:v>0.98828595035942013</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.85850728561068368</c:v>
+                  <c:v>0.43373393841475105</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.58657479523355882</c:v>
+                  <c:v>-0.12081807352997356</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.31464230485649619</c:v>
+                  <c:v>-0.67537008547466482</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.270981447940244E-2</c:v>
+                  <c:v>-1.2299220974194103</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.22922267589769124</c:v>
+                  <c:v>-1.7844741093640519</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-0.50009159112990986</c:v>
+                  <c:v>-0.54786840081580979</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.76670620578278492</c:v>
+                  <c:v>0.71422574594777122</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.0322572452907832</c:v>
+                  <c:v>0.1979063913302406</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-1.2978082847988266</c:v>
+                  <c:v>-0.31841296328727609</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-1.5633593243069108</c:v>
+                  <c:v>-0.83473231790471758</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.828910363814847</c:v>
+                  <c:v>-1.3510516725223154</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-2.0944614033227853</c:v>
+                  <c:v>-1.8673710271397399</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-2.3600124428310063</c:v>
+                  <c:v>-2.383690381757213</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-2.6255634823388956</c:v>
+                  <c:v>-2.900009736374896</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-2.8911145218470087</c:v>
+                  <c:v>-3.4163290909923036</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-3.0621573982411063</c:v>
+                  <c:v>-3.7979793571859903</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-2.8551676221806335</c:v>
+                  <c:v>-3.4745649891714874</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-2.5536696830063432</c:v>
+                  <c:v>-2.9332873924769944</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-2.2521717438321383</c:v>
+                  <c:v>-2.3920097957824469</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-1.9506738046581056</c:v>
+                  <c:v>-1.8507321990878458</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-1.6491758654838724</c:v>
+                  <c:v>-1.3094546023933773</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>-1.3476779263097416</c:v>
+                  <c:v>-0.76817700569881953</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-1.0461799871355173</c:v>
+                  <c:v>-0.22689940900431063</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-0.74468204796150117</c:v>
+                  <c:v>0.31437818769022785</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-0.44318410878720199</c:v>
+                  <c:v>0.85565578438474044</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-0.16825008010879813</c:v>
+                  <c:v>-0.15191636808185457</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.2830658726345102E-4</c:v>
+                  <c:v>-1.2730035900955095</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.14254278278770002</c:v>
+                  <c:v>-0.90199859772712865</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.28465725898808997</c:v>
+                  <c:v>-0.53099360535875562</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.42677173518863759</c:v>
+                  <c:v>-0.15998861299028486</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.56888621138897644</c:v>
+                  <c:v>0.21101637937809706</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.71100068758945179</c:v>
+                  <c:v>0.58202137174650381</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.85311516378993624</c:v>
+                  <c:v>0.95302636411490083</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.99522963999031289</c:v>
+                  <c:v>1.3240313564833117</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.1373441161908071</c:v>
+                  <c:v>1.6950363488517246</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.2344485364845514</c:v>
+                  <c:v>1.2181073904590922</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1.1515127331519688</c:v>
+                  <c:v>0.56840094000851082</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.0235668739128148</c:v>
+                  <c:v>0.68023969428712305</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.8956210146737501</c:v>
+                  <c:v>0.79207844856574994</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.7676751554346033</c:v>
+                  <c:v>0.90391720284437016</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.6397292961955009</c:v>
+                  <c:v>1.0157559571229593</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.51178343695637407</c:v>
+                  <c:v>1.1275947114016112</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.38383757771726668</c:v>
+                  <c:v>1.2394334656801997</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.2558917184781615</c:v>
+                  <c:v>1.3512722199588236</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.12794585924137281</c:v>
+                  <c:v>1.4631109742374386</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.899662727155238</c:v>
+                  <c:v>0.76883507187731137</c:v>
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>0</c:v>
@@ -9437,8 +9476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -9480,45 +9519,45 @@
       </c>
     </row>
     <row r="2" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="36"/>
       <c r="M2" t="str">
         <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,M$1,$F$4)</f>
-        <v>#Interpolator:53</v>
+        <v>#acqInterpolator:3</v>
       </c>
       <c r="N2" t="str">
         <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,N$1,$F$4)</f>
-        <v>#Interpolator:60</v>
+        <v>#acqInterpolator:4</v>
       </c>
       <c r="O2" t="str">
         <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,O$1,$F$4)</f>
-        <v>#Interpolator:52</v>
+        <v>#acqInterpolator:5</v>
       </c>
       <c r="P2" t="str">
         <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,P$1,$F$4)</f>
-        <v>#Interpolator:59</v>
+        <v>#acqInterpolator:6</v>
       </c>
       <c r="Q2" t="str">
         <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,Q$1,$F$4)</f>
-        <v>#Interpolator:58</v>
+        <v>#acqInterpolator:7</v>
       </c>
       <c r="R2" t="str">
         <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,R$1,$F$4)</f>
-        <v>#Interpolator:54</v>
+        <v>#acqInterpolator:8</v>
       </c>
       <c r="S2" t="str">
         <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,S$1,$F$4)</f>
-        <v>#Interpolator:55</v>
+        <v>#acqInterpolator:9</v>
       </c>
       <c r="T2" t="str">
         <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,T$1,$F$4)</f>
-        <v>#Interpolator:56</v>
+        <v>#acqInterpolator:10</v>
       </c>
       <c r="U2" t="str">
         <f>_xll.acq_interpolator_create($B$4:$B$16,$C$4:$C$16,U$1,$F$4)</f>
-        <v>#Interpolator:57</v>
+        <v>#acqInterpolator:11</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.4">
@@ -9532,7 +9571,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>0</v>
@@ -9645,7 +9684,7 @@
       </c>
       <c r="F5" s="6" t="str">
         <f>_xll.acq_interpolator_create(B4:B16,C4:C16,F3,F4)</f>
-        <v>#Interpolator:59</v>
+        <v>#acqInterpolator:8</v>
       </c>
       <c r="H5" s="12">
         <v>-3.15</v>
@@ -9836,11 +9875,11 @@
       </c>
       <c r="J8">
         <f>_xll.acq_diff1_c3pt(H7:H9,I7:I9)</f>
-        <v>-7.1644789663703626E-4</v>
+        <v>-1.6330847082285959E-3</v>
       </c>
       <c r="K8">
         <f>_xll.acq_diff2_c3pt(H7:H9,I7:I9)</f>
-        <v>-1.4328957932740777E-2</v>
+        <v>-3.2661694164572035E-2</v>
       </c>
       <c r="M8">
         <f>_xll.acq_interpolator_eval(M$2,$H8)</f>
@@ -9892,15 +9931,15 @@
       </c>
       <c r="I9">
         <f>_xll.acq_interpolator_eval($F$5,H9)</f>
-        <v>-2.3753852320356503E-4</v>
+        <v>-3.2920220436272066E-4</v>
       </c>
       <c r="J9">
         <f>_xll.acq_diff1_c3pt(H8:H10,I8:I10)</f>
-        <v>-1.5294786159865991E-3</v>
+        <v>-2.2130897848669489E-3</v>
       </c>
       <c r="K9">
         <f>_xll.acq_diff2_c3pt(H8:H10,I8:I10)</f>
-        <v>-1.9316564542505386E-3</v>
+        <v>2.1061592631804928E-2</v>
       </c>
       <c r="M9">
         <f>_xll.acq_interpolator_eval(M$2,$H9)</f>
@@ -9955,15 +9994,15 @@
       </c>
       <c r="I10">
         <f>_xll.acq_interpolator_eval($F$5,H10)</f>
-        <v>-3.1884159513852179E-4</v>
+        <v>-3.8720271202655584E-4</v>
       </c>
       <c r="J10">
         <f>_xll.acq_diff1_c3pt(H9:H11,I9:I11)</f>
-        <v>-1.8192270841241858E-3</v>
+        <v>-5.5825036379655488E-4</v>
       </c>
       <c r="K10">
         <f>_xll.acq_diff2_c3pt(H9:H11,I9:I11)</f>
-        <v>-3.8633129085011617E-3</v>
+        <v>1.2035195789602783E-2</v>
       </c>
       <c r="M10">
         <f>_xll.acq_interpolator_eval(M$2,$H10)</f>
@@ -10018,15 +10057,15 @@
       </c>
       <c r="I11">
         <f>_xll.acq_interpolator_eval($F$5,H11)</f>
-        <v>-4.194612316159836E-4</v>
+        <v>-3.8502724074237674E-4</v>
       </c>
       <c r="J11">
         <f>_xll.acq_diff1_c3pt(H10:H12,I10:I12)</f>
-        <v>-2.3021411976868258E-3</v>
+        <v>1.9394937305361427E-4</v>
       </c>
       <c r="K11">
         <f>_xll.acq_diff2_c3pt(H10:H12,I10:I12)</f>
-        <v>-5.7949693627516764E-3</v>
+        <v>3.0087989474006558E-3</v>
       </c>
       <c r="M11">
         <f>_xll.acq_interpolator_eval(M$2,$H11)</f>
@@ -10081,15 +10120,15 @@
       </c>
       <c r="I12">
         <f>_xll.acq_interpolator_eval($F$5,H12)</f>
-        <v>-5.4905571490720484E-4</v>
+        <v>-3.6780777472119426E-4</v>
       </c>
       <c r="J12">
         <f>_xll.acq_diff1_c3pt(H11:H13,I11:I13)</f>
-        <v>-2.9782209566745271E-3</v>
+        <v>4.3509425683579701E-5</v>
       </c>
       <c r="K12">
         <f>_xll.acq_diff2_c3pt(H11:H13,I11:I13)</f>
-        <v>-7.7266258170022801E-3</v>
+        <v>-6.0175978948013315E-3</v>
       </c>
       <c r="M12">
         <f>_xll.acq_interpolator_eval(M$2,$H12)</f>
@@ -10144,15 +10183,15 @@
       </c>
       <c r="I13">
         <f>_xll.acq_interpolator_eval($F$5,H13)</f>
-        <v>-7.1728332728343623E-4</v>
+        <v>-3.806762981740185E-4</v>
       </c>
       <c r="J13">
         <f>_xll.acq_diff1_c3pt(H12:H14,I12:I14)</f>
-        <v>-3.8474663610872798E-3</v>
+        <v>-1.0095702059066609E-3</v>
       </c>
       <c r="K13">
         <f>_xll.acq_diff2_c3pt(H12:H14,I12:I14)</f>
-        <v>-9.6582822712528351E-3</v>
+        <v>-1.5043994737003553E-2</v>
       </c>
       <c r="M13">
         <f>_xll.acq_interpolator_eval(M$2,$H13)</f>
@@ -10207,15 +10246,15 @@
       </c>
       <c r="I14">
         <f>_xll.acq_interpolator_eval($F$5,H14)</f>
-        <v>-9.3380235101593145E-4</v>
+        <v>-4.6876479531185998E-4</v>
       </c>
       <c r="J14">
         <f>_xll.acq_diff1_c3pt(H13:H15,I13:I15)</f>
-        <v>-4.9098774109250821E-3</v>
+        <v>-2.9652895217171103E-3</v>
       </c>
       <c r="K14">
         <f>_xll.acq_diff2_c3pt(H13:H15,I13:I15)</f>
-        <v>-1.1589938725503292E-2</v>
+        <v>-2.4070391579205569E-2</v>
       </c>
       <c r="M14">
         <f>_xll.acq_interpolator_eval(M$2,$H14)</f>
@@ -10270,15 +10309,15 @@
       </c>
       <c r="I15">
         <f>_xll.acq_interpolator_eval($F$5,H15)</f>
-        <v>-1.2082710683759454E-3</v>
+        <v>-6.7720525034573086E-4</v>
       </c>
       <c r="J15">
         <f>_xll.acq_diff1_c3pt(H14:H16,I14:I16)</f>
-        <v>-6.165454106187955E-3</v>
+        <v>-5.8236485217477889E-3</v>
       </c>
       <c r="K15">
         <f>_xll.acq_diff2_c3pt(H14:H16,I14:I16)</f>
-        <v>-1.352159517975403E-2</v>
+        <v>-3.3096788421407702E-2</v>
       </c>
       <c r="M15">
         <f>_xll.acq_interpolator_eval(M$2,$H15)</f>
@@ -10333,15 +10372,15 @@
       </c>
       <c r="I16">
         <f>_xll.acq_interpolator_eval($F$5,H16)</f>
-        <v>-1.550347761634727E-3</v>
+        <v>-1.0511296474866379E-3</v>
       </c>
       <c r="J16">
         <f>_xll.acq_diff1_c3pt(H15:H17,I15:I17)</f>
-        <v>-7.6141964468758776E-3</v>
+        <v>-9.5846472059986504E-3</v>
       </c>
       <c r="K16">
         <f>_xll.acq_diff2_c3pt(H15:H17,I15:I17)</f>
-        <v>-1.5453251634004508E-2</v>
+        <v>-4.2123185263609801E-2</v>
       </c>
       <c r="M16">
         <f>_xll.acq_interpolator_eval(M$2,$H16)</f>
@@ -10389,15 +10428,15 @@
       </c>
       <c r="I17">
         <f>_xll.acq_interpolator_eval($F$5,H17)</f>
-        <v>-1.9696907130635345E-3</v>
+        <v>-1.6356699709455986E-3</v>
       </c>
       <c r="J17">
         <f>_xll.acq_diff1_c3pt(H16:H18,I16:I18)</f>
-        <v>-9.2561044329888646E-3</v>
+        <v>-1.4248285574469765E-2</v>
       </c>
       <c r="K17">
         <f>_xll.acq_diff2_c3pt(H16:H18,I16:I18)</f>
-        <v>-1.7384908088255057E-2</v>
+        <v>-5.1149582105811962E-2</v>
       </c>
       <c r="M17">
         <f>_xll.acq_interpolator_eval(M$2,$H17)</f>
@@ -10449,11 +10488,11 @@
       </c>
       <c r="J18">
         <f>_xll.acq_diff1_c3pt(H17:H19,I17:I19)</f>
-        <v>-1.1145035189184402E-2</v>
+        <v>-1.7765649475887393E-2</v>
       </c>
       <c r="K18">
         <f>_xll.acq_diff2_c3pt(H17:H19,I17:I19)</f>
-        <v>-2.0393707035655833E-2</v>
+        <v>-1.9197695922540843E-2</v>
       </c>
       <c r="M18">
         <f>_xll.acq_interpolator_eval(M$2,$H18)</f>
@@ -10501,15 +10540,15 @@
       </c>
       <c r="I19">
         <f>_xll.acq_interpolator_eval($F$5,H19)</f>
-        <v>-3.0841942319819707E-3</v>
+        <v>-3.4122349185343316E-3</v>
       </c>
       <c r="J19">
         <f>_xll.acq_diff1_c3pt(H18:H20,I18:I20)</f>
-        <v>-1.3550274338750029E-2</v>
+        <v>-1.8329831282343841E-2</v>
       </c>
       <c r="K19">
         <f>_xll.acq_diff2_c3pt(H18:H20,I18:I20)</f>
-        <v>-2.7711075955656882E-2</v>
+        <v>7.9140597934118581E-3</v>
       </c>
       <c r="M19">
         <f>_xll.acq_interpolator_eval(M$2,$H19)</f>
@@ -10557,15 +10596,15 @@
       </c>
       <c r="I20">
         <f>_xll.acq_interpolator_eval($F$5,H20)</f>
-        <v>-3.8309856388086187E-3</v>
+        <v>-4.3089413331679986E-3</v>
       </c>
       <c r="J20">
         <f>_xll.acq_diff1_c3pt(H19:H21,I19:I21)</f>
-        <v>-1.6741107504973318E-2</v>
+        <v>-1.8352754930161651E-2</v>
       </c>
       <c r="K20">
         <f>_xll.acq_diff2_c3pt(H19:H21,I19:I21)</f>
-        <v>-3.6105587368808548E-2</v>
+        <v>-8.3725327497681107E-3</v>
       </c>
       <c r="M20">
         <f>_xll.acq_interpolator_eval(M$2,$H20)</f>
@@ -10613,15 +10652,15 @@
       </c>
       <c r="I21">
         <f>_xll.acq_interpolator_eval($F$5,H21)</f>
-        <v>-4.7583049824793024E-3</v>
+        <v>-5.247510411550498E-3</v>
       </c>
       <c r="J21">
         <f>_xll.acq_diff1_c3pt(H20:H22,I20:I22)</f>
-        <v>-2.0771391812511711E-2</v>
+        <v>-2.0004337832297395E-2</v>
       </c>
       <c r="K21">
         <f>_xll.acq_diff2_c3pt(H20:H22,I20:I22)</f>
-        <v>-4.4500098781959541E-2</v>
+        <v>-2.46591252929469E-2</v>
       </c>
       <c r="M21">
         <f>_xll.acq_interpolator_eval(M$2,$H21)</f>
@@ -10666,15 +10705,15 @@
       </c>
       <c r="I22">
         <f>_xll.acq_interpolator_eval($F$5,H22)</f>
-        <v>-5.9081248200597934E-3</v>
+        <v>-6.3093751163977412E-3</v>
       </c>
       <c r="J22">
         <f>_xll.acq_diff1_c3pt(H21:H23,I21:I23)</f>
-        <v>-2.5641127261365283E-2</v>
+        <v>-2.3284579988751088E-2</v>
       </c>
       <c r="K22">
         <f>_xll.acq_diff2_c3pt(H21:H23,I21:I23)</f>
-        <v>-5.2894610195111401E-2</v>
+        <v>-4.0945717836126626E-2</v>
       </c>
       <c r="M22">
         <f>_xll.acq_interpolator_eval(M$2,$H22)</f>
@@ -10719,15 +10758,15 @@
       </c>
       <c r="I23">
         <f>_xll.acq_interpolator_eval($F$5,H23)</f>
-        <v>-7.3224177086158304E-3</v>
+        <v>-7.5759684104256073E-3</v>
       </c>
       <c r="J23">
         <f>_xll.acq_diff1_c3pt(H22:H24,I22:I24)</f>
-        <v>-3.135031385153398E-2</v>
+        <v>-2.8193481399522782E-2</v>
       </c>
       <c r="K23">
         <f>_xll.acq_diff2_c3pt(H22:H24,I22:I24)</f>
-        <v>-6.1289121608262997E-2</v>
+        <v>-5.7232310379307594E-2</v>
       </c>
       <c r="M23">
         <f>_xll.acq_interpolator_eval(M$2,$H23)</f>
@@ -10772,15 +10811,15 @@
       </c>
       <c r="I24">
         <f>_xll.acq_interpolator_eval($F$5,H24)</f>
-        <v>-9.0431562052135633E-3</v>
+        <v>-9.1287232563503559E-3</v>
       </c>
       <c r="J24">
         <f>_xll.acq_diff1_c3pt(H23:H25,I23:I25)</f>
-        <v>-3.7898951583019203E-2</v>
+        <v>-3.4731042064613853E-2</v>
       </c>
       <c r="K24">
         <f>_xll.acq_diff2_c3pt(H23:H25,I23:I25)</f>
-        <v>-6.9683633021415253E-2</v>
+        <v>-7.3518902922487597E-2</v>
       </c>
       <c r="M24">
         <f>_xll.acq_interpolator_eval(M$2,$H24)</f>
@@ -10825,15 +10864,15 @@
       </c>
       <c r="I25">
         <f>_xll.acq_interpolator_eval($F$5,H25)</f>
-        <v>-1.1112312866918054E-2</v>
+        <v>-1.104907261688726E-2</v>
       </c>
       <c r="J25">
         <f>_xll.acq_diff1_c3pt(H24:H26,I24:I26)</f>
-        <v>-4.5287040455818307E-2</v>
+        <v>-4.2897261984021634E-2</v>
       </c>
       <c r="K25">
         <f>_xll.acq_diff2_c3pt(H24:H26,I24:I26)</f>
-        <v>-7.8078144434567259E-2</v>
+        <v>-8.9805495465668433E-2</v>
       </c>
       <c r="M25">
         <f>_xll.acq_interpolator_eval(M$2,$H25)</f>
@@ -10878,15 +10917,15 @@
       </c>
       <c r="I26">
         <f>_xll.acq_interpolator_eval($F$5,H26)</f>
-        <v>-1.3571860250795402E-2</v>
+        <v>-1.3418449454752526E-2</v>
       </c>
       <c r="J26">
         <f>_xll.acq_diff1_c3pt(H25:H27,I25:I27)</f>
-        <v>-5.3514580469932627E-2</v>
+        <v>-5.2692141157747452E-2</v>
       </c>
       <c r="K26">
         <f>_xll.acq_diff2_c3pt(H25:H27,I25:I27)</f>
-        <v>-8.6472655847718211E-2</v>
+        <v>-0.10609208800884705</v>
       </c>
       <c r="M26">
         <f>_xll.acq_interpolator_eval(M$2,$H26)</f>
@@ -10931,15 +10970,15 @@
       </c>
       <c r="I27">
         <f>_xll.acq_interpolator_eval($F$5,H27)</f>
-        <v>-1.6463770913911317E-2</v>
+        <v>-1.6318286732662005E-2</v>
       </c>
       <c r="J27">
         <f>_xll.acq_diff1_c3pt(H26:H28,I26:I28)</f>
-        <v>-6.2581571625361931E-2</v>
+        <v>-6.4115679585791105E-2</v>
       </c>
       <c r="K27">
         <f>_xll.acq_diff2_c3pt(H26:H28,I26:I28)</f>
-        <v>-9.4867167260868454E-2</v>
+        <v>-0.12237868055202679</v>
       </c>
       <c r="M27">
         <f>_xll.acq_interpolator_eval(M$2,$H27)</f>
@@ -10988,11 +11027,11 @@
       </c>
       <c r="J28">
         <f>_xll.acq_diff1_c3pt(H27:H29,I27:I29)</f>
-        <v>-7.2393588685157356E-2</v>
+        <v>-7.7734490596777589E-2</v>
       </c>
       <c r="K28">
         <f>_xll.acq_diff2_c3pt(H27:H29,I27:I29)</f>
-        <v>-0.10137317393507919</v>
+        <v>-0.1499975396677572</v>
       </c>
       <c r="M28">
         <f>_xll.acq_interpolator_eval(M$2,$H28)</f>
@@ -11037,15 +11076,15 @@
       </c>
       <c r="I29">
         <f>_xll.acq_interpolator_eval($F$5,H29)</f>
-        <v>-2.3703129782427262E-2</v>
+        <v>-2.4091735792340072E-2</v>
       </c>
       <c r="J29">
         <f>_xll.acq_diff1_c3pt(H28:H30,I28:I30)</f>
-        <v>-8.2478505464589388E-2</v>
+        <v>-9.2656945110827865E-2</v>
       </c>
       <c r="K29">
         <f>_xll.acq_diff2_c3pt(H28:H30,I28:I30)</f>
-        <v>-0.100325161653521</v>
+        <v>-0.1484515506131884</v>
       </c>
       <c r="M29">
         <f>_xll.acq_interpolator_eval(M$2,$H29)</f>
@@ -11090,15 +11129,15 @@
       </c>
       <c r="I30">
         <f>_xll.acq_interpolator_eval($F$5,H30)</f>
-        <v>-2.8077867959790538E-2</v>
+        <v>-2.9095711924414441E-2</v>
       </c>
       <c r="J30">
         <f>_xll.acq_diff1_c3pt(H29:H31,I29:I31)</f>
-        <v>-9.2364195778916719E-2</v>
+        <v>-0.10612906618653414</v>
       </c>
       <c r="K30">
         <f>_xll.acq_diff2_c3pt(H29:H31,I29:I31)</f>
-        <v>-9.7388644633025337E-2</v>
+        <v>-0.12099087090093694</v>
       </c>
       <c r="M30">
         <f>_xll.acq_interpolator_eval(M$2,$H30)</f>
@@ -11143,15 +11182,15 @@
       </c>
       <c r="I31">
         <f>_xll.acq_interpolator_eval($F$5,H31)</f>
-        <v>-3.2939549360318919E-2</v>
+        <v>-3.4704642410993469E-2</v>
       </c>
       <c r="J31">
         <f>_xll.acq_diff1_c3pt(H30:H32,I30:I32)</f>
-        <v>-0.10195623439119433</v>
+        <v>-0.11685511929101502</v>
       </c>
       <c r="K31">
         <f>_xll.acq_diff2_c3pt(H30:H32,I30:I32)</f>
-        <v>-9.4452127612527761E-2</v>
+        <v>-9.3530191188681402E-2</v>
       </c>
       <c r="M31">
         <f>_xll.acq_interpolator_eval(M$2,$H31)</f>
@@ -11196,15 +11235,15 @@
       </c>
       <c r="I32">
         <f>_xll.acq_interpolator_eval($F$5,H32)</f>
-        <v>-3.827349139890996E-2</v>
+        <v>-4.078122385351593E-2</v>
       </c>
       <c r="J32">
         <f>_xll.acq_diff1_c3pt(H31:H33,I31:I33)</f>
-        <v>-0.11125462130142223</v>
+        <v>-0.12483510442427087</v>
       </c>
       <c r="K32">
         <f>_xll.acq_diff2_c3pt(H31:H33,I31:I33)</f>
-        <v>-9.1515610592029978E-2</v>
+        <v>-6.6069511476435305E-2</v>
       </c>
       <c r="M32">
         <f>_xll.acq_interpolator_eval(M$2,$H32)</f>
@@ -11249,15 +11288,15 @@
       </c>
       <c r="I33">
         <f>_xll.acq_interpolator_eval($F$5,H33)</f>
-        <v>-4.4065011490461152E-2</v>
+        <v>-4.7188152853420567E-2</v>
       </c>
       <c r="J33">
         <f>_xll.acq_diff1_c3pt(H32:H34,I32:I34)</f>
-        <v>-0.1202593565096004</v>
+        <v>-0.13006902158630146</v>
       </c>
       <c r="K33">
         <f>_xll.acq_diff2_c3pt(H32:H34,I32:I34)</f>
-        <v>-8.8579093571533374E-2</v>
+        <v>-3.8608831764176642E-2</v>
       </c>
       <c r="M33">
         <f>_xll.acq_interpolator_eval(M$2,$H33)</f>
@@ -11302,15 +11341,15 @@
       </c>
       <c r="I34">
         <f>_xll.acq_interpolator_eval($F$5,H34)</f>
-        <v>-5.0299427049870012E-2</v>
+        <v>-5.3788126012146088E-2</v>
       </c>
       <c r="J34">
         <f>_xll.acq_diff1_c3pt(H33:H35,I33:I35)</f>
-        <v>-0.12897044001572888</v>
+        <v>-0.13255687077710676</v>
       </c>
       <c r="K34">
         <f>_xll.acq_diff2_c3pt(H33:H35,I33:I35)</f>
-        <v>-8.5642576551035673E-2</v>
+        <v>-1.1148152051929084E-2</v>
       </c>
       <c r="M34">
         <f>_xll.acq_interpolator_eval(M$2,$H34)</f>
@@ -11355,15 +11394,15 @@
       </c>
       <c r="I35">
         <f>_xll.acq_interpolator_eval($F$5,H35)</f>
-        <v>-5.696205549203405E-2</v>
+        <v>-6.0443839931131255E-2</v>
       </c>
       <c r="J35">
         <f>_xll.acq_diff1_c3pt(H34:H36,I34:I36)</f>
-        <v>-0.13738787181980749</v>
+        <v>-0.13229865199668689</v>
       </c>
       <c r="K35">
         <f>_xll.acq_diff2_c3pt(H34:H36,I34:I36)</f>
-        <v>-8.2706059530537168E-2</v>
+        <v>1.6312527660326558E-2</v>
       </c>
       <c r="M35">
         <f>_xll.acq_interpolator_eval(M$2,$H35)</f>
@@ -11408,15 +11447,15 @@
       </c>
       <c r="I36">
         <f>_xll.acq_interpolator_eval($F$5,H36)</f>
-        <v>-6.4038214231850743E-2</v>
+        <v>-6.7017991211814759E-2</v>
       </c>
       <c r="J36">
         <f>_xll.acq_diff1_c3pt(H35:H37,I35:I37)</f>
-        <v>-0.14551165192183652</v>
+        <v>-0.1292943652450417</v>
       </c>
       <c r="K36">
         <f>_xll.acq_diff2_c3pt(H35:H37,I35:I37)</f>
-        <v>-7.9769542510043479E-2</v>
+        <v>4.3773207372577505E-2</v>
       </c>
       <c r="M36">
         <f>_xll.acq_interpolator_eval(M$2,$H36)</f>
@@ -11461,15 +11500,15 @@
       </c>
       <c r="I37">
         <f>_xll.acq_interpolator_eval($F$5,H37)</f>
-        <v>-7.1513220684217685E-2</v>
+        <v>-7.3373276455635406E-2</v>
       </c>
       <c r="J37">
         <f>_xll.acq_diff1_c3pt(H36:H38,I36:I38)</f>
-        <v>-0.15334178032181595</v>
+        <v>-0.12354401052217123</v>
       </c>
       <c r="K37">
         <f>_xll.acq_diff2_c3pt(H36:H38,I36:I38)</f>
-        <v>-7.683302548954489E-2</v>
+        <v>7.1233887084831624E-2</v>
       </c>
       <c r="M37">
         <f>_xll.acq_interpolator_eval(M$2,$H37)</f>
@@ -11514,15 +11553,15 @@
       </c>
       <c r="I38">
         <f>_xll.acq_interpolator_eval($F$5,H38)</f>
-        <v>-7.9372392264032351E-2</v>
+        <v>-7.9372392264031894E-2</v>
       </c>
       <c r="J38">
         <f>_xll.acq_diff1_c3pt(H37:H39,I37:I39)</f>
-        <v>-0.16047297963861881</v>
+        <v>-0.1233550960074323</v>
       </c>
       <c r="K38">
         <f>_xll.acq_diff2_c3pt(H37:H39,I37:I39)</f>
-        <v>-6.5790960846512314E-2</v>
+        <v>-6.745559679005303E-2</v>
       </c>
       <c r="M38">
         <f>_xll.acq_interpolator_eval(M$2,$H38)</f>
@@ -11567,15 +11606,15 @@
       </c>
       <c r="I39">
         <f>_xll.acq_interpolator_eval($F$5,H39)</f>
-        <v>-8.756051864807958E-2</v>
+        <v>-8.5708786056378647E-2</v>
       </c>
       <c r="J39">
         <f>_xll.acq_diff1_c3pt(H38:H40,I38:I40)</f>
-        <v>-0.164878862966613</v>
+        <v>-0.13537702844581379</v>
       </c>
       <c r="K39">
         <f>_xll.acq_diff2_c3pt(H38:H40,I38:I40)</f>
-        <v>-2.2326705713371343E-2</v>
+        <v>-0.17298305197757613</v>
       </c>
       <c r="M39">
         <f>_xll.acq_interpolator_eval(M$2,$H39)</f>
@@ -11620,15 +11659,15 @@
       </c>
       <c r="I40">
         <f>_xll.acq_interpolator_eval($F$5,H40)</f>
-        <v>-9.5860278560693665E-2</v>
+        <v>-9.2910095108613283E-2</v>
       </c>
       <c r="J40">
         <f>_xll.acq_diff1_c3pt(H39:H41,I39:I41)</f>
-        <v>-0.16453304340016678</v>
+        <v>-0.14881514750641789</v>
       </c>
       <c r="K40">
         <f>_xll.acq_diff2_c3pt(H39:H41,I39:I41)</f>
-        <v>2.9243097042295812E-2</v>
+        <v>-9.5779329234506452E-2</v>
       </c>
       <c r="M40">
         <f>_xll.acq_interpolator_eval(M$2,$H40)</f>
@@ -11673,15 +11712,15 @@
       </c>
       <c r="I41">
         <f>_xll.acq_interpolator_eval($F$5,H41)</f>
-        <v>-0.10401382298809624</v>
+        <v>-0.10059030080702042</v>
       </c>
       <c r="J41">
         <f>_xll.acq_diff1_c3pt(H40:H42,I40:I42)</f>
-        <v>-0.15903024355815359</v>
+        <v>-0.15453289429271538</v>
       </c>
       <c r="K41">
         <f>_xll.acq_diff2_c3pt(H40:H42,I40:I42)</f>
-        <v>8.0812899797968019E-2</v>
+        <v>-1.8575606491443044E-2</v>
       </c>
       <c r="M41">
         <f>_xll.acq_interpolator_eval(M$2,$H41)</f>
@@ -11726,15 +11765,15 @@
       </c>
       <c r="I42">
         <f>_xll.acq_interpolator_eval($F$5,H42)</f>
-        <v>-0.111763302916509</v>
+        <v>-0.1083633845378848</v>
       </c>
       <c r="J42">
         <f>_xll.acq_diff1_c3pt(H41:H43,I41:I43)</f>
-        <v>-0.14837046344057359</v>
+        <v>-0.15253026880470588</v>
       </c>
       <c r="K42">
         <f>_xll.acq_diff2_c3pt(H41:H43,I41:I43)</f>
-        <v>0.13238270255363216</v>
+        <v>5.8628116251632723E-2</v>
       </c>
       <c r="M42">
         <f>_xll.acq_interpolator_eval(M$2,$H42)</f>
@@ -11779,15 +11818,15 @@
       </c>
       <c r="I43">
         <f>_xll.acq_interpolator_eval($F$5,H43)</f>
-        <v>-0.11885086933215361</v>
+        <v>-0.11584332768749102</v>
       </c>
       <c r="J43">
         <f>_xll.acq_diff1_c3pt(H42:H44,I42:I44)</f>
-        <v>-0.1325537030474272</v>
+        <v>-0.14280727104238933</v>
       </c>
       <c r="K43">
         <f>_xll.acq_diff2_c3pt(H42:H44,I42:I44)</f>
-        <v>0.18395250530929508</v>
+        <v>0.13583183899469847</v>
       </c>
       <c r="M43">
         <f>_xll.acq_interpolator_eval(M$2,$H43)</f>
@@ -11832,15 +11871,15 @@
       </c>
       <c r="I44">
         <f>_xll.acq_interpolator_eval($F$5,H44)</f>
-        <v>-0.12501867322125174</v>
+        <v>-0.12264411164212374</v>
       </c>
       <c r="J44">
         <f>_xll.acq_diff1_c3pt(H43:H45,I43:I45)</f>
-        <v>-0.11157996237871411</v>
+        <v>-0.12536390100576558</v>
       </c>
       <c r="K44">
         <f>_xll.acq_diff2_c3pt(H43:H45,I43:I45)</f>
-        <v>0.2355223080649666</v>
+        <v>0.21303556173777571</v>
       </c>
       <c r="M44">
         <f>_xll.acq_interpolator_eval(M$2,$H44)</f>
@@ -11885,15 +11924,15 @@
       </c>
       <c r="I45">
         <f>_xll.acq_interpolator_eval($F$5,H45)</f>
-        <v>-0.13000886557002503</v>
+        <v>-0.12837971778806759</v>
       </c>
       <c r="J45">
         <f>_xll.acq_diff1_c3pt(H44:H46,I44:I46)</f>
-        <v>-8.5449241434433831E-2</v>
+        <v>-0.10020015869483459</v>
       </c>
       <c r="K45">
         <f>_xll.acq_diff2_c3pt(H44:H46,I44:I46)</f>
-        <v>0.28709211082063851</v>
+        <v>0.29023928448084402</v>
       </c>
       <c r="M45">
         <f>_xll.acq_interpolator_eval(M$2,$H45)</f>
@@ -11938,15 +11977,15 @@
       </c>
       <c r="I46">
         <f>_xll.acq_interpolator_eval($F$5,H46)</f>
-        <v>-0.13356359736469511</v>
+        <v>-0.13266412751160719</v>
       </c>
       <c r="J46">
         <f>_xll.acq_diff1_c3pt(H45:H47,I45:I47)</f>
-        <v>-5.4161540214587162E-2</v>
+        <v>-6.7316044109597573E-2</v>
       </c>
       <c r="K46">
         <f>_xll.acq_diff2_c3pt(H45:H47,I45:I47)</f>
-        <v>0.33866191357629688</v>
+        <v>0.36744300722389828</v>
       </c>
       <c r="M46">
         <f>_xll.acq_interpolator_eval(M$2,$H46)</f>
@@ -11991,15 +12030,15 @@
       </c>
       <c r="I47">
         <f>_xll.acq_interpolator_eval($F$5,H47)</f>
-        <v>-0.13542501959148373</v>
+        <v>-0.13511132219902733</v>
       </c>
       <c r="J47">
         <f>_xll.acq_diff1_c3pt(H46:H48,I46:I48)</f>
-        <v>-1.7716858719173927E-2</v>
+        <v>-2.6711557250053117E-2</v>
       </c>
       <c r="K47">
         <f>_xll.acq_diff2_c3pt(H46:H48,I46:I48)</f>
-        <v>0.39023171633196729</v>
+        <v>0.44464672996699023</v>
       </c>
       <c r="M47">
         <f>_xll.acq_interpolator_eval(M$2,$H47)</f>
@@ -12048,11 +12087,11 @@
       </c>
       <c r="J48">
         <f>_xll.acq_diff1_c3pt(H47:H49,I47:I49)</f>
-        <v>2.2998319007533886E-2</v>
+        <v>2.1263613973240818E-2</v>
       </c>
       <c r="K48">
         <f>_xll.acq_diff2_c3pt(H47:H49,I47:I49)</f>
-        <v>0.4240718382021883</v>
+        <v>0.51485669449888771</v>
       </c>
       <c r="M48">
         <f>_xll.acq_interpolator_eval(M$2,$H48)</f>
@@ -12097,15 +12136,15 @@
       </c>
       <c r="I49">
         <f>_xll.acq_interpolator_eval($F$5,H49)</f>
-        <v>-0.13312518769073034</v>
+        <v>-0.13298496080170324</v>
       </c>
       <c r="J49">
         <f>_xll.acq_diff1_c3pt(H48:H50,I48:I50)</f>
-        <v>6.3551572744172169E-2</v>
+        <v>7.0696404221595247E-2</v>
       </c>
       <c r="K49">
         <f>_xll.acq_diff2_c3pt(H48:H50,I48:I50)</f>
-        <v>0.38699323653057666</v>
+        <v>0.4737991104682</v>
       </c>
       <c r="M49">
         <f>_xll.acq_interpolator_eval(M$2,$H49)</f>
@@ -12150,15 +12189,15 @@
       </c>
       <c r="I50">
         <f>_xll.acq_interpolator_eval($F$5,H50)</f>
-        <v>-0.1289801259621953</v>
+        <v>-0.12826564281445299</v>
       </c>
       <c r="J50">
         <f>_xll.acq_diff1_c3pt(H49:H51,I49:I51)</f>
-        <v>9.9510482269379308E-2</v>
+        <v>0.11359143526337878</v>
       </c>
       <c r="K50">
         <f>_xll.acq_diff2_c3pt(H49:H51,I49:I51)</f>
-        <v>0.33218495397356684</v>
+        <v>0.38410151036747159</v>
       </c>
       <c r="M50">
         <f>_xll.acq_interpolator_eval(M$2,$H50)</f>
@@ -12203,15 +12242,15 @@
       </c>
       <c r="I51">
         <f>_xll.acq_interpolator_eval($F$5,H51)</f>
-        <v>-0.12317413946379241</v>
+        <v>-0.12162581727536537</v>
       </c>
       <c r="J51">
         <f>_xll.acq_diff1_c3pt(H50:H52,I50:I52)</f>
-        <v>0.12998856353888444</v>
+        <v>0.14751670629508723</v>
       </c>
       <c r="K51">
         <f>_xll.acq_diff2_c3pt(H50:H52,I50:I52)</f>
-        <v>0.2773766714165351</v>
+        <v>0.29440391026669738</v>
       </c>
       <c r="M51">
         <f>_xll.acq_interpolator_eval(M$2,$H51)</f>
@@ -12256,15 +12295,15 @@
       </c>
       <c r="I52">
         <f>_xll.acq_interpolator_eval($F$5,H52)</f>
-        <v>-0.11598126960830686</v>
+        <v>-0.11351397218494427</v>
       </c>
       <c r="J52">
         <f>_xll.acq_diff1_c3pt(H51:H53,I51:I53)</f>
-        <v>0.15498581655268628</v>
+        <v>0.17247221731671941</v>
       </c>
       <c r="K52">
         <f>_xll.acq_diff2_c3pt(H51:H53,I51:I53)</f>
-        <v>0.2225683888595032</v>
+        <v>0.20470631016594637</v>
       </c>
       <c r="M52">
         <f>_xll.acq_interpolator_eval(M$2,$H52)</f>
@@ -12309,15 +12348,15 @@
       </c>
       <c r="I53">
         <f>_xll.acq_interpolator_eval($F$5,H53)</f>
-        <v>-0.10767555780852378</v>
+        <v>-0.10437859554369343</v>
       </c>
       <c r="J53">
         <f>_xll.acq_diff1_c3pt(H52:H54,I52:I54)</f>
-        <v>0.17450224131078579</v>
+        <v>0.18845796832827649</v>
       </c>
       <c r="K53">
         <f>_xll.acq_diff2_c3pt(H52:H54,I52:I54)</f>
-        <v>0.16776010630248597</v>
+        <v>0.11500871006519521</v>
       </c>
       <c r="M53">
         <f>_xll.acq_interpolator_eval(M$2,$H53)</f>
@@ -12362,15 +12401,15 @@
       </c>
       <c r="I54">
         <f>_xll.acq_interpolator_eval($F$5,H54)</f>
-        <v>-9.8531045477228268E-2</v>
+        <v>-9.4668175352116607E-2</v>
       </c>
       <c r="J54">
         <f>_xll.acq_diff1_c3pt(H53:H55,I53:I55)</f>
-        <v>0.18853783781318265</v>
+        <v>0.19547395932975781</v>
       </c>
       <c r="K54">
         <f>_xll.acq_diff2_c3pt(H53:H55,I53:I55)</f>
-        <v>0.11295182374545107</v>
+        <v>2.5311109964430707E-2</v>
       </c>
       <c r="M54">
         <f>_xll.acq_interpolator_eval(M$2,$H54)</f>
@@ -12415,15 +12454,15 @@
       </c>
       <c r="I55">
         <f>_xll.acq_interpolator_eval($F$5,H55)</f>
-        <v>-8.8821774027205522E-2</v>
+        <v>-8.4831199610717653E-2</v>
       </c>
       <c r="J55">
         <f>_xll.acq_diff1_c3pt(H54:H56,I54:I56)</f>
-        <v>0.19709260605987661</v>
+        <v>0.19352019032116341</v>
       </c>
       <c r="K55">
         <f>_xll.acq_diff2_c3pt(H54:H56,I54:I56)</f>
-        <v>5.8143541188428197E-2</v>
+        <v>-6.4386490136318655E-2</v>
       </c>
       <c r="M55">
         <f>_xll.acq_interpolator_eval(M$2,$H55)</f>
@@ -12468,15 +12507,15 @@
       </c>
       <c r="I56">
         <f>_xll.acq_interpolator_eval($F$5,H56)</f>
-        <v>-7.8821784871240613E-2</v>
+        <v>-7.5316156320000271E-2</v>
       </c>
       <c r="J56">
         <f>_xll.acq_diff1_c3pt(H55:H57,I55:I57)</f>
-        <v>0.20016654605086814</v>
+        <v>0.18259666130249347</v>
       </c>
       <c r="K56">
         <f>_xll.acq_diff2_c3pt(H55:H57,I55:I57)</f>
-        <v>3.3352586314028274E-3</v>
+        <v>-0.15408409023707939</v>
       </c>
       <c r="M56">
         <f>_xll.acq_interpolator_eval(M$2,$H56)</f>
@@ -12521,15 +12560,15 @@
       </c>
       <c r="I57">
         <f>_xll.acq_interpolator_eval($F$5,H57)</f>
-        <v>-6.8805119422118713E-2</v>
+        <v>-6.6571533480468306E-2</v>
       </c>
       <c r="J57">
         <f>_xll.acq_diff1_c3pt(H56:H58,I56:I58)</f>
-        <v>0.19775965778615689</v>
+        <v>0.16270337227374793</v>
       </c>
       <c r="K57">
         <f>_xll.acq_diff2_c3pt(H56:H58,I56:I58)</f>
-        <v>-5.147302392562754E-2</v>
+        <v>-0.24378169033783209</v>
       </c>
       <c r="M57">
         <f>_xll.acq_interpolator_eval(M$2,$H57)</f>
@@ -12574,15 +12613,15 @@
       </c>
       <c r="I58">
         <f>_xll.acq_interpolator_eval($F$5,H58)</f>
-        <v>-5.9045819092624928E-2</v>
+        <v>-5.9045819092625483E-2</v>
       </c>
       <c r="J58">
         <f>_xll.acq_diff1_c3pt(H57:H59,I57:I59)</f>
-        <v>0.19023091134764275</v>
+        <v>0.13672105810715257</v>
       </c>
       <c r="K58">
         <f>_xll.acq_diff2_c3pt(H57:H59,I57:I59)</f>
-        <v>-9.9101904844655614E-2</v>
+        <v>-0.27586459299407495</v>
       </c>
       <c r="M58">
         <f>_xll.acq_interpolator_eval(M$2,$H58)</f>
@@ -12627,15 +12666,15 @@
       </c>
       <c r="I59">
         <f>_xll.acq_interpolator_eval($F$5,H59)</f>
-        <v>-4.9782028287354431E-2</v>
+        <v>-5.2899427669753044E-2</v>
       </c>
       <c r="J59">
         <f>_xll.acq_diff1_c3pt(H58:H60,I58:I60)</f>
-        <v>0.17937515714482405</v>
+        <v>0.11289439373918489</v>
       </c>
       <c r="K59">
         <f>_xll.acq_diff2_c3pt(H58:H60,I58:I60)</f>
-        <v>-0.11801317921171835</v>
+        <v>-0.20066869436527865</v>
       </c>
       <c r="M59">
         <f>_xll.acq_interpolator_eval(M$2,$H59)</f>
@@ -12680,15 +12719,15 @@
       </c>
       <c r="I60">
         <f>_xll.acq_interpolator_eval($F$5,H60)</f>
-        <v>-4.1108303378142516E-2</v>
+        <v>-4.7756379718706991E-2</v>
       </c>
       <c r="J60">
         <f>_xll.acq_diff1_c3pt(H59:H61,I59:I61)</f>
-        <v>0.16698724558719877</v>
+        <v>9.638855439399785E-2</v>
       </c>
       <c r="K60">
         <f>_xll.acq_diff2_c3pt(H59:H61,I59:I61)</f>
-        <v>-0.12974505194078725</v>
+        <v>-0.12944809253846201</v>
       </c>
       <c r="M60">
         <f>_xll.acq_interpolator_eval(M$2,$H60)</f>
@@ -12733,15 +12772,15 @@
       </c>
       <c r="I61">
         <f>_xll.acq_interpolator_eval($F$5,H61)</f>
-        <v>-3.3083303728633009E-2</v>
+        <v>-4.3260572230352422E-2</v>
       </c>
       <c r="J61">
         <f>_xll.acq_diff1_c3pt(H60:H62,I60:I62)</f>
-        <v>0.15342614675666341</v>
+        <v>8.7004775231491235E-2</v>
       </c>
       <c r="K61">
         <f>_xll.acq_diff2_c3pt(H60:H62,I60:I62)</f>
-        <v>-0.14147692466986556</v>
+        <v>-5.82274907116326E-2</v>
       </c>
       <c r="M61">
         <f>_xll.acq_interpolator_eval(M$2,$H61)</f>
@@ -12786,15 +12825,15 @@
       </c>
       <c r="I62">
         <f>_xll.acq_interpolator_eval($F$5,H62)</f>
-        <v>-2.5765688702474504E-2</v>
+        <v>-3.9055902195556942E-2</v>
       </c>
       <c r="J62">
         <f>_xll.acq_diff1_c3pt(H61:H63,I61:I63)</f>
-        <v>0.13869186065322328</v>
+        <v>8.4743056251669058E-2</v>
       </c>
       <c r="K62">
         <f>_xll.acq_diff2_c3pt(H61:H63,I61:I63)</f>
-        <v>-0.15320879739893711</v>
+        <v>1.2993111115188888E-2</v>
       </c>
       <c r="M62">
         <f>_xll.acq_interpolator_eval(M$2,$H62)</f>
@@ -12839,15 +12878,15 @@
       </c>
       <c r="I63">
         <f>_xll.acq_interpolator_eval($F$5,H63)</f>
-        <v>-1.921411766331068E-2</v>
+        <v>-3.4786266605185516E-2</v>
       </c>
       <c r="J63">
         <f>_xll.acq_diff1_c3pt(H62:H64,I62:I64)</f>
-        <v>0.1227843872768761</v>
+        <v>8.9603397454529096E-2</v>
       </c>
       <c r="K63">
         <f>_xll.acq_diff2_c3pt(H62:H64,I62:I64)</f>
-        <v>-0.16494067012800637</v>
+        <v>8.4213712942011881E-2</v>
       </c>
       <c r="M63">
         <f>_xll.acq_interpolator_eval(M$2,$H63)</f>
@@ -12892,15 +12931,15 @@
       </c>
       <c r="I64">
         <f>_xll.acq_interpolator_eval($F$5,H64)</f>
-        <v>-1.3487249974786892E-2</v>
+        <v>-3.0095562450104033E-2</v>
       </c>
       <c r="J64">
         <f>_xll.acq_diff1_c3pt(H63:H65,I63:I65)</f>
-        <v>0.10570372662762159</v>
+        <v>0.10158579884007107</v>
       </c>
       <c r="K64">
         <f>_xll.acq_diff2_c3pt(H63:H65,I63:I65)</f>
-        <v>-0.17667254285708384</v>
+        <v>0.15543431476882782</v>
       </c>
       <c r="M64">
         <f>_xll.acq_interpolator_eval(M$2,$H64)</f>
@@ -12945,15 +12984,15 @@
       </c>
       <c r="I65">
         <f>_xll.acq_interpolator_eval($F$5,H65)</f>
-        <v>-8.6437450005485226E-3</v>
+        <v>-2.4627686721178411E-2</v>
       </c>
       <c r="J65">
         <f>_xll.acq_diff1_c3pt(H64:H66,I64:I66)</f>
-        <v>8.7449878705459727E-2</v>
+        <v>0.1206902604082951</v>
       </c>
       <c r="K65">
         <f>_xll.acq_diff2_c3pt(H64:H66,I64:I66)</f>
-        <v>-0.18840441558615353</v>
+        <v>0.22665491659565284</v>
       </c>
       <c r="M65">
         <f>_xll.acq_interpolator_eval(M$2,$H65)</f>
@@ -12998,15 +13037,15 @@
       </c>
       <c r="I66">
         <f>_xll.acq_interpolator_eval($F$5,H66)</f>
-        <v>-4.7422621042409263E-3</v>
+        <v>-1.8026536409274537E-2</v>
       </c>
       <c r="J66">
         <f>_xll.acq_diff1_c3pt(H65:H67,I65:I67)</f>
-        <v>6.8022843510390743E-2</v>
+        <v>0.14691678215920115</v>
       </c>
       <c r="K66">
         <f>_xll.acq_diff2_c3pt(H65:H67,I65:I67)</f>
-        <v>-0.20013628831522709</v>
+        <v>0.29787551842246912</v>
       </c>
       <c r="M66">
         <f>_xll.acq_interpolator_eval(M$2,$H66)</f>
@@ -13051,15 +13090,15 @@
       </c>
       <c r="I67">
         <f>_xll.acq_interpolator_eval($F$5,H67)</f>
-        <v>-1.8414606495094667E-3</v>
+        <v>-9.9360085052583418E-3</v>
       </c>
       <c r="J67">
         <f>_xll.acq_diff1_c3pt(H66:H68,I66:I68)</f>
-        <v>4.7422621042414487E-2</v>
+        <v>0.1802653640927889</v>
       </c>
       <c r="K67">
         <f>_xll.acq_diff2_c3pt(H66:H68,I66:I68)</f>
-        <v>-0.21186816104429956</v>
+        <v>0.36909612024928867</v>
       </c>
       <c r="M67">
         <f>_xll.acq_interpolator_eval(M$2,$H67)</f>
@@ -13104,15 +13143,15 @@
       </c>
       <c r="I68">
         <f>_xll.acq_interpolator_eval($F$5,H68)</f>
-        <v>5.1648170767566054E-16</v>
+        <v>4.3874703106335376E-15</v>
       </c>
       <c r="J68">
         <f>_xll.acq_diff1_c3pt(H67:H69,I67:I69)</f>
-        <v>2.7781785050333567E-2</v>
+        <v>0.18821831808901301</v>
       </c>
       <c r="K68">
         <f>_xll.acq_diff2_c3pt(H67:H69,I67:I69)</f>
-        <v>-0.18094855879731658</v>
+        <v>-0.21003704032480786</v>
       </c>
       <c r="M68">
         <f>_xll.acq_interpolator_eval(M$2,$H68)</f>
@@ -13157,15 +13196,15 @@
       </c>
       <c r="I69">
         <f>_xll.acq_interpolator_eval($F$5,H69)</f>
-        <v>9.3671785552390183E-4</v>
+        <v>8.8858233036429868E-3</v>
       </c>
       <c r="J69">
         <f>_xll.acq_diff1_c3pt(H68:H70,I68:I70)</f>
-        <v>1.9763204278152167E-2</v>
+        <v>0.14743466172368294</v>
       </c>
       <c r="K69">
         <f>_xll.acq_diff2_c3pt(H68:H70,I68:I70)</f>
-        <v>2.0576943353687937E-2</v>
+        <v>-0.6056360869817965</v>
       </c>
       <c r="M69">
         <f>_xll.acq_interpolator_eval(M$2,$H69)</f>
@@ -13210,15 +13249,15 @@
       </c>
       <c r="I70">
         <f>_xll.acq_interpolator_eval($F$5,H70)</f>
-        <v>1.9763204278157344E-3</v>
+        <v>1.474346617237266E-2</v>
       </c>
       <c r="J70">
         <f>_xll.acq_diff1_c3pt(H69:H71,I69:I71)</f>
-        <v>3.4029747469868803E-2</v>
+        <v>0.10419714166054497</v>
       </c>
       <c r="K70">
         <f>_xll.acq_diff2_c3pt(H69:H71,I69:I71)</f>
-        <v>0.26475392048064361</v>
+        <v>-0.2591143142809591</v>
       </c>
       <c r="M70">
         <f>_xll.acq_interpolator_eval(M$2,$H70)</f>
@@ -13263,15 +13302,15 @@
       </c>
       <c r="I71">
         <f>_xll.acq_interpolator_eval($F$5,H71)</f>
-        <v>4.3396926025107835E-3</v>
+        <v>1.9305537469697511E-2</v>
       </c>
       <c r="J71">
         <f>_xll.acq_diff1_c3pt(H70:H72,I70:I72)</f>
-        <v>7.271398837428103E-2</v>
+        <v>9.5611798867490827E-2</v>
       </c>
       <c r="K71">
         <f>_xll.acq_diff2_c3pt(H70:H72,I70:I72)</f>
-        <v>0.50893089760760091</v>
+        <v>8.7407458419876141E-2</v>
       </c>
       <c r="M71">
         <f>_xll.acq_interpolator_eval(M$2,$H71)</f>
@@ -13316,15 +13355,15 @@
       </c>
       <c r="I72">
         <f>_xll.acq_interpolator_eval($F$5,H72)</f>
-        <v>9.2477192652438353E-3</v>
+        <v>2.4304646059121741E-2</v>
       </c>
       <c r="J72">
         <f>_xll.acq_diff1_c3pt(H71:H73,I71:I73)</f>
-        <v>0.13581592699138878</v>
+        <v>0.12167863334452014</v>
       </c>
       <c r="K72">
         <f>_xll.acq_diff2_c3pt(H71:H73,I71:I73)</f>
-        <v>0.75310787473455454</v>
+        <v>0.43392923112071041</v>
       </c>
       <c r="M72">
         <f>_xll.acq_interpolator_eval(M$2,$H72)</f>
@@ -13369,15 +13408,15 @@
       </c>
       <c r="I73">
         <f>_xll.acq_interpolator_eval($F$5,H73)</f>
-        <v>1.7921285301649659E-2</v>
+        <v>3.1473400804149523E-2</v>
       </c>
       <c r="J73">
         <f>_xll.acq_diff1_c3pt(H72:H74,I72:I74)</f>
-        <v>0.2233355633211925</v>
+        <v>0.18239764509163284</v>
       </c>
       <c r="K73">
         <f>_xll.acq_diff2_c3pt(H72:H74,I72:I74)</f>
-        <v>0.99728485186152038</v>
+        <v>0.78045100382154364</v>
       </c>
       <c r="M73">
         <f>_xll.acq_interpolator_eval(M$2,$H73)</f>
@@ -13422,15 +13461,15 @@
       </c>
       <c r="I74">
         <f>_xll.acq_interpolator_eval($F$5,H74)</f>
-        <v>3.1581275597363082E-2</v>
+        <v>4.2544410568285021E-2</v>
       </c>
       <c r="J74">
         <f>_xll.acq_diff1_c3pt(H73:H75,I73:I75)</f>
-        <v>0.33527289736369181</v>
+        <v>0.27776883410882913</v>
       </c>
       <c r="K74">
         <f>_xll.acq_diff2_c3pt(H73:H75,I73:I75)</f>
-        <v>1.2414618289884674</v>
+        <v>1.1269727765223827</v>
       </c>
       <c r="M74">
         <f>_xll.acq_interpolator_eval(M$2,$H74)</f>
@@ -13475,15 +13514,15 @@
       </c>
       <c r="I75">
         <f>_xll.acq_interpolator_eval($F$5,H75)</f>
-        <v>5.1448575038018862E-2</v>
+        <v>5.925028421503245E-2</v>
       </c>
       <c r="J75">
         <f>_xll.acq_diff1_c3pt(H74:H76,I74:I76)</f>
-        <v>0.4716279291188869</v>
+        <v>0.40779220039610853</v>
       </c>
       <c r="K75">
         <f>_xll.acq_diff2_c3pt(H74:H76,I74:I76)</f>
-        <v>1.4856388061154313</v>
+        <v>1.4734945492232039</v>
       </c>
       <c r="M75">
         <f>_xll.acq_interpolator_eval(M$2,$H75)</f>
@@ -13528,15 +13567,15 @@
       </c>
       <c r="I76">
         <f>_xll.acq_interpolator_eval($F$5,H76)</f>
-        <v>7.874406850925178E-2</v>
+        <v>8.3323630607895882E-2</v>
       </c>
       <c r="J76">
         <f>_xll.acq_diff1_c3pt(H75:H77,I75:I77)</f>
-        <v>0.63240065858677741</v>
+        <v>0.57246774395347155</v>
       </c>
       <c r="K76">
         <f>_xll.acq_diff2_c3pt(H75:H77,I75:I77)</f>
-        <v>1.7298157832423782</v>
+        <v>1.8200163219240566</v>
       </c>
       <c r="M76">
         <f>_xll.acq_interpolator_eval(M$2,$H76)</f>
@@ -13581,15 +13620,15 @@
       </c>
       <c r="I77">
         <f>_xll.acq_interpolator_eval($F$5,H77)</f>
-        <v>0.11468864089669659</v>
+        <v>0.11649705861037959</v>
       </c>
       <c r="J77">
         <f>_xll.acq_diff1_c3pt(H76:H78,I76:I78)</f>
-        <v>0.81759108576736361</v>
+        <v>0.77179546478091798</v>
       </c>
       <c r="K77">
         <f>_xll.acq_diff2_c3pt(H76:H78,I76:I78)</f>
-        <v>1.973992760369349</v>
+        <v>2.166538094624872</v>
       </c>
       <c r="M77">
         <f>_xll.acq_interpolator_eval(M$2,$H77)</f>
@@ -13634,15 +13673,15 @@
       </c>
       <c r="I78">
         <f>_xll.acq_interpolator_eval($F$5,H78)</f>
-        <v>0.16050317708598813</v>
+        <v>0.16050317708598766</v>
       </c>
       <c r="J78">
         <f>_xll.acq_diff1_c3pt(H77:H79,I77:I79)</f>
-        <v>1.0228982984314403</v>
+        <v>1.0156022679433947</v>
       </c>
       <c r="K78">
         <f>_xll.acq_diff2_c3pt(H77:H79,I77:I79)</f>
-        <v>2.1321514929121856</v>
+        <v>2.7095979686246641</v>
       </c>
       <c r="M78">
         <f>_xll.acq_interpolator_eval(M$2,$H78)</f>
@@ -13687,15 +13726,15 @@
       </c>
       <c r="I79">
         <f>_xll.acq_interpolator_eval($F$5,H79)</f>
-        <v>0.21697847073984067</v>
+        <v>0.21805728540471911</v>
       </c>
       <c r="J79">
         <f>_xll.acq_diff1_c3pt(H78:H80,I78:I80)</f>
-        <v>1.2268177354330003</v>
+        <v>1.2836792656843066</v>
       </c>
       <c r="K79">
         <f>_xll.acq_diff2_c3pt(H78:H80,I78:I80)</f>
-        <v>1.9462372471190097</v>
+        <v>2.6519419861935694</v>
       </c>
       <c r="M79">
         <f>_xll.acq_interpolator_eval(M$2,$H79)</f>
@@ -13740,15 +13779,15 @@
       </c>
       <c r="I80">
         <f>_xll.acq_interpolator_eval($F$5,H80)</f>
-        <v>0.28318495062928811</v>
+        <v>0.28887110365441826</v>
       </c>
       <c r="J80">
         <f>_xll.acq_diff1_c3pt(H79:H81,I79:I81)</f>
-        <v>1.407844835626046</v>
+        <v>1.5211458637064261</v>
       </c>
       <c r="K80">
         <f>_xll.acq_diff2_c3pt(H79:H81,I79:I81)</f>
-        <v>1.6743047567419094</v>
+        <v>2.0973899742488249</v>
       </c>
       <c r="M80">
         <f>_xll.acq_interpolator_eval(M$2,$H80)</f>
@@ -13793,15 +13832,15 @@
       </c>
       <c r="I81">
         <f>_xll.acq_interpolator_eval($F$5,H81)</f>
-        <v>0.35776295430244526</v>
+        <v>0.3701718717753617</v>
       </c>
       <c r="J81">
         <f>_xll.acq_diff1_c3pt(H80:H82,I80:I82)</f>
-        <v>1.5616786867813839</v>
+        <v>1.7031572605340757</v>
       </c>
       <c r="K81">
         <f>_xll.acq_diff2_c3pt(H80:H82,I80:I82)</f>
-        <v>1.402372266364845</v>
+        <v>1.5428379623041653</v>
       </c>
       <c r="M81">
         <f>_xll.acq_interpolator_eval(M$2,$H81)</f>
@@ -13846,15 +13885,15 @@
       </c>
       <c r="I82">
         <f>_xll.acq_interpolator_eval($F$5,H82)</f>
-        <v>0.43935281930742665</v>
+        <v>0.45918682970782598</v>
       </c>
       <c r="J82">
         <f>_xll.acq_diff1_c3pt(H81:H83,I81:I83)</f>
-        <v>1.6883192888990126</v>
+        <v>1.829713456167255</v>
       </c>
       <c r="K82">
         <f>_xll.acq_diff2_c3pt(H81:H83,I81:I83)</f>
-        <v>1.1304397759877285</v>
+        <v>0.98828595035942013</v>
       </c>
       <c r="M82">
         <f>_xll.acq_interpolator_eval(M$2,$H82)</f>
@@ -13899,15 +13938,15 @@
       </c>
       <c r="I83">
         <f>_xll.acq_interpolator_eval($F$5,H83)</f>
-        <v>0.52659488319234649</v>
+        <v>0.55314321739208716</v>
       </c>
       <c r="J83">
         <f>_xll.acq_diff1_c3pt(H82:H84,I82:I84)</f>
-        <v>1.7877666419789331</v>
+        <v>1.9008144506059634</v>
       </c>
       <c r="K83">
         <f>_xll.acq_diff2_c3pt(H82:H84,I82:I84)</f>
-        <v>0.85850728561068368</v>
+        <v>0.43373393841475105</v>
       </c>
       <c r="M83">
         <f>_xll.acq_interpolator_eval(M$2,$H83)</f>
@@ -13952,15 +13991,15 @@
       </c>
       <c r="I84">
         <f>_xll.acq_interpolator_eval($F$5,H84)</f>
-        <v>0.61812948350531993</v>
+        <v>0.6492682747684223</v>
       </c>
       <c r="J84">
         <f>_xll.acq_diff1_c3pt(H83:H85,I83:I85)</f>
-        <v>1.8600207460211453</v>
+        <v>1.9164602438502025</v>
       </c>
       <c r="K84">
         <f>_xll.acq_diff2_c3pt(H83:H85,I83:I85)</f>
-        <v>0.58657479523355882</v>
+        <v>-0.12081807352997356</v>
       </c>
       <c r="M84">
         <f>_xll.acq_interpolator_eval(M$2,$H84)</f>
@@ -14005,15 +14044,15 @@
       </c>
       <c r="I85">
         <f>_xll.acq_interpolator_eval($F$5,H85)</f>
-        <v>0.71259695779446097</v>
+        <v>0.74478924177710737</v>
       </c>
       <c r="J85">
         <f>_xll.acq_diff1_c3pt(H84:H86,I84:I86)</f>
-        <v>1.9050816010256479</v>
+        <v>1.8766508358999707</v>
       </c>
       <c r="K85">
         <f>_xll.acq_diff2_c3pt(H84:H86,I84:I86)</f>
-        <v>0.31464230485649619</v>
+        <v>-0.67537008547466482</v>
       </c>
       <c r="M85">
         <f>_xll.acq_interpolator_eval(M$2,$H85)</f>
@@ -14058,15 +14097,15 @@
       </c>
       <c r="I86">
         <f>_xll.acq_interpolator_eval($F$5,H86)</f>
-        <v>0.8086376436078847</v>
+        <v>0.83693335835841931</v>
       </c>
       <c r="J86">
         <f>_xll.acq_diff1_c3pt(H85:H87,I85:I87)</f>
-        <v>1.922949206992443</v>
+        <v>1.7813862267552667</v>
       </c>
       <c r="K86">
         <f>_xll.acq_diff2_c3pt(H85:H87,I85:I87)</f>
-        <v>4.270981447940244E-2</v>
+        <v>-1.2299220974194103</v>
       </c>
       <c r="M86">
         <f>_xll.acq_interpolator_eval(M$2,$H86)</f>
@@ -14111,15 +14150,15 @@
       </c>
       <c r="I87">
         <f>_xll.acq_interpolator_eval($F$5,H87)</f>
-        <v>0.90489187849370545</v>
+        <v>0.92292786445263419</v>
       </c>
       <c r="J87">
         <f>_xll.acq_diff1_c3pt(H86:H88,I86:I88)</f>
-        <v>1.9136235639215284</v>
+        <v>1.6306664164160933</v>
       </c>
       <c r="K87">
         <f>_xll.acq_diff2_c3pt(H86:H88,I86:I88)</f>
-        <v>-0.22922267589769124</v>
+        <v>-1.7844741093640519</v>
       </c>
       <c r="M87">
         <f>_xll.acq_interpolator_eval(M$2,$H87)</f>
@@ -14164,15 +14203,15 @@
       </c>
       <c r="I88">
         <f>_xll.acq_interpolator_eval($F$5,H88)</f>
-        <v>1.0000000000000375</v>
+        <v>1.0000000000000286</v>
       </c>
       <c r="J88">
         <f>_xll.acq_diff1_c3pt(H87:H89,I87:I89)</f>
-        <v>1.8771578505701485</v>
+        <v>1.5140492909071006</v>
       </c>
       <c r="K88">
         <f>_xll.acq_diff2_c3pt(H87:H89,I87:I89)</f>
-        <v>-0.50009159112990986</v>
+        <v>-0.54786840081580979</v>
       </c>
       <c r="M88">
         <f>_xll.acq_interpolator_eval(M$2,$H88)</f>
@@ -14217,15 +14256,15 @@
       </c>
       <c r="I89">
         <f>_xll.acq_interpolator_eval($F$5,H89)</f>
-        <v>1.0926076635507203</v>
+        <v>1.0743327935433442</v>
       </c>
       <c r="J89">
         <f>_xll.acq_diff1_c3pt(H88:H90,I88:I90)</f>
-        <v>1.8138179607245137</v>
+        <v>1.5223671581636986</v>
       </c>
       <c r="K89">
         <f>_xll.acq_diff2_c3pt(H88:H90,I88:I90)</f>
-        <v>-0.76670620578278492</v>
+        <v>0.71422574594777122</v>
       </c>
       <c r="M89">
         <f>_xll.acq_interpolator_eval(M$2,$H89)</f>
@@ -14270,15 +14309,15 @@
       </c>
       <c r="I90">
         <f>_xll.acq_interpolator_eval($F$5,H90)</f>
-        <v>1.1813817960724891</v>
+        <v>1.1522367158163986</v>
       </c>
       <c r="J90">
         <f>_xll.acq_diff1_c3pt(H89:H91,I89:I91)</f>
-        <v>1.7238697881708354</v>
+        <v>1.5679737650275993</v>
       </c>
       <c r="K90">
         <f>_xll.acq_diff2_c3pt(H89:H91,I89:I91)</f>
-        <v>-1.0322572452907832</v>
+        <v>0.1979063913302406</v>
       </c>
       <c r="M90">
         <f>_xll.acq_interpolator_eval(M$2,$H90)</f>
@@ -14323,15 +14362,15 @@
       </c>
       <c r="I91">
         <f>_xll.acq_interpolator_eval($F$5,H91)</f>
-        <v>1.2649946423678036</v>
+        <v>1.2311301700461039</v>
       </c>
       <c r="J91">
         <f>_xll.acq_diff1_c3pt(H90:H92,I90:I92)</f>
-        <v>1.6073665116663554</v>
+        <v>1.5619484364297476</v>
       </c>
       <c r="K91">
         <f>_xll.acq_diff2_c3pt(H90:H92,I90:I92)</f>
-        <v>-1.2978082847988266</v>
+        <v>-0.31841296328727609</v>
       </c>
       <c r="M91">
         <f>_xll.acq_interpolator_eval(M$2,$H91)</f>
@@ -14376,15 +14415,15 @@
       </c>
       <c r="I92">
         <f>_xll.acq_interpolator_eval($F$5,H92)</f>
-        <v>1.3421184472391243</v>
+        <v>1.3084315594593732</v>
       </c>
       <c r="J92">
         <f>_xll.acq_diff1_c3pt(H91:H93,I91:I93)</f>
-        <v>1.4643081312110682</v>
+        <v>1.5042911723701478</v>
       </c>
       <c r="K92">
         <f>_xll.acq_diff2_c3pt(H91:H93,I91:I93)</f>
-        <v>-1.5633593243069108</v>
+        <v>-0.83473231790471758</v>
       </c>
       <c r="M92">
         <f>_xll.acq_interpolator_eval(M$2,$H92)</f>
@@ -14429,15 +14468,15 @@
       </c>
       <c r="I93">
         <f>_xll.acq_interpolator_eval($F$5,H93)</f>
-        <v>1.4114254554889105</v>
+        <v>1.3815592872831188</v>
       </c>
       <c r="J93">
         <f>_xll.acq_diff1_c3pt(H92:H94,I92:I94)</f>
-        <v>1.29469464680498</v>
+        <v>1.3950019728487959</v>
       </c>
       <c r="K93">
         <f>_xll.acq_diff2_c3pt(H92:H94,I92:I94)</f>
-        <v>-1.828910363814847</v>
+        <v>-1.3510516725223154</v>
       </c>
       <c r="M93">
         <f>_xll.acq_interpolator_eval(M$2,$H93)</f>
@@ -14482,15 +14521,15 @@
       </c>
       <c r="I94">
         <f>_xll.acq_interpolator_eval($F$5,H94)</f>
-        <v>1.4715879119196225</v>
+        <v>1.4479317567442529</v>
       </c>
       <c r="J94">
         <f>_xll.acq_diff1_c3pt(H93:H95,I93:I95)</f>
-        <v>1.0985260584480985</v>
+        <v>1.2340808378656931</v>
       </c>
       <c r="K94">
         <f>_xll.acq_diff2_c3pt(H93:H95,I93:I95)</f>
-        <v>-2.0944614033227853</v>
+        <v>-1.8673710271397399</v>
       </c>
       <c r="M94">
         <f>_xll.acq_interpolator_eval(M$2,$H94)</f>
@@ -14535,15 +14574,15 @@
       </c>
       <c r="I95">
         <f>_xll.acq_interpolator_eval($F$5,H95)</f>
-        <v>1.5212780613337205</v>
+        <v>1.5049673710696883</v>
       </c>
       <c r="J95">
         <f>_xll.acq_diff1_c3pt(H94:H96,I94:I96)</f>
-        <v>0.87580236614040863</v>
+        <v>1.0215277674208454</v>
       </c>
       <c r="K95">
         <f>_xll.acq_diff2_c3pt(H94:H96,I94:I96)</f>
-        <v>-2.3600124428310063</v>
+        <v>-2.383690381757213</v>
       </c>
       <c r="M95">
         <f>_xll.acq_interpolator_eval(M$2,$H95)</f>
@@ -14588,15 +14627,15 @@
       </c>
       <c r="I96">
         <f>_xll.acq_interpolator_eval($F$5,H96)</f>
-        <v>1.5591681485336633</v>
+        <v>1.5500845334863373</v>
       </c>
       <c r="J96">
         <f>_xll.acq_diff1_c3pt(H95:H97,I95:I97)</f>
-        <v>0.62652356988191438</v>
+        <v>0.75734276151424074</v>
       </c>
       <c r="K96">
         <f>_xll.acq_diff2_c3pt(H95:H97,I95:I97)</f>
-        <v>-2.6255634823388956</v>
+        <v>-2.900009736374896</v>
       </c>
       <c r="M96">
         <f>_xll.acq_interpolator_eval(M$2,$H96)</f>
@@ -14641,15 +14680,15 @@
       </c>
       <c r="I97">
         <f>_xll.acq_interpolator_eval($F$5,H97)</f>
-        <v>1.5839304183219154</v>
+        <v>1.5807016472211168</v>
       </c>
       <c r="J97">
         <f>_xll.acq_diff1_c3pt(H96:H98,I96:I98)</f>
-        <v>0.35068966967256382</v>
+        <v>0.44152582014581743</v>
       </c>
       <c r="K97">
         <f>_xll.acq_diff2_c3pt(H96:H98,I96:I98)</f>
-        <v>-2.8911145218470087</v>
+        <v>-3.4163290909923036</v>
       </c>
       <c r="M97">
         <f>_xll.acq_interpolator_eval(M$2,$H97)</f>
@@ -14694,15 +14733,15 @@
       </c>
       <c r="I98">
         <f>_xll.acq_interpolator_eval($F$5,H98)</f>
-        <v>1.5942371155009261</v>
+        <v>1.5942371155009269</v>
       </c>
       <c r="J98">
         <f>_xll.acq_diff1_c3pt(H97:H99,I97:I99)</f>
-        <v>5.3026073668157772E-2</v>
+        <v>8.0810397736902406E-2</v>
       </c>
       <c r="K98">
         <f>_xll.acq_diff2_c3pt(H97:H99,I97:I99)</f>
-        <v>-3.0621573982411063</v>
+        <v>-3.7979793571859903</v>
       </c>
       <c r="M98">
         <f>_xll.acq_interpolator_eval(M$2,$H98)</f>
@@ -14747,15 +14786,15 @@
       </c>
       <c r="I99">
         <f>_xll.acq_interpolator_eval($F$5,H99)</f>
-        <v>1.5892330256887337</v>
+        <v>1.5887826869948101</v>
       </c>
       <c r="J99">
         <f>_xll.acq_diff1_c3pt(H98:H100,I98:I100)</f>
-        <v>-0.24284017735287036</v>
+        <v>-0.2828168195808991</v>
       </c>
       <c r="K99">
         <f>_xll.acq_diff2_c3pt(H98:H100,I98:I100)</f>
-        <v>-2.8551676221806335</v>
+        <v>-3.4745649891714874</v>
       </c>
       <c r="M99">
         <f>_xll.acq_interpolator_eval(M$2,$H99)</f>
@@ -14800,15 +14839,15 @@
       </c>
       <c r="I100">
         <f>_xll.acq_interpolator_eval($F$5,H100)</f>
-        <v>1.5699530977656333</v>
+        <v>1.5659554335428301</v>
       </c>
       <c r="J100">
         <f>_xll.acq_diff1_c3pt(H99:H101,I99:I101)</f>
-        <v>-0.5132820426122735</v>
+        <v>-0.6032094386633875</v>
       </c>
       <c r="K100">
         <f>_xll.acq_diff2_c3pt(H99:H101,I99:I101)</f>
-        <v>-2.5536696830063432</v>
+        <v>-2.9332873924769944</v>
       </c>
       <c r="M100">
         <f>_xll.acq_interpolator_eval(M$2,$H100)</f>
@@ -14853,15 +14892,15 @@
       </c>
       <c r="I101">
         <f>_xll.acq_interpolator_eval($F$5,H101)</f>
-        <v>1.5379048214275037</v>
+        <v>1.5284617431284682</v>
       </c>
       <c r="J101">
         <f>_xll.acq_diff1_c3pt(H100:H102,I100:I102)</f>
-        <v>-0.75357411395419782</v>
+        <v>-0.8694742980763599</v>
       </c>
       <c r="K101">
         <f>_xll.acq_diff2_c3pt(H100:H102,I100:I102)</f>
-        <v>-2.2521717438321383</v>
+        <v>-2.3920097957824469</v>
       </c>
       <c r="M101">
         <f>_xll.acq_interpolator_eval(M$2,$H101)</f>
@@ -14906,15 +14945,15 @@
       </c>
       <c r="I102">
         <f>_xll.acq_interpolator_eval($F$5,H102)</f>
-        <v>1.4945956863702137</v>
+        <v>1.4790080037351943</v>
       </c>
       <c r="J102">
         <f>_xll.acq_diff1_c3pt(H101:H103,I101:I103)</f>
-        <v>-0.96371639137870924</v>
+        <v>-1.0816113978198736</v>
       </c>
       <c r="K102">
         <f>_xll.acq_diff2_c3pt(H101:H103,I101:I103)</f>
-        <v>-1.9506738046581056</v>
+        <v>-1.8507321990878458</v>
       </c>
       <c r="M102">
         <f>_xll.acq_interpolator_eval(M$2,$H102)</f>
@@ -14959,15 +14998,15 @@
       </c>
       <c r="I103">
         <f>_xll.acq_interpolator_eval($F$5,H103)</f>
-        <v>1.4415331822896329</v>
+        <v>1.4203006033464809</v>
       </c>
       <c r="J103">
         <f>_xll.acq_diff1_c3pt(H102:H104,I102:I104)</f>
-        <v>-1.1437088748858084</v>
+        <v>-1.239620737893935</v>
       </c>
       <c r="K103">
         <f>_xll.acq_diff2_c3pt(H102:H104,I102:I104)</f>
-        <v>-1.6491758654838724</v>
+        <v>-1.3094546023933773</v>
       </c>
       <c r="M103">
         <f>_xll.acq_interpolator_eval(M$2,$H103)</f>
@@ -15012,15 +15051,15 @@
       </c>
       <c r="I104">
         <f>_xll.acq_interpolator_eval($F$5,H104)</f>
-        <v>1.3802247988816327</v>
+        <v>1.3550459299458006</v>
       </c>
       <c r="J104">
         <f>_xll.acq_diff1_c3pt(H103:H105,I103:I105)</f>
-        <v>-1.2935515644754891</v>
+        <v>-1.3435023182985448</v>
       </c>
       <c r="K104">
         <f>_xll.acq_diff2_c3pt(H103:H105,I103:I105)</f>
-        <v>-1.3476779263097416</v>
+        <v>-0.76817700569881953</v>
       </c>
       <c r="M104">
         <f>_xll.acq_interpolator_eval(M$2,$H104)</f>
@@ -15065,15 +15104,15 @@
       </c>
       <c r="I105">
         <f>_xll.acq_interpolator_eval($F$5,H105)</f>
-        <v>1.3121780258420839</v>
+        <v>1.2859503715166263</v>
       </c>
       <c r="J105">
         <f>_xll.acq_diff1_c3pt(H104:H106,I104:I106)</f>
-        <v>-1.4132444601477521</v>
+        <v>-1.3932561390337015</v>
       </c>
       <c r="K105">
         <f>_xll.acq_diff2_c3pt(H104:H106,I104:I106)</f>
-        <v>-1.0461799871355173</v>
+        <v>-0.22689940900431063</v>
       </c>
       <c r="M105">
         <f>_xll.acq_interpolator_eval(M$2,$H105)</f>
@@ -15118,15 +15157,15 @@
       </c>
       <c r="I106">
         <f>_xll.acq_interpolator_eval($F$5,H106)</f>
-        <v>1.2389003528668574</v>
+        <v>1.2157203160424304</v>
       </c>
       <c r="J106">
         <f>_xll.acq_diff1_c3pt(H105:H107,I105:I107)</f>
-        <v>-1.5027875619026032</v>
+        <v>-1.3888822000994057</v>
       </c>
       <c r="K106">
         <f>_xll.acq_diff2_c3pt(H105:H107,I105:I107)</f>
-        <v>-0.74468204796150117</v>
+        <v>0.31437818769022785</v>
       </c>
       <c r="M106">
         <f>_xll.acq_interpolator_eval(M$2,$H106)</f>
@@ -15171,15 +15210,15 @@
       </c>
       <c r="I107">
         <f>_xll.acq_interpolator_eval($F$5,H107)</f>
-        <v>1.1618992696518238</v>
+        <v>1.1470621515066859</v>
       </c>
       <c r="J107">
         <f>_xll.acq_diff1_c3pt(H106:H108,I106:I108)</f>
-        <v>-1.5621808697400381</v>
+        <v>-1.3303805014956573</v>
       </c>
       <c r="K107">
         <f>_xll.acq_diff2_c3pt(H106:H108,I106:I108)</f>
-        <v>-0.44318410878720199</v>
+        <v>0.85565578438474044</v>
       </c>
       <c r="M107">
         <f>_xll.acq_interpolator_eval(M$2,$H107)</f>
@@ -15224,15 +15263,15 @@
       </c>
       <c r="I108">
         <f>_xll.acq_interpolator_eval($F$5,H108)</f>
-        <v>1.0826822658928534</v>
+        <v>1.0826822658928645</v>
       </c>
       <c r="J108">
         <f>_xll.acq_diff1_c3pt(H107:H109,I107:I109)</f>
-        <v>-1.5927525791848383</v>
+        <v>-1.2951935306805129</v>
       </c>
       <c r="K108">
         <f>_xll.acq_diff2_c3pt(H107:H109,I107:I109)</f>
-        <v>-0.16825008010879813</v>
+        <v>-0.15191636808185457</v>
       </c>
       <c r="M108">
         <f>_xll.acq_interpolator_eval(M$2,$H108)</f>
@@ -15277,15 +15316,15 @@
       </c>
       <c r="I109">
         <f>_xll.acq_interpolator_eval($F$5,H109)</f>
-        <v>1.0026240117333398</v>
+        <v>1.0175427984386345</v>
       </c>
       <c r="J109">
         <f>_xll.acq_diff1_c3pt(H108:H110,I108:I110)</f>
-        <v>-1.601143667860915</v>
+        <v>-1.3664395285893809</v>
       </c>
       <c r="K109">
         <f>_xll.acq_diff2_c3pt(H108:H110,I108:I110)</f>
-        <v>4.2830658726345102E-4</v>
+        <v>-1.2730035900955095</v>
       </c>
       <c r="M109">
         <f>_xll.acq_interpolator_eval(M$2,$H109)</f>
@@ -15330,15 +15369,15 @@
       </c>
       <c r="I110">
         <f>_xll.acq_interpolator_eval($F$5,H110)</f>
-        <v>0.92256789910676251</v>
+        <v>0.94603831303392694</v>
       </c>
       <c r="J110">
         <f>_xll.acq_diff1_c3pt(H109:H111,I109:I111)</f>
-        <v>-1.5939951133921668</v>
+        <v>-1.4751896379805125</v>
       </c>
       <c r="K110">
         <f>_xll.acq_diff2_c3pt(H109:H111,I109:I111)</f>
-        <v>0.14254278278770002</v>
+        <v>-0.90199859772712865</v>
       </c>
       <c r="M110">
         <f>_xll.acq_interpolator_eval(M$2,$H110)</f>
@@ -15383,15 +15422,15 @@
       </c>
       <c r="I111">
         <f>_xll.acq_interpolator_eval($F$5,H111)</f>
-        <v>0.843224500394123</v>
+        <v>0.87002383464058308</v>
       </c>
       <c r="J111">
         <f>_xll.acq_diff1_c3pt(H110:H112,I110:I112)</f>
-        <v>-1.5726351113033772</v>
+        <v>-1.546839248134807</v>
       </c>
       <c r="K111">
         <f>_xll.acq_diff2_c3pt(H110:H112,I110:I112)</f>
-        <v>0.28465725898808997</v>
+        <v>-0.53099360535875562</v>
       </c>
       <c r="M111">
         <f>_xll.acq_interpolator_eval(M$2,$H111)</f>
@@ -15436,15 +15475,15 @@
       </c>
       <c r="I112">
         <f>_xll.acq_interpolator_eval($F$5,H112)</f>
-        <v>0.76530438797642464</v>
+        <v>0.79135438822044613</v>
       </c>
       <c r="J112">
         <f>_xll.acq_diff1_c3pt(H111:H113,I111:I113)</f>
-        <v>-1.537063661594541</v>
+        <v>-1.5813883590522588</v>
       </c>
       <c r="K112">
         <f>_xll.acq_diff2_c3pt(H111:H113,I111:I113)</f>
-        <v>0.42677173518863759</v>
+        <v>-0.15998861299028486</v>
       </c>
       <c r="M112">
         <f>_xll.acq_interpolator_eval(M$2,$H112)</f>
@@ -15489,15 +15528,15 @@
       </c>
       <c r="I113">
         <f>_xll.acq_interpolator_eval($F$5,H113)</f>
-        <v>0.68951813423466879</v>
+        <v>0.71188499873535704</v>
       </c>
       <c r="J113">
         <f>_xll.acq_diff1_c3pt(H112:H114,I112:I114)</f>
-        <v>-1.48728076426566</v>
+        <v>-1.5788369707328682</v>
       </c>
       <c r="K113">
         <f>_xll.acq_diff2_c3pt(H112:H114,I112:I114)</f>
-        <v>0.56888621138897644</v>
+        <v>0.21101637937809706</v>
       </c>
       <c r="M113">
         <f>_xll.acq_interpolator_eval(M$2,$H113)</f>
@@ -15542,15 +15581,15 @@
       </c>
       <c r="I114">
         <f>_xll.acq_interpolator_eval($F$5,H114)</f>
-        <v>0.61657631154985848</v>
+        <v>0.63347069114715915</v>
       </c>
       <c r="J114">
         <f>_xll.acq_diff1_c3pt(H113:H115,I113:I115)</f>
-        <v>-1.4232864193167387</v>
+        <v>-1.5391850831766383</v>
       </c>
       <c r="K114">
         <f>_xll.acq_diff2_c3pt(H113:H115,I113:I115)</f>
-        <v>0.71100068758945179</v>
+        <v>0.58202137174650381</v>
       </c>
       <c r="M114">
         <f>_xll.acq_interpolator_eval(M$2,$H114)</f>
@@ -15595,15 +15634,15 @@
       </c>
       <c r="I115">
         <f>_xll.acq_interpolator_eval($F$5,H115)</f>
-        <v>0.54718949230299541</v>
+        <v>0.55796649041769375</v>
       </c>
       <c r="J115">
         <f>_xll.acq_diff1_c3pt(H114:H116,I114:I116)</f>
-        <v>-1.3450806267477697</v>
+        <v>-1.4624326963835683</v>
       </c>
       <c r="K115">
         <f>_xll.acq_diff2_c3pt(H114:H116,I114:I116)</f>
-        <v>0.85311516378993624</v>
+        <v>0.95302636411490083</v>
       </c>
       <c r="M115">
         <f>_xll.acq_interpolator_eval(M$2,$H115)</f>
@@ -15648,15 +15687,15 @@
       </c>
       <c r="I116">
         <f>_xll.acq_interpolator_eval($F$5,H116)</f>
-        <v>0.48206824887508143</v>
+        <v>0.48722742150880222</v>
       </c>
       <c r="J116">
         <f>_xll.acq_diff1_c3pt(H115:H117,I115:I117)</f>
-        <v>-1.2526633865587566</v>
+        <v>-1.3485798103536573</v>
       </c>
       <c r="K116">
         <f>_xll.acq_diff2_c3pt(H115:H117,I115:I117)</f>
-        <v>0.99522963999031289</v>
+        <v>1.3240313564833117</v>
       </c>
       <c r="M116">
         <f>_xll.acq_interpolator_eval(M$2,$H116)</f>
@@ -15701,15 +15740,15 @@
       </c>
       <c r="I117">
         <f>_xll.acq_interpolator_eval($F$5,H117)</f>
-        <v>0.42192315364711958</v>
+        <v>0.42310850938232786</v>
       </c>
       <c r="J117">
         <f>_xll.acq_diff1_c3pt(H116:H118,I116:I118)</f>
-        <v>-1.146034698749701</v>
+        <v>-1.197626425086906</v>
       </c>
       <c r="K117">
         <f>_xll.acq_diff2_c3pt(H116:H118,I116:I118)</f>
-        <v>1.1373441161908071</v>
+        <v>1.6950363488517246</v>
       </c>
       <c r="M117">
         <f>_xll.acq_interpolator_eval(M$2,$H117)</f>
@@ -15754,15 +15793,15 @@
       </c>
       <c r="I118">
         <f>_xll.acq_interpolator_eval($F$5,H118)</f>
-        <v>0.36746477900011126</v>
+        <v>0.3674647790001116</v>
       </c>
       <c r="J118">
         <f>_xll.acq_diff1_c3pt(H117:H119,I117:I119)</f>
-        <v>-1.0274450661159324</v>
+        <v>-1.0519692381213643</v>
       </c>
       <c r="K118">
         <f>_xll.acq_diff2_c3pt(H117:H119,I117:I119)</f>
-        <v>1.2344485364845514</v>
+        <v>1.2181073904590922</v>
       </c>
       <c r="M118">
         <f>_xll.acq_interpolator_eval(M$2,$H118)</f>
@@ -15807,15 +15846,15 @@
       </c>
       <c r="I119">
         <f>_xll.acq_interpolator_eval($F$5,H119)</f>
-        <v>0.31917864703552618</v>
+        <v>0.31791158557019128</v>
       </c>
       <c r="J119">
         <f>_xll.acq_diff1_c3pt(H118:H120,I118:I120)</f>
-        <v>-0.90814700263410697</v>
+        <v>-0.96264382159798445</v>
       </c>
       <c r="K119">
         <f>_xll.acq_diff2_c3pt(H118:H120,I118:I120)</f>
-        <v>1.1515127331519688</v>
+        <v>0.56840094000851082</v>
       </c>
       <c r="M119">
         <f>_xll.acq_interpolator_eval(M$2,$H119)</f>
@@ -15860,15 +15899,15 @@
       </c>
       <c r="I120">
         <f>_xll.acq_interpolator_eval($F$5,H120)</f>
-        <v>0.27665007873670089</v>
+        <v>0.2712003968403135</v>
       </c>
       <c r="J120">
         <f>_xll.acq_diff1_c3pt(H119:H121,I119:I121)</f>
-        <v>-0.79939302228086817</v>
+        <v>-0.90021178988320294</v>
       </c>
       <c r="K120">
         <f>_xll.acq_diff2_c3pt(H119:H121,I119:I121)</f>
-        <v>1.0235668739128148</v>
+        <v>0.68023969428712305</v>
       </c>
       <c r="M120">
         <f>_xll.acq_interpolator_eval(M$2,$H120)</f>
@@ -15913,15 +15952,15 @@
       </c>
       <c r="I121">
         <f>_xll.acq_interpolator_eval($F$5,H121)</f>
-        <v>0.23923934480743933</v>
+        <v>0.22789040658187093</v>
       </c>
       <c r="J121">
         <f>_xll.acq_diff1_c3pt(H120:H122,I120:I122)</f>
-        <v>-0.7034336278515394</v>
+        <v>-0.82659588274055884</v>
       </c>
       <c r="K121">
         <f>_xll.acq_diff2_c3pt(H120:H122,I120:I122)</f>
-        <v>0.8956210146737501</v>
+        <v>0.79207844856574994</v>
       </c>
       <c r="M121">
         <f>_xll.acq_interpolator_eval(M$2,$H121)</f>
@@ -15966,15 +16005,15 @@
       </c>
       <c r="I122">
         <f>_xll.acq_interpolator_eval($F$5,H122)</f>
-        <v>0.20630671595154684</v>
+        <v>0.18854080856625749</v>
       </c>
       <c r="J122">
         <f>_xll.acq_diff1_c3pt(H121:H123,I121:I123)</f>
-        <v>-0.6202688193461221</v>
+        <v>-0.74179610017005326</v>
       </c>
       <c r="K122">
         <f>_xll.acq_diff2_c3pt(H121:H123,I121:I123)</f>
-        <v>0.7676751554346033</v>
+        <v>0.90391720284437016</v>
       </c>
       <c r="M122">
         <f>_xll.acq_interpolator_eval(M$2,$H122)</f>
@@ -16019,15 +16058,15 @@
       </c>
       <c r="I123">
         <f>_xll.acq_interpolator_eval($F$5,H123)</f>
-        <v>0.1772124628728271</v>
+        <v>0.15371079656486558</v>
       </c>
       <c r="J123">
         <f>_xll.acq_diff1_c3pt(H122:H124,I122:I124)</f>
-        <v>-0.5498985967646165</v>
+        <v>-0.64581244217168621</v>
       </c>
       <c r="K123">
         <f>_xll.acq_diff2_c3pt(H122:H124,I122:I124)</f>
-        <v>0.6397292961955009</v>
+        <v>1.0157559571229593</v>
       </c>
       <c r="M123">
         <f>_xll.acq_interpolator_eval(M$2,$H123)</f>
@@ -16072,15 +16111,15 @@
       </c>
       <c r="I124">
         <f>_xll.acq_interpolator_eval($F$5,H124)</f>
-        <v>0.15131685627508512</v>
+        <v>0.12395956434908877</v>
       </c>
       <c r="J124">
         <f>_xll.acq_diff1_c3pt(H123:H125,I123:I125)</f>
-        <v>-0.49232296010702292</v>
+        <v>-0.53864490874545812</v>
       </c>
       <c r="K124">
         <f>_xll.acq_diff2_c3pt(H123:H125,I123:I125)</f>
-        <v>0.51178343695637407</v>
+        <v>1.1275947114016112</v>
       </c>
       <c r="M124">
         <f>_xll.acq_interpolator_eval(M$2,$H124)</f>
@@ -16125,15 +16164,15 @@
       </c>
       <c r="I125">
         <f>_xll.acq_interpolator_eval($F$5,H125)</f>
-        <v>0.12798016686212499</v>
+        <v>9.9846305690319964E-2</v>
       </c>
       <c r="J125">
         <f>_xll.acq_diff1_c3pt(H124:H126,I124:I126)</f>
-        <v>-0.44754190937334104</v>
+        <v>-0.42029349989136799</v>
       </c>
       <c r="K125">
         <f>_xll.acq_diff2_c3pt(H124:H126,I124:I126)</f>
-        <v>0.38383757771726668</v>
+        <v>1.2394334656801997</v>
       </c>
       <c r="M125">
         <f>_xll.acq_interpolator_eval(M$2,$H125)</f>
@@ -16178,15 +16217,15 @@
       </c>
       <c r="I126">
         <f>_xll.acq_interpolator_eval($F$5,H126)</f>
-        <v>0.10656266533775099</v>
+        <v>8.1930214359951986E-2</v>
       </c>
       <c r="J126">
         <f>_xll.acq_diff1_c3pt(H125:H127,I125:I127)</f>
-        <v>-0.41555544456356946</v>
+        <v>-0.29075821560941612</v>
       </c>
       <c r="K126">
         <f>_xll.acq_diff2_c3pt(H125:H127,I125:I127)</f>
-        <v>0.2558917184781615</v>
+        <v>1.3512722199588236</v>
       </c>
       <c r="M126">
         <f>_xll.acq_interpolator_eval(M$2,$H126)</f>
@@ -16231,15 +16270,15 @@
       </c>
       <c r="I127">
         <f>_xll.acq_interpolator_eval($F$5,H127)</f>
-        <v>8.6424622405767995E-2</v>
+        <v>7.0770484129378267E-2</v>
       </c>
       <c r="J127">
         <f>_xll.acq_diff1_c3pt(H126:H128,I126:I128)</f>
-        <v>-0.39636356567759279</v>
+        <v>-0.15003905589960354</v>
       </c>
       <c r="K127">
         <f>_xll.acq_diff2_c3pt(H126:H128,I126:I128)</f>
-        <v>0.12794585924137281</v>
+        <v>1.4631109742374386</v>
       </c>
       <c r="M127">
         <f>_xll.acq_interpolator_eval(M$2,$H127)</f>
@@ -16288,11 +16327,11 @@
       </c>
       <c r="J128">
         <f>_xll.acq_diff1_c3pt(H127:H129,I127:I129)</f>
-        <v>-0.19498313635776121</v>
+        <v>-3.8441753593865431E-2</v>
       </c>
       <c r="K128">
         <f>_xll.acq_diff2_c3pt(H127:H129,I127:I129)</f>
-        <v>3.899662727155238</v>
+        <v>0.76883507187731137</v>
       </c>
       <c r="M128">
         <f>_xll.acq_interpolator_eval(M$2,$H128)</f>
@@ -16569,7 +16608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -16595,11 +16634,11 @@
       </c>
     </row>
     <row r="4" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
       <c r="H4" s="17" t="s">
         <v>1</v>
       </c>
@@ -16703,7 +16742,7 @@
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="28">
@@ -16767,7 +16806,7 @@
       </c>
     </row>
     <row r="7" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="33"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="29">
         <v>1</v>
       </c>
@@ -17744,6 +17783,5075 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J202"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="19.84375" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.84375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4">
+        <v>123</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>_xll.acq_vector_element($C$5,5*$E3+F$2)</f>
+        <v>0.69646918727084994</v>
+      </c>
+      <c r="G3">
+        <f>_xll.acq_vector_element($C$5,5*$E3+G$2)</f>
+        <v>0.71295532141812146</v>
+      </c>
+      <c r="H3">
+        <f>_xll.acq_vector_element($C$5,5*$E3+H$2)</f>
+        <v>0.28613933874294162</v>
+      </c>
+      <c r="I3">
+        <f>_xll.acq_vector_element($C$5,5*$E3+I$2)</f>
+        <v>0.42847092496231198</v>
+      </c>
+      <c r="J3">
+        <f>_xll.acq_vector_element($C$5,5*$E3+J$2)</f>
+        <v>0.22685145493596792</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>_xll.acq_vector_element($C$5,5*$E4+F$2)</f>
+        <v>0.69088485138490796</v>
+      </c>
+      <c r="G4">
+        <f>_xll.acq_vector_element($C$5,5*$E4+G$2)</f>
+        <v>0.55131476512178779</v>
+      </c>
+      <c r="H4">
+        <f>_xll.acq_vector_element($C$5,5*$E4+H$2)</f>
+        <v>0.71915030875243247</v>
+      </c>
+      <c r="I4">
+        <f>_xll.acq_vector_element($C$5,5*$E4+I$2)</f>
+        <v>0.71946897055022418</v>
+      </c>
+      <c r="J4">
+        <f>_xll.acq_vector_element($C$5,5*$E4+J$2)</f>
+        <v>0.49111893260851502</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="34" t="str">
+        <f>_xll.acq_random_vector(C3,C4)</f>
+        <v>#acqVector:2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f>_xll.acq_vector_element($C$5,5*$E5+F$2)</f>
+        <v>0.42310646059922874</v>
+      </c>
+      <c r="G5">
+        <f>_xll.acq_vector_element($C$5,5*$E5+G$2)</f>
+        <v>0.78002776042558253</v>
+      </c>
+      <c r="H5">
+        <f>_xll.acq_vector_element($C$5,5*$E5+H$2)</f>
+        <v>0.98076420044526458</v>
+      </c>
+      <c r="I5">
+        <f>_xll.acq_vector_element($C$5,5*$E5+I$2)</f>
+        <v>0.41092436783947051</v>
+      </c>
+      <c r="J5">
+        <f>_xll.acq_vector_element($C$5,5*$E5+J$2)</f>
+        <v>0.68482973426580429</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4294967296</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f>_xll.acq_vector_element($C$5,5*$E6+F$2)</f>
+        <v>0.57969429739750922</v>
+      </c>
+      <c r="G6">
+        <f>_xll.acq_vector_element($C$5,5*$E6+G$2)</f>
+        <v>0.48093190742656589</v>
+      </c>
+      <c r="H6">
+        <f>_xll.acq_vector_element($C$5,5*$E6+H$2)</f>
+        <v>0.13995076320134103</v>
+      </c>
+      <c r="I6">
+        <f>_xll.acq_vector_element($C$5,5*$E6+I$2)</f>
+        <v>0.39211751730181277</v>
+      </c>
+      <c r="J6">
+        <f>_xll.acq_vector_element($C$5,5*$E6+J$2)</f>
+        <v>0.40101755410432816</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <f>_xll.acq_vector_element($C$5,5*$E7+F$2)</f>
+        <v>0.34317801473662257</v>
+      </c>
+      <c r="G7">
+        <f>_xll.acq_vector_element($C$5,5*$E7+G$2)</f>
+        <v>0.62731700390577316</v>
+      </c>
+      <c r="H7">
+        <f>_xll.acq_vector_element($C$5,5*$E7+H$2)</f>
+        <v>0.72904970846138895</v>
+      </c>
+      <c r="I7">
+        <f>_xll.acq_vector_element($C$5,5*$E7+I$2)</f>
+        <v>0.32415089593268931</v>
+      </c>
+      <c r="J7">
+        <f>_xll.acq_vector_element($C$5,5*$E7+J$2)</f>
+        <v>0.43857224727980793</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f>_xll.acq_vector_element($C$5,5*$E8+F$2)</f>
+        <v>0.24475927976891398</v>
+      </c>
+      <c r="G8">
+        <f>_xll.acq_vector_element($C$5,5*$E8+G$2)</f>
+        <v>5.9677898185327649E-2</v>
+      </c>
+      <c r="H8">
+        <f>_xll.acq_vector_element($C$5,5*$E8+H$2)</f>
+        <v>0.69475517515093088</v>
+      </c>
+      <c r="I8">
+        <f>_xll.acq_vector_element($C$5,5*$E8+I$2)</f>
+        <v>0.39804425090551376</v>
+      </c>
+      <c r="J8">
+        <f>_xll.acq_vector_element($C$5,5*$E8+J$2)</f>
+        <v>0.59390239790081978</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <f>_xll.acq_vector_element($C$5,5*$E9+F$2)</f>
+        <v>0.737995401956141</v>
+      </c>
+      <c r="G9">
+        <f>_xll.acq_vector_element($C$5,5*$E9+G$2)</f>
+        <v>0.63179202028550208</v>
+      </c>
+      <c r="H9">
+        <f>_xll.acq_vector_element($C$5,5*$E9+H$2)</f>
+        <v>0.1824917325284332</v>
+      </c>
+      <c r="I9">
+        <f>_xll.acq_vector_element($C$5,5*$E9+I$2)</f>
+        <v>0.44025717745535076</v>
+      </c>
+      <c r="J9">
+        <f>_xll.acq_vector_element($C$5,5*$E9+J$2)</f>
+        <v>0.17545175598934293</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <f>_xll.acq_vector_element($C$5,5*$E10+F$2)</f>
+        <v>8.3726485259830952E-2</v>
+      </c>
+      <c r="G10">
+        <f>_xll.acq_vector_element($C$5,5*$E10+G$2)</f>
+        <v>0.53155137016437948</v>
+      </c>
+      <c r="H10">
+        <f>_xll.acq_vector_element($C$5,5*$E10+H$2)</f>
+        <v>0.71233017789199948</v>
+      </c>
+      <c r="I10">
+        <f>_xll.acq_vector_element($C$5,5*$E10+I$2)</f>
+        <v>0.5318275885656476</v>
+      </c>
+      <c r="J10">
+        <f>_xll.acq_vector_element($C$5,5*$E10+J$2)</f>
+        <v>0.42786348960362375</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <f>_xll.acq_vector_element($C$5,5*$E11+F$2)</f>
+        <v>0.63440096192061901</v>
+      </c>
+      <c r="G11">
+        <f>_xll.acq_vector_element($C$5,5*$E11+G$2)</f>
+        <v>0.29778049816377461</v>
+      </c>
+      <c r="H11">
+        <f>_xll.acq_vector_element($C$5,5*$E11+H$2)</f>
+        <v>0.84943179413676262</v>
+      </c>
+      <c r="I11">
+        <f>_xll.acq_vector_element($C$5,5*$E11+I$2)</f>
+        <v>0.49208477302454412</v>
+      </c>
+      <c r="J11">
+        <f>_xll.acq_vector_element($C$5,5*$E11+J$2)</f>
+        <v>0.7244553214404732</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <f>_xll.acq_vector_element($C$5,5*$E12+F$2)</f>
+        <v>0.74029638688080013</v>
+      </c>
+      <c r="G12">
+        <f>_xll.acq_vector_element($C$5,5*$E12+G$2)</f>
+        <v>0.61102351453155279</v>
+      </c>
+      <c r="H12">
+        <f>_xll.acq_vector_element($C$5,5*$E12+H$2)</f>
+        <v>0.35772891994565725</v>
+      </c>
+      <c r="I12">
+        <f>_xll.acq_vector_element($C$5,5*$E12+I$2)</f>
+        <v>0.72244338411837816</v>
+      </c>
+      <c r="J12">
+        <f>_xll.acq_vector_element($C$5,5*$E12+J$2)</f>
+        <v>0.41720994701609015</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <f>_xll.acq_vector_element($C$5,5*$E13+F$2)</f>
+        <v>0.322958909207955</v>
+      </c>
+      <c r="G13">
+        <f>_xll.acq_vector_element($C$5,5*$E13+G$2)</f>
+        <v>0.65472130966372788</v>
+      </c>
+      <c r="H13">
+        <f>_xll.acq_vector_element($C$5,5*$E13+H$2)</f>
+        <v>0.36178865795955062</v>
+      </c>
+      <c r="I13">
+        <f>_xll.acq_vector_element($C$5,5*$E13+I$2)</f>
+        <v>0.37380143208429217</v>
+      </c>
+      <c r="J13">
+        <f>_xll.acq_vector_element($C$5,5*$E13+J$2)</f>
+        <v>0.22826323541812599</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <f>_xll.acq_vector_element($C$5,5*$E14+F$2)</f>
+        <v>0.23451287345960736</v>
+      </c>
+      <c r="G14">
+        <f>_xll.acq_vector_element($C$5,5*$E14+G$2)</f>
+        <v>0.29371403926052153</v>
+      </c>
+      <c r="H14">
+        <f>_xll.acq_vector_element($C$5,5*$E14+H$2)</f>
+        <v>0.98799528460949659</v>
+      </c>
+      <c r="I14">
+        <f>_xll.acq_vector_element($C$5,5*$E14+I$2)</f>
+        <v>0.63097612001001835</v>
+      </c>
+      <c r="J14">
+        <f>_xll.acq_vector_element($C$5,5*$E14+J$2)</f>
+        <v>0.76599595020525157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <f>_xll.acq_vector_element($C$5,5*$E15+F$2)</f>
+        <v>9.2104936484247446E-2</v>
+      </c>
+      <c r="G15">
+        <f>_xll.acq_vector_element($C$5,5*$E15+G$2)</f>
+        <v>0.77700443682260811</v>
+      </c>
+      <c r="H15">
+        <f>_xll.acq_vector_element($C$5,5*$E15+H$2)</f>
+        <v>0.43370117247104645</v>
+      </c>
+      <c r="I15">
+        <f>_xll.acq_vector_element($C$5,5*$E15+I$2)</f>
+        <v>2.7981954393908381E-2</v>
+      </c>
+      <c r="J15">
+        <f>_xll.acq_vector_element($C$5,5*$E15+J$2)</f>
+        <v>0.43086276249960065</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <f>_xll.acq_vector_element($C$5,5*$E16+F$2)</f>
+        <v>0.17390651861205697</v>
+      </c>
+      <c r="G16">
+        <f>_xll.acq_vector_element($C$5,5*$E16+G$2)</f>
+        <v>0.49368509883061051</v>
+      </c>
+      <c r="H16">
+        <f>_xll.acq_vector_element($C$5,5*$E16+H$2)</f>
+        <v>0.15408224379643798</v>
+      </c>
+      <c r="I16">
+        <f>_xll.acq_vector_element($C$5,5*$E16+I$2)</f>
+        <v>0.42583029274828732</v>
+      </c>
+      <c r="J16">
+        <f>_xll.acq_vector_element($C$5,5*$E16+J$2)</f>
+        <v>7.7086482662707567E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <f>_xll.acq_vector_element($C$5,5*$E17+F$2)</f>
+        <v>0.31226121727377176</v>
+      </c>
+      <c r="G17">
+        <f>_xll.acq_vector_element($C$5,5*$E17+G$2)</f>
+        <v>0.88986569992266595</v>
+      </c>
+      <c r="H17">
+        <f>_xll.acq_vector_element($C$5,5*$E17+H$2)</f>
+        <v>0.42635130393318832</v>
+      </c>
+      <c r="I17">
+        <f>_xll.acq_vector_element($C$5,5*$E17+I$2)</f>
+        <v>0.75037870439700782</v>
+      </c>
+      <c r="J17">
+        <f>_xll.acq_vector_element($C$5,5*$E17+J$2)</f>
+        <v>0.89338916470296681</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <v>15</v>
+      </c>
+      <c r="F18">
+        <f>_xll.acq_vector_element($C$5,5*$E18+F$2)</f>
+        <v>0.69340323936194181</v>
+      </c>
+      <c r="G18">
+        <f>_xll.acq_vector_element($C$5,5*$E18+G$2)</f>
+        <v>0.94416002137586474</v>
+      </c>
+      <c r="H18">
+        <f>_xll.acq_vector_element($C$5,5*$E18+H$2)</f>
+        <v>0.51176337618380785</v>
+      </c>
+      <c r="I18">
+        <f>_xll.acq_vector_element($C$5,5*$E18+I$2)</f>
+        <v>0.50183667382225394</v>
+      </c>
+      <c r="J18">
+        <f>_xll.acq_vector_element($C$5,5*$E18+J$2)</f>
+        <v>0.46426805411465466</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <f>_xll.acq_vector_element($C$5,5*$E19+F$2)</f>
+        <v>0.62395295198075473</v>
+      </c>
+      <c r="G19">
+        <f>_xll.acq_vector_element($C$5,5*$E19+G$2)</f>
+        <v>0.56843069801107049</v>
+      </c>
+      <c r="H19">
+        <f>_xll.acq_vector_element($C$5,5*$E19+H$2)</f>
+        <v>0.11561839655041695</v>
+      </c>
+      <c r="I19">
+        <f>_xll.acq_vector_element($C$5,5*$E19+I$2)</f>
+        <v>0.30254945298656821</v>
+      </c>
+      <c r="J19">
+        <f>_xll.acq_vector_element($C$5,5*$E19+J$2)</f>
+        <v>0.3172854813747108</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E20">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <f>_xll.acq_vector_element($C$5,5*$E20+F$2)</f>
+        <v>0.49730879045091569</v>
+      </c>
+      <c r="G20">
+        <f>_xll.acq_vector_element($C$5,5*$E20+G$2)</f>
+        <v>0.41482621151953936</v>
+      </c>
+      <c r="H20">
+        <f>_xll.acq_vector_element($C$5,5*$E20+H$2)</f>
+        <v>0.6832629085984081</v>
+      </c>
+      <c r="I20">
+        <f>_xll.acq_vector_element($C$5,5*$E20+I$2)</f>
+        <v>0.86630915361456573</v>
+      </c>
+      <c r="J20">
+        <f>_xll.acq_vector_element($C$5,5*$E20+J$2)</f>
+        <v>0.91669867699965835</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <f>_xll.acq_vector_element($C$5,5*$E21+F$2)</f>
+        <v>0.2504553662147373</v>
+      </c>
+      <c r="G21">
+        <f>_xll.acq_vector_element($C$5,5*$E21+G$2)</f>
+        <v>0.10892894887365401</v>
+      </c>
+      <c r="H21">
+        <f>_xll.acq_vector_element($C$5,5*$E21+H$2)</f>
+        <v>0.48303426313214004</v>
+      </c>
+      <c r="I21">
+        <f>_xll.acq_vector_element($C$5,5*$E21+I$2)</f>
+        <v>0.49549178639426827</v>
+      </c>
+      <c r="J21">
+        <f>_xll.acq_vector_element($C$5,5*$E21+J$2)</f>
+        <v>0.98555978504009545</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <f>_xll.acq_vector_element($C$5,5*$E22+F$2)</f>
+        <v>0.23283593147061765</v>
+      </c>
+      <c r="G22">
+        <f>_xll.acq_vector_element($C$5,5*$E22+G$2)</f>
+        <v>0.51948512182570994</v>
+      </c>
+      <c r="H22">
+        <f>_xll.acq_vector_element($C$5,5*$E22+H$2)</f>
+        <v>0.43686066241934896</v>
+      </c>
+      <c r="I22">
+        <f>_xll.acq_vector_element($C$5,5*$E22+I$2)</f>
+        <v>0.61289452482014894</v>
+      </c>
+      <c r="J22">
+        <f>_xll.acq_vector_element($C$5,5*$E22+J$2)</f>
+        <v>0.75154299847781658</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <f>_xll.acq_vector_element($C$5,5*$E23+F$2)</f>
+        <v>0.12062866636551917</v>
+      </c>
+      <c r="G23">
+        <f>_xll.acq_vector_element($C$5,5*$E23+G$2)</f>
+        <v>0.48089212458580732</v>
+      </c>
+      <c r="H23">
+        <f>_xll.acq_vector_element($C$5,5*$E23+H$2)</f>
+        <v>0.82634079875424504</v>
+      </c>
+      <c r="I23">
+        <f>_xll.acq_vector_element($C$5,5*$E23+I$2)</f>
+        <v>0.79772840836085379</v>
+      </c>
+      <c r="J23">
+        <f>_xll.acq_vector_element($C$5,5*$E23+J$2)</f>
+        <v>0.60306012653745711</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E24">
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <f>_xll.acq_vector_element($C$5,5*$E24+F$2)</f>
+        <v>0.28270293469540775</v>
+      </c>
+      <c r="G24">
+        <f>_xll.acq_vector_element($C$5,5*$E24+G$2)</f>
+        <v>0.54506800603121519</v>
+      </c>
+      <c r="H24">
+        <f>_xll.acq_vector_element($C$5,5*$E24+H$2)</f>
+        <v>0.43341824156232178</v>
+      </c>
+      <c r="I24">
+        <f>_xll.acq_vector_element($C$5,5*$E24+I$2)</f>
+        <v>0.34276383579708636</v>
+      </c>
+      <c r="J24">
+        <f>_xll.acq_vector_element($C$5,5*$E24+J$2)</f>
+        <v>9.7573511302471161E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <f>_xll.acq_vector_element($C$5,5*$E25+F$2)</f>
+        <v>0.30412079207599163</v>
+      </c>
+      <c r="G25">
+        <f>_xll.acq_vector_element($C$5,5*$E25+G$2)</f>
+        <v>0.34079598519019783</v>
+      </c>
+      <c r="H25">
+        <f>_xll.acq_vector_element($C$5,5*$E25+H$2)</f>
+        <v>0.41702220984734595</v>
+      </c>
+      <c r="I25">
+        <f>_xll.acq_vector_element($C$5,5*$E25+I$2)</f>
+        <v>0.68927200650796294</v>
+      </c>
+      <c r="J25">
+        <f>_xll.acq_vector_element($C$5,5*$E25+J$2)</f>
+        <v>0.68130076001398265</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E26">
+        <v>23</v>
+      </c>
+      <c r="F26">
+        <f>_xll.acq_vector_element($C$5,5*$E26+F$2)</f>
+        <v>0.86936928401701152</v>
+      </c>
+      <c r="G26">
+        <f>_xll.acq_vector_element($C$5,5*$E26+G$2)</f>
+        <v>0.87545684236101806</v>
+      </c>
+      <c r="H26">
+        <f>_xll.acq_vector_element($C$5,5*$E26+H$2)</f>
+        <v>0.26780382287688553</v>
+      </c>
+      <c r="I26">
+        <f>_xll.acq_vector_element($C$5,5*$E26+I$2)</f>
+        <v>0.51042233989574015</v>
+      </c>
+      <c r="J26">
+        <f>_xll.acq_vector_element($C$5,5*$E26+J$2)</f>
+        <v>0.45674791350029409</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E27">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <f>_xll.acq_vector_element($C$5,5*$E27+F$2)</f>
+        <v>0.66931378305889666</v>
+      </c>
+      <c r="G27">
+        <f>_xll.acq_vector_element($C$5,5*$E27+G$2)</f>
+        <v>0.26828130381181836</v>
+      </c>
+      <c r="H27">
+        <f>_xll.acq_vector_element($C$5,5*$E27+H$2)</f>
+        <v>0.58593654702417552</v>
+      </c>
+      <c r="I27">
+        <f>_xll.acq_vector_element($C$5,5*$E27+I$2)</f>
+        <v>0.8370527948718518</v>
+      </c>
+      <c r="J27">
+        <f>_xll.acq_vector_element($C$5,5*$E27+J$2)</f>
+        <v>0.62490350077860057</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <f>_xll.acq_vector_element($C$5,5*$E28+F$2)</f>
+        <v>0.2705146640073508</v>
+      </c>
+      <c r="G28">
+        <f>_xll.acq_vector_element($C$5,5*$E28+G$2)</f>
+        <v>0.67468905262649059</v>
+      </c>
+      <c r="H28">
+        <f>_xll.acq_vector_element($C$5,5*$E28+H$2)</f>
+        <v>0.53006201190873981</v>
+      </c>
+      <c r="I28">
+        <f>_xll.acq_vector_element($C$5,5*$E28+I$2)</f>
+        <v>0.84234243771061301</v>
+      </c>
+      <c r="J28">
+        <f>_xll.acq_vector_element($C$5,5*$E28+J$2)</f>
+        <v>0.17537266225554049</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E29">
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <f>_xll.acq_vector_element($C$5,5*$E29+F$2)</f>
+        <v>8.3194991340860724E-2</v>
+      </c>
+      <c r="G29">
+        <f>_xll.acq_vector_element($C$5,5*$E29+G$2)</f>
+        <v>0.31496644346043468</v>
+      </c>
+      <c r="H29">
+        <f>_xll.acq_vector_element($C$5,5*$E29+H$2)</f>
+        <v>0.76368283620104194</v>
+      </c>
+      <c r="I29">
+        <f>_xll.acq_vector_element($C$5,5*$E29+I$2)</f>
+        <v>0.89110909844748676</v>
+      </c>
+      <c r="J29">
+        <f>_xll.acq_vector_element($C$5,5*$E29+J$2)</f>
+        <v>0.2436663790140301</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E30">
+        <v>27</v>
+      </c>
+      <c r="F30">
+        <f>_xll.acq_vector_element($C$5,5*$E30+F$2)</f>
+        <v>0.1803362830542028</v>
+      </c>
+      <c r="G30">
+        <f>_xll.acq_vector_element($C$5,5*$E30+G$2)</f>
+        <v>0.19422295968979597</v>
+      </c>
+      <c r="H30">
+        <f>_xll.acq_vector_element($C$5,5*$E30+H$2)</f>
+        <v>0.49431620305404067</v>
+      </c>
+      <c r="I30">
+        <f>_xll.acq_vector_element($C$5,5*$E30+I$2)</f>
+        <v>0.57245696219615638</v>
+      </c>
+      <c r="J30">
+        <f>_xll.acq_vector_element($C$5,5*$E30+J$2)</f>
+        <v>0.2122981040738523</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E31">
+        <v>28</v>
+      </c>
+      <c r="F31">
+        <f>_xll.acq_vector_element($C$5,5*$E31+F$2)</f>
+        <v>9.5712516689673066E-2</v>
+      </c>
+      <c r="G31">
+        <f>_xll.acq_vector_element($C$5,5*$E31+G$2)</f>
+        <v>0.52087686886079609</v>
+      </c>
+      <c r="H31">
+        <f>_xll.acq_vector_element($C$5,5*$E31+H$2)</f>
+        <v>0.8853268283419311</v>
+      </c>
+      <c r="I31">
+        <f>_xll.acq_vector_element($C$5,5*$E31+I$2)</f>
+        <v>0.16009994084015489</v>
+      </c>
+      <c r="J31">
+        <f>_xll.acq_vector_element($C$5,5*$E31+J$2)</f>
+        <v>0.62724896590225399</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E32">
+        <v>29</v>
+      </c>
+      <c r="F32">
+        <f>_xll.acq_vector_element($C$5,5*$E32+F$2)</f>
+        <v>0.91905680019408464</v>
+      </c>
+      <c r="G32">
+        <f>_xll.acq_vector_element($C$5,5*$E32+G$2)</f>
+        <v>0.7234163514804095</v>
+      </c>
+      <c r="H32">
+        <f>_xll.acq_vector_element($C$5,5*$E32+H$2)</f>
+        <v>0.9942899199668318</v>
+      </c>
+      <c r="I32">
+        <f>_xll.acq_vector_element($C$5,5*$E32+I$2)</f>
+        <v>1.6129206633195281E-2</v>
+      </c>
+      <c r="J32">
+        <f>_xll.acq_vector_element($C$5,5*$E32+J$2)</f>
+        <v>0.4770475581753999</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E33">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <f>_xll.acq_vector_element($C$5,5*$E33+F$2)</f>
+        <v>0.59443188086152077</v>
+      </c>
+      <c r="G33">
+        <f>_xll.acq_vector_element($C$5,5*$E33+G$2)</f>
+        <v>0.30988350627012551</v>
+      </c>
+      <c r="H33">
+        <f>_xll.acq_vector_element($C$5,5*$E33+H$2)</f>
+        <v>0.55678519047796726</v>
+      </c>
+      <c r="I33">
+        <f>_xll.acq_vector_element($C$5,5*$E33+I$2)</f>
+        <v>0.50720431958325207</v>
+      </c>
+      <c r="J33">
+        <f>_xll.acq_vector_element($C$5,5*$E33+J$2)</f>
+        <v>0.15895964717492461</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E34">
+        <v>31</v>
+      </c>
+      <c r="F34">
+        <f>_xll.acq_vector_element($C$5,5*$E34+F$2)</f>
+        <v>0.28079320071265101</v>
+      </c>
+      <c r="G34">
+        <f>_xll.acq_vector_element($C$5,5*$E34+G$2)</f>
+        <v>0.15307051292620599</v>
+      </c>
+      <c r="H34">
+        <f>_xll.acq_vector_element($C$5,5*$E34+H$2)</f>
+        <v>0.76383669557981193</v>
+      </c>
+      <c r="I34">
+        <f>_xll.acq_vector_element($C$5,5*$E34+I$2)</f>
+        <v>0.69552952982485294</v>
+      </c>
+      <c r="J34">
+        <f>_xll.acq_vector_element($C$5,5*$E34+J$2)</f>
+        <v>0.1085422991309315</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E35">
+        <v>32</v>
+      </c>
+      <c r="F35">
+        <f>_xll.acq_vector_element($C$5,5*$E35+F$2)</f>
+        <v>0.31876642559655011</v>
+      </c>
+      <c r="G35">
+        <f>_xll.acq_vector_element($C$5,5*$E35+G$2)</f>
+        <v>0.51165471621789038</v>
+      </c>
+      <c r="H35">
+        <f>_xll.acq_vector_element($C$5,5*$E35+H$2)</f>
+        <v>0.69197028875350952</v>
+      </c>
+      <c r="I35">
+        <f>_xll.acq_vector_element($C$5,5*$E35+I$2)</f>
+        <v>0.90976939420215786</v>
+      </c>
+      <c r="J35">
+        <f>_xll.acq_vector_element($C$5,5*$E35+J$2)</f>
+        <v>0.55438325484283268</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E36">
+        <v>33</v>
+      </c>
+      <c r="F36">
+        <f>_xll.acq_vector_element($C$5,5*$E36+F$2)</f>
+        <v>0.21837601088918746</v>
+      </c>
+      <c r="G36">
+        <f>_xll.acq_vector_element($C$5,5*$E36+G$2)</f>
+        <v>0.38895057584159076</v>
+      </c>
+      <c r="H36">
+        <f>_xll.acq_vector_element($C$5,5*$E36+H$2)</f>
+        <v>0.36310406122356653</v>
+      </c>
+      <c r="I36">
+        <f>_xll.acq_vector_element($C$5,5*$E36+I$2)</f>
+        <v>0.92513249022886157</v>
+      </c>
+      <c r="J36">
+        <f>_xll.acq_vector_element($C$5,5*$E36+J$2)</f>
+        <v>0.85497281118296087</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E37">
+        <v>34</v>
+      </c>
+      <c r="F37">
+        <f>_xll.acq_vector_element($C$5,5*$E37+F$2)</f>
+        <v>0.84166999836452305</v>
+      </c>
+      <c r="G37">
+        <f>_xll.acq_vector_element($C$5,5*$E37+G$2)</f>
+        <v>0.71139180054888129</v>
+      </c>
+      <c r="H37">
+        <f>_xll.acq_vector_element($C$5,5*$E37+H$2)</f>
+        <v>0.35739757027477026</v>
+      </c>
+      <c r="I37">
+        <f>_xll.acq_vector_element($C$5,5*$E37+I$2)</f>
+        <v>0.39294441067613661</v>
+      </c>
+      <c r="J37">
+        <f>_xll.acq_vector_element($C$5,5*$E37+J$2)</f>
+        <v>4.359146673232317E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E38">
+        <v>35</v>
+      </c>
+      <c r="F38">
+        <f>_xll.acq_vector_element($C$5,5*$E38+F$2)</f>
+        <v>0.2313014860264957</v>
+      </c>
+      <c r="G38">
+        <f>_xll.acq_vector_element($C$5,5*$E38+G$2)</f>
+        <v>0.30476807337254286</v>
+      </c>
+      <c r="H38">
+        <f>_xll.acq_vector_element($C$5,5*$E38+H$2)</f>
+        <v>0.38017471204511821</v>
+      </c>
+      <c r="I38">
+        <f>_xll.acq_vector_element($C$5,5*$E38+I$2)</f>
+        <v>0.3981856806203723</v>
+      </c>
+      <c r="J38">
+        <f>_xll.acq_vector_element($C$5,5*$E38+J$2)</f>
+        <v>0.54916210169903934</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E39">
+        <v>36</v>
+      </c>
+      <c r="F39">
+        <f>_xll.acq_vector_element($C$5,5*$E39+F$2)</f>
+        <v>0.70495882793329656</v>
+      </c>
+      <c r="G39">
+        <f>_xll.acq_vector_element($C$5,5*$E39+G$2)</f>
+        <v>0.55671905865892768</v>
+      </c>
+      <c r="H39">
+        <f>_xll.acq_vector_element($C$5,5*$E39+H$2)</f>
+        <v>0.99535848759114742</v>
+      </c>
+      <c r="I39">
+        <f>_xll.acq_vector_element($C$5,5*$E39+I$2)</f>
+        <v>4.134641494601965E-3</v>
+      </c>
+      <c r="J39">
+        <f>_xll.acq_vector_element($C$5,5*$E39+J$2)</f>
+        <v>0.35591486399061978</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E40">
+        <v>37</v>
+      </c>
+      <c r="F40">
+        <f>_xll.acq_vector_element($C$5,5*$E40+F$2)</f>
+        <v>0.63802251871675253</v>
+      </c>
+      <c r="G40">
+        <f>_xll.acq_vector_element($C$5,5*$E40+G$2)</f>
+        <v>0.76254781614989042</v>
+      </c>
+      <c r="H40">
+        <f>_xll.acq_vector_element($C$5,5*$E40+H$2)</f>
+        <v>5.7648017769679427E-2</v>
+      </c>
+      <c r="I40">
+        <f>_xll.acq_vector_element($C$5,5*$E40+I$2)</f>
+        <v>0.59317692089825869</v>
+      </c>
+      <c r="J40">
+        <f>_xll.acq_vector_element($C$5,5*$E40+J$2)</f>
+        <v>4.3026902712881565E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E41">
+        <v>38</v>
+      </c>
+      <c r="F41">
+        <f>_xll.acq_vector_element($C$5,5*$E41+F$2)</f>
+        <v>0.69170179753564298</v>
+      </c>
+      <c r="G41">
+        <f>_xll.acq_vector_element($C$5,5*$E41+G$2)</f>
+        <v>0.87505113705992699</v>
+      </c>
+      <c r="H41">
+        <f>_xll.acq_vector_element($C$5,5*$E41+H$2)</f>
+        <v>0.15112745016813278</v>
+      </c>
+      <c r="I41">
+        <f>_xll.acq_vector_element($C$5,5*$E41+I$2)</f>
+        <v>0.29258760646916926</v>
+      </c>
+      <c r="J41">
+        <f>_xll.acq_vector_element($C$5,5*$E41+J$2)</f>
+        <v>0.39887628890573978</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E42">
+        <v>39</v>
+      </c>
+      <c r="F42">
+        <f>_xll.acq_vector_element($C$5,5*$E42+F$2)</f>
+        <v>0.76276766322553158</v>
+      </c>
+      <c r="G42">
+        <f>_xll.acq_vector_element($C$5,5*$E42+G$2)</f>
+        <v>0.24085589963942766</v>
+      </c>
+      <c r="H42">
+        <f>_xll.acq_vector_element($C$5,5*$E42+H$2)</f>
+        <v>0.3678652630187571</v>
+      </c>
+      <c r="I42">
+        <f>_xll.acq_vector_element($C$5,5*$E42+I$2)</f>
+        <v>0.34345601475797594</v>
+      </c>
+      <c r="J42">
+        <f>_xll.acq_vector_element($C$5,5*$E42+J$2)</f>
+        <v>0.87350226799026132</v>
+      </c>
+    </row>
+    <row r="43" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E43">
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <f>_xll.acq_vector_element($C$5,5*$E43+F$2)</f>
+        <v>0.51312815700657666</v>
+      </c>
+      <c r="G43">
+        <f>_xll.acq_vector_element($C$5,5*$E43+G$2)</f>
+        <v>2.9423731612041593E-2</v>
+      </c>
+      <c r="H43">
+        <f>_xll.acq_vector_element($C$5,5*$E43+H$2)</f>
+        <v>0.66662454791367054</v>
+      </c>
+      <c r="I43">
+        <f>_xll.acq_vector_element($C$5,5*$E43+I$2)</f>
+        <v>0.55204372433945537</v>
+      </c>
+      <c r="J43">
+        <f>_xll.acq_vector_element($C$5,5*$E43+J$2)</f>
+        <v>0.10590848466381431</v>
+      </c>
+    </row>
+    <row r="44" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E44">
+        <v>41</v>
+      </c>
+      <c r="F44">
+        <f>_xll.acq_vector_element($C$5,5*$E44+F$2)</f>
+        <v>0.24024750315584242</v>
+      </c>
+      <c r="G44">
+        <f>_xll.acq_vector_element($C$5,5*$E44+G$2)</f>
+        <v>0.13089495105668902</v>
+      </c>
+      <c r="H44">
+        <f>_xll.acq_vector_element($C$5,5*$E44+H$2)</f>
+        <v>0.8848050101660192</v>
+      </c>
+      <c r="I44">
+        <f>_xll.acq_vector_element($C$5,5*$E44+I$2)</f>
+        <v>0.32198060490190983</v>
+      </c>
+      <c r="J44">
+        <f>_xll.acq_vector_element($C$5,5*$E44+J$2)</f>
+        <v>0.46023842482827604</v>
+      </c>
+    </row>
+    <row r="45" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E45">
+        <v>42</v>
+      </c>
+      <c r="F45">
+        <f>_xll.acq_vector_element($C$5,5*$E45+F$2)</f>
+        <v>0.66156433755531907</v>
+      </c>
+      <c r="G45">
+        <f>_xll.acq_vector_element($C$5,5*$E45+G$2)</f>
+        <v>0.19317032676190138</v>
+      </c>
+      <c r="H45">
+        <f>_xll.acq_vector_element($C$5,5*$E45+H$2)</f>
+        <v>0.84650622587651014</v>
+      </c>
+      <c r="I45">
+        <f>_xll.acq_vector_element($C$5,5*$E45+I$2)</f>
+        <v>0.29369250521995127</v>
+      </c>
+      <c r="J45">
+        <f>_xll.acq_vector_element($C$5,5*$E45+J$2)</f>
+        <v>0.55325734103098512</v>
+      </c>
+    </row>
+    <row r="46" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E46">
+        <v>43</v>
+      </c>
+      <c r="F46">
+        <f>_xll.acq_vector_element($C$5,5*$E46+F$2)</f>
+        <v>0.81792750838212669</v>
+      </c>
+      <c r="G46">
+        <f>_xll.acq_vector_element($C$5,5*$E46+G$2)</f>
+        <v>0.85445248731411994</v>
+      </c>
+      <c r="H46">
+        <f>_xll.acq_vector_element($C$5,5*$E46+H$2)</f>
+        <v>0.55948737426660955</v>
+      </c>
+      <c r="I46">
+        <f>_xll.acq_vector_element($C$5,5*$E46+I$2)</f>
+        <v>0.38483780925162137</v>
+      </c>
+      <c r="J46">
+        <f>_xll.acq_vector_element($C$5,5*$E46+J$2)</f>
+        <v>0.67792544793337584</v>
+      </c>
+    </row>
+    <row r="47" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E47">
+        <v>44</v>
+      </c>
+      <c r="F47">
+        <f>_xll.acq_vector_element($C$5,5*$E47+F$2)</f>
+        <v>0.31678789737634361</v>
+      </c>
+      <c r="G47">
+        <f>_xll.acq_vector_element($C$5,5*$E47+G$2)</f>
+        <v>0.80912667536176741</v>
+      </c>
+      <c r="H47">
+        <f>_xll.acq_vector_element($C$5,5*$E47+H$2)</f>
+        <v>0.35426467447541654</v>
+      </c>
+      <c r="I47">
+        <f>_xll.acq_vector_element($C$5,5*$E47+I$2)</f>
+        <v>0.8685721552465111</v>
+      </c>
+      <c r="J47">
+        <f>_xll.acq_vector_element($C$5,5*$E47+J$2)</f>
+        <v>0.17108182935044169</v>
+      </c>
+    </row>
+    <row r="48" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E48">
+        <v>45</v>
+      </c>
+      <c r="F48">
+        <f>_xll.acq_vector_element($C$5,5*$E48+F$2)</f>
+        <v>0.41799245588481426</v>
+      </c>
+      <c r="G48">
+        <f>_xll.acq_vector_element($C$5,5*$E48+G$2)</f>
+        <v>0.82911263941787183</v>
+      </c>
+      <c r="H48">
+        <f>_xll.acq_vector_element($C$5,5*$E48+H$2)</f>
+        <v>5.8938160305842757E-2</v>
+      </c>
+      <c r="I48">
+        <f>_xll.acq_vector_element($C$5,5*$E48+I$2)</f>
+        <v>0.33867084258235991</v>
+      </c>
+      <c r="J48">
+        <f>_xll.acq_vector_element($C$5,5*$E48+J$2)</f>
+        <v>0.47845900128595531</v>
+      </c>
+    </row>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E49">
+        <v>46</v>
+      </c>
+      <c r="F49">
+        <f>_xll.acq_vector_element($C$5,5*$E49+F$2)</f>
+        <v>0.55237007536925375</v>
+      </c>
+      <c r="G49">
+        <f>_xll.acq_vector_element($C$5,5*$E49+G$2)</f>
+        <v>0.52115943096578121</v>
+      </c>
+      <c r="H49">
+        <f>_xll.acq_vector_element($C$5,5*$E49+H$2)</f>
+        <v>0.57855146704241633</v>
+      </c>
+      <c r="I49">
+        <f>_xll.acq_vector_element($C$5,5*$E49+I$2)</f>
+        <v>0.58063202141784132</v>
+      </c>
+      <c r="J49">
+        <f>_xll.acq_vector_element($C$5,5*$E49+J$2)</f>
+        <v>0.52153305825777352</v>
+      </c>
+    </row>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E50">
+        <v>47</v>
+      </c>
+      <c r="F50">
+        <f>_xll.acq_vector_element($C$5,5*$E50+F$2)</f>
+        <v>0.30919899814762175</v>
+      </c>
+      <c r="G50">
+        <f>_xll.acq_vector_element($C$5,5*$E50+G$2)</f>
+        <v>2.6880619116127491E-3</v>
+      </c>
+      <c r="H50">
+        <f>_xll.acq_vector_element($C$5,5*$E50+H$2)</f>
+        <v>0.91988261905498803</v>
+      </c>
+      <c r="I50">
+        <f>_xll.acq_vector_element($C$5,5*$E50+I$2)</f>
+        <v>0.988345414865762</v>
+      </c>
+      <c r="J50">
+        <f>_xll.acq_vector_element($C$5,5*$E50+J$2)</f>
+        <v>0.65534750046208501</v>
+      </c>
+    </row>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E51">
+        <v>48</v>
+      </c>
+      <c r="F51">
+        <f>_xll.acq_vector_element($C$5,5*$E51+F$2)</f>
+        <v>0.90534157631918788</v>
+      </c>
+      <c r="G51">
+        <f>_xll.acq_vector_element($C$5,5*$E51+G$2)</f>
+        <v>0.3492413864005357</v>
+      </c>
+      <c r="H51">
+        <f>_xll.acq_vector_element($C$5,5*$E51+H$2)</f>
+        <v>0.20763586298562586</v>
+      </c>
+      <c r="I51">
+        <f>_xll.acq_vector_element($C$5,5*$E51+I$2)</f>
+        <v>0.54109404305927455</v>
+      </c>
+      <c r="J51">
+        <f>_xll.acq_vector_element($C$5,5*$E51+J$2)</f>
+        <v>0.29248941363766789</v>
+      </c>
+    </row>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E52">
+        <v>49</v>
+      </c>
+      <c r="F52">
+        <f>_xll.acq_vector_element($C$5,5*$E52+F$2)</f>
+        <v>0.44905339810065925</v>
+      </c>
+      <c r="G52">
+        <f>_xll.acq_vector_element($C$5,5*$E52+G$2)</f>
+        <v>0.52001015422865748</v>
+      </c>
+      <c r="H52">
+        <f>_xll.acq_vector_element($C$5,5*$E52+H$2)</f>
+        <v>0.28232095902785659</v>
+      </c>
+      <c r="I52">
+        <f>_xll.acq_vector_element($C$5,5*$E52+I$2)</f>
+        <v>0.90191137581132352</v>
+      </c>
+      <c r="J52">
+        <f>_xll.acq_vector_element($C$5,5*$E52+J$2)</f>
+        <v>0.29587651998735964</v>
+      </c>
+    </row>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E53">
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <f>_xll.acq_vector_element($C$5,5*$E53+F$2)</f>
+        <v>0.98363088467158377</v>
+      </c>
+      <c r="G53">
+        <f>_xll.acq_vector_element($C$5,5*$E53+G$2)</f>
+        <v>0.56348098767921329</v>
+      </c>
+      <c r="H53">
+        <f>_xll.acq_vector_element($C$5,5*$E53+H$2)</f>
+        <v>0.25754205952398479</v>
+      </c>
+      <c r="I53">
+        <f>_xll.acq_vector_element($C$5,5*$E53+I$2)</f>
+        <v>0.7151912774425</v>
+      </c>
+      <c r="J53">
+        <f>_xll.acq_vector_element($C$5,5*$E53+J$2)</f>
+        <v>0.56435904512181878</v>
+      </c>
+    </row>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E54">
+        <v>51</v>
+      </c>
+      <c r="F54">
+        <f>_xll.acq_vector_element($C$5,5*$E54+F$2)</f>
+        <v>0.51761867757886648</v>
+      </c>
+      <c r="G54">
+        <f>_xll.acq_vector_element($C$5,5*$E54+G$2)</f>
+        <v>0.8069686871021986</v>
+      </c>
+      <c r="H54">
+        <f>_xll.acq_vector_element($C$5,5*$E54+H$2)</f>
+        <v>0.35204182821325958</v>
+      </c>
+      <c r="I54">
+        <f>_xll.acq_vector_element($C$5,5*$E54+I$2)</f>
+        <v>0.39437005156651139</v>
+      </c>
+      <c r="J54">
+        <f>_xll.acq_vector_element($C$5,5*$E54+J$2)</f>
+        <v>0.63277885387651622</v>
+      </c>
+    </row>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E55">
+        <v>52</v>
+      </c>
+      <c r="F55">
+        <f>_xll.acq_vector_element($C$5,5*$E55+F$2)</f>
+        <v>0.73107303236611187</v>
+      </c>
+      <c r="G55">
+        <f>_xll.acq_vector_element($C$5,5*$E55+G$2)</f>
+        <v>0.87311902502551675</v>
+      </c>
+      <c r="H55">
+        <f>_xll.acq_vector_element($C$5,5*$E55+H$2)</f>
+        <v>0.16106901923194528</v>
+      </c>
+      <c r="I55">
+        <f>_xll.acq_vector_element($C$5,5*$E55+I$2)</f>
+        <v>0.16788844647817314</v>
+      </c>
+      <c r="J55">
+        <f>_xll.acq_vector_element($C$5,5*$E55+J$2)</f>
+        <v>0.6006985658314079</v>
+      </c>
+    </row>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E56">
+        <v>53</v>
+      </c>
+      <c r="F56">
+        <f>_xll.acq_vector_element($C$5,5*$E56+F$2)</f>
+        <v>0.9874783216509968</v>
+      </c>
+      <c r="G56">
+        <f>_xll.acq_vector_element($C$5,5*$E56+G$2)</f>
+        <v>0.86586446198634803</v>
+      </c>
+      <c r="H56">
+        <f>_xll.acq_vector_element($C$5,5*$E56+H$2)</f>
+        <v>0.34941492811776698</v>
+      </c>
+      <c r="I56">
+        <f>_xll.acq_vector_element($C$5,5*$E56+I$2)</f>
+        <v>0.98352160630747676</v>
+      </c>
+      <c r="J56">
+        <f>_xll.acq_vector_element($C$5,5*$E56+J$2)</f>
+        <v>0.82620513322763145</v>
+      </c>
+    </row>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E57">
+        <v>54</v>
+      </c>
+      <c r="F57">
+        <f>_xll.acq_vector_element($C$5,5*$E57+F$2)</f>
+        <v>7.9365790588781238E-2</v>
+      </c>
+      <c r="G57">
+        <f>_xll.acq_vector_element($C$5,5*$E57+G$2)</f>
+        <v>6.546153943054378E-2</v>
+      </c>
+      <c r="H57">
+        <f>_xll.acq_vector_element($C$5,5*$E57+H$2)</f>
+        <v>0.42834727792069316</v>
+      </c>
+      <c r="I57">
+        <f>_xll.acq_vector_element($C$5,5*$E57+I$2)</f>
+        <v>5.3532917518168688E-3</v>
+      </c>
+      <c r="J57">
+        <f>_xll.acq_vector_element($C$5,5*$E57+J$2)</f>
+        <v>0.20454285922460258</v>
+      </c>
+    </row>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E58">
+        <v>55</v>
+      </c>
+      <c r="F58">
+        <f>_xll.acq_vector_element($C$5,5*$E58+F$2)</f>
+        <v>0.88694464927539229</v>
+      </c>
+      <c r="G58">
+        <f>_xll.acq_vector_element($C$5,5*$E58+G$2)</f>
+        <v>0.45063648745417595</v>
+      </c>
+      <c r="H58">
+        <f>_xll.acq_vector_element($C$5,5*$E58+H$2)</f>
+        <v>0.91131813637912273</v>
+      </c>
+      <c r="I58">
+        <f>_xll.acq_vector_element($C$5,5*$E58+I$2)</f>
+        <v>0.54776357649825513</v>
+      </c>
+      <c r="J58">
+        <f>_xll.acq_vector_element($C$5,5*$E58+J$2)</f>
+        <v>0.19940777658484876</v>
+      </c>
+    </row>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E59">
+        <v>56</v>
+      </c>
+      <c r="F59">
+        <f>_xll.acq_vector_element($C$5,5*$E59+F$2)</f>
+        <v>9.3326711095869541E-2</v>
+      </c>
+      <c r="G59">
+        <f>_xll.acq_vector_element($C$5,5*$E59+G$2)</f>
+        <v>2.7551383711397648E-2</v>
+      </c>
+      <c r="H59">
+        <f>_xll.acq_vector_element($C$5,5*$E59+H$2)</f>
+        <v>0.29686077055521309</v>
+      </c>
+      <c r="I59">
+        <f>_xll.acq_vector_element($C$5,5*$E59+I$2)</f>
+        <v>0.81733491644263268</v>
+      </c>
+      <c r="J59">
+        <f>_xll.acq_vector_element($C$5,5*$E59+J$2)</f>
+        <v>0.92758424393832684</v>
+      </c>
+    </row>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E60">
+        <v>57</v>
+      </c>
+      <c r="F60">
+        <f>_xll.acq_vector_element($C$5,5*$E60+F$2)</f>
+        <v>0.24182762112468481</v>
+      </c>
+      <c r="G60">
+        <f>_xll.acq_vector_element($C$5,5*$E60+G$2)</f>
+        <v>0.56900373310782015</v>
+      </c>
+      <c r="H60">
+        <f>_xll.acq_vector_element($C$5,5*$E60+H$2)</f>
+        <v>5.6083009112626314E-2</v>
+      </c>
+      <c r="I60">
+        <f>_xll.acq_vector_element($C$5,5*$E60+I$2)</f>
+        <v>0.45741199818439782</v>
+      </c>
+      <c r="J60">
+        <f>_xll.acq_vector_element($C$5,5*$E60+J$2)</f>
+        <v>6.7560829455032945E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E61">
+        <v>58</v>
+      </c>
+      <c r="F61">
+        <f>_xll.acq_vector_element($C$5,5*$E61+F$2)</f>
+        <v>0.75352598843164742</v>
+      </c>
+      <c r="G61">
+        <f>_xll.acq_vector_element($C$5,5*$E61+G$2)</f>
+        <v>0.47387185599654913</v>
+      </c>
+      <c r="H61">
+        <f>_xll.acq_vector_element($C$5,5*$E61+H$2)</f>
+        <v>0.74186215014196932</v>
+      </c>
+      <c r="I61">
+        <f>_xll.acq_vector_element($C$5,5*$E61+I$2)</f>
+        <v>0.50942926458083093</v>
+      </c>
+      <c r="J61">
+        <f>_xll.acq_vector_element($C$5,5*$E61+J$2)</f>
+        <v>4.8579036025330424E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E62">
+        <v>59</v>
+      </c>
+      <c r="F62">
+        <f>_xll.acq_vector_element($C$5,5*$E62+F$2)</f>
+        <v>0.41679514106363058</v>
+      </c>
+      <c r="G62">
+        <f>_xll.acq_vector_element($C$5,5*$E62+G$2)</f>
+        <v>0.70869739400222898</v>
+      </c>
+      <c r="H62">
+        <f>_xll.acq_vector_element($C$5,5*$E62+H$2)</f>
+        <v>0.25584292644634843</v>
+      </c>
+      <c r="I62">
+        <f>_xll.acq_vector_element($C$5,5*$E62+I$2)</f>
+        <v>0.83924334589391947</v>
+      </c>
+      <c r="J62">
+        <f>_xll.acq_vector_element($C$5,5*$E62+J$2)</f>
+        <v>0.38151210616342723</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E63">
+        <v>60</v>
+      </c>
+      <c r="F63">
+        <f>_xll.acq_vector_element($C$5,5*$E63+F$2)</f>
+        <v>0.1659378819167614</v>
+      </c>
+      <c r="G63">
+        <f>_xll.acq_vector_element($C$5,5*$E63+G$2)</f>
+        <v>0.80738443206064403</v>
+      </c>
+      <c r="H63">
+        <f>_xll.acq_vector_element($C$5,5*$E63+H$2)</f>
+        <v>0.78099793731234968</v>
+      </c>
+      <c r="I63">
+        <f>_xll.acq_vector_element($C$5,5*$E63+I$2)</f>
+        <v>0.81103914114646614</v>
+      </c>
+      <c r="J63">
+        <f>_xll.acq_vector_element($C$5,5*$E63+J$2)</f>
+        <v>0.28653661697171628</v>
+      </c>
+    </row>
+    <row r="64" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E64">
+        <v>61</v>
+      </c>
+      <c r="F64">
+        <f>_xll.acq_vector_element($C$5,5*$E64+F$2)</f>
+        <v>0.68618685798719525</v>
+      </c>
+      <c r="G64">
+        <f>_xll.acq_vector_element($C$5,5*$E64+G$2)</f>
+        <v>0.30646974709816277</v>
+      </c>
+      <c r="H64">
+        <f>_xll.acq_vector_element($C$5,5*$E64+H$2)</f>
+        <v>0.99261362501420081</v>
+      </c>
+      <c r="I64">
+        <f>_xll.acq_vector_element($C$5,5*$E64+I$2)</f>
+        <v>0.66526146768592298</v>
+      </c>
+      <c r="J64">
+        <f>_xll.acq_vector_element($C$5,5*$E64+J$2)</f>
+        <v>0.40518518281169236</v>
+      </c>
+    </row>
+    <row r="65" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E65">
+        <v>62</v>
+      </c>
+      <c r="F65">
+        <f>_xll.acq_vector_element($C$5,5*$E65+F$2)</f>
+        <v>0.11139217601157725</v>
+      </c>
+      <c r="G65">
+        <f>_xll.acq_vector_element($C$5,5*$E65+G$2)</f>
+        <v>0.19017371931113303</v>
+      </c>
+      <c r="H65">
+        <f>_xll.acq_vector_element($C$5,5*$E65+H$2)</f>
+        <v>0.66487245121970773</v>
+      </c>
+      <c r="I65">
+        <f>_xll.acq_vector_element($C$5,5*$E65+I$2)</f>
+        <v>0.48817448364570737</v>
+      </c>
+      <c r="J65">
+        <f>_xll.acq_vector_element($C$5,5*$E65+J$2)</f>
+        <v>0.8878567919600755</v>
+      </c>
+    </row>
+    <row r="66" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E66">
+        <v>63</v>
+      </c>
+      <c r="F66">
+        <f>_xll.acq_vector_element($C$5,5*$E66+F$2)</f>
+        <v>0.50236964458599687</v>
+      </c>
+      <c r="G66">
+        <f>_xll.acq_vector_element($C$5,5*$E66+G$2)</f>
+        <v>0.69631126709282398</v>
+      </c>
+      <c r="H66">
+        <f>_xll.acq_vector_element($C$5,5*$E66+H$2)</f>
+        <v>0.40335482102818787</v>
+      </c>
+      <c r="I66">
+        <f>_xll.acq_vector_element($C$5,5*$E66+I$2)</f>
+        <v>0.44032787531614304</v>
+      </c>
+      <c r="J66">
+        <f>_xll.acq_vector_element($C$5,5*$E66+J$2)</f>
+        <v>0.18109542713500559</v>
+      </c>
+    </row>
+    <row r="67" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E67">
+        <v>64</v>
+      </c>
+      <c r="F67">
+        <f>_xll.acq_vector_element($C$5,5*$E67+F$2)</f>
+        <v>0.43821438471786678</v>
+      </c>
+      <c r="G67">
+        <f>_xll.acq_vector_element($C$5,5*$E67+G$2)</f>
+        <v>4.8029795987531543E-2</v>
+      </c>
+      <c r="H67">
+        <f>_xll.acq_vector_element($C$5,5*$E67+H$2)</f>
+        <v>0.7650960951577872</v>
+      </c>
+      <c r="I67">
+        <f>_xll.acq_vector_element($C$5,5*$E67+I$2)</f>
+        <v>0.60469134175218642</v>
+      </c>
+      <c r="J67">
+        <f>_xll.acq_vector_element($C$5,5*$E67+J$2)</f>
+        <v>0.56564200087450445</v>
+      </c>
+    </row>
+    <row r="68" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E68">
+        <v>65</v>
+      </c>
+      <c r="F68">
+        <f>_xll.acq_vector_element($C$5,5*$E68+F$2)</f>
+        <v>0.26591120800003409</v>
+      </c>
+      <c r="G68">
+        <f>_xll.acq_vector_element($C$5,5*$E68+G$2)</f>
+        <v>8.4904157323762774E-2</v>
+      </c>
+      <c r="H68">
+        <f>_xll.acq_vector_element($C$5,5*$E68+H$2)</f>
+        <v>0.88134699338115752</v>
+      </c>
+      <c r="I68">
+        <f>_xll.acq_vector_element($C$5,5*$E68+I$2)</f>
+        <v>0.58267108513973653</v>
+      </c>
+      <c r="J68">
+        <f>_xll.acq_vector_element($C$5,5*$E68+J$2)</f>
+        <v>0.5840461147017777</v>
+      </c>
+    </row>
+    <row r="69" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E69">
+        <v>66</v>
+      </c>
+      <c r="F69">
+        <f>_xll.acq_vector_element($C$5,5*$E69+F$2)</f>
+        <v>0.81484370585530996</v>
+      </c>
+      <c r="G69">
+        <f>_xll.acq_vector_element($C$5,5*$E69+G$2)</f>
+        <v>0.47746048262342811</v>
+      </c>
+      <c r="H69">
+        <f>_xll.acq_vector_element($C$5,5*$E69+H$2)</f>
+        <v>0.33706638333387673</v>
+      </c>
+      <c r="I69">
+        <f>_xll.acq_vector_element($C$5,5*$E69+I$2)</f>
+        <v>0.17151501984335482</v>
+      </c>
+      <c r="J69">
+        <f>_xll.acq_vector_element($C$5,5*$E69+J$2)</f>
+        <v>0.9275765810161829</v>
+      </c>
+    </row>
+    <row r="70" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E70">
+        <v>67</v>
+      </c>
+      <c r="F70">
+        <f>_xll.acq_vector_element($C$5,5*$E70+F$2)</f>
+        <v>5.6619996437802911E-2</v>
+      </c>
+      <c r="G70">
+        <f>_xll.acq_vector_element($C$5,5*$E70+G$2)</f>
+        <v>0.75071700010448694</v>
+      </c>
+      <c r="H70">
+        <f>_xll.acq_vector_element($C$5,5*$E70+H$2)</f>
+        <v>0.15703523019328713</v>
+      </c>
+      <c r="I70">
+        <f>_xll.acq_vector_element($C$5,5*$E70+I$2)</f>
+        <v>0.57406382798217237</v>
+      </c>
+      <c r="J70">
+        <f>_xll.acq_vector_element($C$5,5*$E70+J$2)</f>
+        <v>0.33861749805510044</v>
+      </c>
+    </row>
+    <row r="71" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E71">
+        <v>68</v>
+      </c>
+      <c r="F71">
+        <f>_xll.acq_vector_element($C$5,5*$E71+F$2)</f>
+        <v>0.75164399039931595</v>
+      </c>
+      <c r="G71">
+        <f>_xll.acq_vector_element($C$5,5*$E71+G$2)</f>
+        <v>0.44064297364093363</v>
+      </c>
+      <c r="H71">
+        <f>_xll.acq_vector_element($C$5,5*$E71+H$2)</f>
+        <v>7.9148959834128618E-2</v>
+      </c>
+      <c r="I71">
+        <f>_xll.acq_vector_element($C$5,5*$E71+I$2)</f>
+        <v>0.68384311441332102</v>
+      </c>
+      <c r="J71">
+        <f>_xll.acq_vector_element($C$5,5*$E71+J$2)</f>
+        <v>0.85938907694071531</v>
+      </c>
+    </row>
+    <row r="72" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E72">
+        <v>69</v>
+      </c>
+      <c r="F72">
+        <f>_xll.acq_vector_element($C$5,5*$E72+F$2)</f>
+        <v>0.20587172266095877</v>
+      </c>
+      <c r="G72">
+        <f>_xll.acq_vector_element($C$5,5*$E72+G$2)</f>
+        <v>0.82150410930626094</v>
+      </c>
+      <c r="H72">
+        <f>_xll.acq_vector_element($C$5,5*$E72+H$2)</f>
+        <v>0.61643369938246906</v>
+      </c>
+      <c r="I72">
+        <f>_xll.acq_vector_element($C$5,5*$E72+I$2)</f>
+        <v>0.90987165668047965</v>
+      </c>
+      <c r="J72">
+        <f>_xll.acq_vector_element($C$5,5*$E72+J$2)</f>
+        <v>0.92447161092422903</v>
+      </c>
+    </row>
+    <row r="73" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E73">
+        <v>70</v>
+      </c>
+      <c r="F73">
+        <f>_xll.acq_vector_element($C$5,5*$E73+F$2)</f>
+        <v>0.12863120413385332</v>
+      </c>
+      <c r="G73">
+        <f>_xll.acq_vector_element($C$5,5*$E73+G$2)</f>
+        <v>7.9628254286944866E-2</v>
+      </c>
+      <c r="H73">
+        <f>_xll.acq_vector_element($C$5,5*$E73+H$2)</f>
+        <v>8.1780090229585767E-2</v>
+      </c>
+      <c r="I73">
+        <f>_xll.acq_vector_element($C$5,5*$E73+I$2)</f>
+        <v>0.48539682663977146</v>
+      </c>
+      <c r="J73">
+        <f>_xll.acq_vector_element($C$5,5*$E73+J$2)</f>
+        <v>0.13841557246632874</v>
+      </c>
+    </row>
+    <row r="74" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E74">
+        <v>71</v>
+      </c>
+      <c r="F74">
+        <f>_xll.acq_vector_element($C$5,5*$E74+F$2)</f>
+        <v>0.69856363325379789</v>
+      </c>
+      <c r="G74">
+        <f>_xll.acq_vector_element($C$5,5*$E74+G$2)</f>
+        <v>0.3993787148501724</v>
+      </c>
+      <c r="H74">
+        <f>_xll.acq_vector_element($C$5,5*$E74+H$2)</f>
+        <v>8.1568482797592878E-2</v>
+      </c>
+      <c r="I74">
+        <f>_xll.acq_vector_element($C$5,5*$E74+I$2)</f>
+        <v>0.42430685786530375</v>
+      </c>
+      <c r="J74">
+        <f>_xll.acq_vector_element($C$5,5*$E74+J$2)</f>
+        <v>0.869102364173159</v>
+      </c>
+    </row>
+    <row r="75" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E75">
+        <v>72</v>
+      </c>
+      <c r="F75">
+        <f>_xll.acq_vector_element($C$5,5*$E75+F$2)</f>
+        <v>0.56221838248893619</v>
+      </c>
+      <c r="G75">
+        <f>_xll.acq_vector_element($C$5,5*$E75+G$2)</f>
+        <v>0.43310568388551474</v>
+      </c>
+      <c r="H75">
+        <f>_xll.acq_vector_element($C$5,5*$E75+H$2)</f>
+        <v>0.12224355083890259</v>
+      </c>
+      <c r="I75">
+        <f>_xll.acq_vector_element($C$5,5*$E75+I$2)</f>
+        <v>0.49433006718754768</v>
+      </c>
+      <c r="J75">
+        <f>_xll.acq_vector_element($C$5,5*$E75+J$2)</f>
+        <v>0.20139950141310692</v>
+      </c>
+    </row>
+    <row r="76" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E76">
+        <v>73</v>
+      </c>
+      <c r="F76">
+        <f>_xll.acq_vector_element($C$5,5*$E76+F$2)</f>
+        <v>0.49574046907946467</v>
+      </c>
+      <c r="G76">
+        <f>_xll.acq_vector_element($C$5,5*$E76+G$2)</f>
+        <v>0.81164435110986233</v>
+      </c>
+      <c r="H76">
+        <f>_xll.acq_vector_element($C$5,5*$E76+H$2)</f>
+        <v>0.37072208477184176</v>
+      </c>
+      <c r="I76">
+        <f>_xll.acq_vector_element($C$5,5*$E76+I$2)</f>
+        <v>0.46798757067881525</v>
+      </c>
+      <c r="J76">
+        <f>_xll.acq_vector_element($C$5,5*$E76+J$2)</f>
+        <v>0.92212865897454321</v>
+      </c>
+    </row>
+    <row r="77" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E77">
+        <v>74</v>
+      </c>
+      <c r="F77">
+        <f>_xll.acq_vector_element($C$5,5*$E77+F$2)</f>
+        <v>0.80793820694088936</v>
+      </c>
+      <c r="G77">
+        <f>_xll.acq_vector_element($C$5,5*$E77+G$2)</f>
+        <v>0.84127822495065629</v>
+      </c>
+      <c r="H77">
+        <f>_xll.acq_vector_element($C$5,5*$E77+H$2)</f>
+        <v>7.4263769201934338E-3</v>
+      </c>
+      <c r="I77">
+        <f>_xll.acq_vector_element($C$5,5*$E77+I$2)</f>
+        <v>0.65552591858431697</v>
+      </c>
+      <c r="J77">
+        <f>_xll.acq_vector_element($C$5,5*$E77+J$2)</f>
+        <v>0.55159272719174623</v>
+      </c>
+    </row>
+    <row r="78" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E78">
+        <v>75</v>
+      </c>
+      <c r="F78">
+        <f>_xll.acq_vector_element($C$5,5*$E78+F$2)</f>
+        <v>0.46268504369072616</v>
+      </c>
+      <c r="G78">
+        <f>_xll.acq_vector_element($C$5,5*$E78+G$2)</f>
+        <v>0.93193214735947549</v>
+      </c>
+      <c r="H78">
+        <f>_xll.acq_vector_element($C$5,5*$E78+H$2)</f>
+        <v>0.56501131365075707</v>
+      </c>
+      <c r="I78">
+        <f>_xll.acq_vector_element($C$5,5*$E78+I$2)</f>
+        <v>0.58217546087689698</v>
+      </c>
+      <c r="J78">
+        <f>_xll.acq_vector_element($C$5,5*$E78+J$2)</f>
+        <v>0.4239155063405633</v>
+      </c>
+    </row>
+    <row r="79" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E79">
+        <v>76</v>
+      </c>
+      <c r="F79">
+        <f>_xll.acq_vector_element($C$5,5*$E79+F$2)</f>
+        <v>0.20609573018737137</v>
+      </c>
+      <c r="G79">
+        <f>_xll.acq_vector_element($C$5,5*$E79+G$2)</f>
+        <v>0.28821194916963577</v>
+      </c>
+      <c r="H79">
+        <f>_xll.acq_vector_element($C$5,5*$E79+H$2)</f>
+        <v>0.71775756194256246</v>
+      </c>
+      <c r="I79">
+        <f>_xll.acq_vector_element($C$5,5*$E79+I$2)</f>
+        <v>0.26398071669973433</v>
+      </c>
+      <c r="J79">
+        <f>_xll.acq_vector_element($C$5,5*$E79+J$2)</f>
+        <v>0.37898584501817822</v>
+      </c>
+    </row>
+    <row r="80" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E80">
+        <v>77</v>
+      </c>
+      <c r="F80">
+        <f>_xll.acq_vector_element($C$5,5*$E80+F$2)</f>
+        <v>0.69073822582140565</v>
+      </c>
+      <c r="G80">
+        <f>_xll.acq_vector_element($C$5,5*$E80+G$2)</f>
+        <v>0.66838394524529576</v>
+      </c>
+      <c r="H80">
+        <f>_xll.acq_vector_element($C$5,5*$E80+H$2)</f>
+        <v>0.83283653273247182</v>
+      </c>
+      <c r="I80">
+        <f>_xll.acq_vector_element($C$5,5*$E80+I$2)</f>
+        <v>2.9319724533706903E-2</v>
+      </c>
+      <c r="J80">
+        <f>_xll.acq_vector_element($C$5,5*$E80+J$2)</f>
+        <v>0.59239157452248037</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E81">
+        <v>78</v>
+      </c>
+      <c r="F81">
+        <f>_xll.acq_vector_element($C$5,5*$E81+F$2)</f>
+        <v>0.63590035657398403</v>
+      </c>
+      <c r="G81">
+        <f>_xll.acq_vector_element($C$5,5*$E81+G$2)</f>
+        <v>0.46652258792892098</v>
+      </c>
+      <c r="H81">
+        <f>_xll.acq_vector_element($C$5,5*$E81+H$2)</f>
+        <v>3.2197931315749884E-2</v>
+      </c>
+      <c r="I81">
+        <f>_xll.acq_vector_element($C$5,5*$E81+I$2)</f>
+        <v>0.67365998052991927</v>
+      </c>
+      <c r="J81">
+        <f>_xll.acq_vector_element($C$5,5*$E81+J$2)</f>
+        <v>0.7447806540876627</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E82">
+        <v>79</v>
+      </c>
+      <c r="F82">
+        <f>_xll.acq_vector_element($C$5,5*$E82+F$2)</f>
+        <v>0.39147935528308153</v>
+      </c>
+      <c r="G82">
+        <f>_xll.acq_vector_element($C$5,5*$E82+G$2)</f>
+        <v>0.47291300096549094</v>
+      </c>
+      <c r="H82">
+        <f>_xll.acq_vector_element($C$5,5*$E82+H$2)</f>
+        <v>0.70210437034256756</v>
+      </c>
+      <c r="I82">
+        <f>_xll.acq_vector_element($C$5,5*$E82+I$2)</f>
+        <v>0.12175435340031981</v>
+      </c>
+      <c r="J82">
+        <f>_xll.acq_vector_element($C$5,5*$E82+J$2)</f>
+        <v>0.96569764567539096</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E83">
+        <v>80</v>
+      </c>
+      <c r="F83">
+        <f>_xll.acq_vector_element($C$5,5*$E83+F$2)</f>
+        <v>0.54263593000359833</v>
+      </c>
+      <c r="G83">
+        <f>_xll.acq_vector_element($C$5,5*$E83+G$2)</f>
+        <v>9.0509882429614663E-2</v>
+      </c>
+      <c r="H83">
+        <f>_xll.acq_vector_element($C$5,5*$E83+H$2)</f>
+        <v>6.6774445120245218E-2</v>
+      </c>
+      <c r="I83">
+        <f>_xll.acq_vector_element($C$5,5*$E83+I$2)</f>
+        <v>5.8125134324654937E-2</v>
+      </c>
+      <c r="J83">
+        <f>_xll.acq_vector_element($C$5,5*$E83+J$2)</f>
+        <v>0.6533648669719696</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E84">
+        <v>81</v>
+      </c>
+      <c r="F84">
+        <f>_xll.acq_vector_element($C$5,5*$E84+F$2)</f>
+        <v>0.58801741222850978</v>
+      </c>
+      <c r="G84">
+        <f>_xll.acq_vector_element($C$5,5*$E84+G$2)</f>
+        <v>0.99608632572926581</v>
+      </c>
+      <c r="H84">
+        <f>_xll.acq_vector_element($C$5,5*$E84+H$2)</f>
+        <v>0.75117375398986042</v>
+      </c>
+      <c r="I84">
+        <f>_xll.acq_vector_element($C$5,5*$E84+I$2)</f>
+        <v>0.7693973402492702</v>
+      </c>
+      <c r="J84">
+        <f>_xll.acq_vector_element($C$5,5*$E84+J$2)</f>
+        <v>0.51131738885305822</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E85">
+        <v>82</v>
+      </c>
+      <c r="F85">
+        <f>_xll.acq_vector_element($C$5,5*$E85+F$2)</f>
+        <v>0.57377410843037069</v>
+      </c>
+      <c r="G85">
+        <f>_xll.acq_vector_element($C$5,5*$E85+G$2)</f>
+        <v>0.92050119279883802</v>
+      </c>
+      <c r="H85">
+        <f>_xll.acq_vector_element($C$5,5*$E85+H$2)</f>
+        <v>0.1026352618355304</v>
+      </c>
+      <c r="I85">
+        <f>_xll.acq_vector_element($C$5,5*$E85+I$2)</f>
+        <v>0.30396409775130451</v>
+      </c>
+      <c r="J85">
+        <f>_xll.acq_vector_element($C$5,5*$E85+J$2)</f>
+        <v>0.69983407622203231</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E86">
+        <v>83</v>
+      </c>
+      <c r="F86">
+        <f>_xll.acq_vector_element($C$5,5*$E86+F$2)</f>
+        <v>0.49300273088738322</v>
+      </c>
+      <c r="G86">
+        <f>_xll.acq_vector_element($C$5,5*$E86+G$2)</f>
+        <v>0.6611678667832166</v>
+      </c>
+      <c r="H86">
+        <f>_xll.acq_vector_element($C$5,5*$E86+H$2)</f>
+        <v>0.97936034644953907</v>
+      </c>
+      <c r="I86">
+        <f>_xll.acq_vector_element($C$5,5*$E86+I$2)</f>
+        <v>4.9097129376605153E-2</v>
+      </c>
+      <c r="J86">
+        <f>_xll.acq_vector_element($C$5,5*$E86+J$2)</f>
+        <v>0.32350826286710799</v>
+      </c>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E87">
+        <v>84</v>
+      </c>
+      <c r="F87">
+        <f>_xll.acq_vector_element($C$5,5*$E87+F$2)</f>
+        <v>0.79229930159635842</v>
+      </c>
+      <c r="G87">
+        <f>_xll.acq_vector_element($C$5,5*$E87+G$2)</f>
+        <v>0.18956717313267291</v>
+      </c>
+      <c r="H87">
+        <f>_xll.acq_vector_element($C$5,5*$E87+H$2)</f>
+        <v>0.5187165925744921</v>
+      </c>
+      <c r="I87">
+        <f>_xll.acq_vector_element($C$5,5*$E87+I$2)</f>
+        <v>0.30522910575382411</v>
+      </c>
+      <c r="J87">
+        <f>_xll.acq_vector_element($C$5,5*$E87+J$2)</f>
+        <v>0.42586769466288388</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E88">
+        <v>85</v>
+      </c>
+      <c r="F88">
+        <f>_xll.acq_vector_element($C$5,5*$E88+F$2)</f>
+        <v>0.34411192522384226</v>
+      </c>
+      <c r="G88">
+        <f>_xll.acq_vector_element($C$5,5*$E88+G$2)</f>
+        <v>0.78818716877140105</v>
+      </c>
+      <c r="H88">
+        <f>_xll.acq_vector_element($C$5,5*$E88+H$2)</f>
+        <v>0.67953029018826783</v>
+      </c>
+      <c r="I88">
+        <f>_xll.acq_vector_element($C$5,5*$E88+I$2)</f>
+        <v>0.41156922955997288</v>
+      </c>
+      <c r="J88">
+        <f>_xll.acq_vector_element($C$5,5*$E88+J$2)</f>
+        <v>5.38149937056005E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E89">
+        <v>86</v>
+      </c>
+      <c r="F89">
+        <f>_xll.acq_vector_element($C$5,5*$E89+F$2)</f>
+        <v>0.48102627554908395</v>
+      </c>
+      <c r="G89">
+        <f>_xll.acq_vector_element($C$5,5*$E89+G$2)</f>
+        <v>0.80660376627929509</v>
+      </c>
+      <c r="H89">
+        <f>_xll.acq_vector_element($C$5,5*$E89+H$2)</f>
+        <v>0.18162884213961661</v>
+      </c>
+      <c r="I89">
+        <f>_xll.acq_vector_element($C$5,5*$E89+I$2)</f>
+        <v>0.60295019042678177</v>
+      </c>
+      <c r="J89">
+        <f>_xll.acq_vector_element($C$5,5*$E89+J$2)</f>
+        <v>0.32131889835000038</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E90">
+        <v>87</v>
+      </c>
+      <c r="F90">
+        <f>_xll.acq_vector_element($C$5,5*$E90+F$2)</f>
+        <v>0.65521318418905139</v>
+      </c>
+      <c r="G90">
+        <f>_xll.acq_vector_element($C$5,5*$E90+G$2)</f>
+        <v>0.84553299634717405</v>
+      </c>
+      <c r="H90">
+        <f>_xll.acq_vector_element($C$5,5*$E90+H$2)</f>
+        <v>0.74765979126095772</v>
+      </c>
+      <c r="I90">
+        <f>_xll.acq_vector_element($C$5,5*$E90+I$2)</f>
+        <v>0.18690375192090869</v>
+      </c>
+      <c r="J90">
+        <f>_xll.acq_vector_element($C$5,5*$E90+J$2)</f>
+        <v>0.5356261758133769</v>
+      </c>
+    </row>
+    <row r="91" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E91">
+        <v>88</v>
+      </c>
+      <c r="F91">
+        <f>_xll.acq_vector_element($C$5,5*$E91+F$2)</f>
+        <v>0.41729106614366174</v>
+      </c>
+      <c r="G91">
+        <f>_xll.acq_vector_element($C$5,5*$E91+G$2)</f>
+        <v>0.10915647889487445</v>
+      </c>
+      <c r="H91">
+        <f>_xll.acq_vector_element($C$5,5*$E91+H$2)</f>
+        <v>0.9890345074236393</v>
+      </c>
+      <c r="I91">
+        <f>_xll.acq_vector_element($C$5,5*$E91+I$2)</f>
+        <v>0.49619629140943289</v>
+      </c>
+      <c r="J91">
+        <f>_xll.acq_vector_element($C$5,5*$E91+J$2)</f>
+        <v>0.23659981181845069</v>
+      </c>
+    </row>
+    <row r="92" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E92">
+        <v>89</v>
+      </c>
+      <c r="F92">
+        <f>_xll.acq_vector_element($C$5,5*$E92+F$2)</f>
+        <v>0.17234262125566602</v>
+      </c>
+      <c r="G92">
+        <f>_xll.acq_vector_element($C$5,5*$E92+G$2)</f>
+        <v>0.91683232947252691</v>
+      </c>
+      <c r="H92">
+        <f>_xll.acq_vector_element($C$5,5*$E92+H$2)</f>
+        <v>0.68398919189348817</v>
+      </c>
+      <c r="I92">
+        <f>_xll.acq_vector_element($C$5,5*$E92+I$2)</f>
+        <v>0.91839746502228081</v>
+      </c>
+      <c r="J92">
+        <f>_xll.acq_vector_element($C$5,5*$E92+J$2)</f>
+        <v>0.52982521383091807</v>
+      </c>
+    </row>
+    <row r="93" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E93">
+        <v>90</v>
+      </c>
+      <c r="F93">
+        <f>_xll.acq_vector_element($C$5,5*$E93+F$2)</f>
+        <v>9.1296341503039002E-2</v>
+      </c>
+      <c r="G93">
+        <f>_xll.acq_vector_element($C$5,5*$E93+G$2)</f>
+        <v>0.62522426247596741</v>
+      </c>
+      <c r="H93">
+        <f>_xll.acq_vector_element($C$5,5*$E93+H$2)</f>
+        <v>0.46365272253751755</v>
+      </c>
+      <c r="I93">
+        <f>_xll.acq_vector_element($C$5,5*$E93+I$2)</f>
+        <v>0.31514301942661405</v>
+      </c>
+      <c r="J93">
+        <f>_xll.acq_vector_element($C$5,5*$E93+J$2)</f>
+        <v>0.50221633305773139</v>
+      </c>
+    </row>
+    <row r="94" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E94">
+        <v>91</v>
+      </c>
+      <c r="F94">
+        <f>_xll.acq_vector_element($C$5,5*$E94+F$2)</f>
+        <v>0.49151063826866448</v>
+      </c>
+      <c r="G94">
+        <f>_xll.acq_vector_element($C$5,5*$E94+G$2)</f>
+        <v>0.31366894743405282</v>
+      </c>
+      <c r="H94">
+        <f>_xll.acq_vector_element($C$5,5*$E94+H$2)</f>
+        <v>0.82014204515144229</v>
+      </c>
+      <c r="I94">
+        <f>_xll.acq_vector_element($C$5,5*$E94+I$2)</f>
+        <v>4.733954300172627E-2</v>
+      </c>
+      <c r="J94">
+        <f>_xll.acq_vector_element($C$5,5*$E94+J$2)</f>
+        <v>0.1326204570941627</v>
+      </c>
+    </row>
+    <row r="95" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E95">
+        <v>92</v>
+      </c>
+      <c r="F95">
+        <f>_xll.acq_vector_element($C$5,5*$E95+F$2)</f>
+        <v>0.24168564309366047</v>
+      </c>
+      <c r="G95">
+        <f>_xll.acq_vector_element($C$5,5*$E95+G$2)</f>
+        <v>0.12130948808044195</v>
+      </c>
+      <c r="H95">
+        <f>_xll.acq_vector_element($C$5,5*$E95+H$2)</f>
+        <v>9.5529640326276422E-2</v>
+      </c>
+      <c r="I95">
+        <f>_xll.acq_vector_element($C$5,5*$E95+I$2)</f>
+        <v>0.44621493318118155</v>
+      </c>
+      <c r="J95">
+        <f>_xll.acq_vector_element($C$5,5*$E95+J$2)</f>
+        <v>0.23824990657158196</v>
+      </c>
+    </row>
+    <row r="96" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E96">
+        <v>93</v>
+      </c>
+      <c r="F96">
+        <f>_xll.acq_vector_element($C$5,5*$E96+F$2)</f>
+        <v>4.0934137534350157E-2</v>
+      </c>
+      <c r="G96">
+        <f>_xll.acq_vector_element($C$5,5*$E96+G$2)</f>
+        <v>0.80779108847491443</v>
+      </c>
+      <c r="H96">
+        <f>_xll.acq_vector_element($C$5,5*$E96+H$2)</f>
+        <v>0.30051670828834176</v>
+      </c>
+      <c r="I96">
+        <f>_xll.acq_vector_element($C$5,5*$E96+I$2)</f>
+        <v>0.89497828623279929</v>
+      </c>
+      <c r="J96">
+        <f>_xll.acq_vector_element($C$5,5*$E96+J$2)</f>
+        <v>0.40939041320234537</v>
+      </c>
+    </row>
+    <row r="97" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E97">
+        <v>94</v>
+      </c>
+      <c r="F97">
+        <f>_xll.acq_vector_element($C$5,5*$E97+F$2)</f>
+        <v>4.3222895357757807E-2</v>
+      </c>
+      <c r="G97">
+        <f>_xll.acq_vector_element($C$5,5*$E97+G$2)</f>
+        <v>0.37251939042471349</v>
+      </c>
+      <c r="H97">
+        <f>_xll.acq_vector_element($C$5,5*$E97+H$2)</f>
+        <v>0.30194683675654233</v>
+      </c>
+      <c r="I97">
+        <f>_xll.acq_vector_element($C$5,5*$E97+I$2)</f>
+        <v>0.33997016795910895</v>
+      </c>
+      <c r="J97">
+        <f>_xll.acq_vector_element($C$5,5*$E97+J$2)</f>
+        <v>0.98058219579979777</v>
+      </c>
+    </row>
+    <row r="98" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E98">
+        <v>95</v>
+      </c>
+      <c r="F98">
+        <f>_xll.acq_vector_element($C$5,5*$E98+F$2)</f>
+        <v>0.81257008155807853</v>
+      </c>
+      <c r="G98">
+        <f>_xll.acq_vector_element($C$5,5*$E98+G$2)</f>
+        <v>0.53950481861829758</v>
+      </c>
+      <c r="H98">
+        <f>_xll.acq_vector_element($C$5,5*$E98+H$2)</f>
+        <v>0.52820552582852542</v>
+      </c>
+      <c r="I98">
+        <f>_xll.acq_vector_element($C$5,5*$E98+I$2)</f>
+        <v>0.62630935781635344</v>
+      </c>
+      <c r="J98">
+        <f>_xll.acq_vector_element($C$5,5*$E98+J$2)</f>
+        <v>0.55382710765115917</v>
+      </c>
+    </row>
+    <row r="99" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E99">
+        <v>96</v>
+      </c>
+      <c r="F99">
+        <f>_xll.acq_vector_element($C$5,5*$E99+F$2)</f>
+        <v>5.5454075336456299E-3</v>
+      </c>
+      <c r="G99">
+        <f>_xll.acq_vector_element($C$5,5*$E99+G$2)</f>
+        <v>0.11720683611929417</v>
+      </c>
+      <c r="H99">
+        <f>_xll.acq_vector_element($C$5,5*$E99+H$2)</f>
+        <v>0.48490944458171725</v>
+      </c>
+      <c r="I99">
+        <f>_xll.acq_vector_element($C$5,5*$E99+I$2)</f>
+        <v>0.78460481716319919</v>
+      </c>
+      <c r="J99">
+        <f>_xll.acq_vector_element($C$5,5*$E99+J$2)</f>
+        <v>0.98832853441126645</v>
+      </c>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E100">
+        <v>97</v>
+      </c>
+      <c r="F100">
+        <f>_xll.acq_vector_element($C$5,5*$E100+F$2)</f>
+        <v>0.43458618922159076</v>
+      </c>
+      <c r="G100">
+        <f>_xll.acq_vector_element($C$5,5*$E100+G$2)</f>
+        <v>0.37518552807159722</v>
+      </c>
+      <c r="H100">
+        <f>_xll.acq_vector_element($C$5,5*$E100+H$2)</f>
+        <v>7.722273119725287E-2</v>
+      </c>
+      <c r="I100">
+        <f>_xll.acq_vector_element($C$5,5*$E100+I$2)</f>
+        <v>9.7038161940872669E-2</v>
+      </c>
+      <c r="J100">
+        <f>_xll.acq_vector_element($C$5,5*$E100+J$2)</f>
+        <v>0.18181153084151447</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E101">
+        <v>98</v>
+      </c>
+      <c r="F101">
+        <f>_xll.acq_vector_element($C$5,5*$E101+F$2)</f>
+        <v>0.46190875815227628</v>
+      </c>
+      <c r="G101">
+        <f>_xll.acq_vector_element($C$5,5*$E101+G$2)</f>
+        <v>0.52101086871698499</v>
+      </c>
+      <c r="H101">
+        <f>_xll.acq_vector_element($C$5,5*$E101+H$2)</f>
+        <v>0.96300446544773877</v>
+      </c>
+      <c r="I101">
+        <f>_xll.acq_vector_element($C$5,5*$E101+I$2)</f>
+        <v>0.47933416813611984</v>
+      </c>
+      <c r="J101">
+        <f>_xll.acq_vector_element($C$5,5*$E101+J$2)</f>
+        <v>0.34183061448857188</v>
+      </c>
+    </row>
+    <row r="102" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E102">
+        <v>99</v>
+      </c>
+      <c r="F102">
+        <f>_xll.acq_vector_element($C$5,5*$E102+F$2)</f>
+        <v>0.31354248570278287</v>
+      </c>
+      <c r="G102">
+        <f>_xll.acq_vector_element($C$5,5*$E102+G$2)</f>
+        <v>0.79892273875884712</v>
+      </c>
+      <c r="H102">
+        <f>_xll.acq_vector_element($C$5,5*$E102+H$2)</f>
+        <v>9.9669209215790033E-2</v>
+      </c>
+      <c r="I102">
+        <f>_xll.acq_vector_element($C$5,5*$E102+I$2)</f>
+        <v>0.7988463300280273</v>
+      </c>
+      <c r="J102">
+        <f>_xll.acq_vector_element($C$5,5*$E102+J$2)</f>
+        <v>0.59655266581103206</v>
+      </c>
+    </row>
+    <row r="103" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E103">
+        <v>100</v>
+      </c>
+      <c r="F103">
+        <f>_xll.acq_vector_element($C$5,5*$E103+F$2)</f>
+        <v>0.20824829488992691</v>
+      </c>
+      <c r="G103">
+        <f>_xll.acq_vector_element($C$5,5*$E103+G$2)</f>
+        <v>0.2481698882766068</v>
+      </c>
+      <c r="H103">
+        <f>_xll.acq_vector_element($C$5,5*$E103+H$2)</f>
+        <v>0.44336770265363157</v>
+      </c>
+      <c r="I103">
+        <f>_xll.acq_vector_element($C$5,5*$E103+I$2)</f>
+        <v>0.60434016422368586</v>
+      </c>
+      <c r="J103">
+        <f>_xll.acq_vector_element($C$5,5*$E103+J$2)</f>
+        <v>0.71560127288103104</v>
+      </c>
+    </row>
+    <row r="104" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E104">
+        <v>101</v>
+      </c>
+      <c r="F104">
+        <f>_xll.acq_vector_element($C$5,5*$E104+F$2)</f>
+        <v>0.30511365039274096</v>
+      </c>
+      <c r="G104">
+        <f>_xll.acq_vector_element($C$5,5*$E104+G$2)</f>
+        <v>0.41051977942697704</v>
+      </c>
+      <c r="H104">
+        <f>_xll.acq_vector_element($C$5,5*$E104+H$2)</f>
+        <v>0.89730494446121156</v>
+      </c>
+      <c r="I104">
+        <f>_xll.acq_vector_element($C$5,5*$E104+I$2)</f>
+        <v>0.19100695312954485</v>
+      </c>
+      <c r="J104">
+        <f>_xll.acq_vector_element($C$5,5*$E104+J$2)</f>
+        <v>0.58201532694511116</v>
+      </c>
+    </row>
+    <row r="105" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E105">
+        <v>102</v>
+      </c>
+      <c r="F105">
+        <f>_xll.acq_vector_element($C$5,5*$E105+F$2)</f>
+        <v>0.96749430685304105</v>
+      </c>
+      <c r="G105">
+        <f>_xll.acq_vector_element($C$5,5*$E105+G$2)</f>
+        <v>0.71249242476187646</v>
+      </c>
+      <c r="H105">
+        <f>_xll.acq_vector_element($C$5,5*$E105+H$2)</f>
+        <v>0.65075036510825157</v>
+      </c>
+      <c r="I105">
+        <f>_xll.acq_vector_element($C$5,5*$E105+I$2)</f>
+        <v>0.68361547077074647</v>
+      </c>
+      <c r="J105">
+        <f>_xll.acq_vector_element($C$5,5*$E105+J$2)</f>
+        <v>0.86545985075645149</v>
+      </c>
+    </row>
+    <row r="106" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E106">
+        <v>103</v>
+      </c>
+      <c r="F106">
+        <f>_xll.acq_vector_element($C$5,5*$E106+F$2)</f>
+        <v>0.9466208997182548</v>
+      </c>
+      <c r="G106">
+        <f>_xll.acq_vector_element($C$5,5*$E106+G$2)</f>
+        <v>2.5242354488000274E-2</v>
+      </c>
+      <c r="H106">
+        <f>_xll.acq_vector_element($C$5,5*$E106+H$2)</f>
+        <v>0.91323125851340592</v>
+      </c>
+      <c r="I106">
+        <f>_xll.acq_vector_element($C$5,5*$E106+I$2)</f>
+        <v>0.26690582139417529</v>
+      </c>
+      <c r="J106">
+        <f>_xll.acq_vector_element($C$5,5*$E106+J$2)</f>
+        <v>5.1254912046715617E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E107">
+        <v>104</v>
+      </c>
+      <c r="F107">
+        <f>_xll.acq_vector_element($C$5,5*$E107+F$2)</f>
+        <v>0.50207110214978456</v>
+      </c>
+      <c r="G107">
+        <f>_xll.acq_vector_element($C$5,5*$E107+G$2)</f>
+        <v>0.38031548983417451</v>
+      </c>
+      <c r="H107">
+        <f>_xll.acq_vector_element($C$5,5*$E107+H$2)</f>
+        <v>6.7448632325977087E-2</v>
+      </c>
+      <c r="I107">
+        <f>_xll.acq_vector_element($C$5,5*$E107+I$2)</f>
+        <v>0.56385653465986252</v>
+      </c>
+      <c r="J107">
+        <f>_xll.acq_vector_element($C$5,5*$E107+J$2)</f>
+        <v>0.99303326173685491</v>
+      </c>
+    </row>
+    <row r="108" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E108">
+        <v>105</v>
+      </c>
+      <c r="F108">
+        <f>_xll.acq_vector_element($C$5,5*$E108+F$2)</f>
+        <v>0.13257374172098935</v>
+      </c>
+      <c r="G108">
+        <f>_xll.acq_vector_element($C$5,5*$E108+G$2)</f>
+        <v>0.23646239866502583</v>
+      </c>
+      <c r="H108">
+        <f>_xll.acq_vector_element($C$5,5*$E108+H$2)</f>
+        <v>0.57513528876006603</v>
+      </c>
+      <c r="I108">
+        <f>_xll.acq_vector_element($C$5,5*$E108+I$2)</f>
+        <v>0.37429218553006649</v>
+      </c>
+      <c r="J108">
+        <f>_xll.acq_vector_element($C$5,5*$E108+J$2)</f>
+        <v>0.32256775326095521</v>
+      </c>
+    </row>
+    <row r="109" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E109">
+        <v>106</v>
+      </c>
+      <c r="F109">
+        <f>_xll.acq_vector_element($C$5,5*$E109+F$2)</f>
+        <v>0.21401191386394203</v>
+      </c>
+      <c r="G109">
+        <f>_xll.acq_vector_element($C$5,5*$E109+G$2)</f>
+        <v>0.98392756306566298</v>
+      </c>
+      <c r="H109">
+        <f>_xll.acq_vector_element($C$5,5*$E109+H$2)</f>
+        <v>0.10544586554169655</v>
+      </c>
+      <c r="I109">
+        <f>_xll.acq_vector_element($C$5,5*$E109+I$2)</f>
+        <v>0.57566582271829247</v>
+      </c>
+      <c r="J109">
+        <f>_xll.acq_vector_element($C$5,5*$E109+J$2)</f>
+        <v>0.23247978114522994</v>
+      </c>
+    </row>
+    <row r="110" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E110">
+        <v>107</v>
+      </c>
+      <c r="F110">
+        <f>_xll.acq_vector_element($C$5,5*$E110+F$2)</f>
+        <v>0.62972763343714178</v>
+      </c>
+      <c r="G110">
+        <f>_xll.acq_vector_element($C$5,5*$E110+G$2)</f>
+        <v>0.30061013367958367</v>
+      </c>
+      <c r="H110">
+        <f>_xll.acq_vector_element($C$5,5*$E110+H$2)</f>
+        <v>0.40101227606646717</v>
+      </c>
+      <c r="I110">
+        <f>_xll.acq_vector_element($C$5,5*$E110+I$2)</f>
+        <v>0.63444226956926286</v>
+      </c>
+      <c r="J110">
+        <f>_xll.acq_vector_element($C$5,5*$E110+J$2)</f>
+        <v>0.74463006481528282</v>
+      </c>
+    </row>
+    <row r="111" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E111">
+        <v>108</v>
+      </c>
+      <c r="F111">
+        <f>_xll.acq_vector_element($C$5,5*$E111+F$2)</f>
+        <v>0.28123478568159044</v>
+      </c>
+      <c r="G111">
+        <f>_xll.acq_vector_element($C$5,5*$E111+G$2)</f>
+        <v>0.40118592325598001</v>
+      </c>
+      <c r="H111">
+        <f>_xll.acq_vector_element($C$5,5*$E111+H$2)</f>
+        <v>0.36227676086127758</v>
+      </c>
+      <c r="I111">
+        <f>_xll.acq_vector_element($C$5,5*$E111+I$2)</f>
+        <v>0.76547512877732515</v>
+      </c>
+      <c r="J111">
+        <f>_xll.acq_vector_element($C$5,5*$E111+J$2)</f>
+        <v>5.9428422246128321E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E112">
+        <v>109</v>
+      </c>
+      <c r="F112">
+        <f>_xll.acq_vector_element($C$5,5*$E112+F$2)</f>
+        <v>0.98243123991414905</v>
+      </c>
+      <c r="G112">
+        <f>_xll.acq_vector_element($C$5,5*$E112+G$2)</f>
+        <v>0.36571912909857929</v>
+      </c>
+      <c r="H112">
+        <f>_xll.acq_vector_element($C$5,5*$E112+H$2)</f>
+        <v>0.16811676439829171</v>
+      </c>
+      <c r="I112">
+        <f>_xll.acq_vector_element($C$5,5*$E112+I$2)</f>
+        <v>0.53388598212040961</v>
+      </c>
+      <c r="J112">
+        <f>_xll.acq_vector_element($C$5,5*$E112+J$2)</f>
+        <v>0.47459468571469188</v>
+      </c>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E113">
+        <v>110</v>
+      </c>
+      <c r="F113">
+        <f>_xll.acq_vector_element($C$5,5*$E113+F$2)</f>
+        <v>0.16201583854854107</v>
+      </c>
+      <c r="G113">
+        <f>_xll.acq_vector_element($C$5,5*$E113+G$2)</f>
+        <v>0.54894047975540161</v>
+      </c>
+      <c r="H113">
+        <f>_xll.acq_vector_element($C$5,5*$E113+H$2)</f>
+        <v>0.59743311093188822</v>
+      </c>
+      <c r="I113">
+        <f>_xll.acq_vector_element($C$5,5*$E113+I$2)</f>
+        <v>0.43610734399408102</v>
+      </c>
+      <c r="J113">
+        <f>_xll.acq_vector_element($C$5,5*$E113+J$2)</f>
+        <v>0.29315246664918959</v>
+      </c>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E114">
+        <v>111</v>
+      </c>
+      <c r="F114">
+        <f>_xll.acq_vector_element($C$5,5*$E114+F$2)</f>
+        <v>0.29673129809089005</v>
+      </c>
+      <c r="G114">
+        <f>_xll.acq_vector_element($C$5,5*$E114+G$2)</f>
+        <v>0.63205049838870764</v>
+      </c>
+      <c r="H114">
+        <f>_xll.acq_vector_element($C$5,5*$E114+H$2)</f>
+        <v>0.39356374624185264</v>
+      </c>
+      <c r="I114">
+        <f>_xll.acq_vector_element($C$5,5*$E114+I$2)</f>
+        <v>2.6196605525910854E-2</v>
+      </c>
+      <c r="J114">
+        <f>_xll.acq_vector_element($C$5,5*$E114+J$2)</f>
+        <v>0.8380811233073473</v>
+      </c>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E115">
+        <v>112</v>
+      </c>
+      <c r="F115">
+        <f>_xll.acq_vector_element($C$5,5*$E115+F$2)</f>
+        <v>0.8875934574753046</v>
+      </c>
+      <c r="G115">
+        <f>_xll.acq_vector_element($C$5,5*$E115+G$2)</f>
+        <v>0.65164256561547518</v>
+      </c>
+      <c r="H115">
+        <f>_xll.acq_vector_element($C$5,5*$E115+H$2)</f>
+        <v>1.6118628438562155E-2</v>
+      </c>
+      <c r="I115">
+        <f>_xll.acq_vector_element($C$5,5*$E115+I$2)</f>
+        <v>0.95389693789184093</v>
+      </c>
+      <c r="J115">
+        <f>_xll.acq_vector_element($C$5,5*$E115+J$2)</f>
+        <v>0.12695803469978273</v>
+      </c>
+    </row>
+    <row r="116" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E116">
+        <v>113</v>
+      </c>
+      <c r="F116">
+        <f>_xll.acq_vector_element($C$5,5*$E116+F$2)</f>
+        <v>0.47700022882781923</v>
+      </c>
+      <c r="G116">
+        <f>_xll.acq_vector_element($C$5,5*$E116+G$2)</f>
+        <v>0.77716245828196406</v>
+      </c>
+      <c r="H116">
+        <f>_xll.acq_vector_element($C$5,5*$E116+H$2)</f>
+        <v>0.87889354932121933</v>
+      </c>
+      <c r="I116">
+        <f>_xll.acq_vector_element($C$5,5*$E116+I$2)</f>
+        <v>4.5895227929577231E-2</v>
+      </c>
+      <c r="J116">
+        <f>_xll.acq_vector_element($C$5,5*$E116+J$2)</f>
+        <v>0.79220778332091868</v>
+      </c>
+    </row>
+    <row r="117" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E117">
+        <v>114</v>
+      </c>
+      <c r="F117">
+        <f>_xll.acq_vector_element($C$5,5*$E117+F$2)</f>
+        <v>0.71099869511090219</v>
+      </c>
+      <c r="G117">
+        <f>_xll.acq_vector_element($C$5,5*$E117+G$2)</f>
+        <v>0.2653575234580785</v>
+      </c>
+      <c r="H117">
+        <f>_xll.acq_vector_element($C$5,5*$E117+H$2)</f>
+        <v>0.9710461376234889</v>
+      </c>
+      <c r="I117">
+        <f>_xll.acq_vector_element($C$5,5*$E117+I$2)</f>
+        <v>0.76243826793506742</v>
+      </c>
+      <c r="J117">
+        <f>_xll.acq_vector_element($C$5,5*$E117+J$2)</f>
+        <v>0.8716829342301935</v>
+      </c>
+    </row>
+    <row r="118" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E118">
+        <v>115</v>
+      </c>
+      <c r="F118">
+        <f>_xll.acq_vector_element($C$5,5*$E118+F$2)</f>
+        <v>0.82273638993501663</v>
+      </c>
+      <c r="G118">
+        <f>_xll.acq_vector_element($C$5,5*$E118+G$2)</f>
+        <v>0.71016164869070053</v>
+      </c>
+      <c r="H118">
+        <f>_xll.acq_vector_element($C$5,5*$E118+H$2)</f>
+        <v>0.35299236536957324</v>
+      </c>
+      <c r="I118">
+        <f>_xll.acq_vector_element($C$5,5*$E118+I$2)</f>
+        <v>0.95850973785854876</v>
+      </c>
+      <c r="J118">
+        <f>_xll.acq_vector_element($C$5,5*$E118+J$2)</f>
+        <v>0.97423197608441114</v>
+      </c>
+    </row>
+    <row r="119" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E119">
+        <v>116</v>
+      </c>
+      <c r="F119">
+        <f>_xll.acq_vector_element($C$5,5*$E119+F$2)</f>
+        <v>0.42981333518400788</v>
+      </c>
+      <c r="G119">
+        <f>_xll.acq_vector_element($C$5,5*$E119+G$2)</f>
+        <v>0.67523335036821663</v>
+      </c>
+      <c r="H119">
+        <f>_xll.acq_vector_element($C$5,5*$E119+H$2)</f>
+        <v>0.87287890980951488</v>
+      </c>
+      <c r="I119">
+        <f>_xll.acq_vector_element($C$5,5*$E119+I$2)</f>
+        <v>0.69937964645214379</v>
+      </c>
+      <c r="J119">
+        <f>_xll.acq_vector_element($C$5,5*$E119+J$2)</f>
+        <v>0.35595767176710069</v>
+      </c>
+    </row>
+    <row r="120" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E120">
+        <v>117</v>
+      </c>
+      <c r="F120">
+        <f>_xll.acq_vector_element($C$5,5*$E120+F$2)</f>
+        <v>0.45959691819734871</v>
+      </c>
+      <c r="G120">
+        <f>_xll.acq_vector_element($C$5,5*$E120+G$2)</f>
+        <v>0.92976365657523274</v>
+      </c>
+      <c r="H120">
+        <f>_xll.acq_vector_element($C$5,5*$E120+H$2)</f>
+        <v>6.9734916556626558E-2</v>
+      </c>
+      <c r="I120">
+        <f>_xll.acq_vector_element($C$5,5*$E120+I$2)</f>
+        <v>0.1487776548601687</v>
+      </c>
+      <c r="J120">
+        <f>_xll.acq_vector_element($C$5,5*$E120+J$2)</f>
+        <v>0.99798017158173025</v>
+      </c>
+    </row>
+    <row r="121" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E121">
+        <v>118</v>
+      </c>
+      <c r="F121">
+        <f>_xll.acq_vector_element($C$5,5*$E121+F$2)</f>
+        <v>0.94002901460044086</v>
+      </c>
+      <c r="G121">
+        <f>_xll.acq_vector_element($C$5,5*$E121+G$2)</f>
+        <v>0.63775095739401877</v>
+      </c>
+      <c r="H121">
+        <f>_xll.acq_vector_element($C$5,5*$E121+H$2)</f>
+        <v>0.83271620119921863</v>
+      </c>
+      <c r="I121">
+        <f>_xll.acq_vector_element($C$5,5*$E121+I$2)</f>
+        <v>6.8152583437040448E-2</v>
+      </c>
+      <c r="J121">
+        <f>_xll.acq_vector_element($C$5,5*$E121+J$2)</f>
+        <v>0.84605483920313418</v>
+      </c>
+    </row>
+    <row r="122" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E122">
+        <v>119</v>
+      </c>
+      <c r="F122">
+        <f>_xll.acq_vector_element($C$5,5*$E122+F$2)</f>
+        <v>0.14613704080693424</v>
+      </c>
+      <c r="G122">
+        <f>_xll.acq_vector_element($C$5,5*$E122+G$2)</f>
+        <v>0.12392300879582763</v>
+      </c>
+      <c r="H122">
+        <f>_xll.acq_vector_element($C$5,5*$E122+H$2)</f>
+        <v>0.83891327260062099</v>
+      </c>
+      <c r="I122">
+        <f>_xll.acq_vector_element($C$5,5*$E122+I$2)</f>
+        <v>0.59648689674213529</v>
+      </c>
+      <c r="J122">
+        <f>_xll.acq_vector_element($C$5,5*$E122+J$2)</f>
+        <v>0.27719491417519748</v>
+      </c>
+    </row>
+    <row r="123" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E123">
+        <v>120</v>
+      </c>
+      <c r="F123">
+        <f>_xll.acq_vector_element($C$5,5*$E123+F$2)</f>
+        <v>1.6392480814829469E-2</v>
+      </c>
+      <c r="G123">
+        <f>_xll.acq_vector_element($C$5,5*$E123+G$2)</f>
+        <v>0.5394509716425091</v>
+      </c>
+      <c r="H123">
+        <f>_xll.acq_vector_element($C$5,5*$E123+H$2)</f>
+        <v>0.72118437220342457</v>
+      </c>
+      <c r="I123">
+        <f>_xll.acq_vector_element($C$5,5*$E123+I$2)</f>
+        <v>8.0432774499058723E-2</v>
+      </c>
+      <c r="J123">
+        <f>_xll.acq_vector_element($C$5,5*$E123+J$2)</f>
+        <v>7.7375136315822601E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E124">
+        <v>121</v>
+      </c>
+      <c r="F124">
+        <f>_xll.acq_vector_element($C$5,5*$E124+F$2)</f>
+        <v>0.56634673895314336</v>
+      </c>
+      <c r="G124">
+        <f>_xll.acq_vector_element($C$5,5*$E124+G$2)</f>
+        <v>8.4822275443002582E-2</v>
+      </c>
+      <c r="H124">
+        <f>_xll.acq_vector_element($C$5,5*$E124+H$2)</f>
+        <v>0.3624849112238735</v>
+      </c>
+      <c r="I124">
+        <f>_xll.acq_vector_element($C$5,5*$E124+I$2)</f>
+        <v>0.22549841413274407</v>
+      </c>
+      <c r="J124">
+        <f>_xll.acq_vector_element($C$5,5*$E124+J$2)</f>
+        <v>0.31821363628841937</v>
+      </c>
+    </row>
+    <row r="125" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E125">
+        <v>122</v>
+      </c>
+      <c r="F125">
+        <f>_xll.acq_vector_element($C$5,5*$E125+F$2)</f>
+        <v>0.87512453529052436</v>
+      </c>
+      <c r="G125">
+        <f>_xll.acq_vector_element($C$5,5*$E125+G$2)</f>
+        <v>0.65352326119318604</v>
+      </c>
+      <c r="H125">
+        <f>_xll.acq_vector_element($C$5,5*$E125+H$2)</f>
+        <v>0.36357631953433156</v>
+      </c>
+      <c r="I125">
+        <f>_xll.acq_vector_element($C$5,5*$E125+I$2)</f>
+        <v>0.35490299924276769</v>
+      </c>
+      <c r="J125">
+        <f>_xll.acq_vector_element($C$5,5*$E125+J$2)</f>
+        <v>0.53995993197895586</v>
+      </c>
+    </row>
+    <row r="126" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E126">
+        <v>123</v>
+      </c>
+      <c r="F126">
+        <f>_xll.acq_vector_element($C$5,5*$E126+F$2)</f>
+        <v>0.71525680623017251</v>
+      </c>
+      <c r="G126">
+        <f>_xll.acq_vector_element($C$5,5*$E126+G$2)</f>
+        <v>0.56810321076773107</v>
+      </c>
+      <c r="H126">
+        <f>_xll.acq_vector_element($C$5,5*$E126+H$2)</f>
+        <v>0.62828149297274649</v>
+      </c>
+      <c r="I126">
+        <f>_xll.acq_vector_element($C$5,5*$E126+I$2)</f>
+        <v>0.22546335915103555</v>
+      </c>
+      <c r="J126">
+        <f>_xll.acq_vector_element($C$5,5*$E126+J$2)</f>
+        <v>0.96751133073121309</v>
+      </c>
+    </row>
+    <row r="127" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E127">
+        <v>124</v>
+      </c>
+      <c r="F127">
+        <f>_xll.acq_vector_element($C$5,5*$E127+F$2)</f>
+        <v>0.57214676891453564</v>
+      </c>
+      <c r="G127">
+        <f>_xll.acq_vector_element($C$5,5*$E127+G$2)</f>
+        <v>0.28141752164810896</v>
+      </c>
+      <c r="H127">
+        <f>_xll.acq_vector_element($C$5,5*$E127+H$2)</f>
+        <v>0.66095179924741387</v>
+      </c>
+      <c r="I127">
+        <f>_xll.acq_vector_element($C$5,5*$E127+I$2)</f>
+        <v>0.24639504728838801</v>
+      </c>
+      <c r="J127">
+        <f>_xll.acq_vector_element($C$5,5*$E127+J$2)</f>
+        <v>0.29824539902620018</v>
+      </c>
+    </row>
+    <row r="128" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E128">
+        <v>125</v>
+      </c>
+      <c r="F128">
+        <f>_xll.acq_vector_element($C$5,5*$E128+F$2)</f>
+        <v>7.7518358128145337E-2</v>
+      </c>
+      <c r="G128">
+        <f>_xll.acq_vector_element($C$5,5*$E128+G$2)</f>
+        <v>0.41862685396336019</v>
+      </c>
+      <c r="H128">
+        <f>_xll.acq_vector_element($C$5,5*$E128+H$2)</f>
+        <v>0.8920754911378026</v>
+      </c>
+      <c r="I128">
+        <f>_xll.acq_vector_element($C$5,5*$E128+I$2)</f>
+        <v>0.45308892778120935</v>
+      </c>
+      <c r="J128">
+        <f>_xll.acq_vector_element($C$5,5*$E128+J$2)</f>
+        <v>3.4545013448223472E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E129">
+        <v>126</v>
+      </c>
+      <c r="F129">
+        <f>_xll.acq_vector_element($C$5,5*$E129+F$2)</f>
+        <v>0.93235066486522555</v>
+      </c>
+      <c r="G129">
+        <f>_xll.acq_vector_element($C$5,5*$E129+G$2)</f>
+        <v>0.49147516675293446</v>
+      </c>
+      <c r="H129">
+        <f>_xll.acq_vector_element($C$5,5*$E129+H$2)</f>
+        <v>0.5874937535263598</v>
+      </c>
+      <c r="I129">
+        <f>_xll.acq_vector_element($C$5,5*$E129+I$2)</f>
+        <v>9.0455962345004082E-4</v>
+      </c>
+      <c r="J129">
+        <f>_xll.acq_vector_element($C$5,5*$E129+J$2)</f>
+        <v>0.9482523687183857</v>
+      </c>
+    </row>
+    <row r="130" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E130">
+        <v>127</v>
+      </c>
+      <c r="F130">
+        <f>_xll.acq_vector_element($C$5,5*$E130+F$2)</f>
+        <v>0.88919860171154141</v>
+      </c>
+      <c r="G130">
+        <f>_xll.acq_vector_element($C$5,5*$E130+G$2)</f>
+        <v>0.55603475659154356</v>
+      </c>
+      <c r="H130">
+        <f>_xll.acq_vector_element($C$5,5*$E130+H$2)</f>
+        <v>0.33939747232943773</v>
+      </c>
+      <c r="I130">
+        <f>_xll.acq_vector_element($C$5,5*$E130+I$2)</f>
+        <v>0.50056141684763134</v>
+      </c>
+      <c r="J130">
+        <f>_xll.acq_vector_element($C$5,5*$E130+J$2)</f>
+        <v>0.63081819727085531</v>
+      </c>
+    </row>
+    <row r="131" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E131">
+        <v>128</v>
+      </c>
+      <c r="F131">
+        <f>_xll.acq_vector_element($C$5,5*$E131+F$2)</f>
+        <v>3.5322129260748625E-3</v>
+      </c>
+      <c r="G131">
+        <f>_xll.acq_vector_element($C$5,5*$E131+G$2)</f>
+        <v>0.33070654957555234</v>
+      </c>
+      <c r="H131">
+        <f>_xll.acq_vector_element($C$5,5*$E131+H$2)</f>
+        <v>0.48088903725147247</v>
+      </c>
+      <c r="I131">
+        <f>_xll.acq_vector_element($C$5,5*$E131+I$2)</f>
+        <v>0.88898973469622433</v>
+      </c>
+      <c r="J131">
+        <f>_xll.acq_vector_element($C$5,5*$E131+J$2)</f>
+        <v>0.92745499475859106</v>
+      </c>
+    </row>
+    <row r="132" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E132">
+        <v>129</v>
+      </c>
+      <c r="F132">
+        <f>_xll.acq_vector_element($C$5,5*$E132+F$2)</f>
+        <v>0.72932239016517997</v>
+      </c>
+      <c r="G132">
+        <f>_xll.acq_vector_element($C$5,5*$E132+G$2)</f>
+        <v>0.19836569507606328</v>
+      </c>
+      <c r="H132">
+        <f>_xll.acq_vector_element($C$5,5*$E132+H$2)</f>
+        <v>9.4320779666304588E-2</v>
+      </c>
+      <c r="I132">
+        <f>_xll.acq_vector_element($C$5,5*$E132+I$2)</f>
+        <v>5.2091130521148443E-2</v>
+      </c>
+      <c r="J132">
+        <f>_xll.acq_vector_element($C$5,5*$E132+J$2)</f>
+        <v>0.70670120767317712</v>
+      </c>
+    </row>
+    <row r="133" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E133">
+        <v>130</v>
+      </c>
+      <c r="F133">
+        <f>_xll.acq_vector_element($C$5,5*$E133+F$2)</f>
+        <v>0.40677888924255967</v>
+      </c>
+      <c r="G133">
+        <f>_xll.acq_vector_element($C$5,5*$E133+G$2)</f>
+        <v>0.88041666708886623</v>
+      </c>
+      <c r="H133">
+        <f>_xll.acq_vector_element($C$5,5*$E133+H$2)</f>
+        <v>0.37239647656679153</v>
+      </c>
+      <c r="I133">
+        <f>_xll.acq_vector_element($C$5,5*$E133+I$2)</f>
+        <v>0.54053781880065799</v>
+      </c>
+      <c r="J133">
+        <f>_xll.acq_vector_element($C$5,5*$E133+J$2)</f>
+        <v>0.85715305712074041</v>
+      </c>
+    </row>
+    <row r="134" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E134">
+        <v>131</v>
+      </c>
+      <c r="F134">
+        <f>_xll.acq_vector_element($C$5,5*$E134+F$2)</f>
+        <v>0.97573084873147309</v>
+      </c>
+      <c r="G134">
+        <f>_xll.acq_vector_element($C$5,5*$E134+G$2)</f>
+        <v>2.6611116481944919E-2</v>
+      </c>
+      <c r="H134">
+        <f>_xll.acq_vector_element($C$5,5*$E134+H$2)</f>
+        <v>0.47000322910025716</v>
+      </c>
+      <c r="I134">
+        <f>_xll.acq_vector_element($C$5,5*$E134+I$2)</f>
+        <v>0.92014923295937479</v>
+      </c>
+      <c r="J134">
+        <f>_xll.acq_vector_element($C$5,5*$E134+J$2)</f>
+        <v>3.9203633554279804E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E135">
+        <v>132</v>
+      </c>
+      <c r="F135">
+        <f>_xll.acq_vector_element($C$5,5*$E135+F$2)</f>
+        <v>0.68090299959294498</v>
+      </c>
+      <c r="G135">
+        <f>_xll.acq_vector_element($C$5,5*$E135+G$2)</f>
+        <v>0.51348934764973819</v>
+      </c>
+      <c r="H135">
+        <f>_xll.acq_vector_element($C$5,5*$E135+H$2)</f>
+        <v>0.90422599227167666</v>
+      </c>
+      <c r="I135">
+        <f>_xll.acq_vector_element($C$5,5*$E135+I$2)</f>
+        <v>0.52184079377911985</v>
+      </c>
+      <c r="J135">
+        <f>_xll.acq_vector_element($C$5,5*$E135+J$2)</f>
+        <v>0.60752907046116889</v>
+      </c>
+    </row>
+    <row r="136" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E136">
+        <v>133</v>
+      </c>
+      <c r="F136">
+        <f>_xll.acq_vector_element($C$5,5*$E136+F$2)</f>
+        <v>0.57949723489582539</v>
+      </c>
+      <c r="G136">
+        <f>_xll.acq_vector_element($C$5,5*$E136+G$2)</f>
+        <v>0.81195330619812012</v>
+      </c>
+      <c r="H136">
+        <f>_xll.acq_vector_element($C$5,5*$E136+H$2)</f>
+        <v>0.83725076192058623</v>
+      </c>
+      <c r="I136">
+        <f>_xll.acq_vector_element($C$5,5*$E136+I$2)</f>
+        <v>0.33554387791082263</v>
+      </c>
+      <c r="J136">
+        <f>_xll.acq_vector_element($C$5,5*$E136+J$2)</f>
+        <v>0.35076231230050325</v>
+      </c>
+    </row>
+    <row r="137" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E137">
+        <v>134</v>
+      </c>
+      <c r="F137">
+        <f>_xll.acq_vector_element($C$5,5*$E137+F$2)</f>
+        <v>0.34956622659228742</v>
+      </c>
+      <c r="G137">
+        <f>_xll.acq_vector_element($C$5,5*$E137+G$2)</f>
+        <v>0.91138899745419621</v>
+      </c>
+      <c r="H137">
+        <f>_xll.acq_vector_element($C$5,5*$E137+H$2)</f>
+        <v>0.3898742338642478</v>
+      </c>
+      <c r="I137">
+        <f>_xll.acq_vector_element($C$5,5*$E137+I$2)</f>
+        <v>0.40041210851632059</v>
+      </c>
+      <c r="J137">
+        <f>_xll.acq_vector_element($C$5,5*$E137+J$2)</f>
+        <v>0.75479708495549858</v>
+      </c>
+    </row>
+    <row r="138" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E138">
+        <v>135</v>
+      </c>
+      <c r="F138">
+        <f>_xll.acq_vector_element($C$5,5*$E138+F$2)</f>
+        <v>0.38972964766435325</v>
+      </c>
+      <c r="G138">
+        <f>_xll.acq_vector_element($C$5,5*$E138+G$2)</f>
+        <v>0.36929117608815432</v>
+      </c>
+      <c r="H138">
+        <f>_xll.acq_vector_element($C$5,5*$E138+H$2)</f>
+        <v>0.40226480923593044</v>
+      </c>
+      <c r="I138">
+        <f>_xll.acq_vector_element($C$5,5*$E138+I$2)</f>
+        <v>0.24221981014125049</v>
+      </c>
+      <c r="J138">
+        <f>_xll.acq_vector_element($C$5,5*$E138+J$2)</f>
+        <v>0.10399177391082048</v>
+      </c>
+    </row>
+    <row r="139" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E139">
+        <v>136</v>
+      </c>
+      <c r="F139">
+        <f>_xll.acq_vector_element($C$5,5*$E139+F$2)</f>
+        <v>0.93766835913993418</v>
+      </c>
+      <c r="G139">
+        <f>_xll.acq_vector_element($C$5,5*$E139+G$2)</f>
+        <v>0.4659271533600986</v>
+      </c>
+      <c r="H139">
+        <f>_xll.acq_vector_element($C$5,5*$E139+H$2)</f>
+        <v>0.90801108023151755</v>
+      </c>
+      <c r="I139">
+        <f>_xll.acq_vector_element($C$5,5*$E139+I$2)</f>
+        <v>0.64807115541771054</v>
+      </c>
+      <c r="J139">
+        <f>_xll.acq_vector_element($C$5,5*$E139+J$2)</f>
+        <v>0.34879731549881399</v>
+      </c>
+    </row>
+    <row r="140" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E140">
+        <v>137</v>
+      </c>
+      <c r="F140">
+        <f>_xll.acq_vector_element($C$5,5*$E140+F$2)</f>
+        <v>0.29769380181096494</v>
+      </c>
+      <c r="G140">
+        <f>_xll.acq_vector_element($C$5,5*$E140+G$2)</f>
+        <v>0.63463806710205972</v>
+      </c>
+      <c r="H140">
+        <f>_xll.acq_vector_element($C$5,5*$E140+H$2)</f>
+        <v>0.89233948453329504</v>
+      </c>
+      <c r="I140">
+        <f>_xll.acq_vector_element($C$5,5*$E140+I$2)</f>
+        <v>0.27384221274405718</v>
+      </c>
+      <c r="J140">
+        <f>_xll.acq_vector_element($C$5,5*$E140+J$2)</f>
+        <v>0.47857095976360142</v>
+      </c>
+    </row>
+    <row r="141" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E141">
+        <v>138</v>
+      </c>
+      <c r="F141">
+        <f>_xll.acq_vector_element($C$5,5*$E141+F$2)</f>
+        <v>0.20611512893810868</v>
+      </c>
+      <c r="G141">
+        <f>_xll.acq_vector_element($C$5,5*$E141+G$2)</f>
+        <v>0.28236280544660985</v>
+      </c>
+      <c r="H141">
+        <f>_xll.acq_vector_element($C$5,5*$E141+H$2)</f>
+        <v>0.33633953146636486</v>
+      </c>
+      <c r="I141">
+        <f>_xll.acq_vector_element($C$5,5*$E141+I$2)</f>
+        <v>0.41853987518697977</v>
+      </c>
+      <c r="J141">
+        <f>_xll.acq_vector_element($C$5,5*$E141+J$2)</f>
+        <v>0.32709989324212074</v>
+      </c>
+    </row>
+    <row r="142" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E142">
+        <v>139</v>
+      </c>
+      <c r="F142">
+        <f>_xll.acq_vector_element($C$5,5*$E142+F$2)</f>
+        <v>0.41589655145071447</v>
+      </c>
+      <c r="G142">
+        <f>_xll.acq_vector_element($C$5,5*$E142+G$2)</f>
+        <v>0.88227609870955348</v>
+      </c>
+      <c r="H142">
+        <f>_xll.acq_vector_element($C$5,5*$E142+H$2)</f>
+        <v>0.77130792546086013</v>
+      </c>
+      <c r="I142">
+        <f>_xll.acq_vector_element($C$5,5*$E142+I$2)</f>
+        <v>0.82230381644330919</v>
+      </c>
+      <c r="J142">
+        <f>_xll.acq_vector_element($C$5,5*$E142+J$2)</f>
+        <v>0.73795137484557927</v>
+      </c>
+    </row>
+    <row r="143" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E143">
+        <v>140</v>
+      </c>
+      <c r="F143">
+        <f>_xll.acq_vector_element($C$5,5*$E143+F$2)</f>
+        <v>0.70962322736158967</v>
+      </c>
+      <c r="G143">
+        <f>_xll.acq_vector_element($C$5,5*$E143+G$2)</f>
+        <v>0.47322684014216065</v>
+      </c>
+      <c r="H143">
+        <f>_xll.acq_vector_element($C$5,5*$E143+H$2)</f>
+        <v>0.95934522501192987</v>
+      </c>
+      <c r="I143">
+        <f>_xll.acq_vector_element($C$5,5*$E143+I$2)</f>
+        <v>0.50189736252650619</v>
+      </c>
+      <c r="J143">
+        <f>_xll.acq_vector_element($C$5,5*$E143+J$2)</f>
+        <v>0.42254334758035839</v>
+      </c>
+    </row>
+    <row r="144" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E144">
+        <v>141</v>
+      </c>
+      <c r="F144">
+        <f>_xll.acq_vector_element($C$5,5*$E144+F$2)</f>
+        <v>0.83566530514508486</v>
+      </c>
+      <c r="G144">
+        <f>_xll.acq_vector_element($C$5,5*$E144+G$2)</f>
+        <v>0.24503303715027869</v>
+      </c>
+      <c r="H144">
+        <f>_xll.acq_vector_element($C$5,5*$E144+H$2)</f>
+        <v>0.71987927728332579</v>
+      </c>
+      <c r="I144">
+        <f>_xll.acq_vector_element($C$5,5*$E144+I$2)</f>
+        <v>0.11739844013936818</v>
+      </c>
+      <c r="J144">
+        <f>_xll.acq_vector_element($C$5,5*$E144+J$2)</f>
+        <v>0.51059239520691335</v>
+      </c>
+    </row>
+    <row r="145" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E145">
+        <v>142</v>
+      </c>
+      <c r="F145">
+        <f>_xll.acq_vector_element($C$5,5*$E145+F$2)</f>
+        <v>0.30105335311964154</v>
+      </c>
+      <c r="G145">
+        <f>_xll.acq_vector_element($C$5,5*$E145+G$2)</f>
+        <v>0.74453522241674364</v>
+      </c>
+      <c r="H145">
+        <f>_xll.acq_vector_element($C$5,5*$E145+H$2)</f>
+        <v>0.1452637342736125</v>
+      </c>
+      <c r="I145">
+        <f>_xll.acq_vector_element($C$5,5*$E145+I$2)</f>
+        <v>0.33431073511019349</v>
+      </c>
+      <c r="J145">
+        <f>_xll.acq_vector_element($C$5,5*$E145+J$2)</f>
+        <v>9.2186099383980036E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E146">
+        <v>143</v>
+      </c>
+      <c r="F146">
+        <f>_xll.acq_vector_element($C$5,5*$E146+F$2)</f>
+        <v>0.54196940525434911</v>
+      </c>
+      <c r="G146">
+        <f>_xll.acq_vector_element($C$5,5*$E146+G$2)</f>
+        <v>0.60293219424784184</v>
+      </c>
+      <c r="H146">
+        <f>_xll.acq_vector_element($C$5,5*$E146+H$2)</f>
+        <v>0.58005232573486865</v>
+      </c>
+      <c r="I146">
+        <f>_xll.acq_vector_element($C$5,5*$E146+I$2)</f>
+        <v>0.36418745573610067</v>
+      </c>
+      <c r="J146">
+        <f>_xll.acq_vector_element($C$5,5*$E146+J$2)</f>
+        <v>7.2424470679834485E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E147">
+        <v>144</v>
+      </c>
+      <c r="F147">
+        <f>_xll.acq_vector_element($C$5,5*$E147+F$2)</f>
+        <v>0.56457034102641046</v>
+      </c>
+      <c r="G147">
+        <f>_xll.acq_vector_element($C$5,5*$E147+G$2)</f>
+        <v>0.67943602288141847</v>
+      </c>
+      <c r="H147">
+        <f>_xll.acq_vector_element($C$5,5*$E147+H$2)</f>
+        <v>0.1913357200101018</v>
+      </c>
+      <c r="I147">
+        <f>_xll.acq_vector_element($C$5,5*$E147+I$2)</f>
+        <v>0.72035564039833844</v>
+      </c>
+      <c r="J147">
+        <f>_xll.acq_vector_element($C$5,5*$E147+J$2)</f>
+        <v>0.67690585646778345</v>
+      </c>
+    </row>
+    <row r="148" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E148">
+        <v>145</v>
+      </c>
+      <c r="F148">
+        <f>_xll.acq_vector_element($C$5,5*$E148+F$2)</f>
+        <v>0.55248040799051523</v>
+      </c>
+      <c r="G148">
+        <f>_xll.acq_vector_element($C$5,5*$E148+G$2)</f>
+        <v>0.21550544514320791</v>
+      </c>
+      <c r="H148">
+        <f>_xll.acq_vector_element($C$5,5*$E148+H$2)</f>
+        <v>0.50496285571716726</v>
+      </c>
+      <c r="I148">
+        <f>_xll.acq_vector_element($C$5,5*$E148+I$2)</f>
+        <v>0.2780235952232033</v>
+      </c>
+      <c r="J148">
+        <f>_xll.acq_vector_element($C$5,5*$E148+J$2)</f>
+        <v>8.2719548372551799E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E149">
+        <v>146</v>
+      </c>
+      <c r="F149">
+        <f>_xll.acq_vector_element($C$5,5*$E149+F$2)</f>
+        <v>0.74176041991449893</v>
+      </c>
+      <c r="G149">
+        <f>_xll.acq_vector_element($C$5,5*$E149+G$2)</f>
+        <v>0.58060625521466136</v>
+      </c>
+      <c r="H149">
+        <f>_xll.acq_vector_element($C$5,5*$E149+H$2)</f>
+        <v>0.55973789561539888</v>
+      </c>
+      <c r="I149">
+        <f>_xll.acq_vector_element($C$5,5*$E149+I$2)</f>
+        <v>0.62893433147110045</v>
+      </c>
+      <c r="J149">
+        <f>_xll.acq_vector_element($C$5,5*$E149+J$2)</f>
+        <v>0.33483641338534653</v>
+      </c>
+    </row>
+    <row r="150" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E150">
+        <v>147</v>
+      </c>
+      <c r="F150">
+        <f>_xll.acq_vector_element($C$5,5*$E150+F$2)</f>
+        <v>0.58668129635043442</v>
+      </c>
+      <c r="G150">
+        <f>_xll.acq_vector_element($C$5,5*$E150+G$2)</f>
+        <v>0.54298877902328968</v>
+      </c>
+      <c r="H150">
+        <f>_xll.acq_vector_element($C$5,5*$E150+H$2)</f>
+        <v>0.72270194278098643</v>
+      </c>
+      <c r="I150">
+        <f>_xll.acq_vector_element($C$5,5*$E150+I$2)</f>
+        <v>0.69398470502346754</v>
+      </c>
+      <c r="J150">
+        <f>_xll.acq_vector_element($C$5,5*$E150+J$2)</f>
+        <v>8.4388432325795293E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E151">
+        <v>148</v>
+      </c>
+      <c r="F151">
+        <f>_xll.acq_vector_element($C$5,5*$E151+F$2)</f>
+        <v>0.91213211813010275</v>
+      </c>
+      <c r="G151">
+        <f>_xll.acq_vector_element($C$5,5*$E151+G$2)</f>
+        <v>0.98054736852645874</v>
+      </c>
+      <c r="H151">
+        <f>_xll.acq_vector_element($C$5,5*$E151+H$2)</f>
+        <v>0.58071321761235595</v>
+      </c>
+      <c r="I151">
+        <f>_xll.acq_vector_element($C$5,5*$E151+I$2)</f>
+        <v>0.12138278037309647</v>
+      </c>
+      <c r="J151">
+        <f>_xll.acq_vector_element($C$5,5*$E151+J$2)</f>
+        <v>0.2326863813214004</v>
+      </c>
+    </row>
+    <row r="152" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E152">
+        <v>149</v>
+      </c>
+      <c r="F152">
+        <f>_xll.acq_vector_element($C$5,5*$E152+F$2)</f>
+        <v>0.11154963774606586</v>
+      </c>
+      <c r="G152">
+        <f>_xll.acq_vector_element($C$5,5*$E152+G$2)</f>
+        <v>0.74669763282872736</v>
+      </c>
+      <c r="H152">
+        <f>_xll.acq_vector_element($C$5,5*$E152+H$2)</f>
+        <v>0.50580424536019564</v>
+      </c>
+      <c r="I152">
+        <f>_xll.acq_vector_element($C$5,5*$E152+I$2)</f>
+        <v>0.77776901936158538</v>
+      </c>
+      <c r="J152">
+        <f>_xll.acq_vector_element($C$5,5*$E152+J$2)</f>
+        <v>0.44498496106825769</v>
+      </c>
+    </row>
+    <row r="153" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E153">
+        <v>150</v>
+      </c>
+      <c r="F153">
+        <f>_xll.acq_vector_element($C$5,5*$E153+F$2)</f>
+        <v>0.20040132012218237</v>
+      </c>
+      <c r="G153">
+        <f>_xll.acq_vector_element($C$5,5*$E153+G$2)</f>
+        <v>0.18249983200803399</v>
+      </c>
+      <c r="H153">
+        <f>_xll.acq_vector_element($C$5,5*$E153+H$2)</f>
+        <v>0.82057421747595072</v>
+      </c>
+      <c r="I153">
+        <f>_xll.acq_vector_element($C$5,5*$E153+I$2)</f>
+        <v>0.42053876770660281</v>
+      </c>
+      <c r="J153">
+        <f>_xll.acq_vector_element($C$5,5*$E153+J$2)</f>
+        <v>0.46493484941311181</v>
+      </c>
+    </row>
+    <row r="154" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E154">
+        <v>151</v>
+      </c>
+      <c r="F154">
+        <f>_xll.acq_vector_element($C$5,5*$E154+F$2)</f>
+        <v>0.86890785093419254</v>
+      </c>
+      <c r="G154">
+        <f>_xll.acq_vector_element($C$5,5*$E154+G$2)</f>
+        <v>0.77976666367612779</v>
+      </c>
+      <c r="H154">
+        <f>_xll.acq_vector_element($C$5,5*$E154+H$2)</f>
+        <v>0.7557219595182687</v>
+      </c>
+      <c r="I154">
+        <f>_xll.acq_vector_element($C$5,5*$E154+I$2)</f>
+        <v>0.23747821990400553</v>
+      </c>
+      <c r="J154">
+        <f>_xll.acq_vector_element($C$5,5*$E154+J$2)</f>
+        <v>0.13630924699828029</v>
+      </c>
+    </row>
+    <row r="155" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E155">
+        <v>152</v>
+      </c>
+      <c r="F155">
+        <f>_xll.acq_vector_element($C$5,5*$E155+F$2)</f>
+        <v>0.33258026978000998</v>
+      </c>
+      <c r="G155">
+        <f>_xll.acq_vector_element($C$5,5*$E155+G$2)</f>
+        <v>0.17913373070769012</v>
+      </c>
+      <c r="H155">
+        <f>_xll.acq_vector_element($C$5,5*$E155+H$2)</f>
+        <v>0.95369712146930397</v>
+      </c>
+      <c r="I155">
+        <f>_xll.acq_vector_element($C$5,5*$E155+I$2)</f>
+        <v>0.55147060798481107</v>
+      </c>
+      <c r="J155">
+        <f>_xll.acq_vector_element($C$5,5*$E155+J$2)</f>
+        <v>0.65781507384963334</v>
+      </c>
+    </row>
+    <row r="156" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E156">
+        <v>153</v>
+      </c>
+      <c r="F156">
+        <f>_xll.acq_vector_element($C$5,5*$E156+F$2)</f>
+        <v>0.56232064636424184</v>
+      </c>
+      <c r="G156">
+        <f>_xll.acq_vector_element($C$5,5*$E156+G$2)</f>
+        <v>0.77287783194333315</v>
+      </c>
+      <c r="H156">
+        <f>_xll.acq_vector_element($C$5,5*$E156+H$2)</f>
+        <v>0.43148605478927493</v>
+      </c>
+      <c r="I156">
+        <f>_xll.acq_vector_element($C$5,5*$E156+I$2)</f>
+        <v>0.68837434705346823</v>
+      </c>
+      <c r="J156">
+        <f>_xll.acq_vector_element($C$5,5*$E156+J$2)</f>
+        <v>0.36056504095904529</v>
+      </c>
+    </row>
+    <row r="157" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E157">
+        <v>154</v>
+      </c>
+      <c r="F157">
+        <f>_xll.acq_vector_element($C$5,5*$E157+F$2)</f>
+        <v>0.20430411444976926</v>
+      </c>
+      <c r="G157">
+        <f>_xll.acq_vector_element($C$5,5*$E157+G$2)</f>
+        <v>0.51866089412942529</v>
+      </c>
+      <c r="H157">
+        <f>_xll.acq_vector_element($C$5,5*$E157+H$2)</f>
+        <v>0.47068875003606081</v>
+      </c>
+      <c r="I157">
+        <f>_xll.acq_vector_element($C$5,5*$E157+I$2)</f>
+        <v>0.41165849007666111</v>
+      </c>
+      <c r="J157">
+        <f>_xll.acq_vector_element($C$5,5*$E157+J$2)</f>
+        <v>0.80896387249231339</v>
+      </c>
+    </row>
+    <row r="158" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E158">
+        <v>155</v>
+      </c>
+      <c r="F158">
+        <f>_xll.acq_vector_element($C$5,5*$E158+F$2)</f>
+        <v>2.9456994729116559E-2</v>
+      </c>
+      <c r="G158">
+        <f>_xll.acq_vector_element($C$5,5*$E158+G$2)</f>
+        <v>0.67503512999974191</v>
+      </c>
+      <c r="H158">
+        <f>_xll.acq_vector_element($C$5,5*$E158+H$2)</f>
+        <v>5.3967559244483709E-2</v>
+      </c>
+      <c r="I158">
+        <f>_xll.acq_vector_element($C$5,5*$E158+I$2)</f>
+        <v>6.0278866440057755E-3</v>
+      </c>
+      <c r="J158">
+        <f>_xll.acq_vector_element($C$5,5*$E158+J$2)</f>
+        <v>0.11702945688739419</v>
+      </c>
+    </row>
+    <row r="159" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E159">
+        <v>156</v>
+      </c>
+      <c r="F159">
+        <f>_xll.acq_vector_element($C$5,5*$E159+F$2)</f>
+        <v>8.7407739832997322E-2</v>
+      </c>
+      <c r="G159">
+        <f>_xll.acq_vector_element($C$5,5*$E159+G$2)</f>
+        <v>0.62847058079205453</v>
+      </c>
+      <c r="H159">
+        <f>_xll.acq_vector_element($C$5,5*$E159+H$2)</f>
+        <v>0.34679471817798913</v>
+      </c>
+      <c r="I159">
+        <f>_xll.acq_vector_element($C$5,5*$E159+I$2)</f>
+        <v>0.42945962166413665</v>
+      </c>
+      <c r="J159">
+        <f>_xll.acq_vector_element($C$5,5*$E159+J$2)</f>
+        <v>0.9443655435461551</v>
+      </c>
+    </row>
+    <row r="160" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E160">
+        <v>157</v>
+      </c>
+      <c r="F160">
+        <f>_xll.acq_vector_element($C$5,5*$E160+F$2)</f>
+        <v>0.12910116231068969</v>
+      </c>
+      <c r="G160">
+        <f>_xll.acq_vector_element($C$5,5*$E160+G$2)</f>
+        <v>0.49119047820568085</v>
+      </c>
+      <c r="H160">
+        <f>_xll.acq_vector_element($C$5,5*$E160+H$2)</f>
+        <v>0.37163582909852266</v>
+      </c>
+      <c r="I160">
+        <f>_xll.acq_vector_element($C$5,5*$E160+I$2)</f>
+        <v>0.27017626888118684</v>
+      </c>
+      <c r="J160">
+        <f>_xll.acq_vector_element($C$5,5*$E160+J$2)</f>
+        <v>0.77401980292052031</v>
+      </c>
+    </row>
+    <row r="161" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E161">
+        <v>158</v>
+      </c>
+      <c r="F161">
+        <f>_xll.acq_vector_element($C$5,5*$E161+F$2)</f>
+        <v>0.3604237197432667</v>
+      </c>
+      <c r="G161">
+        <f>_xll.acq_vector_element($C$5,5*$E161+G$2)</f>
+        <v>0.7423863485455513</v>
+      </c>
+      <c r="H161">
+        <f>_xll.acq_vector_element($C$5,5*$E161+H$2)</f>
+        <v>0.210652633337304</v>
+      </c>
+      <c r="I161">
+        <f>_xll.acq_vector_element($C$5,5*$E161+I$2)</f>
+        <v>6.7536564543843269E-2</v>
+      </c>
+      <c r="J161">
+        <f>_xll.acq_vector_element($C$5,5*$E161+J$2)</f>
+        <v>0.42120005562901497</v>
+      </c>
+    </row>
+    <row r="162" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E162">
+        <v>159</v>
+      </c>
+      <c r="F162">
+        <f>_xll.acq_vector_element($C$5,5*$E162+F$2)</f>
+        <v>0.70682920631952584</v>
+      </c>
+      <c r="G162">
+        <f>_xll.acq_vector_element($C$5,5*$E162+G$2)</f>
+        <v>0.21803544019348919</v>
+      </c>
+      <c r="H162">
+        <f>_xll.acq_vector_element($C$5,5*$E162+H$2)</f>
+        <v>0.31981182238087058</v>
+      </c>
+      <c r="I162">
+        <f>_xll.acq_vector_element($C$5,5*$E162+I$2)</f>
+        <v>0.84575250721536577</v>
+      </c>
+      <c r="J162">
+        <f>_xll.acq_vector_element($C$5,5*$E162+J$2)</f>
+        <v>0.98050236841663718</v>
+      </c>
+    </row>
+    <row r="163" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E163">
+        <v>160</v>
+      </c>
+      <c r="F163">
+        <f>_xll.acq_vector_element($C$5,5*$E163+F$2)</f>
+        <v>0.4562706034630537</v>
+      </c>
+      <c r="G163">
+        <f>_xll.acq_vector_element($C$5,5*$E163+G$2)</f>
+        <v>0.15655755810439587</v>
+      </c>
+      <c r="H163">
+        <f>_xll.acq_vector_element($C$5,5*$E163+H$2)</f>
+        <v>0.27980201784521341</v>
+      </c>
+      <c r="I163">
+        <f>_xll.acq_vector_element($C$5,5*$E163+I$2)</f>
+        <v>0.20426319632679224</v>
+      </c>
+      <c r="J163">
+        <f>_xll.acq_vector_element($C$5,5*$E163+J$2)</f>
+        <v>0.93289164453744888</v>
+      </c>
+    </row>
+    <row r="164" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E164">
+        <v>161</v>
+      </c>
+      <c r="F164">
+        <f>_xll.acq_vector_element($C$5,5*$E164+F$2)</f>
+        <v>0.48372509726323187</v>
+      </c>
+      <c r="G164">
+        <f>_xll.acq_vector_element($C$5,5*$E164+G$2)</f>
+        <v>0.31435135216452181</v>
+      </c>
+      <c r="H164">
+        <f>_xll.acq_vector_element($C$5,5*$E164+H$2)</f>
+        <v>0.47783534601330757</v>
+      </c>
+      <c r="I164">
+        <f>_xll.acq_vector_element($C$5,5*$E164+I$2)</f>
+        <v>0.90971466316841543</v>
+      </c>
+      <c r="J164">
+        <f>_xll.acq_vector_element($C$5,5*$E164+J$2)</f>
+        <v>6.7744678584858775E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E165">
+        <v>162</v>
+      </c>
+      <c r="F165">
+        <f>_xll.acq_vector_element($C$5,5*$E165+F$2)</f>
+        <v>4.341809032484889E-2</v>
+      </c>
+      <c r="G165">
+        <f>_xll.acq_vector_element($C$5,5*$E165+G$2)</f>
+        <v>0.52412791107781231</v>
+      </c>
+      <c r="H165">
+        <f>_xll.acq_vector_element($C$5,5*$E165+H$2)</f>
+        <v>0.70711505901999772</v>
+      </c>
+      <c r="I165">
+        <f>_xll.acq_vector_element($C$5,5*$E165+I$2)</f>
+        <v>0.82371056545525789</v>
+      </c>
+      <c r="J165">
+        <f>_xll.acq_vector_element($C$5,5*$E165+J$2)</f>
+        <v>0.48388904263265431</v>
+      </c>
+    </row>
+    <row r="166" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E166">
+        <v>163</v>
+      </c>
+      <c r="F166">
+        <f>_xll.acq_vector_element($C$5,5*$E166+F$2)</f>
+        <v>0.42333086906000972</v>
+      </c>
+      <c r="G166">
+        <f>_xll.acq_vector_element($C$5,5*$E166+G$2)</f>
+        <v>0.44422106235288084</v>
+      </c>
+      <c r="H166">
+        <f>_xll.acq_vector_element($C$5,5*$E166+H$2)</f>
+        <v>0.58119017607532442</v>
+      </c>
+      <c r="I166">
+        <f>_xll.acq_vector_element($C$5,5*$E166+I$2)</f>
+        <v>3.6323345964774489E-2</v>
+      </c>
+      <c r="J166">
+        <f>_xll.acq_vector_element($C$5,5*$E166+J$2)</f>
+        <v>0.75228461297228932</v>
+      </c>
+    </row>
+    <row r="167" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E167">
+        <v>164</v>
+      </c>
+      <c r="F167">
+        <f>_xll.acq_vector_element($C$5,5*$E167+F$2)</f>
+        <v>4.0683188242837787E-2</v>
+      </c>
+      <c r="G167">
+        <f>_xll.acq_vector_element($C$5,5*$E167+G$2)</f>
+        <v>0.39554438693448901</v>
+      </c>
+      <c r="H167">
+        <f>_xll.acq_vector_element($C$5,5*$E167+H$2)</f>
+        <v>0.33275361475534737</v>
+      </c>
+      <c r="I167">
+        <f>_xll.acq_vector_element($C$5,5*$E167+I$2)</f>
+        <v>0.46583576244302094</v>
+      </c>
+      <c r="J167">
+        <f>_xll.acq_vector_element($C$5,5*$E167+J$2)</f>
+        <v>0.94711953867226839</v>
+      </c>
+    </row>
+    <row r="168" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E168">
+        <v>165</v>
+      </c>
+      <c r="F168">
+        <f>_xll.acq_vector_element($C$5,5*$E168+F$2)</f>
+        <v>0.79078102903440595</v>
+      </c>
+      <c r="G168">
+        <f>_xll.acq_vector_element($C$5,5*$E168+G$2)</f>
+        <v>0.6176599741447717</v>
+      </c>
+      <c r="H168">
+        <f>_xll.acq_vector_element($C$5,5*$E168+H$2)</f>
+        <v>0.80486584221944213</v>
+      </c>
+      <c r="I168">
+        <f>_xll.acq_vector_element($C$5,5*$E168+I$2)</f>
+        <v>0.3688748471904546</v>
+      </c>
+      <c r="J168">
+        <f>_xll.acq_vector_element($C$5,5*$E168+J$2)</f>
+        <v>0.1667737162206322</v>
+      </c>
+    </row>
+    <row r="169" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E169">
+        <v>166</v>
+      </c>
+      <c r="F169">
+        <f>_xll.acq_vector_element($C$5,5*$E169+F$2)</f>
+        <v>0.61197704006917775</v>
+      </c>
+      <c r="G169">
+        <f>_xll.acq_vector_element($C$5,5*$E169+G$2)</f>
+        <v>0.77011669217608869</v>
+      </c>
+      <c r="H169">
+        <f>_xll.acq_vector_element($C$5,5*$E169+H$2)</f>
+        <v>0.20613153954036534</v>
+      </c>
+      <c r="I169">
+        <f>_xll.acq_vector_element($C$5,5*$E169+I$2)</f>
+        <v>0.46935279876925051</v>
+      </c>
+      <c r="J169">
+        <f>_xll.acq_vector_element($C$5,5*$E169+J$2)</f>
+        <v>0.16506643686443567</v>
+      </c>
+    </row>
+    <row r="170" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E170">
+        <v>167</v>
+      </c>
+      <c r="F170">
+        <f>_xll.acq_vector_element($C$5,5*$E170+F$2)</f>
+        <v>0.92542108846828341</v>
+      </c>
+      <c r="G170">
+        <f>_xll.acq_vector_element($C$5,5*$E170+G$2)</f>
+        <v>0.36181726958602667</v>
+      </c>
+      <c r="H170">
+        <f>_xll.acq_vector_element($C$5,5*$E170+H$2)</f>
+        <v>0.33079165080562234</v>
+      </c>
+      <c r="I170">
+        <f>_xll.acq_vector_element($C$5,5*$E170+I$2)</f>
+        <v>0.86335335136391222</v>
+      </c>
+      <c r="J170">
+        <f>_xll.acq_vector_element($C$5,5*$E170+J$2)</f>
+        <v>0.30494204838760197</v>
+      </c>
+    </row>
+    <row r="171" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E171">
+        <v>168</v>
+      </c>
+      <c r="F171">
+        <f>_xll.acq_vector_element($C$5,5*$E171+F$2)</f>
+        <v>0.50940172513946891</v>
+      </c>
+      <c r="G171">
+        <f>_xll.acq_vector_element($C$5,5*$E171+G$2)</f>
+        <v>0.48422250268049538</v>
+      </c>
+      <c r="H171">
+        <f>_xll.acq_vector_element($C$5,5*$E171+H$2)</f>
+        <v>0.29690151079557836</v>
+      </c>
+      <c r="I171">
+        <f>_xll.acq_vector_element($C$5,5*$E171+I$2)</f>
+        <v>0.92490668292157352</v>
+      </c>
+      <c r="J171">
+        <f>_xll.acq_vector_element($C$5,5*$E171+J$2)</f>
+        <v>0.95025162980891764</v>
+      </c>
+    </row>
+    <row r="172" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E172">
+        <v>169</v>
+      </c>
+      <c r="F172">
+        <f>_xll.acq_vector_element($C$5,5*$E172+F$2)</f>
+        <v>0.14508926728740335</v>
+      </c>
+      <c r="G172">
+        <f>_xll.acq_vector_element($C$5,5*$E172+G$2)</f>
+        <v>0.81596608855761588</v>
+      </c>
+      <c r="H172">
+        <f>_xll.acq_vector_element($C$5,5*$E172+H$2)</f>
+        <v>0.68015705863945186</v>
+      </c>
+      <c r="I172">
+        <f>_xll.acq_vector_element($C$5,5*$E172+I$2)</f>
+        <v>0.32297394261695445</v>
+      </c>
+      <c r="J172">
+        <f>_xll.acq_vector_element($C$5,5*$E172+J$2)</f>
+        <v>0.80614360491745174</v>
+      </c>
+    </row>
+    <row r="173" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E173">
+        <v>170</v>
+      </c>
+      <c r="F173">
+        <f>_xll.acq_vector_element($C$5,5*$E173+F$2)</f>
+        <v>0.97209824062883854</v>
+      </c>
+      <c r="G173">
+        <f>_xll.acq_vector_element($C$5,5*$E173+G$2)</f>
+        <v>0.86728797922842205</v>
+      </c>
+      <c r="H173">
+        <f>_xll.acq_vector_element($C$5,5*$E173+H$2)</f>
+        <v>0.98735110205598176</v>
+      </c>
+      <c r="I173">
+        <f>_xll.acq_vector_element($C$5,5*$E173+I$2)</f>
+        <v>8.9100791839882731E-2</v>
+      </c>
+      <c r="J173">
+        <f>_xll.acq_vector_element($C$5,5*$E173+J$2)</f>
+        <v>0.40866013150662184</v>
+      </c>
+    </row>
+    <row r="174" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E174">
+        <v>171</v>
+      </c>
+      <c r="F174">
+        <f>_xll.acq_vector_element($C$5,5*$E174+F$2)</f>
+        <v>0.67553446954116225</v>
+      </c>
+      <c r="G174">
+        <f>_xll.acq_vector_element($C$5,5*$E174+G$2)</f>
+        <v>0.65592310368083417</v>
+      </c>
+      <c r="H174">
+        <f>_xll.acq_vector_element($C$5,5*$E174+H$2)</f>
+        <v>0.61240133410319686</v>
+      </c>
+      <c r="I174">
+        <f>_xll.acq_vector_element($C$5,5*$E174+I$2)</f>
+        <v>0.40565320057794452</v>
+      </c>
+      <c r="J174">
+        <f>_xll.acq_vector_element($C$5,5*$E174+J$2)</f>
+        <v>0.65205696178600192</v>
+      </c>
+    </row>
+    <row r="175" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E175">
+        <v>172</v>
+      </c>
+      <c r="F175">
+        <f>_xll.acq_vector_element($C$5,5*$E175+F$2)</f>
+        <v>0.25734811020083725</v>
+      </c>
+      <c r="G175">
+        <f>_xll.acq_vector_element($C$5,5*$E175+G$2)</f>
+        <v>5.7603219291195273E-2</v>
+      </c>
+      <c r="H175">
+        <f>_xll.acq_vector_element($C$5,5*$E175+H$2)</f>
+        <v>8.2652677083387971E-2</v>
+      </c>
+      <c r="I175">
+        <f>_xll.acq_vector_element($C$5,5*$E175+I$2)</f>
+        <v>0.38582245982252061</v>
+      </c>
+      <c r="J175">
+        <f>_xll.acq_vector_element($C$5,5*$E175+J$2)</f>
+        <v>0.26361034088768065</v>
+      </c>
+    </row>
+    <row r="176" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E176">
+        <v>173</v>
+      </c>
+      <c r="F176">
+        <f>_xll.acq_vector_element($C$5,5*$E176+F$2)</f>
+        <v>0.73322903132066131</v>
+      </c>
+      <c r="G176">
+        <f>_xll.acq_vector_element($C$5,5*$E176+G$2)</f>
+        <v>0.27147985389456153</v>
+      </c>
+      <c r="H176">
+        <f>_xll.acq_vector_element($C$5,5*$E176+H$2)</f>
+        <v>0.13585084257647395</v>
+      </c>
+      <c r="I176">
+        <f>_xll.acq_vector_element($C$5,5*$E176+I$2)</f>
+        <v>0.39863907638937235</v>
+      </c>
+      <c r="J176">
+        <f>_xll.acq_vector_element($C$5,5*$E176+J$2)</f>
+        <v>0.56708195642568171</v>
+      </c>
+    </row>
+    <row r="177" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E177">
+        <v>174</v>
+      </c>
+      <c r="F177">
+        <f>_xll.acq_vector_element($C$5,5*$E177+F$2)</f>
+        <v>0.18488603411242366</v>
+      </c>
+      <c r="G177">
+        <f>_xll.acq_vector_element($C$5,5*$E177+G$2)</f>
+        <v>2.315443754196167E-2</v>
+      </c>
+      <c r="H177">
+        <f>_xll.acq_vector_element($C$5,5*$E177+H$2)</f>
+        <v>0.95381840923801064</v>
+      </c>
+      <c r="I177">
+        <f>_xll.acq_vector_element($C$5,5*$E177+I$2)</f>
+        <v>1.7456704983487725E-2</v>
+      </c>
+      <c r="J177">
+        <f>_xll.acq_vector_element($C$5,5*$E177+J$2)</f>
+        <v>0.10287988628260791</v>
+      </c>
+    </row>
+    <row r="178" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E178">
+        <v>175</v>
+      </c>
+      <c r="F178">
+        <f>_xll.acq_vector_element($C$5,5*$E178+F$2)</f>
+        <v>0.47275939164683223</v>
+      </c>
+      <c r="G178">
+        <f>_xll.acq_vector_element($C$5,5*$E178+G$2)</f>
+        <v>0.62520853243768215</v>
+      </c>
+      <c r="H178">
+        <f>_xll.acq_vector_element($C$5,5*$E178+H$2)</f>
+        <v>0.84410265204496682</v>
+      </c>
+      <c r="I178">
+        <f>_xll.acq_vector_element($C$5,5*$E178+I$2)</f>
+        <v>0.44169738586060703</v>
+      </c>
+      <c r="J178">
+        <f>_xll.acq_vector_element($C$5,5*$E178+J$2)</f>
+        <v>0.88709809561260045</v>
+      </c>
+    </row>
+    <row r="179" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E179">
+        <v>176</v>
+      </c>
+      <c r="F179">
+        <f>_xll.acq_vector_element($C$5,5*$E179+F$2)</f>
+        <v>0.42351805116049945</v>
+      </c>
+      <c r="G179">
+        <f>_xll.acq_vector_element($C$5,5*$E179+G$2)</f>
+        <v>0.30063103325664997</v>
+      </c>
+      <c r="H179">
+        <f>_xll.acq_vector_element($C$5,5*$E179+H$2)</f>
+        <v>0.37199178128503263</v>
+      </c>
+      <c r="I179">
+        <f>_xll.acq_vector_element($C$5,5*$E179+I$2)</f>
+        <v>0.93876599869690835</v>
+      </c>
+      <c r="J179">
+        <f>_xll.acq_vector_element($C$5,5*$E179+J$2)</f>
+        <v>0.8683147095143795</v>
+      </c>
+    </row>
+    <row r="180" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E180">
+        <v>177</v>
+      </c>
+      <c r="F180">
+        <f>_xll.acq_vector_element($C$5,5*$E180+F$2)</f>
+        <v>0.58832417824305594</v>
+      </c>
+      <c r="G180">
+        <f>_xll.acq_vector_element($C$5,5*$E180+G$2)</f>
+        <v>0.28047698154114187</v>
+      </c>
+      <c r="H180">
+        <f>_xll.acq_vector_element($C$5,5*$E180+H$2)</f>
+        <v>9.8714769352227449E-2</v>
+      </c>
+      <c r="I180">
+        <f>_xll.acq_vector_element($C$5,5*$E180+I$2)</f>
+        <v>2.0576157374307513E-2</v>
+      </c>
+      <c r="J180">
+        <f>_xll.acq_vector_element($C$5,5*$E180+J$2)</f>
+        <v>9.6342520089820027E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E181">
+        <v>178</v>
+      </c>
+      <c r="F181">
+        <f>_xll.acq_vector_element($C$5,5*$E181+F$2)</f>
+        <v>0.91809701430611312</v>
+      </c>
+      <c r="G181">
+        <f>_xll.acq_vector_element($C$5,5*$E181+G$2)</f>
+        <v>0.56561104324646294</v>
+      </c>
+      <c r="H181">
+        <f>_xll.acq_vector_element($C$5,5*$E181+H$2)</f>
+        <v>0.86448027193546295</v>
+      </c>
+      <c r="I181">
+        <f>_xll.acq_vector_element($C$5,5*$E181+I$2)</f>
+        <v>0.75673868181183934</v>
+      </c>
+      <c r="J181">
+        <f>_xll.acq_vector_element($C$5,5*$E181+J$2)</f>
+        <v>0.27690179017372429</v>
+      </c>
+    </row>
+    <row r="182" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E182">
+        <v>179</v>
+      </c>
+      <c r="F182">
+        <f>_xll.acq_vector_element($C$5,5*$E182+F$2)</f>
+        <v>0.13910753163509071</v>
+      </c>
+      <c r="G182">
+        <f>_xll.acq_vector_element($C$5,5*$E182+G$2)</f>
+        <v>0.52348754880949855</v>
+      </c>
+      <c r="H182">
+        <f>_xll.acq_vector_element($C$5,5*$E182+H$2)</f>
+        <v>0.372474180534482</v>
+      </c>
+      <c r="I182">
+        <f>_xll.acq_vector_element($C$5,5*$E182+I$2)</f>
+        <v>0.10908819315955043</v>
+      </c>
+      <c r="J182">
+        <f>_xll.acq_vector_element($C$5,5*$E182+J$2)</f>
+        <v>0.98843246651813388</v>
+      </c>
+    </row>
+    <row r="183" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E183">
+        <v>180</v>
+      </c>
+      <c r="F183">
+        <f>_xll.acq_vector_element($C$5,5*$E183+F$2)</f>
+        <v>9.3427064130082726E-2</v>
+      </c>
+      <c r="G183">
+        <f>_xll.acq_vector_element($C$5,5*$E183+G$2)</f>
+        <v>0.90281136869452894</v>
+      </c>
+      <c r="H183">
+        <f>_xll.acq_vector_element($C$5,5*$E183+H$2)</f>
+        <v>0.83746611163951457</v>
+      </c>
+      <c r="I183">
+        <f>_xll.acq_vector_element($C$5,5*$E183+I$2)</f>
+        <v>0.35097406967543066</v>
+      </c>
+      <c r="J183">
+        <f>_xll.acq_vector_element($C$5,5*$E183+J$2)</f>
+        <v>0.41026571486145258</v>
+      </c>
+    </row>
+    <row r="184" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E184">
+        <v>181</v>
+      </c>
+      <c r="F184">
+        <f>_xll.acq_vector_element($C$5,5*$E184+F$2)</f>
+        <v>0.48843214195221663</v>
+      </c>
+      <c r="G184">
+        <f>_xll.acq_vector_element($C$5,5*$E184+G$2)</f>
+        <v>0.66171654057689011</v>
+      </c>
+      <c r="H184">
+        <f>_xll.acq_vector_element($C$5,5*$E184+H$2)</f>
+        <v>0.6059743242803961</v>
+      </c>
+      <c r="I184">
+        <f>_xll.acq_vector_element($C$5,5*$E184+I$2)</f>
+        <v>0.94320056401193142</v>
+      </c>
+      <c r="J184">
+        <f>_xll.acq_vector_element($C$5,5*$E184+J$2)</f>
+        <v>7.1345916949212551E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E185">
+        <v>182</v>
+      </c>
+      <c r="F185">
+        <f>_xll.acq_vector_element($C$5,5*$E185+F$2)</f>
+        <v>0.24513059295713902</v>
+      </c>
+      <c r="G185">
+        <f>_xll.acq_vector_element($C$5,5*$E185+G$2)</f>
+        <v>6.267544231377542E-2</v>
+      </c>
+      <c r="H185">
+        <f>_xll.acq_vector_element($C$5,5*$E185+H$2)</f>
+        <v>1.3159831054508686E-2</v>
+      </c>
+      <c r="I185">
+        <f>_xll.acq_vector_element($C$5,5*$E185+I$2)</f>
+        <v>0.65672272490337491</v>
+      </c>
+      <c r="J185">
+        <f>_xll.acq_vector_element($C$5,5*$E185+J$2)</f>
+        <v>2.414840622805059E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E186">
+        <v>183</v>
+      </c>
+      <c r="F186">
+        <f>_xll.acq_vector_element($C$5,5*$E186+F$2)</f>
+        <v>0.15912000392563641</v>
+      </c>
+      <c r="G186">
+        <f>_xll.acq_vector_element($C$5,5*$E186+G$2)</f>
+        <v>0.70938568958081305</v>
+      </c>
+      <c r="H186">
+        <f>_xll.acq_vector_element($C$5,5*$E186+H$2)</f>
+        <v>0.91006062855012715</v>
+      </c>
+      <c r="I186">
+        <f>_xll.acq_vector_element($C$5,5*$E186+I$2)</f>
+        <v>0.92455188324674964</v>
+      </c>
+      <c r="J186">
+        <f>_xll.acq_vector_element($C$5,5*$E186+J$2)</f>
+        <v>0.39509839983657002</v>
+      </c>
+    </row>
+    <row r="187" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E187">
+        <v>184</v>
+      </c>
+      <c r="F187">
+        <f>_xll.acq_vector_element($C$5,5*$E187+F$2)</f>
+        <v>0.46733027091249824</v>
+      </c>
+      <c r="G187">
+        <f>_xll.acq_vector_element($C$5,5*$E187+G$2)</f>
+        <v>0.46940726530738175</v>
+      </c>
+      <c r="H187">
+        <f>_xll.acq_vector_element($C$5,5*$E187+H$2)</f>
+        <v>0.37510914634913206</v>
+      </c>
+      <c r="I187">
+        <f>_xll.acq_vector_element($C$5,5*$E187+I$2)</f>
+        <v>0.60966448718681931</v>
+      </c>
+      <c r="J187">
+        <f>_xll.acq_vector_element($C$5,5*$E187+J$2)</f>
+        <v>0.54286042368039489</v>
+      </c>
+    </row>
+    <row r="188" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E188">
+        <v>185</v>
+      </c>
+      <c r="F188">
+        <f>_xll.acq_vector_element($C$5,5*$E188+F$2)</f>
+        <v>0.82131634280085564</v>
+      </c>
+      <c r="G188">
+        <f>_xll.acq_vector_element($C$5,5*$E188+G$2)</f>
+        <v>0.85891683748923242</v>
+      </c>
+      <c r="H188">
+        <f>_xll.acq_vector_element($C$5,5*$E188+H$2)</f>
+        <v>0.48112600739113986</v>
+      </c>
+      <c r="I188">
+        <f>_xll.acq_vector_element($C$5,5*$E188+I$2)</f>
+        <v>0.65215387823991477</v>
+      </c>
+      <c r="J188">
+        <f>_xll.acq_vector_element($C$5,5*$E188+J$2)</f>
+        <v>0.24688736768439412</v>
+      </c>
+    </row>
+    <row r="189" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E189">
+        <v>186</v>
+      </c>
+      <c r="F189">
+        <f>_xll.acq_vector_element($C$5,5*$E189+F$2)</f>
+        <v>0.23297989997081459</v>
+      </c>
+      <c r="G189">
+        <f>_xll.acq_vector_element($C$5,5*$E189+G$2)</f>
+        <v>0.40234705107286572</v>
+      </c>
+      <c r="H189">
+        <f>_xll.acq_vector_element($C$5,5*$E189+H$2)</f>
+        <v>0.7745802050922066</v>
+      </c>
+      <c r="I189">
+        <f>_xll.acq_vector_element($C$5,5*$E189+I$2)</f>
+        <v>0.20452672895044088</v>
+      </c>
+      <c r="J189">
+        <f>_xll.acq_vector_element($C$5,5*$E189+J$2)</f>
+        <v>0.13461349764838815</v>
+      </c>
+    </row>
+    <row r="190" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E190">
+        <v>187</v>
+      </c>
+      <c r="F190">
+        <f>_xll.acq_vector_element($C$5,5*$E190+F$2)</f>
+        <v>0.77063506632111967</v>
+      </c>
+      <c r="G190">
+        <f>_xll.acq_vector_element($C$5,5*$E190+G$2)</f>
+        <v>0.16555997100658715</v>
+      </c>
+      <c r="H190">
+        <f>_xll.acq_vector_element($C$5,5*$E190+H$2)</f>
+        <v>0.11895434674806893</v>
+      </c>
+      <c r="I190">
+        <f>_xll.acq_vector_element($C$5,5*$E190+I$2)</f>
+        <v>0.6126822791993618</v>
+      </c>
+      <c r="J190">
+        <f>_xll.acq_vector_element($C$5,5*$E190+J$2)</f>
+        <v>0.98447604780085385</v>
+      </c>
+    </row>
+    <row r="191" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E191">
+        <v>188</v>
+      </c>
+      <c r="F191">
+        <f>_xll.acq_vector_element($C$5,5*$E191+F$2)</f>
+        <v>0.23878341075032949</v>
+      </c>
+      <c r="G191">
+        <f>_xll.acq_vector_element($C$5,5*$E191+G$2)</f>
+        <v>0.25656520947813988</v>
+      </c>
+      <c r="H191">
+        <f>_xll.acq_vector_element($C$5,5*$E191+H$2)</f>
+        <v>0.70477855135686696</v>
+      </c>
+      <c r="I191">
+        <f>_xll.acq_vector_element($C$5,5*$E191+I$2)</f>
+        <v>0.3960432771127671</v>
+      </c>
+      <c r="J191">
+        <f>_xll.acq_vector_element($C$5,5*$E191+J$2)</f>
+        <v>0.3495185247156769</v>
+      </c>
+    </row>
+    <row r="192" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E192">
+        <v>189</v>
+      </c>
+      <c r="F192">
+        <f>_xll.acq_vector_element($C$5,5*$E192+F$2)</f>
+        <v>0.64045419846661389</v>
+      </c>
+      <c r="G192">
+        <f>_xll.acq_vector_element($C$5,5*$E192+G$2)</f>
+        <v>0.2774239587597549</v>
+      </c>
+      <c r="H192">
+        <f>_xll.acq_vector_element($C$5,5*$E192+H$2)</f>
+        <v>0.60495412419550121</v>
+      </c>
+      <c r="I192">
+        <f>_xll.acq_vector_element($C$5,5*$E192+I$2)</f>
+        <v>0.99891840456984937</v>
+      </c>
+      <c r="J192">
+        <f>_xll.acq_vector_element($C$5,5*$E192+J$2)</f>
+        <v>0.90705052041448653</v>
+      </c>
+    </row>
+    <row r="193" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E193">
+        <v>190</v>
+      </c>
+      <c r="F193">
+        <f>_xll.acq_vector_element($C$5,5*$E193+F$2)</f>
+        <v>4.0616120444610715E-2</v>
+      </c>
+      <c r="G193">
+        <f>_xll.acq_vector_element($C$5,5*$E193+G$2)</f>
+        <v>0.95840145624242723</v>
+      </c>
+      <c r="H193">
+        <f>_xll.acq_vector_element($C$5,5*$E193+H$2)</f>
+        <v>0.6458225236274302</v>
+      </c>
+      <c r="I193">
+        <f>_xll.acq_vector_element($C$5,5*$E193+I$2)</f>
+        <v>0.55153805669397116</v>
+      </c>
+      <c r="J193">
+        <f>_xll.acq_vector_element($C$5,5*$E193+J$2)</f>
+        <v>3.8699587807059288E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E194">
+        <v>191</v>
+      </c>
+      <c r="F194">
+        <f>_xll.acq_vector_element($C$5,5*$E194+F$2)</f>
+        <v>0.37488629622384906</v>
+      </c>
+      <c r="G194">
+        <f>_xll.acq_vector_element($C$5,5*$E194+G$2)</f>
+        <v>0.76021025655791163</v>
+      </c>
+      <c r="H194">
+        <f>_xll.acq_vector_element($C$5,5*$E194+H$2)</f>
+        <v>0.62018274934962392</v>
+      </c>
+      <c r="I194">
+        <f>_xll.acq_vector_element($C$5,5*$E194+I$2)</f>
+        <v>0.23008995805867016</v>
+      </c>
+      <c r="J194">
+        <f>_xll.acq_vector_element($C$5,5*$E194+J$2)</f>
+        <v>0.33103716699406505</v>
+      </c>
+    </row>
+    <row r="195" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E195">
+        <v>192</v>
+      </c>
+      <c r="F195">
+        <f>_xll.acq_vector_element($C$5,5*$E195+F$2)</f>
+        <v>8.9831867488101125E-2</v>
+      </c>
+      <c r="G195">
+        <f>_xll.acq_vector_element($C$5,5*$E195+G$2)</f>
+        <v>0.10045071691274643</v>
+      </c>
+      <c r="H195">
+        <f>_xll.acq_vector_element($C$5,5*$E195+H$2)</f>
+        <v>0.6484497154597193</v>
+      </c>
+      <c r="I195">
+        <f>_xll.acq_vector_element($C$5,5*$E195+I$2)</f>
+        <v>5.4686944931745529E-2</v>
+      </c>
+      <c r="J195">
+        <f>_xll.acq_vector_element($C$5,5*$E195+J$2)</f>
+        <v>0.73260121210478246</v>
+      </c>
+    </row>
+    <row r="196" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E196">
+        <v>193</v>
+      </c>
+      <c r="F196">
+        <f>_xll.acq_vector_element($C$5,5*$E196+F$2)</f>
+        <v>0.91509116603992879</v>
+      </c>
+      <c r="G196">
+        <f>_xll.acq_vector_element($C$5,5*$E196+G$2)</f>
+        <v>0.67809531441889703</v>
+      </c>
+      <c r="H196">
+        <f>_xll.acq_vector_element($C$5,5*$E196+H$2)</f>
+        <v>0.53585174051113427</v>
+      </c>
+      <c r="I196">
+        <f>_xll.acq_vector_element($C$5,5*$E196+I$2)</f>
+        <v>5.1900948164984584E-2</v>
+      </c>
+      <c r="J196">
+        <f>_xll.acq_vector_element($C$5,5*$E196+J$2)</f>
+        <v>0.20540141500532627</v>
+      </c>
+    </row>
+    <row r="197" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E197">
+        <v>194</v>
+      </c>
+      <c r="F197">
+        <f>_xll.acq_vector_element($C$5,5*$E197+F$2)</f>
+        <v>0.29430694156326354</v>
+      </c>
+      <c r="G197">
+        <f>_xll.acq_vector_element($C$5,5*$E197+G$2)</f>
+        <v>0.56689855409786105</v>
+      </c>
+      <c r="H197">
+        <f>_xll.acq_vector_element($C$5,5*$E197+H$2)</f>
+        <v>0.45108834025450051</v>
+      </c>
+      <c r="I197">
+        <f>_xll.acq_vector_element($C$5,5*$E197+I$2)</f>
+        <v>0.95690902462229133</v>
+      </c>
+      <c r="J197">
+        <f>_xll.acq_vector_element($C$5,5*$E197+J$2)</f>
+        <v>0.28710328950546682</v>
+      </c>
+    </row>
+    <row r="198" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E198">
+        <v>195</v>
+      </c>
+      <c r="F198">
+        <f>_xll.acq_vector_element($C$5,5*$E198+F$2)</f>
+        <v>0.24828189238905907</v>
+      </c>
+      <c r="G198">
+        <f>_xll.acq_vector_element($C$5,5*$E198+G$2)</f>
+        <v>0.81051345681771636</v>
+      </c>
+      <c r="H198">
+        <f>_xll.acq_vector_element($C$5,5*$E198+H$2)</f>
+        <v>0.61403654236346483</v>
+      </c>
+      <c r="I198">
+        <f>_xll.acq_vector_element($C$5,5*$E198+I$2)</f>
+        <v>0.13111510523594916</v>
+      </c>
+      <c r="J198">
+        <f>_xll.acq_vector_element($C$5,5*$E198+J$2)</f>
+        <v>0.52007607091218233</v>
+      </c>
+    </row>
+    <row r="199" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E199">
+        <v>196</v>
+      </c>
+      <c r="F199">
+        <f>_xll.acq_vector_element($C$5,5*$E199+F$2)</f>
+        <v>0.61217936174944043</v>
+      </c>
+      <c r="G199">
+        <f>_xll.acq_vector_element($C$5,5*$E199+G$2)</f>
+        <v>5.4601486306637526E-2</v>
+      </c>
+      <c r="H199">
+        <f>_xll.acq_vector_element($C$5,5*$E199+H$2)</f>
+        <v>0.9882149463519454</v>
+      </c>
+      <c r="I199">
+        <f>_xll.acq_vector_element($C$5,5*$E199+I$2)</f>
+        <v>0.50932490127161145</v>
+      </c>
+      <c r="J199">
+        <f>_xll.acq_vector_element($C$5,5*$E199+J$2)</f>
+        <v>0.90255653881467879</v>
+      </c>
+    </row>
+    <row r="200" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E200">
+        <v>197</v>
+      </c>
+      <c r="F200">
+        <f>_xll.acq_vector_element($C$5,5*$E200+F$2)</f>
+        <v>2.2844895720481873E-3</v>
+      </c>
+      <c r="G200">
+        <f>_xll.acq_vector_element($C$5,5*$E200+G$2)</f>
+        <v>0.22215706692077219</v>
+      </c>
+      <c r="H200">
+        <f>_xll.acq_vector_element($C$5,5*$E200+H$2)</f>
+        <v>0.18590397643856704</v>
+      </c>
+      <c r="I200">
+        <f>_xll.acq_vector_element($C$5,5*$E200+I$2)</f>
+        <v>8.1889098510146141E-5</v>
+      </c>
+      <c r="J200">
+        <f>_xll.acq_vector_element($C$5,5*$E200+J$2)</f>
+        <v>0.76945782103575766</v>
+      </c>
+    </row>
+    <row r="201" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E201">
+        <v>198</v>
+      </c>
+      <c r="F201">
+        <f>_xll.acq_vector_element($C$5,5*$E201+F$2)</f>
+        <v>0.98059733980335295</v>
+      </c>
+      <c r="G201">
+        <f>_xll.acq_vector_element($C$5,5*$E201+G$2)</f>
+        <v>0.33439899166114628</v>
+      </c>
+      <c r="H201">
+        <f>_xll.acq_vector_element($C$5,5*$E201+H$2)</f>
+        <v>0.88271298515610397</v>
+      </c>
+      <c r="I201">
+        <f>_xll.acq_vector_element($C$5,5*$E201+I$2)</f>
+        <v>0.28218079125508666</v>
+      </c>
+      <c r="J201">
+        <f>_xll.acq_vector_element($C$5,5*$E201+J$2)</f>
+        <v>0.91947246692143381</v>
+      </c>
+    </row>
+    <row r="202" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E202">
+        <v>199</v>
+      </c>
+      <c r="F202">
+        <f>_xll.acq_vector_element($C$5,5*$E202+F$2)</f>
+        <v>0.38904867833480239</v>
+      </c>
+      <c r="G202">
+        <f>_xll.acq_vector_element($C$5,5*$E202+G$2)</f>
+        <v>0.41550355101935565</v>
+      </c>
+      <c r="H202">
+        <f>_xll.acq_vector_element($C$5,5*$E202+H$2)</f>
+        <v>0.56935965572483838</v>
+      </c>
+      <c r="I202">
+        <f>_xll.acq_vector_element($C$5,5*$E202+I$2)</f>
+        <v>0.74461546493694186</v>
+      </c>
+      <c r="J202">
+        <f>_xll.acq_vector_element($C$5,5*$E202+J$2)</f>
+        <v>0.56434643105603755</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C11"/>
   <sheetViews>
